--- a/Resultados_Anonimizador_Hibrido_v3.xlsx
+++ b/Resultados_Anonimizador_Hibrido_v3.xlsx
@@ -1427,7 +1427,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3">
@@ -1442,7 +1442,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4">
@@ -1457,7 +1457,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5">
@@ -1472,7 +1472,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.4545454545454545</v>
+        <v>0.5151515151515151</v>
       </c>
     </row>
     <row r="6">
@@ -1487,7 +1487,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.3658536585365854</v>
+        <v>0.4146341463414634</v>
       </c>
     </row>
     <row r="7">
@@ -1502,7 +1502,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.4054054054054054</v>
+        <v>0.4594594594594595</v>
       </c>
     </row>
     <row r="8">
@@ -3270,10 +3270,10 @@
         <v>9</v>
       </c>
       <c r="B27" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C27" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3282,7 +3282,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>C/Alcalá 220</t>
+          <t>C/ Alcalá 220</t>
         </is>
       </c>
     </row>
@@ -3459,7 +3459,7 @@
         <v>13</v>
       </c>
       <c r="B36" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C36" t="n">
         <v>61</v>
@@ -3471,7 +3471,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2026-03-03 00:00:00</t>
+          <t>03/03/2026</t>
         </is>
       </c>
     </row>
@@ -3588,7 +3588,7 @@
         <v>53</v>
       </c>
       <c r="C42" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3597,7 +3597,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>05/05/2025</t>
         </is>
       </c>
     </row>
@@ -4686,7 +4686,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>UNRESOLVED</t>
+          <t>REPAIRED_ADDR_NOACC</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -4696,10 +4696,10 @@
         <v>50</v>
       </c>
       <c r="G27" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H27" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
@@ -4708,7 +4708,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>e: C/ Alcalá 2</t>
+          <t>C/ Alcalá 220</t>
         </is>
       </c>
     </row>
@@ -5046,7 +5046,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>UNRESOLVED</t>
+          <t>REPAIRED_DATE</t>
         </is>
       </c>
       <c r="E36" t="n">
@@ -5056,7 +5056,7 @@
         <v>61</v>
       </c>
       <c r="G36" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H36" t="n">
         <v>61</v>
@@ -5068,7 +5068,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>3/03/2026</t>
+          <t>03/03/2026</t>
         </is>
       </c>
     </row>
@@ -5286,7 +5286,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>UNRESOLVED</t>
+          <t>REPAIRED_DATE</t>
         </is>
       </c>
       <c r="E42" t="n">
@@ -5299,7 +5299,7 @@
         <v>53</v>
       </c>
       <c r="H42" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
@@ -5308,7 +5308,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>05/05/202</t>
+          <t>05/05/2025</t>
         </is>
       </c>
     </row>
@@ -6336,7 +6336,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J60"/>
+  <dimension ref="A1:J58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6398,36 +6398,36 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>Fecha de alta</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>FECHA_ALTA</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>10.0.0.55</t>
+          <t>10/12/2025</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>FECHA_ALTA</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>FECHA_ALTA</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>10.0.0.55</t>
+          <t>10/12/2025</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -6448,36 +6448,36 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fecha de alta</t>
+          <t>fECHA</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>FECHA_ALTA</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>10/12/2025</t>
+          <t>03/03/2026</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>FECHA_ALTA</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>FECHA_ALTA</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>10/12/2025</t>
+          <t>03/03/2026</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -6498,36 +6498,36 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Nombre Paciente</t>
+          <t>Hospital</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Marta Ruiz</t>
+          <t>Hospital Virgen del Mar</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Marta Ruiz</t>
+          <t>Hospital Virgen del Mar</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -6548,36 +6548,36 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Hospital</t>
+          <t>Email</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>EMAIL</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Hospital La Paz</t>
+          <t>juan.perez@gmail.com</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>EMAIL</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>EMAIL</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Hospital La Paz</t>
+          <t>juan.perez@gmail.com</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -6598,36 +6598,36 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>DNI/NIF</t>
+          <t>Nombre Paciente</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>DNI_NIF</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>12345678A</t>
+          <t>María López</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>DNI_NIF</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>DNI_NIF</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>12345678A</t>
+          <t>María López</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -6648,36 +6648,36 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>Email</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>EMAIL</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>192.168.1.10</t>
+          <t>roberto.san@outlook.es</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>EMAIL</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>EMAIL</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>192.168.1.10</t>
+          <t>roberto.san@outlook.es</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -6698,36 +6698,36 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Nombre Paciente</t>
+          <t>Teléfono</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Ana Martínez</t>
+          <t>912 556 789</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Ana Martínez</t>
+          <t>912 556 789</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -6748,36 +6748,36 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Email</t>
+          <t>Hospital</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>roberto.san@outlook.es</t>
+          <t>Clínica Santa María</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>roberto.san@outlook.es</t>
+          <t>Clínica Santa María</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -6798,36 +6798,36 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Hospitl</t>
+          <t>Nombre Paciente</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Centro Médico Norte</t>
+          <t>Marta Ruiz</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Centro Médico Norte</t>
+          <t>Marta Ruiz</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -6848,36 +6848,36 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Hospital</t>
+          <t>IP</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>IP</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Hospital Virgen del Mar</t>
+          <t>192.168.1.10</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>IP</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>IP</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Hospital Virgen del Mar</t>
+          <t>192.168.1.10</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -6898,36 +6898,36 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Emali</t>
+          <t>Nombre Paciente</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>l.herrera@hospital.com</t>
+          <t>Ana Martínez</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>l.herrera@hospital.com</t>
+          <t>Ana Martínez</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -6948,36 +6948,36 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Teléfono</t>
+          <t>DNI/NIF</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>DNI_NIF</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>912 556 789</t>
+          <t>12345678A</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>DNI_NIF</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>DNI_NIF</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>912 556 789</t>
+          <t>12345678A</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -6998,36 +6998,36 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Email</t>
+          <t>IP</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>IP</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>juan.perez@gmail.com</t>
+          <t>10.0.0.55</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>IP</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>IP</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>juan.perez@gmail.com</t>
+          <t>10.0.0.55</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -7048,36 +7048,36 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Hospital</t>
+          <t>Emali</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>EMAIL</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Clínica Santa María</t>
+          <t>l.herrera@hospital.com</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>EMAIL</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>EMAIL</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Clínica Santa María</t>
+          <t>l.herrera@hospital.com</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -7098,36 +7098,36 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Nombre Paciente</t>
+          <t>Hospitl</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>María López</t>
+          <t>Centro Médico Norte</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>María López</t>
+          <t>Centro Médico Norte</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -7148,38 +7148,46 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ID Dispositivo</t>
+          <t>Fecha</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>ID DISPOSITIVO</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>DEV-ABC-123</t>
+          <t>05/05/2025</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
+          <t>FECHA</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>FECHA</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>05/05/2025</t>
+        </is>
+      </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>✗</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>FN</t>
+          <t>TP</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -7190,38 +7198,46 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Fecha</t>
+          <t>Hospital</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>Hospital La Paz</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
+          <t>HOSPITAL</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>HOSPITAL</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Hospital La Paz</t>
+        </is>
+      </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>✗</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>FN</t>
+          <t>TP</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -7274,21 +7290,21 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>NªSeguro Médico</t>
+          <t>Ciudad</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>INSURANCE_ID</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>INS-145-88</t>
+          <t>Madrid</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -7316,21 +7332,21 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Dirección</t>
+          <t>Fecha Ingreso</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>FECHA_INGRESO</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>C/Alcalá 220</t>
+          <t>22/11/2025</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -7358,21 +7374,21 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>NªHistoría clínica</t>
+          <t>Nombre Profesional</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>NOMBRE_PROFESIONAL</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>MRN-556677</t>
+          <t>Dr. Luis Herrera</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -7400,21 +7416,21 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Nombre Paciente</t>
+          <t>Teléfono</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Juan Pérez</t>
+          <t>+34 722 334 112</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -7442,21 +7458,21 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Teléfono</t>
+          <t>Código Postal</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>+34 722 334 112</t>
+          <t>28013</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -7488,17 +7504,17 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Fecha Ingreso</t>
+          <t>Nombre de Paciente</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>FECHA_INGRESO</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>22/11/2025</t>
+          <t>Roberto Sánchez</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -7526,21 +7542,21 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Código Postal</t>
+          <t>Edad</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>EDAD</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>28027</t>
+          <t>52</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -7568,21 +7584,21 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Nº Historia Clínica</t>
+          <t>ID Dispositivo</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>ID DISPOSITIVO</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>HC-0099123</t>
+          <t>DEV-XYZ-99</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -7610,21 +7626,21 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Fecha Nacimiento</t>
+          <t>Dirección</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>FECHA_NACIMIENTO</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>1990-08-06 00:00:00</t>
+          <t>C/ Alcalá 220</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -7652,21 +7668,21 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Edad</t>
+          <t>NªHistoría clínica</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>EDAD</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>MRN-556677</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -7694,21 +7710,21 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Fecha de ingreso</t>
+          <t>Dirección</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>FECHA_INGRESO</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>03/12/2025</t>
+          <t>C/ Mayor 15, 3B</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -7736,7 +7752,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -7778,21 +7794,21 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Pasaporte</t>
+          <t>NªSeguro Médico</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>PASAPORTE</t>
+          <t>INSURANCE_ID</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>XK987654</t>
+          <t>INS-145-88</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -7820,21 +7836,21 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Código Postal</t>
+          <t>Fecha de ingreso</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>FECHA_INGRESO</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>28013</t>
+          <t>15/01/2026</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -7862,21 +7878,21 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Ciudad</t>
+          <t>Nombre Paciente</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Madrid</t>
+          <t>Juan Pérez</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -7904,21 +7920,21 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Edad</t>
+          <t>Pasaporte</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>EDAD</t>
+          <t>PASAPORTE</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>XK987654</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -7946,21 +7962,21 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Nombre de Paciente</t>
+          <t>Nombre Profesional</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>NOMBRE_PROFESIONAL</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Roberto Sánchez</t>
+          <t>Dra. Elena Torres</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -7992,17 +8008,17 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Dirección</t>
+          <t>Edad</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>EDAD</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>C/ Mayor 15, 3B</t>
+          <t>45</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -8030,7 +8046,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -8044,7 +8060,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>15/01/2026</t>
+          <t>03/12/2025</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -8072,21 +8088,21 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>fECHA</t>
+          <t>Nº Historia Clínica</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2026-03-03 00:00:00</t>
+          <t>HC-0099123</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -8114,21 +8130,21 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Nombre Profesional</t>
+          <t>Código Postal</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>NOMBRE_PROFESIONAL</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Dra. Elena Torres</t>
+          <t>28027</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -8156,7 +8172,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -8170,7 +8186,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>DEV-XYZ-99</t>
+          <t>DEV-ABC-123</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -8198,21 +8214,21 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Nombre Profesional</t>
+          <t>Fecha Nacimiento</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>NOMBRE_PROFESIONAL</t>
+          <t>FECHA_NACIMIENTO</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Dr. Luis Herrera</t>
+          <t>1990-08-06 00:00:00</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -8240,7 +8256,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -8251,17 +8267,17 @@
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr">
         <is>
-          <t>EDAD</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>EDAD</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>52 años</t>
+          <t>03/12/2025</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -8282,7 +8298,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -8293,17 +8309,17 @@
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>C/ Mayor 15, 3B, 28013 Madrid</t>
+          <t>hospital</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -8324,7 +8340,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -8335,17 +8351,17 @@
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>NOMBRE_PROFESIONAL</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>NOMBRE_PROFESIONAL</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t xml:space="preserve">34 600 123 123 </t>
+          <t>Luis Herrera</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -8366,7 +8382,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -8377,17 +8393,17 @@
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr">
         <is>
-          <t>NOMBRE_PROFESIONAL</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>NOMBRE_PROFESIONAL</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Juan Pérez</t>
+          <t xml:space="preserve">34 600 123 123 </t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -8408,7 +8424,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -8429,7 +8445,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Luis Herrera</t>
+          <t>Juan Pérez</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -8450,7 +8466,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -8461,17 +8477,17 @@
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>EDAD</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>EDAD</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>03/12/2025</t>
+          <t>45 años</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -8492,7 +8508,7 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -8503,17 +8519,17 @@
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t xml:space="preserve">34 722 334 112 </t>
+          <t>C/ Alcalá 220, 28027 Madrid</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -8534,7 +8550,7 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -8545,17 +8561,17 @@
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>EDAD</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>EDAD</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>hospital</t>
+          <t>52 años</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -8576,7 +8592,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -8587,17 +8603,17 @@
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>05/05/2025</t>
+          <t>145-88</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -8618,7 +8634,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -8629,17 +8645,17 @@
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>NOMBRE_PROFESIONAL</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>NOMBRE_PROFESIONAL</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>145-88</t>
+          <t>Roberto Sánchez</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -8660,7 +8676,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -8671,17 +8687,17 @@
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>03/03/2026</t>
+          <t>C/ Mayor 15, 3B, 28013 Madrid</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -8702,7 +8718,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -8713,17 +8729,17 @@
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr">
         <is>
-          <t>EDAD</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>EDAD</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>45 años</t>
+          <t xml:space="preserve">34 722 334 112 </t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -8744,7 +8760,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -8755,17 +8771,17 @@
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>NOMBRE_PROFESIONAL</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>NOMBRE_PROFESIONAL</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>08/06/1990</t>
+          <t>Elena Torres</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -8786,7 +8802,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -8797,17 +8813,17 @@
       <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr">
         <is>
-          <t>NOMBRE_PROFESIONAL</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>NOMBRE_PROFESIONAL</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Roberto Sánchez</t>
+          <t>08/06/1990</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -8828,7 +8844,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -8849,7 +8865,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>22/11/2025</t>
+          <t>15/01/2026</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -8870,7 +8886,7 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -8881,17 +8897,17 @@
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>C/ Alcalá 220, 28027 Madrid</t>
+          <t>22/11/2025</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -8905,90 +8921,6 @@
         </is>
       </c>
       <c r="J58" t="inlineStr">
-        <is>
-          <t>strict</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="n">
-        <v>12</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr"/>
-      <c r="D59" t="inlineStr"/>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>NOMBRE_PROFESIONAL</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>NOMBRE_PROFESIONAL</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>Elena Torres</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>✗</t>
-        </is>
-      </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>FP</t>
-        </is>
-      </c>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>strict</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="n">
-        <v>6</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr"/>
-      <c r="D60" t="inlineStr"/>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>FECHA</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>FECHA</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>15/01/2026</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>✗</t>
-        </is>
-      </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>FP</t>
-        </is>
-      </c>
-      <c r="J60" t="inlineStr">
         <is>
           <t>strict</t>
         </is>
@@ -10543,14 +10475,14 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>C/Alcalá 220</t>
+          <t>C/ Alcalá 220</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F27" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -11029,11 +10961,11 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2026-03-03 00:00:00</t>
+          <t>03/03/2026</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F36" t="n">
         <v>61</v>
@@ -11389,14 +11321,14 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>05/05/2025</t>
         </is>
       </c>
       <c r="E42" t="n">
         <v>53</v>
       </c>
       <c r="F42" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>

--- a/Resultados_Anonimizador_Hibrido_v3.xlsx
+++ b/Resultados_Anonimizador_Hibrido_v3.xlsx
@@ -1427,7 +1427,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3">
@@ -1457,7 +1457,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5">
@@ -1472,7 +1472,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.5151515151515151</v>
+        <v>0.5789473684210527</v>
       </c>
     </row>
     <row r="6">
@@ -1487,7 +1487,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.4146341463414634</v>
+        <v>0.5365853658536586</v>
       </c>
     </row>
     <row r="7">
@@ -1502,7 +1502,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.4594594594594595</v>
+        <v>0.5569620253164557</v>
       </c>
     </row>
     <row r="8">
@@ -1517,7 +1517,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9">
@@ -1532,7 +1532,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -1547,7 +1547,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11">
@@ -1562,7 +1562,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.7575757575757576</v>
+        <v>0.7368421052631579</v>
       </c>
     </row>
     <row r="12">
@@ -1577,7 +1577,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.6097560975609756</v>
+        <v>0.6829268292682927</v>
       </c>
     </row>
     <row r="13">
@@ -1592,7 +1592,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.6756756756756757</v>
+        <v>0.7088607594936709</v>
       </c>
     </row>
   </sheetData>
@@ -5323,7 +5323,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5547,10 +5547,10 @@
         <v>3</v>
       </c>
       <c r="B8" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C8" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -5564,7 +5564,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t xml:space="preserve">34 600 123 123 </t>
+          <t>+34 600 123 123</t>
         </is>
       </c>
       <c r="G8" t="n">
@@ -5634,115 +5634,115 @@
         <v>4</v>
       </c>
       <c r="B11" t="n">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="C11" t="n">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>FECHA_ALTA</t>
+          <t>NHC</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>FECHA_ALTA</t>
+          <t>NHC</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>10/12/2025</t>
+          <t>0099123</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>0.9988105893135071</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B12" t="n">
-        <v>30</v>
+        <v>86</v>
       </c>
       <c r="C12" t="n">
-        <v>42</v>
+        <v>96</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>FECHA_ALTA</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>FECHA_ALTA</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>192.168.1.10</t>
+          <t>10/12/2025</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1</v>
+        <v>0.9988105893135071</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B13" t="n">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C13" t="n">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>IP</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>IP</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Ana Martínez</t>
+          <t>192.168.1.10</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>0.9562344551086426</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B14" t="n">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="C14" t="n">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>DEVICE_ID</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>DEVICE_ID</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Hospital La Paz</t>
+          <t>DEV-ABC-123</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>0.9984539151191711</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -5750,86 +5750,86 @@
         <v>6</v>
       </c>
       <c r="B15" t="n">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="C15" t="n">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>15/01/2026</t>
+          <t>Ana Martínez</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>0.9989408850669861</v>
+        <v>0.9562344551086426</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B16" t="n">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C16" t="n">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NOMBRE_PROFESIONAL</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>NOMBRE_PROFESIONAL</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Luis Herrera</t>
+          <t>Hospital La Paz</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>0.9989856481552124</v>
+        <v>0.9984539151191711</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B17" t="n">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C17" t="n">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>l.herrera@hospital.com</t>
+          <t>15/01/2026</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>0.9989408850669861</v>
       </c>
     </row>
     <row r="18">
@@ -5837,82 +5837,82 @@
         <v>7</v>
       </c>
       <c r="B18" t="n">
-        <v>90</v>
+        <v>7</v>
       </c>
       <c r="C18" t="n">
-        <v>101</v>
+        <v>19</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>NOMBRE_PROFESIONAL</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>NOMBRE_PROFESIONAL</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>912 556 789</t>
+          <t>Luis Herrera</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1</v>
+        <v>0.9989856481552124</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="C19" t="n">
-        <v>15</v>
+        <v>74</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>NOMBRE_PROFESIONAL</t>
+          <t>EMAIL</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>NOMBRE_PROFESIONAL</t>
+          <t>EMAIL</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Roberto Sánchez</t>
+          <t>l.herrera@hospital.com</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>0.6440917253494263</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B20" t="n">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="C20" t="n">
-        <v>27</v>
+        <v>101</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>EDAD</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>EDAD</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>52 años</t>
+          <t>912 556 789</t>
         </is>
       </c>
       <c r="G20" t="n">
@@ -5924,28 +5924,28 @@
         <v>8</v>
       </c>
       <c r="B21" t="n">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>NOMBRE_PROFESIONAL</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>NOMBRE_PROFESIONAL</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Clínica Santa María</t>
+          <t>Roberto Sánchez</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>0.9968382716178894</v>
+        <v>0.6440917253494263</v>
       </c>
     </row>
     <row r="22">
@@ -5953,198 +5953,198 @@
         <v>8</v>
       </c>
       <c r="B22" t="n">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="C22" t="n">
-        <v>76</v>
+        <v>27</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>EDAD</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>EDAD</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>22/11/2025</t>
+          <t>52 años</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>0.9989843964576721</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B23" t="n">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C23" t="n">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>C/ Alcalá 220, 28027 Madrid</t>
+          <t>Clínica Santa María</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>0.9992307424545288</v>
+        <v>0.9968382716178894</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B24" t="n">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="C24" t="n">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>10.0.0.55</t>
+          <t>22/11/2025</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1</v>
+        <v>0.9989843964576721</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B25" t="n">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="C25" t="n">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>NOMBRE_PROFESIONAL</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>NOMBRE_PROFESIONAL</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Elena Torres</t>
+          <t>C/ Alcalá 220, 28027 Madrid</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>0.9993487596511841</v>
+        <v>0.9992307424545288</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B26" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C26" t="n">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>DEVICE_ID</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>DEVICE_ID</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>145-88</t>
+          <t>XK987654</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>0.5947571992874146</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B27" t="n">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="C27" t="n">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>IP</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>IP</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>03/03/2026</t>
+          <t>10.0.0.55</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>0.9988794326782227</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B28" t="n">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="C28" t="n">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>DEVICE_ID</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>DEVICE_ID</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t xml:space="preserve">34 722 334 112 </t>
+          <t>DEV-XYZ-99</t>
         </is>
       </c>
       <c r="G28" t="n">
@@ -6153,175 +6153,320 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B29" t="n">
-        <v>76</v>
+        <v>30</v>
       </c>
       <c r="C29" t="n">
-        <v>98</v>
+        <v>42</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>NOMBRE_PROFESIONAL</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>NOMBRE_PROFESIONAL</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>roberto.san@outlook.es</t>
+          <t>Elena Torres</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1</v>
+        <v>0.9993487596511841</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B30" t="n">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="C30" t="n">
-        <v>22</v>
+        <v>83</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>NHC</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>NHC</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Marta Ruiz</t>
+          <t>MRN-556677</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>0.9981183409690857</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B31" t="n">
+        <v>24</v>
+      </c>
+      <c r="C31" t="n">
         <v>34</v>
       </c>
-      <c r="C31" t="n">
-        <v>44</v>
-      </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>INSURANCE_ID</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>INSURANCE_ID</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>08/06/1990</t>
+          <t>INS-145-88</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>0.9990630149841309</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B32" t="n">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="C32" t="n">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>hospital</t>
+          <t>03/03/2026</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>0.9917227625846863</v>
+        <v>0.9988794326782227</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B33" t="n">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="C33" t="n">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Centro Médico Norte</t>
+          <t>+34 722 334 112</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>0.6910634636878967</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
+        <v>14</v>
+      </c>
+      <c r="B34" t="n">
+        <v>76</v>
+      </c>
+      <c r="C34" t="n">
+        <v>98</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>EMAIL</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>EMAIL</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>roberto.san@outlook.es</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>15</v>
+      </c>
+      <c r="B35" t="n">
+        <v>12</v>
+      </c>
+      <c r="C35" t="n">
+        <v>22</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>NOMBRE_PACIENTE</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>NOMBRE_PACIENTE</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Marta Ruiz</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>0.9981183409690857</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>15</v>
+      </c>
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>44</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>FECHA</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>FECHA</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>08/06/1990</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>0.9990630149841309</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
         <v>16</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B37" t="n">
+        <v>3</v>
+      </c>
+      <c r="C37" t="n">
+        <v>11</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>HOSPITAL</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>HOSPITAL</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>hospital</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>0.9917227625846863</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>16</v>
+      </c>
+      <c r="B38" t="n">
+        <v>12</v>
+      </c>
+      <c r="C38" t="n">
+        <v>31</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>HOSPITAL</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>HOSPITAL</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Centro Médico Norte</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v>0.6910634636878967</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>16</v>
+      </c>
+      <c r="B39" t="n">
         <v>53</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C39" t="n">
         <v>63</v>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="D39" t="inlineStr">
         <is>
           <t>FECHA</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>FECHA</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>05/05/2025</t>
         </is>
       </c>
-      <c r="G34" t="n">
+      <c r="G39" t="n">
         <v>0.9989587664604187</v>
       </c>
     </row>
@@ -6398,36 +6543,36 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fecha de alta</t>
+          <t>Nombre Paciente</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>FECHA_ALTA</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>10/12/2025</t>
+          <t>Marta Ruiz</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>FECHA_ALTA</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>FECHA_ALTA</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>10/12/2025</t>
+          <t>Marta Ruiz</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -6448,36 +6593,36 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>fECHA</t>
+          <t>Teléfono</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>03/03/2026</t>
+          <t>+34 722 334 112</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>03/03/2026</t>
+          <t>+34 722 334 112</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -6498,36 +6643,36 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Hospital</t>
+          <t>Nombre Paciente</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Hospital Virgen del Mar</t>
+          <t>María López</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Hospital Virgen del Mar</t>
+          <t>María López</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -6548,36 +6693,36 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Email</t>
+          <t>ID Dispositivo</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>DEVICE_ID</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>juan.perez@gmail.com</t>
+          <t>DEV-ABC-123</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>DEVICE_ID</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>DEVICE_ID</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>juan.perez@gmail.com</t>
+          <t>DEV-ABC-123</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -6598,36 +6743,36 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Nombre Paciente</t>
+          <t>Email</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>EMAIL</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>María López</t>
+          <t>juan.perez@gmail.com</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>EMAIL</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>EMAIL</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>María López</t>
+          <t>juan.perez@gmail.com</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -6648,36 +6793,36 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Email</t>
+          <t>Teléfono</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>roberto.san@outlook.es</t>
+          <t>912 556 789</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>roberto.san@outlook.es</t>
+          <t>912 556 789</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -6698,36 +6843,36 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Teléfono</t>
+          <t>Fecha</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>912 556 789</t>
+          <t>05/05/2025</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>912 556 789</t>
+          <t>05/05/2025</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -6748,36 +6893,36 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Hospital</t>
+          <t>ID Dispositivo</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>DEVICE_ID</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Clínica Santa María</t>
+          <t>DEV-XYZ-99</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>DEVICE_ID</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>DEVICE_ID</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Clínica Santa María</t>
+          <t>DEV-XYZ-99</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -6798,36 +6943,36 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Nombre Paciente</t>
+          <t>Hospital</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Marta Ruiz</t>
+          <t>Hospital La Paz</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Marta Ruiz</t>
+          <t>Hospital La Paz</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -6848,36 +6993,36 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>Emali</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>EMAIL</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>192.168.1.10</t>
+          <t>l.herrera@hospital.com</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>EMAIL</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>EMAIL</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>192.168.1.10</t>
+          <t>l.herrera@hospital.com</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -6998,36 +7143,36 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>Hospital</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>10.0.0.55</t>
+          <t>Hospital Virgen del Mar</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>10.0.0.55</t>
+          <t>Hospital Virgen del Mar</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -7048,36 +7193,36 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Emali</t>
+          <t>Hospital</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>l.herrera@hospital.com</t>
+          <t>Clínica Santa María</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>l.herrera@hospital.com</t>
+          <t>Clínica Santa María</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -7098,36 +7243,36 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Hospitl</t>
+          <t>Fecha de alta</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>FECHA_ALTA</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Centro Médico Norte</t>
+          <t>10/12/2025</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>FECHA_ALTA</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>FECHA_ALTA</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Centro Médico Norte</t>
+          <t>10/12/2025</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -7148,11 +7293,11 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Fecha</t>
+          <t>fECHA</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -7162,7 +7307,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>05/05/2025</t>
+          <t>03/03/2026</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -7177,7 +7322,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>05/05/2025</t>
+          <t>03/03/2026</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -7198,36 +7343,36 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Hospital</t>
+          <t>IP</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>IP</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Hospital La Paz</t>
+          <t>192.168.1.10</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>IP</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>IP</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Hospital La Paz</t>
+          <t>192.168.1.10</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -7267,19 +7412,27 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
+          <t>TELEFONO</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>TELEFONO</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>+34 600 123 123</t>
+        </is>
+      </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>✗</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>FN</t>
+          <t>TP</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -7290,38 +7443,46 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Ciudad</t>
+          <t>Hospitl</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Madrid</t>
+          <t>Centro Médico Norte</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
+          <t>HOSPITAL</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>HOSPITAL</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Centro Médico Norte</t>
+        </is>
+      </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>✗</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>FN</t>
+          <t>TP</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -7332,38 +7493,46 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Fecha Ingreso</t>
+          <t>IP</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>FECHA_INGRESO</t>
+          <t>IP</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>22/11/2025</t>
+          <t>10.0.0.55</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
+          <t>IP</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>IP</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>10.0.0.55</t>
+        </is>
+      </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>✗</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>FN</t>
+          <t>TP</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -7374,38 +7543,46 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Nombre Profesional</t>
+          <t>Email</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>NOMBRE_PROFESIONAL</t>
+          <t>EMAIL</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Dr. Luis Herrera</t>
+          <t>roberto.san@outlook.es</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
+          <t>EMAIL</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>EMAIL</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>roberto.san@outlook.es</t>
+        </is>
+      </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>✗</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>FN</t>
+          <t>TP</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -7416,38 +7593,46 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Teléfono</t>
+          <t>NªSeguro Médico</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>INSURANCE_ID</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>+34 722 334 112</t>
+          <t>INS-145-88</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
+          <t>INSURANCE_ID</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>INSURANCE_ID</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>INS-145-88</t>
+        </is>
+      </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>✗</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>FN</t>
+          <t>TP</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -7458,21 +7643,21 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Código Postal</t>
+          <t>NªHistoría clínica</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>28013</t>
+          <t>MRN-556677</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -7504,17 +7689,17 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Nombre de Paciente</t>
+          <t>Edad</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>EDAD</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Roberto Sánchez</t>
+          <t>52</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -7542,21 +7727,21 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Edad</t>
+          <t>Nombre Paciente</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>EDAD</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>Juan Pérez</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -7584,21 +7769,21 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>ID Dispositivo</t>
+          <t>Ciudad</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>ID DISPOSITIVO</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>DEV-XYZ-99</t>
+          <t>Madrid</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -7626,21 +7811,21 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Dirección</t>
+          <t>Nombre de Paciente</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>C/ Alcalá 220</t>
+          <t>Roberto Sánchez</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -7668,21 +7853,21 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>NªHistoría clínica</t>
+          <t>Código Postal</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>MRN-556677</t>
+          <t>28013</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -7710,7 +7895,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -7724,7 +7909,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>C/ Mayor 15, 3B</t>
+          <t>C/ Alcalá 220</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -7752,21 +7937,21 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Ciudad</t>
+          <t>Pasaporte</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>PASAPORTE</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Madrid</t>
+          <t>XK987654</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -7794,21 +7979,21 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>NªSeguro Médico</t>
+          <t>Nombre Profesional</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>INSURANCE_ID</t>
+          <t>NOMBRE_PROFESIONAL</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>INS-145-88</t>
+          <t>Dr. Luis Herrera</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -7836,7 +8021,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -7850,7 +8035,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>15/01/2026</t>
+          <t>03/12/2025</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -7878,21 +8063,21 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Nombre Paciente</t>
+          <t>Nombre Profesional</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>NOMBRE_PROFESIONAL</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Juan Pérez</t>
+          <t>Dra. Elena Torres</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -7920,21 +8105,21 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Pasaporte</t>
+          <t>Fecha de ingreso</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>PASAPORTE</t>
+          <t>FECHA_INGRESO</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>XK987654</t>
+          <t>15/01/2026</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -7962,21 +8147,21 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Nombre Profesional</t>
+          <t>Edad</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>NOMBRE_PROFESIONAL</t>
+          <t>EDAD</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Dra. Elena Torres</t>
+          <t>45</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -8008,17 +8193,17 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Edad</t>
+          <t>Ciudad</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>EDAD</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>Madrid</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -8046,21 +8231,21 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Fecha de ingreso</t>
+          <t>Dirección</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>FECHA_INGRESO</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>03/12/2025</t>
+          <t>C/ Mayor 15, 3B</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -8088,21 +8273,21 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Nº Historia Clínica</t>
+          <t>Fecha Ingreso</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>FECHA_INGRESO</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>HC-0099123</t>
+          <t>22/11/2025</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -8172,21 +8357,21 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>ID Dispositivo</t>
+          <t>Fecha Nacimiento</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>ID DISPOSITIVO</t>
+          <t>FECHA_NACIMIENTO</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>DEV-ABC-123</t>
+          <t>1990-08-06 00:00:00</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -8214,21 +8399,21 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Fecha Nacimiento</t>
+          <t>Nº Historia Clínica</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>FECHA_NACIMIENTO</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>1990-08-06 00:00:00</t>
+          <t>HC-0099123</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -8256,7 +8441,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -8277,7 +8462,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>03/12/2025</t>
+          <t>15/01/2026</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -8298,7 +8483,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -8309,17 +8494,17 @@
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>NOMBRE_PROFESIONAL</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>NOMBRE_PROFESIONAL</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>hospital</t>
+          <t>Roberto Sánchez</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -8340,7 +8525,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -8351,17 +8536,17 @@
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr">
         <is>
-          <t>NOMBRE_PROFESIONAL</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>NOMBRE_PROFESIONAL</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Luis Herrera</t>
+          <t>C/ Mayor 15, 3B, 28013 Madrid</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -8382,7 +8567,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -8393,17 +8578,17 @@
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>EDAD</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>EDAD</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t xml:space="preserve">34 600 123 123 </t>
+          <t>45 años</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -8424,7 +8609,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -8435,17 +8620,17 @@
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr">
         <is>
-          <t>NOMBRE_PROFESIONAL</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>NOMBRE_PROFESIONAL</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Juan Pérez</t>
+          <t>C/ Alcalá 220, 28027 Madrid</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -8466,7 +8651,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -8477,17 +8662,17 @@
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr">
         <is>
-          <t>EDAD</t>
+          <t>NOMBRE_PROFESIONAL</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>EDAD</t>
+          <t>NOMBRE_PROFESIONAL</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>45 años</t>
+          <t>Elena Torres</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -8508,7 +8693,7 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -8519,17 +8704,17 @@
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>NHC</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>NHC</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>C/ Alcalá 220, 28027 Madrid</t>
+          <t>0099123</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -8550,7 +8735,7 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -8561,17 +8746,17 @@
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr">
         <is>
-          <t>EDAD</t>
+          <t>NOMBRE_PROFESIONAL</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>EDAD</t>
+          <t>NOMBRE_PROFESIONAL</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>52 años</t>
+          <t>Juan Pérez</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -8592,7 +8777,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -8603,17 +8788,17 @@
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>NOMBRE_PROFESIONAL</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>NOMBRE_PROFESIONAL</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>145-88</t>
+          <t>Luis Herrera</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -8634,7 +8819,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -8645,17 +8830,17 @@
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr">
         <is>
-          <t>NOMBRE_PROFESIONAL</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>NOMBRE_PROFESIONAL</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Roberto Sánchez</t>
+          <t>hospital</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -8676,7 +8861,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -8687,17 +8872,17 @@
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>C/ Mayor 15, 3B, 28013 Madrid</t>
+          <t>08/06/1990</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -8718,7 +8903,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -8729,17 +8914,17 @@
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>NHC</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>NHC</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t xml:space="preserve">34 722 334 112 </t>
+          <t>MRN-556677</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -8760,7 +8945,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -8771,17 +8956,17 @@
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr">
         <is>
-          <t>NOMBRE_PROFESIONAL</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>NOMBRE_PROFESIONAL</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Elena Torres</t>
+          <t>03/12/2025</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -8802,7 +8987,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -8813,17 +8998,17 @@
       <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>EDAD</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>EDAD</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>08/06/1990</t>
+          <t>52 años</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -8844,7 +9029,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -8865,7 +9050,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>15/01/2026</t>
+          <t>22/11/2025</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -8886,7 +9071,7 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -8897,17 +9082,17 @@
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>DEVICE_ID</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>DEVICE_ID</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>22/11/2025</t>
+          <t>XK987654</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -8937,7 +9122,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N50"/>
+  <dimension ref="A1:N52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9502,14 +9687,14 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t xml:space="preserve">34 600 123 123 </t>
+          <t>+34 600 123 123</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K10" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L10" t="inlineStr">
         <is>
@@ -9836,7 +10021,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>ID DISPOSITIVO</t>
+          <t>DEVICE_ID</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -9852,21 +10037,33 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+          <t>DEVICE_ID</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>DEVICE_ID</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>DEV-ABC-123</t>
+        </is>
+      </c>
+      <c r="J16" t="n">
+        <v>69</v>
+      </c>
+      <c r="K16" t="n">
+        <v>80</v>
+      </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>✗</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>FN</t>
+          <t>TP</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -10744,7 +10941,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>ID DISPOSITIVO</t>
+          <t>DEVICE_ID</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -10760,21 +10957,33 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+          <t>DEVICE_ID</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>DEVICE_ID</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>DEV-XYZ-99</t>
+        </is>
+      </c>
+      <c r="J32" t="n">
+        <v>68</v>
+      </c>
+      <c r="K32" t="n">
+        <v>78</v>
+      </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>✗</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>FN</t>
+          <t>TP</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
@@ -10922,21 +11131,33 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr"/>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+          <t>INSURANCE_ID</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>INSURANCE_ID</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>INS-145-88</t>
+        </is>
+      </c>
+      <c r="J35" t="n">
+        <v>24</v>
+      </c>
+      <c r="K35" t="n">
+        <v>34</v>
+      </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>✗</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>FN</t>
+          <t>TP</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
@@ -11044,14 +11265,14 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t xml:space="preserve">34 722 334 112 </t>
+          <t>+34 722 334 112</t>
         </is>
       </c>
       <c r="J37" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K37" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L37" t="inlineStr">
         <is>
@@ -11469,7 +11690,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -11482,21 +11703,21 @@
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>NHC</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>NHC</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>15/01/2026</t>
+          <t>0099123</t>
         </is>
       </c>
       <c r="J45" t="n">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K45" t="n">
         <v>65</v>
@@ -11519,7 +11740,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -11532,24 +11753,24 @@
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr">
         <is>
-          <t>NOMBRE_PROFESIONAL</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>NOMBRE_PROFESIONAL</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Roberto Sánchez</t>
+          <t>15/01/2026</t>
         </is>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="K46" t="n">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="L46" t="inlineStr">
         <is>
@@ -11582,24 +11803,24 @@
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>NOMBRE_PROFESIONAL</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>NOMBRE_PROFESIONAL</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>22/11/2025</t>
+          <t>Roberto Sánchez</t>
         </is>
       </c>
       <c r="J47" t="n">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="K47" t="n">
-        <v>76</v>
+        <v>15</v>
       </c>
       <c r="L47" t="inlineStr">
         <is>
@@ -11619,7 +11840,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -11632,24 +11853,24 @@
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>145-88</t>
+          <t>22/11/2025</t>
         </is>
       </c>
       <c r="J48" t="n">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="K48" t="n">
-        <v>34</v>
+        <v>76</v>
       </c>
       <c r="L48" t="inlineStr">
         <is>
@@ -11669,7 +11890,7 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -11682,24 +11903,24 @@
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>DEVICE_ID</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>DEVICE_ID</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>08/06/1990</t>
+          <t>XK987654</t>
         </is>
       </c>
       <c r="J49" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="K49" t="n">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="L49" t="inlineStr">
         <is>
@@ -11719,7 +11940,7 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -11732,36 +11953,136 @@
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr">
         <is>
+          <t>NHC</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>NHC</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>MRN-556677</t>
+        </is>
+      </c>
+      <c r="J50" t="n">
+        <v>73</v>
+      </c>
+      <c r="K50" t="n">
+        <v>83</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>✗</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>FP</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>lenient</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>15</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>FECHA</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>FECHA</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>08/06/1990</t>
+        </is>
+      </c>
+      <c r="J51" t="n">
+        <v>34</v>
+      </c>
+      <c r="K51" t="n">
+        <v>44</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>✗</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>FP</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>lenient</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>16</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr">
+        <is>
           <t>HOSPITAL</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>HOSPITAL</t>
         </is>
       </c>
-      <c r="I50" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>hospital</t>
         </is>
       </c>
-      <c r="J50" t="n">
+      <c r="J52" t="n">
         <v>3</v>
       </c>
-      <c r="K50" t="n">
+      <c r="K52" t="n">
         <v>11</v>
       </c>
-      <c r="L50" t="inlineStr">
+      <c r="L52" t="inlineStr">
         <is>
           <t>✗</t>
         </is>
       </c>
-      <c r="M50" t="inlineStr">
+      <c r="M52" t="inlineStr">
         <is>
           <t>FP</t>
         </is>
       </c>
-      <c r="N50" t="inlineStr">
+      <c r="N52" t="inlineStr">
         <is>
           <t>lenient</t>
         </is>
@@ -11844,7 +12165,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Se contactó al paciente en el teléfono +Phone_XXXy en el correo Mail_XXX.</t>
+          <t>Se contactó al paciente en el teléfono Phone_XXX y en el correo Mail_XXX.</t>
         </is>
       </c>
     </row>
@@ -11859,7 +12180,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>El paciente con DNI ID_XXXXX y Nº de historia clínica HC-0099123 fue dado de alta el &lt;DATE_DISCHARGE&gt;.</t>
+          <t>El paciente con DNI ID_XXXXX y Nº de historia clínica HC-&lt;MRN&gt; fue dado de alta el &lt;DATE_DISCHARGE&gt;.</t>
         </is>
       </c>
     </row>
@@ -11874,7 +12195,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Accedió al portal desde la IP IP_XXX utilizando el dispositivo DEV-ABC-123.</t>
+          <t>Accedió al portal desde la IP IP_XXX utilizando el dispositivo &lt;DEVICE_ID&gt;.</t>
         </is>
       </c>
     </row>
@@ -11951,7 +12272,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>El número de pasaporte XK987654 fue verificado durante la admisión.</t>
+          <t>El número de pasaporte &lt;DEVICE_ID&gt; fue verificado durante la admisión.</t>
         </is>
       </c>
     </row>
@@ -11966,7 +12287,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>El paciente accedió desde la IP IP_XXX utilizando el dispositivo DEV-XYZ-99.</t>
+          <t>El paciente accedió desde la IP IP_XXX utilizando el dispositivo &lt;DEVICE_ID&gt;.</t>
         </is>
       </c>
     </row>
@@ -11981,7 +12302,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>La profesional sanitaria Dra. &lt;PROVIDER_NAME&gt; actualizó la historia clínica MRN-556677.</t>
+          <t>La profesional sanitaria Dra. &lt;PROVIDER_NAME&gt; actualizó la historia clínica &lt;MRN&gt;.</t>
         </is>
       </c>
     </row>
@@ -11996,7 +12317,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>El seguro médico con ID INS-&lt;PATIENT_NAME&gt; fue validado el &lt;DATE&gt;.</t>
+          <t>El seguro médico con ID &lt;INSURANCE_ID&gt; fue validado el &lt;DATE&gt;.</t>
         </is>
       </c>
     </row>
@@ -12011,7 +12332,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Se notificó al paciente en el teléfono +Phone_XXXy mediante el correo Mail_XXX</t>
+          <t>Se notificó al paciente en el teléfono Phone_XXX y mediante el correo Mail_XXX</t>
         </is>
       </c>
     </row>

--- a/Resultados_Anonimizador_Hibrido_v3.xlsx
+++ b/Resultados_Anonimizador_Hibrido_v3.xlsx
@@ -1442,7 +1442,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4">
@@ -1472,7 +1472,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.5789473684210527</v>
+        <v>0.6285714285714286</v>
       </c>
     </row>
     <row r="6">
@@ -1502,7 +1502,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.5569620253164557</v>
+        <v>0.5789473684210527</v>
       </c>
     </row>
     <row r="8">
@@ -1532,7 +1532,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -1562,7 +1562,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.7368421052631579</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="12">
@@ -1592,7 +1592,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.7088607594936709</v>
+        <v>0.736842105263158</v>
       </c>
     </row>
   </sheetData>
@@ -5323,7 +5323,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5634,57 +5634,57 @@
         <v>4</v>
       </c>
       <c r="B11" t="n">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="C11" t="n">
-        <v>65</v>
+        <v>96</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NHC</t>
+          <t>FECHA_ALTA</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>NHC</t>
+          <t>FECHA_ALTA</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0099123</t>
+          <t>10/12/2025</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>0.9988105893135071</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B12" t="n">
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="C12" t="n">
-        <v>96</v>
+        <v>42</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>FECHA_ALTA</t>
+          <t>IP</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>FECHA_ALTA</t>
+          <t>IP</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>10/12/2025</t>
+          <t>192.168.1.10</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>0.9988105893135071</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -5692,24 +5692,24 @@
         <v>5</v>
       </c>
       <c r="B13" t="n">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="C13" t="n">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>DEVICE_ID</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>DEVICE_ID</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>192.168.1.10</t>
+          <t>DEV-ABC-123</t>
         </is>
       </c>
       <c r="G13" t="n">
@@ -5718,31 +5718,31 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B14" t="n">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="C14" t="n">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>DEVICE_ID</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>DEVICE_ID</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>DEV-ABC-123</t>
+          <t>Ana Martínez</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v>0.9562344551086426</v>
       </c>
     </row>
     <row r="15">
@@ -5750,28 +5750,28 @@
         <v>6</v>
       </c>
       <c r="B15" t="n">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="C15" t="n">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Ana Martínez</t>
+          <t>Hospital La Paz</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>0.9562344551086426</v>
+        <v>0.9984539151191711</v>
       </c>
     </row>
     <row r="16">
@@ -5779,57 +5779,57 @@
         <v>6</v>
       </c>
       <c r="B16" t="n">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="C16" t="n">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Hospital La Paz</t>
+          <t>15/01/2026</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>0.9984539151191711</v>
+        <v>0.9989408850669861</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B17" t="n">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="C17" t="n">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>NOMBRE_PROFESIONAL</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>NOMBRE_PROFESIONAL</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>15/01/2026</t>
+          <t>Luis Herrera</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>0.9989408850669861</v>
+        <v>0.9989856481552124</v>
       </c>
     </row>
     <row r="18">
@@ -5837,28 +5837,28 @@
         <v>7</v>
       </c>
       <c r="B18" t="n">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="C18" t="n">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>NOMBRE_PROFESIONAL</t>
+          <t>EMAIL</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>NOMBRE_PROFESIONAL</t>
+          <t>EMAIL</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Luis Herrera</t>
+          <t>l.herrera@hospital.com</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>0.9989856481552124</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -5866,24 +5866,24 @@
         <v>7</v>
       </c>
       <c r="B19" t="n">
-        <v>52</v>
+        <v>90</v>
       </c>
       <c r="C19" t="n">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>l.herrera@hospital.com</t>
+          <t>912 556 789</t>
         </is>
       </c>
       <c r="G19" t="n">
@@ -5892,27 +5892,27 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B20" t="n">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="C20" t="n">
-        <v>101</v>
+        <v>27</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>EDAD</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>EDAD</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>912 556 789</t>
+          <t>52 años</t>
         </is>
       </c>
       <c r="G20" t="n">
@@ -5924,28 +5924,28 @@
         <v>8</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="C21" t="n">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>NOMBRE_PROFESIONAL</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>NOMBRE_PROFESIONAL</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Roberto Sánchez</t>
+          <t>Clínica Santa María</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>0.6440917253494263</v>
+        <v>0.9968382716178894</v>
       </c>
     </row>
     <row r="22">
@@ -5953,126 +5953,126 @@
         <v>8</v>
       </c>
       <c r="B22" t="n">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="C22" t="n">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>EDAD</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>EDAD</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>52 años</t>
+          <t>22/11/2025</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1</v>
+        <v>0.9989843964576721</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B23" t="n">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C23" t="n">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Clínica Santa María</t>
+          <t>C/ Alcalá 220, 28027 Madrid</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>0.9968382716178894</v>
+        <v>0.9992307424545288</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B24" t="n">
-        <v>66</v>
+        <v>23</v>
       </c>
       <c r="C24" t="n">
-        <v>76</v>
+        <v>31</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>DEVICE_ID</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>DEVICE_ID</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>22/11/2025</t>
+          <t>XK987654</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>0.9989843964576721</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B25" t="n">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C25" t="n">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>IP</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>IP</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>C/ Alcalá 220, 28027 Madrid</t>
+          <t>10.0.0.55</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>0.9992307424545288</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B26" t="n">
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="C26" t="n">
-        <v>31</v>
+        <v>78</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -6086,7 +6086,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>XK987654</t>
+          <t>DEV-XYZ-99</t>
         </is>
       </c>
       <c r="G26" t="n">
@@ -6095,56 +6095,56 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B27" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C27" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>NOMBRE_PROFESIONAL</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>NOMBRE_PROFESIONAL</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>10.0.0.55</t>
+          <t>Elena Torres</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1</v>
+        <v>0.9993487596511841</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B28" t="n">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="C28" t="n">
-        <v>78</v>
+        <v>34</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>DEVICE_ID</t>
+          <t>INSURANCE_ID</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>DEVICE_ID</t>
+          <t>INSURANCE_ID</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>DEV-XYZ-99</t>
+          <t>INS-145-88</t>
         </is>
       </c>
       <c r="G28" t="n">
@@ -6153,56 +6153,56 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B29" t="n">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="C29" t="n">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>NOMBRE_PROFESIONAL</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>NOMBRE_PROFESIONAL</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Elena Torres</t>
+          <t>03/03/2026</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>0.9993487596511841</v>
+        <v>0.9988794326782227</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B30" t="n">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="C30" t="n">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>NHC</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>NHC</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>MRN-556677</t>
+          <t>+34 722 334 112</t>
         </is>
       </c>
       <c r="G30" t="n">
@@ -6211,27 +6211,27 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B31" t="n">
-        <v>24</v>
+        <v>76</v>
       </c>
       <c r="C31" t="n">
-        <v>34</v>
+        <v>98</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>INSURANCE_ID</t>
+          <t>EMAIL</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>INSURANCE_ID</t>
+          <t>EMAIL</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>INS-145-88</t>
+          <t>roberto.san@outlook.es</t>
         </is>
       </c>
       <c r="G31" t="n">
@@ -6240,129 +6240,129 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B32" t="n">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="C32" t="n">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>03/03/2026</t>
+          <t>Marta Ruiz</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>0.9988794326782227</v>
+        <v>0.9981183409690857</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B33" t="n">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C33" t="n">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>+34 722 334 112</t>
+          <t>08/06/1990</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1</v>
+        <v>0.9990630149841309</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B34" t="n">
-        <v>76</v>
+        <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>98</v>
+        <v>11</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>roberto.san@outlook.es</t>
+          <t>hospital</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1</v>
+        <v>0.9917227625846863</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B35" t="n">
         <v>12</v>
       </c>
       <c r="C35" t="n">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Marta Ruiz</t>
+          <t>Centro Médico Norte</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>0.9981183409690857</v>
+        <v>0.6910634636878967</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B36" t="n">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="C36" t="n">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -6376,97 +6376,10 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>08/06/1990</t>
+          <t>05/05/2025</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>0.9990630149841309</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
-        <v>16</v>
-      </c>
-      <c r="B37" t="n">
-        <v>3</v>
-      </c>
-      <c r="C37" t="n">
-        <v>11</v>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>HOSPITAL</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>HOSPITAL</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>hospital</t>
-        </is>
-      </c>
-      <c r="G37" t="n">
-        <v>0.9917227625846863</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
-        <v>16</v>
-      </c>
-      <c r="B38" t="n">
-        <v>12</v>
-      </c>
-      <c r="C38" t="n">
-        <v>31</v>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>HOSPITAL</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>HOSPITAL</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>Centro Médico Norte</t>
-        </is>
-      </c>
-      <c r="G38" t="n">
-        <v>0.6910634636878967</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
-        <v>16</v>
-      </c>
-      <c r="B39" t="n">
-        <v>53</v>
-      </c>
-      <c r="C39" t="n">
-        <v>63</v>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>FECHA</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>FECHA</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>05/05/2025</t>
-        </is>
-      </c>
-      <c r="G39" t="n">
         <v>0.9989587664604187</v>
       </c>
     </row>
@@ -6481,7 +6394,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J58"/>
+  <dimension ref="A1:J55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6543,36 +6456,36 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Nombre Paciente</t>
+          <t>Email</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>EMAIL</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Marta Ruiz</t>
+          <t>roberto.san@outlook.es</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>EMAIL</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>EMAIL</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Marta Ruiz</t>
+          <t>roberto.san@outlook.es</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -6593,36 +6506,36 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Teléfono</t>
+          <t>IP</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>IP</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>+34 722 334 112</t>
+          <t>192.168.1.10</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>IP</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>IP</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>+34 722 334 112</t>
+          <t>192.168.1.10</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -6643,36 +6556,36 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Nombre Paciente</t>
+          <t>ID Dispositivo</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>DEVICE_ID</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>María López</t>
+          <t>DEV-ABC-123</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>DEVICE_ID</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>DEVICE_ID</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>María López</t>
+          <t>DEV-ABC-123</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -6693,36 +6606,36 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ID Dispositivo</t>
+          <t>Teléfono</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>DEVICE_ID</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>DEV-ABC-123</t>
+          <t>+34 722 334 112</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>DEVICE_ID</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>DEVICE_ID</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>DEV-ABC-123</t>
+          <t>+34 722 334 112</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -6743,36 +6656,36 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Email</t>
+          <t>Fecha de alta</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>FECHA_ALTA</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>juan.perez@gmail.com</t>
+          <t>10/12/2025</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>FECHA_ALTA</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>FECHA_ALTA</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>juan.perez@gmail.com</t>
+          <t>10/12/2025</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -6793,36 +6706,36 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Teléfono</t>
+          <t>Hospitl</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>912 556 789</t>
+          <t>Centro Médico Norte</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>912 556 789</t>
+          <t>Centro Médico Norte</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -6843,36 +6756,36 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Fecha</t>
+          <t>Hospital</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>05/05/2025</t>
+          <t>Hospital La Paz</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>05/05/2025</t>
+          <t>Hospital La Paz</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -6893,36 +6806,36 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ID Dispositivo</t>
+          <t>Teléfono</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>DEVICE_ID</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>DEV-XYZ-99</t>
+          <t>912 556 789</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>DEVICE_ID</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>DEVICE_ID</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>DEV-XYZ-99</t>
+          <t>912 556 789</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -6943,36 +6856,36 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Hospital</t>
+          <t>Teléfono</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Hospital La Paz</t>
+          <t>+34 600 123 123</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Hospital La Paz</t>
+          <t>+34 600 123 123</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -6993,36 +6906,36 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Emali</t>
+          <t>Nombre Paciente</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>l.herrera@hospital.com</t>
+          <t>Marta Ruiz</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>l.herrera@hospital.com</t>
+          <t>Marta Ruiz</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -7093,36 +7006,36 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>DNI/NIF</t>
+          <t>Hospital</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>DNI_NIF</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>12345678A</t>
+          <t>Clínica Santa María</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>DNI_NIF</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>DNI_NIF</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>12345678A</t>
+          <t>Clínica Santa María</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -7143,36 +7056,36 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Hospital</t>
+          <t>Emali</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>EMAIL</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Hospital Virgen del Mar</t>
+          <t>l.herrera@hospital.com</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>EMAIL</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>EMAIL</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Hospital Virgen del Mar</t>
+          <t>l.herrera@hospital.com</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -7193,36 +7106,36 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Hospital</t>
+          <t>DNI/NIF</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>DNI_NIF</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Clínica Santa María</t>
+          <t>12345678A</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>DNI_NIF</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>DNI_NIF</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Clínica Santa María</t>
+          <t>12345678A</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -7243,36 +7156,36 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Fecha de alta</t>
+          <t>fECHA</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>FECHA_ALTA</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>10/12/2025</t>
+          <t>03/03/2026</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>FECHA_ALTA</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>FECHA_ALTA</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>10/12/2025</t>
+          <t>03/03/2026</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -7293,36 +7206,36 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>fECHA</t>
+          <t>ID Dispositivo</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>DEVICE_ID</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>03/03/2026</t>
+          <t>DEV-XYZ-99</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>DEVICE_ID</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>DEVICE_ID</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>03/03/2026</t>
+          <t>DEV-XYZ-99</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -7343,36 +7256,36 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>Nombre Paciente</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>192.168.1.10</t>
+          <t>María López</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>192.168.1.10</t>
+          <t>María López</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -7393,36 +7306,36 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Teléfono</t>
+          <t>NªSeguro Médico</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>INSURANCE_ID</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>+34 600 123 123</t>
+          <t>INS-145-88</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>INSURANCE_ID</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>INSURANCE_ID</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>+34 600 123 123</t>
+          <t>INS-145-88</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -7443,11 +7356,11 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Hospitl</t>
+          <t>Hospital</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -7457,7 +7370,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Centro Médico Norte</t>
+          <t>Hospital Virgen del Mar</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -7472,7 +7385,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Centro Médico Norte</t>
+          <t>Hospital Virgen del Mar</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -7493,36 +7406,36 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>Email</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>EMAIL</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>10.0.0.55</t>
+          <t>juan.perez@gmail.com</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>EMAIL</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>EMAIL</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>10.0.0.55</t>
+          <t>juan.perez@gmail.com</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -7543,36 +7456,36 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Email</t>
+          <t>Fecha</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>roberto.san@outlook.es</t>
+          <t>05/05/2025</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>roberto.san@outlook.es</t>
+          <t>05/05/2025</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -7593,36 +7506,36 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>NªSeguro Médico</t>
+          <t>IP</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>INSURANCE_ID</t>
+          <t>IP</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>INS-145-88</t>
+          <t>10.0.0.55</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>INSURANCE_ID</t>
+          <t>IP</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>INSURANCE_ID</t>
+          <t>IP</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>INS-145-88</t>
+          <t>10.0.0.55</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -7643,21 +7556,21 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>NªHistoría clínica</t>
+          <t>Fecha Nacimiento</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>FECHA_NACIMIENTO</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>MRN-556677</t>
+          <t>1990-08-06 00:00:00</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -7685,21 +7598,21 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Edad</t>
+          <t>Nº Historia Clínica</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>EDAD</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>HC-0099123</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -7727,21 +7640,21 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Nombre Paciente</t>
+          <t>Nombre Profesional</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>NOMBRE_PROFESIONAL</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Juan Pérez</t>
+          <t>Dra. Elena Torres</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -7769,11 +7682,11 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Ciudad</t>
+          <t>Código Postal</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -7783,7 +7696,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Madrid</t>
+          <t>28013</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -7811,21 +7724,21 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Nombre de Paciente</t>
+          <t>Fecha de ingreso</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>FECHA_INGRESO</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Roberto Sánchez</t>
+          <t>15/01/2026</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -7853,21 +7766,21 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Código Postal</t>
+          <t>Edad</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>EDAD</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>28013</t>
+          <t>52</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -7895,21 +7808,21 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Dirección</t>
+          <t>Fecha de ingreso</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>FECHA_INGRESO</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>C/ Alcalá 220</t>
+          <t>03/12/2025</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -7937,21 +7850,21 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Pasaporte</t>
+          <t>Nombre Profesional</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>PASAPORTE</t>
+          <t>NOMBRE_PROFESIONAL</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>XK987654</t>
+          <t>Dr. Luis Herrera</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -7979,21 +7892,21 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Nombre Profesional</t>
+          <t>Fecha Ingreso</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>NOMBRE_PROFESIONAL</t>
+          <t>FECHA_INGRESO</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Dr. Luis Herrera</t>
+          <t>22/11/2025</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -8021,21 +7934,21 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Fecha de ingreso</t>
+          <t>Ciudad</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>FECHA_INGRESO</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>03/12/2025</t>
+          <t>Madrid</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -8063,21 +7976,21 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Nombre Profesional</t>
+          <t>Dirección</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>NOMBRE_PROFESIONAL</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Dra. Elena Torres</t>
+          <t>C/ Mayor 15, 3B</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -8105,21 +8018,21 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Fecha de ingreso</t>
+          <t>Código Postal</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>FECHA_INGRESO</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>15/01/2026</t>
+          <t>28027</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -8151,17 +8064,17 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Edad</t>
+          <t>Ciudad</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>EDAD</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>Madrid</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -8189,11 +8102,11 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Ciudad</t>
+          <t>Dirección</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -8203,7 +8116,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Madrid</t>
+          <t>C/ Alcalá 220</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -8231,21 +8144,21 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Dirección</t>
+          <t>Pasaporte</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>PASAPORTE</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>C/ Mayor 15, 3B</t>
+          <t>XK987654</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -8277,17 +8190,17 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Fecha Ingreso</t>
+          <t>Nombre de Paciente</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>FECHA_INGRESO</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>22/11/2025</t>
+          <t>Roberto Sánchez</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -8315,21 +8228,21 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Código Postal</t>
+          <t>Nombre Paciente</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>28027</t>
+          <t>Juan Pérez</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -8357,21 +8270,21 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Fecha Nacimiento</t>
+          <t>NªHistoría clínica</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>FECHA_NACIMIENTO</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>1990-08-06 00:00:00</t>
+          <t>MRN-556677</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -8399,21 +8312,21 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Nº Historia Clínica</t>
+          <t>Edad</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>EDAD</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>HC-0099123</t>
+          <t>45</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -8441,7 +8354,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -8452,17 +8365,17 @@
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>NOMBRE_PROFESIONAL</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>NOMBRE_PROFESIONAL</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>15/01/2026</t>
+          <t>Juan Pérez</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -8483,7 +8396,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -8494,17 +8407,17 @@
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr">
         <is>
-          <t>NOMBRE_PROFESIONAL</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>NOMBRE_PROFESIONAL</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Roberto Sánchez</t>
+          <t>C/ Mayor 15, 3B, 28013 Madrid</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -8525,7 +8438,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -8536,17 +8449,17 @@
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>C/ Mayor 15, 3B, 28013 Madrid</t>
+          <t>03/12/2025</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -8567,7 +8480,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -8578,17 +8491,17 @@
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr">
         <is>
-          <t>EDAD</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>EDAD</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>45 años</t>
+          <t>22/11/2025</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -8609,7 +8522,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -8620,17 +8533,17 @@
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>EDAD</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>EDAD</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>C/ Alcalá 220, 28027 Madrid</t>
+          <t>52 años</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -8651,7 +8564,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -8662,17 +8575,17 @@
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr">
         <is>
-          <t>NOMBRE_PROFESIONAL</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>NOMBRE_PROFESIONAL</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Elena Torres</t>
+          <t>hospital</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -8693,7 +8606,7 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -8704,17 +8617,17 @@
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr">
         <is>
-          <t>NHC</t>
+          <t>NOMBRE_PROFESIONAL</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>NHC</t>
+          <t>NOMBRE_PROFESIONAL</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>0099123</t>
+          <t>Elena Torres</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -8735,7 +8648,7 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -8746,17 +8659,17 @@
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr">
         <is>
-          <t>NOMBRE_PROFESIONAL</t>
+          <t>DEVICE_ID</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>NOMBRE_PROFESIONAL</t>
+          <t>DEVICE_ID</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Juan Pérez</t>
+          <t>XK987654</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -8777,7 +8690,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -8788,17 +8701,17 @@
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr">
         <is>
-          <t>NOMBRE_PROFESIONAL</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>NOMBRE_PROFESIONAL</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Luis Herrera</t>
+          <t>08/06/1990</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -8819,7 +8732,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -8830,17 +8743,17 @@
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>NOMBRE_PROFESIONAL</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>NOMBRE_PROFESIONAL</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>hospital</t>
+          <t>Luis Herrera</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -8861,7 +8774,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -8882,7 +8795,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>08/06/1990</t>
+          <t>15/01/2026</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -8903,7 +8816,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -8914,17 +8827,17 @@
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr">
         <is>
-          <t>NHC</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>NHC</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>MRN-556677</t>
+          <t>C/ Alcalá 220, 28027 Madrid</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -8945,7 +8858,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -8956,17 +8869,17 @@
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>EDAD</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>EDAD</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>03/12/2025</t>
+          <t>45 años</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -8980,132 +8893,6 @@
         </is>
       </c>
       <c r="J55" t="inlineStr">
-        <is>
-          <t>strict</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="n">
-        <v>8</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr"/>
-      <c r="D56" t="inlineStr"/>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>EDAD</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>EDAD</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>52 años</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>✗</t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>FP</t>
-        </is>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>strict</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="n">
-        <v>8</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr"/>
-      <c r="D57" t="inlineStr"/>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>FECHA</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>FECHA</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>22/11/2025</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>✗</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>FP</t>
-        </is>
-      </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>strict</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="n">
-        <v>10</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr"/>
-      <c r="D58" t="inlineStr"/>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>DEVICE_ID</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>DEVICE_ID</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>XK987654</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>✗</t>
-        </is>
-      </c>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>FP</t>
-        </is>
-      </c>
-      <c r="J58" t="inlineStr">
         <is>
           <t>strict</t>
         </is>
@@ -9122,7 +8909,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N52"/>
+  <dimension ref="A1:N49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11690,7 +11477,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -11703,21 +11490,21 @@
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr">
         <is>
-          <t>NHC</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>NHC</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>0099123</t>
+          <t>15/01/2026</t>
         </is>
       </c>
       <c r="J45" t="n">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="K45" t="n">
         <v>65</v>
@@ -11740,7 +11527,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -11763,14 +11550,14 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>15/01/2026</t>
+          <t>22/11/2025</t>
         </is>
       </c>
       <c r="J46" t="n">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="K46" t="n">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="L46" t="inlineStr">
         <is>
@@ -11790,7 +11577,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -11803,24 +11590,24 @@
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr">
         <is>
-          <t>NOMBRE_PROFESIONAL</t>
+          <t>DEVICE_ID</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>NOMBRE_PROFESIONAL</t>
+          <t>DEVICE_ID</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Roberto Sánchez</t>
+          <t>XK987654</t>
         </is>
       </c>
       <c r="J47" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="K47" t="n">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="L47" t="inlineStr">
         <is>
@@ -11840,7 +11627,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -11863,14 +11650,14 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>22/11/2025</t>
+          <t>08/06/1990</t>
         </is>
       </c>
       <c r="J48" t="n">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="K48" t="n">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="L48" t="inlineStr">
         <is>
@@ -11890,7 +11677,7 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -11903,24 +11690,24 @@
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr">
         <is>
-          <t>DEVICE_ID</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>DEVICE_ID</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>XK987654</t>
+          <t>hospital</t>
         </is>
       </c>
       <c r="J49" t="n">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="K49" t="n">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="L49" t="inlineStr">
         <is>
@@ -11933,156 +11720,6 @@
         </is>
       </c>
       <c r="N49" t="inlineStr">
-        <is>
-          <t>lenient</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="n">
-        <v>12</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr"/>
-      <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr"/>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>NHC</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>NHC</t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>MRN-556677</t>
-        </is>
-      </c>
-      <c r="J50" t="n">
-        <v>73</v>
-      </c>
-      <c r="K50" t="n">
-        <v>83</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>✗</t>
-        </is>
-      </c>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>FP</t>
-        </is>
-      </c>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t>lenient</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="n">
-        <v>15</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr"/>
-      <c r="D51" t="inlineStr"/>
-      <c r="E51" t="inlineStr"/>
-      <c r="F51" t="inlineStr"/>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>FECHA</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>FECHA</t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>08/06/1990</t>
-        </is>
-      </c>
-      <c r="J51" t="n">
-        <v>34</v>
-      </c>
-      <c r="K51" t="n">
-        <v>44</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>✗</t>
-        </is>
-      </c>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>FP</t>
-        </is>
-      </c>
-      <c r="N51" t="inlineStr">
-        <is>
-          <t>lenient</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="n">
-        <v>16</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr"/>
-      <c r="D52" t="inlineStr"/>
-      <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr"/>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>HOSPITAL</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>HOSPITAL</t>
-        </is>
-      </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>hospital</t>
-        </is>
-      </c>
-      <c r="J52" t="n">
-        <v>3</v>
-      </c>
-      <c r="K52" t="n">
-        <v>11</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>✗</t>
-        </is>
-      </c>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>FP</t>
-        </is>
-      </c>
-      <c r="N52" t="inlineStr">
         <is>
           <t>lenient</t>
         </is>
@@ -12180,7 +11817,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>El paciente con DNI ID_XXXXX y Nº de historia clínica HC-&lt;MRN&gt; fue dado de alta el &lt;DATE_DISCHARGE&gt;.</t>
+          <t>El paciente con DNI ID_XXXXX y Nº de historia clínica HC-0099123 fue dado de alta el &lt;DATE_DISCHARGE&gt;.</t>
         </is>
       </c>
     </row>
@@ -12242,7 +11879,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>&lt;PROVIDER_NAME&gt;, de Age_XX, ingresó en la &lt;HOSPITAL_NAME&gt; el &lt;DATE&gt;.</t>
+          <t>Roberto Sánchez, de Age_XX, ingresó en la &lt;HOSPITAL_NAME&gt; el &lt;DATE&gt;.</t>
         </is>
       </c>
     </row>
@@ -12302,7 +11939,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>La profesional sanitaria Dra. &lt;PROVIDER_NAME&gt; actualizó la historia clínica &lt;MRN&gt;.</t>
+          <t>La profesional sanitaria Dra. &lt;PROVIDER_NAME&gt; actualizó la historia clínica MRN-556677.</t>
         </is>
       </c>
     </row>

--- a/Resultados_Anonimizador_Hibrido_v3.xlsx
+++ b/Resultados_Anonimizador_Hibrido_v3.xlsx
@@ -1427,7 +1427,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3">
@@ -1457,7 +1457,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5">
@@ -1472,7 +1472,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.6285714285714286</v>
+        <v>0.6486486486486487</v>
       </c>
     </row>
     <row r="6">
@@ -1487,7 +1487,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.5365853658536586</v>
+        <v>0.5853658536585366</v>
       </c>
     </row>
     <row r="7">
@@ -1502,7 +1502,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.5789473684210527</v>
+        <v>0.6153846153846153</v>
       </c>
     </row>
     <row r="8">
@@ -1532,7 +1532,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -1562,7 +1562,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.8</v>
+        <v>0.7567567567567568</v>
       </c>
     </row>
     <row r="12">
@@ -1592,7 +1592,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.736842105263158</v>
+        <v>0.7179487179487181</v>
       </c>
     </row>
   </sheetData>
@@ -3543,10 +3543,10 @@
         <v>15</v>
       </c>
       <c r="B40" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C40" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3555,7 +3555,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>1990-08-06 00:00:00</t>
+          <t>08/06/1990</t>
         </is>
       </c>
     </row>
@@ -5206,7 +5206,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>UNRESOLVED</t>
+          <t>REPAIRED_DATE</t>
         </is>
       </c>
       <c r="E40" t="n">
@@ -5216,10 +5216,10 @@
         <v>42</v>
       </c>
       <c r="G40" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H40" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
@@ -5228,7 +5228,7 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 08/06/19</t>
+          <t>08/06/1990</t>
         </is>
       </c>
     </row>
@@ -5323,7 +5323,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5492,7 +5492,7 @@
         <v>28</v>
       </c>
       <c r="C6" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -5506,7 +5506,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>45 años</t>
+          <t>45</t>
         </is>
       </c>
       <c r="G6" t="n">
@@ -5634,57 +5634,57 @@
         <v>4</v>
       </c>
       <c r="B11" t="n">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="C11" t="n">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>FECHA_ALTA</t>
+          <t>NHC</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>FECHA_ALTA</t>
+          <t>NHC</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>10/12/2025</t>
+          <t>0099123</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>0.9988105893135071</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B12" t="n">
-        <v>30</v>
+        <v>86</v>
       </c>
       <c r="C12" t="n">
-        <v>42</v>
+        <v>96</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>FECHA_ALTA</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>FECHA_ALTA</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>192.168.1.10</t>
+          <t>10/12/2025</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1</v>
+        <v>0.9988105893135071</v>
       </c>
     </row>
     <row r="13">
@@ -5692,24 +5692,24 @@
         <v>5</v>
       </c>
       <c r="B13" t="n">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="C13" t="n">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>DEVICE_ID</t>
+          <t>IP</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>DEVICE_ID</t>
+          <t>IP</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>DEV-ABC-123</t>
+          <t>192.168.1.10</t>
         </is>
       </c>
       <c r="G13" t="n">
@@ -5718,31 +5718,31 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B14" t="n">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="C14" t="n">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>DEVICE_ID</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>DEVICE_ID</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Ana Martínez</t>
+          <t>DEV-ABC-123</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>0.9562344551086426</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -5750,28 +5750,28 @@
         <v>6</v>
       </c>
       <c r="B15" t="n">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="C15" t="n">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Hospital La Paz</t>
+          <t>Ana Martínez</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>0.9984539151191711</v>
+        <v>0.9562344551086426</v>
       </c>
     </row>
     <row r="16">
@@ -5779,57 +5779,57 @@
         <v>6</v>
       </c>
       <c r="B16" t="n">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C16" t="n">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>15/01/2026</t>
+          <t>Hospital La Paz</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>0.9989408850669861</v>
+        <v>0.9984539151191711</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B17" t="n">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="C17" t="n">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>NOMBRE_PROFESIONAL</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>NOMBRE_PROFESIONAL</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Luis Herrera</t>
+          <t>15/01/2026</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>0.9989856481552124</v>
+        <v>0.9989408850669861</v>
       </c>
     </row>
     <row r="18">
@@ -5837,28 +5837,28 @@
         <v>7</v>
       </c>
       <c r="B18" t="n">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="C18" t="n">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>NOMBRE_PROFESIONAL</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>NOMBRE_PROFESIONAL</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>l.herrera@hospital.com</t>
+          <t>Luis Herrera</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1</v>
+        <v>0.9989856481552124</v>
       </c>
     </row>
     <row r="19">
@@ -5866,24 +5866,24 @@
         <v>7</v>
       </c>
       <c r="B19" t="n">
-        <v>90</v>
+        <v>52</v>
       </c>
       <c r="C19" t="n">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>EMAIL</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>EMAIL</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>912 556 789</t>
+          <t>l.herrera@hospital.com</t>
         </is>
       </c>
       <c r="G19" t="n">
@@ -5892,27 +5892,27 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B20" t="n">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="C20" t="n">
-        <v>27</v>
+        <v>101</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>EDAD</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>EDAD</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>52 años</t>
+          <t>912 556 789</t>
         </is>
       </c>
       <c r="G20" t="n">
@@ -5924,28 +5924,28 @@
         <v>8</v>
       </c>
       <c r="B21" t="n">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="C21" t="n">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>EDAD</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>EDAD</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Clínica Santa María</t>
+          <t>52</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>0.9968382716178894</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -5953,111 +5953,111 @@
         <v>8</v>
       </c>
       <c r="B22" t="n">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="C22" t="n">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>22/11/2025</t>
+          <t>Clínica Santa María</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>0.9989843964576721</v>
+        <v>0.9968382716178894</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B23" t="n">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="C23" t="n">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>C/ Alcalá 220, 28027 Madrid</t>
+          <t>22/11/2025</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>0.9992307424545288</v>
+        <v>0.9989843964576721</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B24" t="n">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="C24" t="n">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>DEVICE_ID</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>DEVICE_ID</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>XK987654</t>
+          <t>C/ Alcalá 220, 28027 Madrid</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1</v>
+        <v>0.9992307424545288</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B25" t="n">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C25" t="n">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>DEVICE_ID</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>DEVICE_ID</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>10.0.0.55</t>
+          <t>XK987654</t>
         </is>
       </c>
       <c r="G25" t="n">
@@ -6069,24 +6069,24 @@
         <v>11</v>
       </c>
       <c r="B26" t="n">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="C26" t="n">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>DEVICE_ID</t>
+          <t>IP</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>DEVICE_ID</t>
+          <t>IP</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>DEV-XYZ-99</t>
+          <t>10.0.0.55</t>
         </is>
       </c>
       <c r="G26" t="n">
@@ -6095,114 +6095,114 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B27" t="n">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="C27" t="n">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>NOMBRE_PROFESIONAL</t>
+          <t>DEVICE_ID</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>NOMBRE_PROFESIONAL</t>
+          <t>DEVICE_ID</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Elena Torres</t>
+          <t>DEV-XYZ-99</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>0.9993487596511841</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B28" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C28" t="n">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>INSURANCE_ID</t>
+          <t>NOMBRE_PROFESIONAL</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>INSURANCE_ID</t>
+          <t>NOMBRE_PROFESIONAL</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>INS-145-88</t>
+          <t>Elena Torres</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1</v>
+        <v>0.9993487596511841</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B29" t="n">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="C29" t="n">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>NHC</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>NHC</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>03/03/2026</t>
+          <t>MRN-556677</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>0.9988794326782227</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B30" t="n">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="C30" t="n">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>INSURANCE_ID</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>INSURANCE_ID</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>+34 722 334 112</t>
+          <t>INS-145-88</t>
         </is>
       </c>
       <c r="G30" t="n">
@@ -6211,147 +6211,147 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B31" t="n">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="C31" t="n">
-        <v>98</v>
+        <v>61</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>roberto.san@outlook.es</t>
+          <t>03/03/2026</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1</v>
+        <v>0.9988794326782227</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B32" t="n">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="C32" t="n">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Marta Ruiz</t>
+          <t>+34 722 334 112</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>0.9981183409690857</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B33" t="n">
-        <v>34</v>
+        <v>76</v>
       </c>
       <c r="C33" t="n">
-        <v>44</v>
+        <v>98</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>EMAIL</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>EMAIL</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>08/06/1990</t>
+          <t>roberto.san@outlook.es</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>0.9990630149841309</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B34" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C34" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>hospital</t>
+          <t>Marta Ruiz</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>0.9917227625846863</v>
+        <v>0.9981183409690857</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B35" t="n">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="C35" t="n">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Centro Médico Norte</t>
+          <t>08/06/1990</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>0.6910634636878967</v>
+        <v>0.9990630149841309</v>
       </c>
     </row>
     <row r="36">
@@ -6359,27 +6359,85 @@
         <v>16</v>
       </c>
       <c r="B36" t="n">
+        <v>3</v>
+      </c>
+      <c r="C36" t="n">
+        <v>11</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>HOSPITAL</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>HOSPITAL</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>hospital</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>0.9917227625846863</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>16</v>
+      </c>
+      <c r="B37" t="n">
+        <v>12</v>
+      </c>
+      <c r="C37" t="n">
+        <v>31</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>HOSPITAL</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>HOSPITAL</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Centro Médico Norte</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>0.6910634636878967</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>16</v>
+      </c>
+      <c r="B38" t="n">
         <v>53</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C38" t="n">
         <v>63</v>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="D38" t="inlineStr">
         <is>
           <t>FECHA</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>FECHA</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>05/05/2025</t>
         </is>
       </c>
-      <c r="G36" t="n">
+      <c r="G38" t="n">
         <v>0.9989587664604187</v>
       </c>
     </row>
@@ -6456,7 +6514,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -6470,7 +6528,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>roberto.san@outlook.es</t>
+          <t>juan.perez@gmail.com</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -6485,7 +6543,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>roberto.san@outlook.es</t>
+          <t>juan.perez@gmail.com</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -6506,36 +6564,36 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>Email</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>EMAIL</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>192.168.1.10</t>
+          <t>roberto.san@outlook.es</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>EMAIL</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>EMAIL</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>192.168.1.10</t>
+          <t>roberto.san@outlook.es</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -6560,32 +6618,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ID Dispositivo</t>
+          <t>IP</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>DEVICE_ID</t>
+          <t>IP</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>DEV-ABC-123</t>
+          <t>192.168.1.10</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>DEVICE_ID</t>
+          <t>IP</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>DEVICE_ID</t>
+          <t>IP</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>DEV-ABC-123</t>
+          <t>192.168.1.10</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -6606,36 +6664,36 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Teléfono</t>
+          <t>Hospital</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>+34 722 334 112</t>
+          <t>Clínica Santa María</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>+34 722 334 112</t>
+          <t>Clínica Santa María</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -6656,36 +6714,36 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Fecha de alta</t>
+          <t>NªSeguro Médico</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>FECHA_ALTA</t>
+          <t>INSURANCE_ID</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>10/12/2025</t>
+          <t>INS-145-88</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>FECHA_ALTA</t>
+          <t>INSURANCE_ID</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>FECHA_ALTA</t>
+          <t>INSURANCE_ID</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>10/12/2025</t>
+          <t>INS-145-88</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -6706,36 +6764,36 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Hospitl</t>
+          <t>Edad</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>EDAD</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Centro Médico Norte</t>
+          <t>45</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>EDAD</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>EDAD</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Centro Médico Norte</t>
+          <t>45</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -6756,36 +6814,36 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Hospital</t>
+          <t>Teléfono</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Hospital La Paz</t>
+          <t>+34 600 123 123</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Hospital La Paz</t>
+          <t>+34 600 123 123</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -6806,36 +6864,36 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Teléfono</t>
+          <t>ID Dispositivo</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>DEVICE_ID</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>912 556 789</t>
+          <t>DEV-ABC-123</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>DEVICE_ID</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>DEVICE_ID</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>912 556 789</t>
+          <t>DEV-ABC-123</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -6856,36 +6914,36 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Teléfono</t>
+          <t>Fecha de alta</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>FECHA_ALTA</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>+34 600 123 123</t>
+          <t>10/12/2025</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>FECHA_ALTA</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>FECHA_ALTA</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>+34 600 123 123</t>
+          <t>10/12/2025</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -6906,36 +6964,36 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Nombre Paciente</t>
+          <t>Hospitl</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Marta Ruiz</t>
+          <t>Centro Médico Norte</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Marta Ruiz</t>
+          <t>Centro Médico Norte</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -6956,36 +7014,36 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Nombre Paciente</t>
+          <t>Emali</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>EMAIL</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Ana Martínez</t>
+          <t>l.herrera@hospital.com</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>EMAIL</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>EMAIL</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Ana Martínez</t>
+          <t>l.herrera@hospital.com</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -7006,36 +7064,36 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Hospital</t>
+          <t>Teléfono</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Clínica Santa María</t>
+          <t>912 556 789</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Clínica Santa María</t>
+          <t>912 556 789</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -7056,36 +7114,36 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Emali</t>
+          <t>Nombre Paciente</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>l.herrera@hospital.com</t>
+          <t>Ana Martínez</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>l.herrera@hospital.com</t>
+          <t>Ana Martínez</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -7106,36 +7164,36 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>DNI/NIF</t>
+          <t>Nombre Paciente</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>DNI_NIF</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>12345678A</t>
+          <t>Marta Ruiz</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>DNI_NIF</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>DNI_NIF</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>12345678A</t>
+          <t>Marta Ruiz</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -7156,36 +7214,36 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>fECHA</t>
+          <t>Edad</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>EDAD</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>03/03/2026</t>
+          <t>52</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>EDAD</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>EDAD</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>03/03/2026</t>
+          <t>52</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -7206,36 +7264,36 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ID Dispositivo</t>
+          <t>Nombre Paciente</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>DEVICE_ID</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>DEV-XYZ-99</t>
+          <t>María López</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>DEVICE_ID</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>DEVICE_ID</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>DEV-XYZ-99</t>
+          <t>María López</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -7256,36 +7314,36 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Nombre Paciente</t>
+          <t>Fecha</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>María López</t>
+          <t>05/05/2025</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>María López</t>
+          <t>05/05/2025</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -7306,36 +7364,36 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>NªSeguro Médico</t>
+          <t>DNI/NIF</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>INSURANCE_ID</t>
+          <t>DNI_NIF</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>INS-145-88</t>
+          <t>12345678A</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>INSURANCE_ID</t>
+          <t>DNI_NIF</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>INSURANCE_ID</t>
+          <t>DNI_NIF</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>INS-145-88</t>
+          <t>12345678A</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -7356,36 +7414,36 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Hospital</t>
+          <t>ID Dispositivo</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>DEVICE_ID</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Hospital Virgen del Mar</t>
+          <t>DEV-XYZ-99</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>DEVICE_ID</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>DEVICE_ID</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Hospital Virgen del Mar</t>
+          <t>DEV-XYZ-99</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -7406,36 +7464,36 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Email</t>
+          <t>IP</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>IP</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>juan.perez@gmail.com</t>
+          <t>10.0.0.55</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>IP</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>IP</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>juan.perez@gmail.com</t>
+          <t>10.0.0.55</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -7456,36 +7514,36 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Fecha</t>
+          <t>Teléfono</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>05/05/2025</t>
+          <t>+34 722 334 112</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>05/05/2025</t>
+          <t>+34 722 334 112</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -7506,36 +7564,36 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>Hospital</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>10.0.0.55</t>
+          <t>Hospital La Paz</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>10.0.0.55</t>
+          <t>Hospital La Paz</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -7556,38 +7614,46 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Fecha Nacimiento</t>
+          <t>Hospital</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>FECHA_NACIMIENTO</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>1990-08-06 00:00:00</t>
+          <t>Hospital Virgen del Mar</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
+          <t>HOSPITAL</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>HOSPITAL</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Hospital Virgen del Mar</t>
+        </is>
+      </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>✗</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>FN</t>
+          <t>TP</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -7598,38 +7664,46 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Nº Historia Clínica</t>
+          <t>fECHA</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>HC-0099123</t>
+          <t>03/03/2026</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
+          <t>FECHA</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>FECHA</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>03/03/2026</t>
+        </is>
+      </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>✗</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>FN</t>
+          <t>TP</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -7640,21 +7714,21 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Nombre Profesional</t>
+          <t>Código Postal</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>NOMBRE_PROFESIONAL</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Dra. Elena Torres</t>
+          <t>28013</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -7682,21 +7756,21 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Código Postal</t>
+          <t>Fecha de ingreso</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>FECHA_INGRESO</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>28013</t>
+          <t>03/12/2025</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -7724,21 +7798,21 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Fecha de ingreso</t>
+          <t>Nombre Profesional</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>FECHA_INGRESO</t>
+          <t>NOMBRE_PROFESIONAL</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>15/01/2026</t>
+          <t>Dra. Elena Torres</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -7766,21 +7840,21 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Edad</t>
+          <t>Código Postal</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>EDAD</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>28027</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -7808,7 +7882,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -7822,7 +7896,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>03/12/2025</t>
+          <t>15/01/2026</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -7850,21 +7924,21 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Nombre Profesional</t>
+          <t>Dirección</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>NOMBRE_PROFESIONAL</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Dr. Luis Herrera</t>
+          <t>C/ Alcalá 220</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -7892,21 +7966,21 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Fecha Ingreso</t>
+          <t>NªHistoría clínica</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>FECHA_INGRESO</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>22/11/2025</t>
+          <t>MRN-556677</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -7934,21 +8008,21 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Ciudad</t>
+          <t>Fecha Ingreso</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>FECHA_INGRESO</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Madrid</t>
+          <t>22/11/2025</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -7976,21 +8050,21 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Dirección</t>
+          <t>Nombre de Paciente</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>C/ Mayor 15, 3B</t>
+          <t>Roberto Sánchez</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -8018,21 +8092,21 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Código Postal</t>
+          <t>Fecha Nacimiento</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>FECHA_NACIMIENTO</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>28027</t>
+          <t>08/06/1990</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -8060,21 +8134,21 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Ciudad</t>
+          <t>Nº Historia Clínica</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Madrid</t>
+          <t>HC-0099123</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -8102,21 +8176,21 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Dirección</t>
+          <t>Pasaporte</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>PASAPORTE</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>C/ Alcalá 220</t>
+          <t>XK987654</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -8144,21 +8218,21 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Pasaporte</t>
+          <t>Nombre Paciente</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>PASAPORTE</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>XK987654</t>
+          <t>Juan Pérez</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -8186,21 +8260,21 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Nombre de Paciente</t>
+          <t>Ciudad</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Roberto Sánchez</t>
+          <t>Madrid</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -8228,21 +8302,21 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Nombre Paciente</t>
+          <t>Dirección</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Juan Pérez</t>
+          <t>C/ Mayor 15, 3B</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -8270,21 +8344,21 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>NªHistoría clínica</t>
+          <t>Ciudad</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>MRN-556677</t>
+          <t>Madrid</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -8312,21 +8386,21 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Edad</t>
+          <t>Nombre Profesional</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>EDAD</t>
+          <t>NOMBRE_PROFESIONAL</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>Dr. Luis Herrera</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -8354,7 +8428,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -8365,17 +8439,17 @@
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr">
         <is>
-          <t>NOMBRE_PROFESIONAL</t>
+          <t>NHC</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>NOMBRE_PROFESIONAL</t>
+          <t>NHC</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Juan Pérez</t>
+          <t>MRN-556677</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -8396,7 +8470,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -8407,17 +8481,17 @@
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>C/ Mayor 15, 3B, 28013 Madrid</t>
+          <t>hospital</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -8438,7 +8512,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -8459,7 +8533,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>03/12/2025</t>
+          <t>15/01/2026</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -8480,7 +8554,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -8501,7 +8575,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>22/11/2025</t>
+          <t>08/06/1990</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -8522,7 +8596,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -8533,17 +8607,17 @@
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr">
         <is>
-          <t>EDAD</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>EDAD</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>52 años</t>
+          <t>03/12/2025</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -8564,7 +8638,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -8575,17 +8649,17 @@
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>NOMBRE_PROFESIONAL</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>NOMBRE_PROFESIONAL</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>hospital</t>
+          <t>Luis Herrera</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -8606,7 +8680,7 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -8617,17 +8691,17 @@
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr">
         <is>
-          <t>NOMBRE_PROFESIONAL</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>NOMBRE_PROFESIONAL</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Elena Torres</t>
+          <t>C/ Alcalá 220, 28027 Madrid</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -8690,7 +8764,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -8701,17 +8775,17 @@
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>NOMBRE_PROFESIONAL</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>NOMBRE_PROFESIONAL</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>08/06/1990</t>
+          <t>Juan Pérez</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -8732,7 +8806,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -8753,7 +8827,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Luis Herrera</t>
+          <t>Elena Torres</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -8774,7 +8848,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -8795,7 +8869,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>15/01/2026</t>
+          <t>22/11/2025</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -8816,7 +8890,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -8837,7 +8911,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>C/ Alcalá 220, 28027 Madrid</t>
+          <t>C/ Mayor 15, 3B, 28013 Madrid</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -8858,7 +8932,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -8869,17 +8943,17 @@
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr">
         <is>
-          <t>EDAD</t>
+          <t>NHC</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>EDAD</t>
+          <t>NHC</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>45 años</t>
+          <t>0099123</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -8909,7 +8983,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N49"/>
+  <dimension ref="A1:N51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9250,14 +9324,14 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>45 años</t>
+          <t>45</t>
         </is>
       </c>
       <c r="J6" t="n">
         <v>28</v>
       </c>
       <c r="K6" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
@@ -10306,14 +10380,14 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>52 años</t>
+          <t>52</t>
         </is>
       </c>
       <c r="J24" t="n">
         <v>20</v>
       </c>
       <c r="K24" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="L24" t="inlineStr">
         <is>
@@ -11217,14 +11291,14 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>1990-08-06 00:00:00</t>
+          <t>08/06/1990</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F40" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -11477,7 +11551,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -11490,21 +11564,21 @@
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>NHC</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>NHC</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>15/01/2026</t>
+          <t>0099123</t>
         </is>
       </c>
       <c r="J45" t="n">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K45" t="n">
         <v>65</v>
@@ -11527,7 +11601,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -11550,14 +11624,14 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>22/11/2025</t>
+          <t>15/01/2026</t>
         </is>
       </c>
       <c r="J46" t="n">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="K46" t="n">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="L46" t="inlineStr">
         <is>
@@ -11577,7 +11651,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -11590,24 +11664,24 @@
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr">
         <is>
-          <t>DEVICE_ID</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>DEVICE_ID</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>XK987654</t>
+          <t>22/11/2025</t>
         </is>
       </c>
       <c r="J47" t="n">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="K47" t="n">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="L47" t="inlineStr">
         <is>
@@ -11627,7 +11701,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -11640,24 +11714,24 @@
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>DEVICE_ID</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>DEVICE_ID</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>08/06/1990</t>
+          <t>XK987654</t>
         </is>
       </c>
       <c r="J48" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="K48" t="n">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="L48" t="inlineStr">
         <is>
@@ -11677,7 +11751,7 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -11690,36 +11764,136 @@
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr">
         <is>
+          <t>NHC</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>NHC</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>MRN-556677</t>
+        </is>
+      </c>
+      <c r="J49" t="n">
+        <v>73</v>
+      </c>
+      <c r="K49" t="n">
+        <v>83</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>✗</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>FP</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>lenient</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>15</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>FECHA</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>FECHA</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>08/06/1990</t>
+        </is>
+      </c>
+      <c r="J50" t="n">
+        <v>34</v>
+      </c>
+      <c r="K50" t="n">
+        <v>44</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>✗</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>FP</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>lenient</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>16</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr">
+        <is>
           <t>HOSPITAL</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>HOSPITAL</t>
         </is>
       </c>
-      <c r="I49" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>hospital</t>
         </is>
       </c>
-      <c r="J49" t="n">
+      <c r="J51" t="n">
         <v>3</v>
       </c>
-      <c r="K49" t="n">
+      <c r="K51" t="n">
         <v>11</v>
       </c>
-      <c r="L49" t="inlineStr">
+      <c r="L51" t="inlineStr">
         <is>
           <t>✗</t>
         </is>
       </c>
-      <c r="M49" t="inlineStr">
+      <c r="M51" t="inlineStr">
         <is>
           <t>FP</t>
         </is>
       </c>
-      <c r="N49" t="inlineStr">
+      <c r="N51" t="inlineStr">
         <is>
           <t>lenient</t>
         </is>
@@ -11787,7 +11961,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>La paciente &lt;PATIENT_NAME&gt;, de Age_XX, vive en &lt;ADDRESS&gt;.</t>
+          <t>La paciente &lt;PATIENT_NAME&gt;, de Age_XX años, vive en &lt;ADDRESS&gt;.</t>
         </is>
       </c>
     </row>
@@ -11817,7 +11991,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>El paciente con DNI ID_XXXXX y Nº de historia clínica HC-0099123 fue dado de alta el &lt;DATE_DISCHARGE&gt;.</t>
+          <t>El paciente con DNI ID_XXXXX y Nº de historia clínica HC-&lt;MRN&gt; fue dado de alta el &lt;DATE_DISCHARGE&gt;.</t>
         </is>
       </c>
     </row>
@@ -11879,7 +12053,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Roberto Sánchez, de Age_XX, ingresó en la &lt;HOSPITAL_NAME&gt; el &lt;DATE&gt;.</t>
+          <t>Roberto Sánchez, de Age_XX años, ingresó en la &lt;HOSPITAL_NAME&gt; el &lt;DATE&gt;.</t>
         </is>
       </c>
     </row>
@@ -11939,7 +12113,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>La profesional sanitaria Dra. &lt;PROVIDER_NAME&gt; actualizó la historia clínica MRN-556677.</t>
+          <t>La profesional sanitaria Dra. &lt;PROVIDER_NAME&gt; actualizó la historia clínica &lt;MRN&gt;.</t>
         </is>
       </c>
     </row>

--- a/Resultados_Anonimizador_Hibrido_v3.xlsx
+++ b/Resultados_Anonimizador_Hibrido_v3.xlsx
@@ -1427,7 +1427,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3">
@@ -1442,7 +1442,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4">
@@ -1457,7 +1457,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5">
@@ -1472,7 +1472,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.6486486486486487</v>
+        <v>0.7317073170731707</v>
       </c>
     </row>
     <row r="6">
@@ -1487,7 +1487,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.5853658536585366</v>
+        <v>0.7317073170731707</v>
       </c>
     </row>
     <row r="7">
@@ -1502,7 +1502,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.6153846153846153</v>
+        <v>0.7317073170731707</v>
       </c>
     </row>
     <row r="8">
@@ -1517,7 +1517,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9">
@@ -1547,7 +1547,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -1562,7 +1562,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.7567567567567568</v>
+        <v>0.7804878048780488</v>
       </c>
     </row>
     <row r="12">
@@ -1577,7 +1577,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.6829268292682927</v>
+        <v>0.7804878048780488</v>
       </c>
     </row>
     <row r="13">
@@ -1592,7 +1592,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.7179487179487181</v>
+        <v>0.7804878048780488</v>
       </c>
     </row>
   </sheetData>
@@ -5323,7 +5323,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5521,7 +5521,7 @@
         <v>45</v>
       </c>
       <c r="C7" t="n">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -5535,7 +5535,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>C/ Mayor 15, 3B, 28013 Madrid</t>
+          <t>C/ Mayor 15, 3B</t>
         </is>
       </c>
       <c r="G7" t="n">
@@ -5544,85 +5544,85 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B8" t="n">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="C8" t="n">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>+34 600 123 123</t>
+          <t>28013</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>0.9976170063018799</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B9" t="n">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C9" t="n">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>juan.perez@gmail.com</t>
+          <t>Madrid</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1</v>
+        <v>0.9991710186004639</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B10" t="n">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="C10" t="n">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>DNI_NIF</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>DNI_NIF</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>12345678A</t>
+          <t>+34 600 123 123</t>
         </is>
       </c>
       <c r="G10" t="n">
@@ -5631,27 +5631,27 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B11" t="n">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="C11" t="n">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NHC</t>
+          <t>EMAIL</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>NHC</t>
+          <t>EMAIL</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0099123</t>
+          <t>juan.perez@gmail.com</t>
         </is>
       </c>
       <c r="G11" t="n">
@@ -5663,53 +5663,53 @@
         <v>4</v>
       </c>
       <c r="B12" t="n">
-        <v>86</v>
+        <v>20</v>
       </c>
       <c r="C12" t="n">
-        <v>96</v>
+        <v>29</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>FECHA_ALTA</t>
+          <t>DNI_NIF</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>FECHA_ALTA</t>
+          <t>DNI_NIF</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>10/12/2025</t>
+          <t>12345678A</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>0.9988105893135071</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B13" t="n">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="C13" t="n">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>NHC</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>NHC</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>192.168.1.10</t>
+          <t>0099123</t>
         </is>
       </c>
       <c r="G13" t="n">
@@ -5718,89 +5718,89 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B14" t="n">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="C14" t="n">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>DEVICE_ID</t>
+          <t>FECHA_ALTA</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>DEVICE_ID</t>
+          <t>FECHA_ALTA</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>DEV-ABC-123</t>
+          <t>10/12/2025</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v>0.9988105893135071</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B15" t="n">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C15" t="n">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>IP</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>IP</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Ana Martínez</t>
+          <t>192.168.1.10</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>0.9562344551086426</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B16" t="n">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="C16" t="n">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>DEVICE_ID</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>DEVICE_ID</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Hospital La Paz</t>
+          <t>DEV-ABC-123</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>0.9984539151191711</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -5808,86 +5808,86 @@
         <v>6</v>
       </c>
       <c r="B17" t="n">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="C17" t="n">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>15/01/2026</t>
+          <t>Ana Martínez</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>0.9989408850669861</v>
+        <v>0.9562344551086426</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B18" t="n">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C18" t="n">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>NOMBRE_PROFESIONAL</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>NOMBRE_PROFESIONAL</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Luis Herrera</t>
+          <t>Hospital La Paz</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>0.9989856481552124</v>
+        <v>0.9984539151191711</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B19" t="n">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C19" t="n">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>l.herrera@hospital.com</t>
+          <t>15/01/2026</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1</v>
+        <v>0.9989408850669861</v>
       </c>
     </row>
     <row r="20">
@@ -5895,53 +5895,53 @@
         <v>7</v>
       </c>
       <c r="B20" t="n">
-        <v>90</v>
+        <v>7</v>
       </c>
       <c r="C20" t="n">
-        <v>101</v>
+        <v>19</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>NOMBRE_PROFESIONAL</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>NOMBRE_PROFESIONAL</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>912 556 789</t>
+          <t>Luis Herrera</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1</v>
+        <v>0.9989856481552124</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B21" t="n">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="C21" t="n">
-        <v>22</v>
+        <v>74</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>EDAD</t>
+          <t>EMAIL</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>EDAD</t>
+          <t>EMAIL</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>l.herrera@hospital.com</t>
         </is>
       </c>
       <c r="G21" t="n">
@@ -5950,31 +5950,31 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B22" t="n">
-        <v>43</v>
+        <v>90</v>
       </c>
       <c r="C22" t="n">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Clínica Santa María</t>
+          <t>912 556 789</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>0.9968382716178894</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -5982,198 +5982,198 @@
         <v>8</v>
       </c>
       <c r="B23" t="n">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="C23" t="n">
-        <v>76</v>
+        <v>22</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>EDAD</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>EDAD</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>22/11/2025</t>
+          <t>52</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>0.9989843964576721</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B24" t="n">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C24" t="n">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>C/ Alcalá 220, 28027 Madrid</t>
+          <t>Clínica Santa María</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>0.9992307424545288</v>
+        <v>0.9968382716178894</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B25" t="n">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="C25" t="n">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>DEVICE_ID</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>DEVICE_ID</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>XK987654</t>
+          <t>22/11/2025</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1</v>
+        <v>0.9989843964576721</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B26" t="n">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C26" t="n">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>10.0.0.55</t>
+          <t>C/ Alcalá 220</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1</v>
+        <v>0.9992307424545288</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B27" t="n">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="C27" t="n">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>DEVICE_ID</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>DEVICE_ID</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>DEV-XYZ-99</t>
+          <t>28027</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1</v>
+        <v>0.9981446266174316</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B28" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="C28" t="n">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>NOMBRE_PROFESIONAL</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>NOMBRE_PROFESIONAL</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Elena Torres</t>
+          <t>Madrid</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>0.9993487596511841</v>
+        <v>0.9991428852081299</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B29" t="n">
-        <v>73</v>
+        <v>23</v>
       </c>
       <c r="C29" t="n">
-        <v>83</v>
+        <v>31</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>NHC</t>
+          <t>DEVICE_ID</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>NHC</t>
+          <t>DEVICE_ID</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>MRN-556677</t>
+          <t>XK987654</t>
         </is>
       </c>
       <c r="G29" t="n">
@@ -6182,27 +6182,27 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B30" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C30" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>INSURANCE_ID</t>
+          <t>IP</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>INSURANCE_ID</t>
+          <t>IP</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>INS-145-88</t>
+          <t>10.0.0.55</t>
         </is>
       </c>
       <c r="G30" t="n">
@@ -6211,85 +6211,85 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B31" t="n">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="C31" t="n">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>DEVICE_ID</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>DEVICE_ID</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>03/03/2026</t>
+          <t>DEV-XYZ-99</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>0.9988794326782227</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B32" t="n">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C32" t="n">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>NOMBRE_PROFESIONAL</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>NOMBRE_PROFESIONAL</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>+34 722 334 112</t>
+          <t>Elena Torres</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1</v>
+        <v>0.9993487596511841</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B33" t="n">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C33" t="n">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>NHC</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>NHC</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>roberto.san@outlook.es</t>
+          <t>MRN-556677</t>
         </is>
       </c>
       <c r="G33" t="n">
@@ -6298,42 +6298,42 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B34" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C34" t="n">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>INSURANCE_ID</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>INSURANCE_ID</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Marta Ruiz</t>
+          <t>INS-145-88</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>0.9981183409690857</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B35" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="C35" t="n">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -6347,97 +6347,213 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>08/06/1990</t>
+          <t>03/03/2026</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>0.9990630149841309</v>
+        <v>0.9988794326782227</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B36" t="n">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="C36" t="n">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>hospital</t>
+          <t>+34 722 334 112</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>0.9917227625846863</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B37" t="n">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="C37" t="n">
-        <v>31</v>
+        <v>98</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>EMAIL</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>EMAIL</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Centro Médico Norte</t>
+          <t>roberto.san@outlook.es</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>0.6910634636878967</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
+        <v>15</v>
+      </c>
+      <c r="B38" t="n">
+        <v>12</v>
+      </c>
+      <c r="C38" t="n">
+        <v>22</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>NOMBRE_PACIENTE</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>NOMBRE_PACIENTE</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Marta Ruiz</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v>0.9981183409690857</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>15</v>
+      </c>
+      <c r="B39" t="n">
+        <v>34</v>
+      </c>
+      <c r="C39" t="n">
+        <v>44</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>FECHA</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>FECHA</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>08/06/1990</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
+        <v>0.9990630149841309</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
         <v>16</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B40" t="n">
+        <v>3</v>
+      </c>
+      <c r="C40" t="n">
+        <v>11</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>HOSPITAL</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>HOSPITAL</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>hospital</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v>0.9917227625846863</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>16</v>
+      </c>
+      <c r="B41" t="n">
+        <v>12</v>
+      </c>
+      <c r="C41" t="n">
+        <v>31</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>HOSPITAL</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>HOSPITAL</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Centro Médico Norte</t>
+        </is>
+      </c>
+      <c r="G41" t="n">
+        <v>0.6910634636878967</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>16</v>
+      </c>
+      <c r="B42" t="n">
         <v>53</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C42" t="n">
         <v>63</v>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="D42" t="inlineStr">
         <is>
           <t>FECHA</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>FECHA</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>05/05/2025</t>
         </is>
       </c>
-      <c r="G38" t="n">
+      <c r="G42" t="n">
         <v>0.9989587664604187</v>
       </c>
     </row>
@@ -6452,7 +6568,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J55"/>
+  <dimension ref="A1:J53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6514,36 +6630,36 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Email</t>
+          <t>Dirección</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>juan.perez@gmail.com</t>
+          <t>C/ Mayor 15, 3B</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>juan.perez@gmail.com</t>
+          <t>C/ Mayor 15, 3B</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -6564,36 +6680,36 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Email</t>
+          <t>Edad</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>EDAD</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>roberto.san@outlook.es</t>
+          <t>45</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>EDAD</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>EDAD</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>roberto.san@outlook.es</t>
+          <t>45</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -6614,36 +6730,36 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>Teléfono</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>192.168.1.10</t>
+          <t>+34 722 334 112</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>192.168.1.10</t>
+          <t>+34 722 334 112</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -6664,36 +6780,36 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Hospital</t>
+          <t>ID Dispositivo</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>DEVICE_ID</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Clínica Santa María</t>
+          <t>DEV-ABC-123</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>DEVICE_ID</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>DEVICE_ID</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Clínica Santa María</t>
+          <t>DEV-ABC-123</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -6714,36 +6830,36 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>NªSeguro Médico</t>
+          <t>Hospital</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>INSURANCE_ID</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>INS-145-88</t>
+          <t>Clínica Santa María</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>INSURANCE_ID</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>INSURANCE_ID</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>INS-145-88</t>
+          <t>Clínica Santa María</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -6768,32 +6884,32 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Edad</t>
+          <t>Ciudad</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>EDAD</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>Madrid</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>EDAD</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>EDAD</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>Madrid</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -6814,36 +6930,36 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Teléfono</t>
+          <t>Nombre Paciente</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>+34 600 123 123</t>
+          <t>Marta Ruiz</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>+34 600 123 123</t>
+          <t>Marta Ruiz</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -6864,36 +6980,36 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ID Dispositivo</t>
+          <t>Hospitl</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>DEVICE_ID</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>DEV-ABC-123</t>
+          <t>Centro Médico Norte</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>DEVICE_ID</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>DEVICE_ID</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>DEV-ABC-123</t>
+          <t>Centro Médico Norte</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -6918,32 +7034,32 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Fecha de alta</t>
+          <t>DNI/NIF</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>FECHA_ALTA</t>
+          <t>DNI_NIF</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>10/12/2025</t>
+          <t>12345678A</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>FECHA_ALTA</t>
+          <t>DNI_NIF</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>FECHA_ALTA</t>
+          <t>DNI_NIF</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>10/12/2025</t>
+          <t>12345678A</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -6964,36 +7080,36 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Hospitl</t>
+          <t>IP</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>IP</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Centro Médico Norte</t>
+          <t>10.0.0.55</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>IP</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>IP</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Centro Médico Norte</t>
+          <t>10.0.0.55</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -7018,32 +7134,32 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Emali</t>
+          <t>Teléfono</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>l.herrera@hospital.com</t>
+          <t>912 556 789</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>l.herrera@hospital.com</t>
+          <t>912 556 789</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -7064,36 +7180,36 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Teléfono</t>
+          <t>Fecha de alta</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>FECHA_ALTA</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>912 556 789</t>
+          <t>10/12/2025</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>FECHA_ALTA</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>FECHA_ALTA</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>912 556 789</t>
+          <t>10/12/2025</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -7114,36 +7230,36 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Nombre Paciente</t>
+          <t>Edad</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>EDAD</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Ana Martínez</t>
+          <t>52</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>EDAD</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>EDAD</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Ana Martínez</t>
+          <t>52</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -7164,36 +7280,36 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Nombre Paciente</t>
+          <t>Email</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>EMAIL</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Marta Ruiz</t>
+          <t>roberto.san@outlook.es</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>EMAIL</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>EMAIL</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Marta Ruiz</t>
+          <t>roberto.san@outlook.es</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -7214,36 +7330,36 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Edad</t>
+          <t>NªSeguro Médico</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>EDAD</t>
+          <t>INSURANCE_ID</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>INS-145-88</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>EDAD</t>
+          <t>INSURANCE_ID</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>EDAD</t>
+          <t>INSURANCE_ID</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>INS-145-88</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -7264,36 +7380,36 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Nombre Paciente</t>
+          <t>Fecha</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>María López</t>
+          <t>05/05/2025</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>María López</t>
+          <t>05/05/2025</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -7314,36 +7430,36 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Fecha</t>
+          <t>Nombre Paciente</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>05/05/2025</t>
+          <t>María López</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>05/05/2025</t>
+          <t>María López</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -7364,36 +7480,36 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>DNI/NIF</t>
+          <t>IP</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>DNI_NIF</t>
+          <t>IP</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>12345678A</t>
+          <t>192.168.1.10</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>DNI_NIF</t>
+          <t>IP</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>DNI_NIF</t>
+          <t>IP</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>12345678A</t>
+          <t>192.168.1.10</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -7414,36 +7530,36 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ID Dispositivo</t>
+          <t>Dirección</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>DEVICE_ID</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>DEV-XYZ-99</t>
+          <t>C/ Alcalá 220</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>DEVICE_ID</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>DEVICE_ID</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>DEV-XYZ-99</t>
+          <t>C/ Alcalá 220</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -7464,36 +7580,36 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>fECHA</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>10.0.0.55</t>
+          <t>03/03/2026</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>10.0.0.55</t>
+          <t>03/03/2026</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -7514,36 +7630,36 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Teléfono</t>
+          <t>Ciudad</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>+34 722 334 112</t>
+          <t>Madrid</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>+34 722 334 112</t>
+          <t>Madrid</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -7564,36 +7680,36 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Hospital</t>
+          <t>Teléfono</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Hospital La Paz</t>
+          <t>+34 600 123 123</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Hospital La Paz</t>
+          <t>+34 600 123 123</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -7614,36 +7730,36 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Hospital</t>
+          <t>Emali</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>EMAIL</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Hospital Virgen del Mar</t>
+          <t>l.herrera@hospital.com</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>EMAIL</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>EMAIL</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Hospital Virgen del Mar</t>
+          <t>l.herrera@hospital.com</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -7664,36 +7780,36 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>fECHA</t>
+          <t>ID Dispositivo</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>DEVICE_ID</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>03/03/2026</t>
+          <t>DEV-XYZ-99</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>DEVICE_ID</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>DEVICE_ID</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>03/03/2026</t>
+          <t>DEV-XYZ-99</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -7714,38 +7830,46 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Código Postal</t>
+          <t>Hospital</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>28013</t>
+          <t>Hospital La Paz</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
+          <t>HOSPITAL</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>HOSPITAL</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Hospital La Paz</t>
+        </is>
+      </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>✗</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>FN</t>
+          <t>TP</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -7756,38 +7880,46 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Fecha de ingreso</t>
+          <t>Email</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>FECHA_INGRESO</t>
+          <t>EMAIL</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>03/12/2025</t>
+          <t>juan.perez@gmail.com</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr"/>
+          <t>EMAIL</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>EMAIL</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>juan.perez@gmail.com</t>
+        </is>
+      </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>✗</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>FN</t>
+          <t>TP</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -7798,38 +7930,46 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Nombre Profesional</t>
+          <t>Nombre Paciente</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>NOMBRE_PROFESIONAL</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Dra. Elena Torres</t>
+          <t>Ana Martínez</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
+          <t>NOMBRE_PACIENTE</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>NOMBRE_PACIENTE</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Ana Martínez</t>
+        </is>
+      </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>✗</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>FN</t>
+          <t>TP</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -7840,38 +7980,46 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Código Postal</t>
+          <t>Hospital</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>28027</t>
+          <t>Hospital Virgen del Mar</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr"/>
+          <t>HOSPITAL</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>HOSPITAL</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Hospital Virgen del Mar</t>
+        </is>
+      </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>✗</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>FN</t>
+          <t>TP</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -7882,38 +8030,46 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Fecha de ingreso</t>
+          <t>Código Postal</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>FECHA_INGRESO</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>15/01/2026</t>
+          <t>28027</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr"/>
+          <t>DIRECCION</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>DIRECCION</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>28027</t>
+        </is>
+      </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>✗</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>FN</t>
+          <t>TP</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -7924,11 +8080,11 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Dirección</t>
+          <t>Código Postal</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -7938,24 +8094,32 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>C/ Alcalá 220</t>
+          <t>28013</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
+          <t>DIRECCION</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>DIRECCION</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>28013</t>
+        </is>
+      </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>✗</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>FN</t>
+          <t>TP</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -7966,11 +8130,11 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>NªHistoría clínica</t>
+          <t>Nº Historia Clínica</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -7980,7 +8144,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>MRN-556677</t>
+          <t>HC-0099123</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -8008,21 +8172,21 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Fecha Ingreso</t>
+          <t>Fecha Nacimiento</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>FECHA_INGRESO</t>
+          <t>FECHA_NACIMIENTO</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>22/11/2025</t>
+          <t>08/06/1990</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -8092,21 +8256,21 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Fecha Nacimiento</t>
+          <t>Fecha de ingreso</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>FECHA_NACIMIENTO</t>
+          <t>FECHA_INGRESO</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>08/06/1990</t>
+          <t>15/01/2026</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -8134,21 +8298,21 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Nº Historia Clínica</t>
+          <t>Pasaporte</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>PASAPORTE</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>HC-0099123</t>
+          <t>XK987654</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -8176,21 +8340,21 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Pasaporte</t>
+          <t>Fecha Ingreso</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>PASAPORTE</t>
+          <t>FECHA_INGRESO</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>XK987654</t>
+          <t>22/11/2025</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -8218,21 +8382,21 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Nombre Paciente</t>
+          <t>Nombre Profesional</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>NOMBRE_PROFESIONAL</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Juan Pérez</t>
+          <t>Dr. Luis Herrera</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -8260,21 +8424,21 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Ciudad</t>
+          <t>NªHistoría clínica</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Madrid</t>
+          <t>MRN-556677</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -8302,21 +8466,21 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Dirección</t>
+          <t>Nombre Paciente</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>C/ Mayor 15, 3B</t>
+          <t>Juan Pérez</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -8344,21 +8508,21 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Ciudad</t>
+          <t>Nombre Profesional</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>NOMBRE_PROFESIONAL</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Madrid</t>
+          <t>Dra. Elena Torres</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -8386,21 +8550,21 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Nombre Profesional</t>
+          <t>Fecha de ingreso</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>NOMBRE_PROFESIONAL</t>
+          <t>FECHA_INGRESO</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Dr. Luis Herrera</t>
+          <t>03/12/2025</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -8439,17 +8603,17 @@
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr">
         <is>
-          <t>NHC</t>
+          <t>NOMBRE_PROFESIONAL</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>NHC</t>
+          <t>NOMBRE_PROFESIONAL</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>MRN-556677</t>
+          <t>Elena Torres</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -8470,7 +8634,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -8481,17 +8645,17 @@
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>NHC</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>NHC</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>hospital</t>
+          <t>0099123</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -8512,7 +8676,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -8523,17 +8687,17 @@
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>DEVICE_ID</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>DEVICE_ID</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>15/01/2026</t>
+          <t>XK987654</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -8554,7 +8718,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -8575,7 +8739,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>08/06/1990</t>
+          <t>22/11/2025</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -8607,17 +8771,17 @@
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>NOMBRE_PROFESIONAL</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>NOMBRE_PROFESIONAL</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>03/12/2025</t>
+          <t>Juan Pérez</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -8680,7 +8844,7 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -8691,17 +8855,17 @@
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>C/ Alcalá 220, 28027 Madrid</t>
+          <t>hospital</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -8722,7 +8886,7 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -8733,17 +8897,17 @@
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr">
         <is>
-          <t>DEVICE_ID</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>DEVICE_ID</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>XK987654</t>
+          <t>08/06/1990</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -8775,17 +8939,17 @@
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr">
         <is>
-          <t>NOMBRE_PROFESIONAL</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>NOMBRE_PROFESIONAL</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Juan Pérez</t>
+          <t>03/12/2025</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -8817,17 +8981,17 @@
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr">
         <is>
-          <t>NOMBRE_PROFESIONAL</t>
+          <t>NHC</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>NOMBRE_PROFESIONAL</t>
+          <t>NHC</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Elena Torres</t>
+          <t>MRN-556677</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -8848,7 +9012,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -8869,7 +9033,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>22/11/2025</t>
+          <t>15/01/2026</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -8883,90 +9047,6 @@
         </is>
       </c>
       <c r="J53" t="inlineStr">
-        <is>
-          <t>strict</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="n">
-        <v>2</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr"/>
-      <c r="D54" t="inlineStr"/>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>DIRECCION</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>DIRECCION</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>C/ Mayor 15, 3B, 28013 Madrid</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>✗</t>
-        </is>
-      </c>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>FP</t>
-        </is>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>strict</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="n">
-        <v>4</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr"/>
-      <c r="D55" t="inlineStr"/>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>NHC</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>NHC</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>0099123</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>✗</t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>FP</t>
-        </is>
-      </c>
-      <c r="J55" t="inlineStr">
         <is>
           <t>strict</t>
         </is>
@@ -9386,14 +9466,14 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>C/ Mayor 15, 3B, 28013 Madrid</t>
+          <t>C/ Mayor 15, 3B</t>
         </is>
       </c>
       <c r="J7" t="n">
         <v>45</v>
       </c>
       <c r="K7" t="n">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
@@ -9438,21 +9518,33 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+          <t>DIRECCION</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>DIRECCION</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>28013</t>
+        </is>
+      </c>
+      <c r="J8" t="n">
+        <v>62</v>
+      </c>
+      <c r="K8" t="n">
+        <v>67</v>
+      </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>✗</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>FN</t>
+          <t>TP</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -9488,21 +9580,33 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+          <t>DIRECCION</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>DIRECCION</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Madrid</t>
+        </is>
+      </c>
+      <c r="J9" t="n">
+        <v>68</v>
+      </c>
+      <c r="K9" t="n">
+        <v>74</v>
+      </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>✗</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>FN</t>
+          <t>TP</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -10554,14 +10658,14 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>C/ Alcalá 220, 28027 Madrid</t>
+          <t>C/ Alcalá 220</t>
         </is>
       </c>
       <c r="J27" t="n">
         <v>39</v>
       </c>
       <c r="K27" t="n">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="L27" t="inlineStr">
         <is>
@@ -10606,21 +10710,33 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+          <t>DIRECCION</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>DIRECCION</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>28027</t>
+        </is>
+      </c>
+      <c r="J28" t="n">
+        <v>54</v>
+      </c>
+      <c r="K28" t="n">
+        <v>59</v>
+      </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>✗</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>FN</t>
+          <t>TP</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
@@ -10656,21 +10772,33 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+          <t>DIRECCION</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>DIRECCION</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>Madrid</t>
+        </is>
+      </c>
+      <c r="J29" t="n">
+        <v>60</v>
+      </c>
+      <c r="K29" t="n">
+        <v>66</v>
+      </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>✗</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>FN</t>
+          <t>TP</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
@@ -11961,7 +12089,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>La paciente &lt;PATIENT_NAME&gt;, de Age_XX años, vive en &lt;ADDRESS&gt;.</t>
+          <t>La paciente &lt;PATIENT_NAME&gt;, de Age_XX años, vive en &lt;ADDRESS&gt;, &lt;ADDRESS&gt; &lt;ADDRESS&gt;.</t>
         </is>
       </c>
     </row>
@@ -12068,7 +12196,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Se registró la dirección del paciente: &lt;ADDRESS&gt;.</t>
+          <t>Se registró la dirección del paciente: &lt;ADDRESS&gt;, &lt;ADDRESS&gt; &lt;ADDRESS&gt;.</t>
         </is>
       </c>
     </row>

--- a/Resultados_Anonimizador_Hibrido_v3.xlsx
+++ b/Resultados_Anonimizador_Hibrido_v3.xlsx
@@ -1427,7 +1427,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3">
@@ -1442,7 +1442,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1457,7 +1457,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1472,7 +1472,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.7317073170731707</v>
+        <v>0.7804878048780488</v>
       </c>
     </row>
     <row r="6">
@@ -1487,7 +1487,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.7317073170731707</v>
+        <v>0.7804878048780488</v>
       </c>
     </row>
     <row r="7">
@@ -1502,7 +1502,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.7317073170731707</v>
+        <v>0.7804878048780488</v>
       </c>
     </row>
     <row r="8">
@@ -1517,7 +1517,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9">
@@ -1532,7 +1532,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -1547,7 +1547,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11">
@@ -1562,7 +1562,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.7804878048780488</v>
+        <v>0.8292682926829268</v>
       </c>
     </row>
     <row r="12">
@@ -1577,7 +1577,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.7804878048780488</v>
+        <v>0.8292682926829268</v>
       </c>
     </row>
     <row r="13">
@@ -1592,7 +1592,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.7804878048780488</v>
+        <v>0.8292682926829268</v>
       </c>
     </row>
   </sheetData>
@@ -5438,12 +5438,12 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>FECHA_INGRESO</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>FECHA_INGRESO</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -6047,12 +6047,12 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>FECHA_INGRESO</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>FECHA_INGRESO</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -6568,7 +6568,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J53"/>
+  <dimension ref="A1:J51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6630,11 +6630,11 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dirección</t>
+          <t>Código Postal</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -6644,7 +6644,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>C/ Mayor 15, 3B</t>
+          <t>28027</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -6659,7 +6659,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>C/ Mayor 15, 3B</t>
+          <t>28027</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -6680,36 +6680,36 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Edad</t>
+          <t>Emali</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>EDAD</t>
+          <t>EMAIL</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>l.herrera@hospital.com</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>EDAD</t>
+          <t>EMAIL</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>EDAD</t>
+          <t>EMAIL</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>l.herrera@hospital.com</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -6730,36 +6730,36 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Teléfono</t>
+          <t>Hospital</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>+34 722 334 112</t>
+          <t>Hospital La Paz</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>+34 722 334 112</t>
+          <t>Hospital La Paz</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -6780,36 +6780,36 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ID Dispositivo</t>
+          <t>Nombre Paciente</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>DEVICE_ID</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>DEV-ABC-123</t>
+          <t>Ana Martínez</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>DEVICE_ID</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>DEVICE_ID</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>DEV-ABC-123</t>
+          <t>Ana Martínez</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -6830,36 +6830,36 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Hospital</t>
+          <t>Ciudad</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Clínica Santa María</t>
+          <t>Madrid</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Clínica Santa María</t>
+          <t>Madrid</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -6880,36 +6880,36 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Ciudad</t>
+          <t>Teléfono</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Madrid</t>
+          <t>912 556 789</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Madrid</t>
+          <t>912 556 789</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -6930,36 +6930,36 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Nombre Paciente</t>
+          <t>Hospital</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Marta Ruiz</t>
+          <t>Hospital Virgen del Mar</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Marta Ruiz</t>
+          <t>Hospital Virgen del Mar</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -6980,36 +6980,36 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Hospitl</t>
+          <t>ID Dispositivo</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>DEVICE_ID</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Centro Médico Norte</t>
+          <t>DEV-XYZ-99</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>DEVICE_ID</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>DEVICE_ID</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Centro Médico Norte</t>
+          <t>DEV-XYZ-99</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -7034,32 +7034,32 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>DNI/NIF</t>
+          <t>Fecha de alta</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>DNI_NIF</t>
+          <t>FECHA_ALTA</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>12345678A</t>
+          <t>10/12/2025</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>DNI_NIF</t>
+          <t>FECHA_ALTA</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>DNI_NIF</t>
+          <t>FECHA_ALTA</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>12345678A</t>
+          <t>10/12/2025</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -7080,36 +7080,36 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>Hospital</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>10.0.0.55</t>
+          <t>Clínica Santa María</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>10.0.0.55</t>
+          <t>Clínica Santa María</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -7130,36 +7130,36 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Teléfono</t>
+          <t>Fecha Ingreso</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>FECHA_INGRESO</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>912 556 789</t>
+          <t>22/11/2025</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>FECHA_INGRESO</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>FECHA_INGRESO</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>912 556 789</t>
+          <t>22/11/2025</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -7180,36 +7180,36 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Fecha de alta</t>
+          <t>IP</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>FECHA_ALTA</t>
+          <t>IP</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>10/12/2025</t>
+          <t>192.168.1.10</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>FECHA_ALTA</t>
+          <t>IP</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>FECHA_ALTA</t>
+          <t>IP</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>10/12/2025</t>
+          <t>192.168.1.10</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -7230,36 +7230,36 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Edad</t>
+          <t>Dirección</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>EDAD</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>C/ Alcalá 220</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>EDAD</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>EDAD</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>C/ Alcalá 220</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -7280,36 +7280,36 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Email</t>
+          <t>Edad</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>EDAD</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>roberto.san@outlook.es</t>
+          <t>45</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>EDAD</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>EDAD</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>roberto.san@outlook.es</t>
+          <t>45</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -7330,36 +7330,36 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>NªSeguro Médico</t>
+          <t>Código Postal</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>INSURANCE_ID</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>INS-145-88</t>
+          <t>28013</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>INSURANCE_ID</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>INSURANCE_ID</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>INS-145-88</t>
+          <t>28013</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -7380,36 +7380,36 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Fecha</t>
+          <t>DNI/NIF</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>DNI_NIF</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>05/05/2025</t>
+          <t>12345678A</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>DNI_NIF</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>DNI_NIF</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>05/05/2025</t>
+          <t>12345678A</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -7430,36 +7430,36 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Nombre Paciente</t>
+          <t>Email</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>EMAIL</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>María López</t>
+          <t>roberto.san@outlook.es</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>EMAIL</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>EMAIL</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>María López</t>
+          <t>roberto.san@outlook.es</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -7480,36 +7480,36 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>Edad</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>EDAD</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>192.168.1.10</t>
+          <t>52</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>EDAD</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>EDAD</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>192.168.1.10</t>
+          <t>52</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -7530,36 +7530,36 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Dirección</t>
+          <t>Fecha</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>C/ Alcalá 220</t>
+          <t>05/05/2025</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>C/ Alcalá 220</t>
+          <t>05/05/2025</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -7580,36 +7580,36 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>fECHA</t>
+          <t>IP</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>IP</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>03/03/2026</t>
+          <t>10.0.0.55</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>IP</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>IP</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>03/03/2026</t>
+          <t>10.0.0.55</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -7630,36 +7630,36 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Ciudad</t>
+          <t>NªSeguro Médico</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>INSURANCE_ID</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Madrid</t>
+          <t>INS-145-88</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>INSURANCE_ID</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>INSURANCE_ID</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Madrid</t>
+          <t>INS-145-88</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -7680,36 +7680,36 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Teléfono</t>
+          <t>Ciudad</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>+34 600 123 123</t>
+          <t>Madrid</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>+34 600 123 123</t>
+          <t>Madrid</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -7730,11 +7730,11 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Emali</t>
+          <t>Email</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -7744,7 +7744,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>l.herrera@hospital.com</t>
+          <t>juan.perez@gmail.com</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -7759,7 +7759,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>l.herrera@hospital.com</t>
+          <t>juan.perez@gmail.com</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -7780,7 +7780,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -7794,7 +7794,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>DEV-XYZ-99</t>
+          <t>DEV-ABC-123</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -7809,7 +7809,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>DEV-XYZ-99</t>
+          <t>DEV-ABC-123</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -7830,36 +7830,36 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Hospital</t>
+          <t>Fecha de ingreso</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>FECHA_INGRESO</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Hospital La Paz</t>
+          <t>03/12/2025</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>FECHA_INGRESO</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>FECHA_INGRESO</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Hospital La Paz</t>
+          <t>03/12/2025</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -7880,36 +7880,36 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Email</t>
+          <t>Teléfono</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>juan.perez@gmail.com</t>
+          <t>+34 722 334 112</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>juan.perez@gmail.com</t>
+          <t>+34 722 334 112</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -7930,36 +7930,36 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Nombre Paciente</t>
+          <t>Hospitl</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Ana Martínez</t>
+          <t>Centro Médico Norte</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Ana Martínez</t>
+          <t>Centro Médico Norte</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -7980,36 +7980,36 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Hospital</t>
+          <t>Dirección</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Hospital Virgen del Mar</t>
+          <t>C/ Mayor 15, 3B</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Hospital Virgen del Mar</t>
+          <t>C/ Mayor 15, 3B</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -8030,36 +8030,36 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Código Postal</t>
+          <t>fECHA</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>28027</t>
+          <t>03/03/2026</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>28027</t>
+          <t>03/03/2026</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -8080,36 +8080,36 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Código Postal</t>
+          <t>Teléfono</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>28013</t>
+          <t>+34 600 123 123</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>28013</t>
+          <t>+34 600 123 123</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -8130,38 +8130,46 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Nº Historia Clínica</t>
+          <t>Nombre Paciente</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>HC-0099123</t>
+          <t>Marta Ruiz</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr"/>
+          <t>NOMBRE_PACIENTE</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>NOMBRE_PACIENTE</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Marta Ruiz</t>
+        </is>
+      </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>✗</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>FN</t>
+          <t>TP</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -8172,38 +8180,46 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Fecha Nacimiento</t>
+          <t>Nombre Paciente</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>FECHA_NACIMIENTO</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>08/06/1990</t>
+          <t>María López</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr"/>
-      <c r="G33" t="inlineStr"/>
+          <t>NOMBRE_PACIENTE</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>NOMBRE_PACIENTE</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>María López</t>
+        </is>
+      </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>✗</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>FN</t>
+          <t>TP</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -8214,21 +8230,21 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Nombre de Paciente</t>
+          <t>Nº Historia Clínica</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Roberto Sánchez</t>
+          <t>HC-0099123</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -8256,21 +8272,21 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Fecha de ingreso</t>
+          <t>Nombre de Paciente</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>FECHA_INGRESO</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>15/01/2026</t>
+          <t>Roberto Sánchez</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -8298,21 +8314,21 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Pasaporte</t>
+          <t>Nombre Paciente</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>PASAPORTE</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>XK987654</t>
+          <t>Juan Pérez</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -8340,21 +8356,21 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Fecha Ingreso</t>
+          <t>Fecha Nacimiento</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>FECHA_INGRESO</t>
+          <t>FECHA_NACIMIENTO</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>22/11/2025</t>
+          <t>08/06/1990</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -8466,21 +8482,21 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Nombre Paciente</t>
+          <t>Pasaporte</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>PASAPORTE</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Juan Pérez</t>
+          <t>XK987654</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -8508,21 +8524,21 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Nombre Profesional</t>
+          <t>Fecha de ingreso</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>NOMBRE_PROFESIONAL</t>
+          <t>FECHA_INGRESO</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Dra. Elena Torres</t>
+          <t>15/01/2026</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -8550,21 +8566,21 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Fecha de ingreso</t>
+          <t>Nombre Profesional</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>FECHA_INGRESO</t>
+          <t>NOMBRE_PROFESIONAL</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>03/12/2025</t>
+          <t>Dra. Elena Torres</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -8592,7 +8608,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -8613,7 +8629,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Elena Torres</t>
+          <t>Luis Herrera</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -8634,7 +8650,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -8645,17 +8661,17 @@
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr">
         <is>
-          <t>NHC</t>
+          <t>NOMBRE_PROFESIONAL</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>NHC</t>
+          <t>NOMBRE_PROFESIONAL</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>0099123</t>
+          <t>Juan Pérez</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -8676,7 +8692,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -8687,17 +8703,17 @@
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr">
         <is>
-          <t>DEVICE_ID</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>DEVICE_ID</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>XK987654</t>
+          <t>15/01/2026</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -8718,7 +8734,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -8739,7 +8755,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>22/11/2025</t>
+          <t>08/06/1990</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -8760,7 +8776,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -8781,7 +8797,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Juan Pérez</t>
+          <t>Elena Torres</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -8802,7 +8818,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -8813,17 +8829,17 @@
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr">
         <is>
-          <t>NOMBRE_PROFESIONAL</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>NOMBRE_PROFESIONAL</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Luis Herrera</t>
+          <t>hospital</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -8844,7 +8860,7 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -8855,17 +8871,17 @@
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>NHC</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>NHC</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>hospital</t>
+          <t>0099123</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -8886,7 +8902,7 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -8897,17 +8913,17 @@
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>NHC</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>NHC</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>08/06/1990</t>
+          <t>MRN-556677</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -8928,7 +8944,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -8939,17 +8955,17 @@
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>DEVICE_ID</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>DEVICE_ID</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>03/12/2025</t>
+          <t>XK987654</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -8963,90 +8979,6 @@
         </is>
       </c>
       <c r="J51" t="inlineStr">
-        <is>
-          <t>strict</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="n">
-        <v>12</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr"/>
-      <c r="D52" t="inlineStr"/>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>NHC</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>NHC</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>MRN-556677</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>✗</t>
-        </is>
-      </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>FP</t>
-        </is>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>strict</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="n">
-        <v>6</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr"/>
-      <c r="D53" t="inlineStr"/>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>FECHA</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>FECHA</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>15/01/2026</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>✗</t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>FP</t>
-        </is>
-      </c>
-      <c r="J53" t="inlineStr">
         <is>
           <t>strict</t>
         </is>
@@ -9063,7 +8995,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N51"/>
+  <dimension ref="A1:N49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9282,21 +9214,33 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+          <t>FECHA_INGRESO</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>FECHA_INGRESO</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>03/12/2025</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
+        <v>52</v>
+      </c>
+      <c r="K4" t="n">
+        <v>62</v>
+      </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>✗</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>FN</t>
+          <t>TP</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -10598,21 +10542,33 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+          <t>FECHA_INGRESO</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>FECHA_INGRESO</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>22/11/2025</t>
+        </is>
+      </c>
+      <c r="J26" t="n">
+        <v>66</v>
+      </c>
+      <c r="K26" t="n">
+        <v>76</v>
+      </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>✗</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>FN</t>
+          <t>TP</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
@@ -11629,7 +11585,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -11642,24 +11598,24 @@
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>NHC</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>NHC</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>03/12/2025</t>
+          <t>0099123</t>
         </is>
       </c>
       <c r="J44" t="n">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="K44" t="n">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="L44" t="inlineStr">
         <is>
@@ -11679,7 +11635,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -11692,21 +11648,21 @@
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr">
         <is>
-          <t>NHC</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>NHC</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>0099123</t>
+          <t>15/01/2026</t>
         </is>
       </c>
       <c r="J45" t="n">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="K45" t="n">
         <v>65</v>
@@ -11729,7 +11685,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -11742,24 +11698,24 @@
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>DEVICE_ID</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>DEVICE_ID</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>15/01/2026</t>
+          <t>XK987654</t>
         </is>
       </c>
       <c r="J46" t="n">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="K46" t="n">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="L46" t="inlineStr">
         <is>
@@ -11779,7 +11735,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -11792,24 +11748,24 @@
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>NHC</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>NHC</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>22/11/2025</t>
+          <t>MRN-556677</t>
         </is>
       </c>
       <c r="J47" t="n">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="K47" t="n">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="L47" t="inlineStr">
         <is>
@@ -11829,7 +11785,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -11842,24 +11798,24 @@
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr">
         <is>
-          <t>DEVICE_ID</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>DEVICE_ID</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>XK987654</t>
+          <t>08/06/1990</t>
         </is>
       </c>
       <c r="J48" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="K48" t="n">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="L48" t="inlineStr">
         <is>
@@ -11879,7 +11835,7 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -11892,24 +11848,24 @@
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr">
         <is>
-          <t>NHC</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>NHC</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>MRN-556677</t>
+          <t>hospital</t>
         </is>
       </c>
       <c r="J49" t="n">
-        <v>73</v>
+        <v>3</v>
       </c>
       <c r="K49" t="n">
-        <v>83</v>
+        <v>11</v>
       </c>
       <c r="L49" t="inlineStr">
         <is>
@@ -11922,106 +11878,6 @@
         </is>
       </c>
       <c r="N49" t="inlineStr">
-        <is>
-          <t>lenient</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="n">
-        <v>15</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr"/>
-      <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr"/>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>FECHA</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>FECHA</t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>08/06/1990</t>
-        </is>
-      </c>
-      <c r="J50" t="n">
-        <v>34</v>
-      </c>
-      <c r="K50" t="n">
-        <v>44</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>✗</t>
-        </is>
-      </c>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>FP</t>
-        </is>
-      </c>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t>lenient</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="n">
-        <v>16</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr"/>
-      <c r="D51" t="inlineStr"/>
-      <c r="E51" t="inlineStr"/>
-      <c r="F51" t="inlineStr"/>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>HOSPITAL</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>HOSPITAL</t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>hospital</t>
-        </is>
-      </c>
-      <c r="J51" t="n">
-        <v>3</v>
-      </c>
-      <c r="K51" t="n">
-        <v>11</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>✗</t>
-        </is>
-      </c>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>FP</t>
-        </is>
-      </c>
-      <c r="N51" t="inlineStr">
         <is>
           <t>lenient</t>
         </is>
@@ -12074,7 +11930,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>&lt;PROVIDER_NAME&gt; ingresó en el &lt;HOSPITAL_NAME&gt; el &lt;DATE&gt; con dolor torácico.</t>
+          <t>&lt;PROVIDER_NAME&gt; ingresó en el &lt;HOSPITAL_NAME&gt; el &lt;DATE_ADMISSION&gt; con dolor torácico.</t>
         </is>
       </c>
     </row>
@@ -12181,7 +12037,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Roberto Sánchez, de Age_XX años, ingresó en la &lt;HOSPITAL_NAME&gt; el &lt;DATE&gt;.</t>
+          <t>Roberto Sánchez, de Age_XX años, ingresó en la &lt;HOSPITAL_NAME&gt; el &lt;DATE_ADMISSION&gt;.</t>
         </is>
       </c>
     </row>

--- a/Resultados_Anonimizador_Hibrido_v3.xlsx
+++ b/Resultados_Anonimizador_Hibrido_v3.xlsx
@@ -1427,7 +1427,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3">
@@ -1442,7 +1442,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1457,7 +1457,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -1472,7 +1472,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.7804878048780488</v>
+        <v>0.8536585365853658</v>
       </c>
     </row>
     <row r="6">
@@ -1487,7 +1487,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.7804878048780488</v>
+        <v>0.8536585365853658</v>
       </c>
     </row>
     <row r="7">
@@ -1502,7 +1502,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.7804878048780488</v>
+        <v>0.8536585365853658</v>
       </c>
     </row>
     <row r="8">
@@ -1517,7 +1517,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9">
@@ -1532,7 +1532,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -1547,7 +1547,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -1562,7 +1562,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.8292682926829268</v>
+        <v>0.8536585365853658</v>
       </c>
     </row>
     <row r="12">
@@ -1577,7 +1577,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.8292682926829268</v>
+        <v>0.8536585365853658</v>
       </c>
     </row>
     <row r="13">
@@ -1592,7 +1592,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.8292682926829268</v>
+        <v>0.8536585365853658</v>
       </c>
     </row>
   </sheetData>
@@ -5692,7 +5692,7 @@
         <v>4</v>
       </c>
       <c r="B13" t="n">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C13" t="n">
         <v>65</v>
@@ -5709,7 +5709,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0099123</t>
+          <t>HC-0099123</t>
         </is>
       </c>
       <c r="G13" t="n">
@@ -5895,7 +5895,7 @@
         <v>7</v>
       </c>
       <c r="B20" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C20" t="n">
         <v>19</v>
@@ -5912,7 +5912,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Luis Herrera</t>
+          <t>Dr. Luis Herrera</t>
         </is>
       </c>
       <c r="G20" t="n">
@@ -6243,7 +6243,7 @@
         <v>12</v>
       </c>
       <c r="B32" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C32" t="n">
         <v>42</v>
@@ -6260,7 +6260,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Elena Torres</t>
+          <t>Dra. Elena Torres</t>
         </is>
       </c>
       <c r="G32" t="n">
@@ -6453,12 +6453,12 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>FECHA_NACIMIENTO</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>FECHA_NACIMIENTO</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -6467,7 +6467,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>0.9990630149841309</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -6568,7 +6568,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J51"/>
+  <dimension ref="A1:J48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6680,36 +6680,36 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Emali</t>
+          <t>NªSeguro Médico</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>INSURANCE_ID</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>l.herrera@hospital.com</t>
+          <t>INS-145-88</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>INSURANCE_ID</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>INSURANCE_ID</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>l.herrera@hospital.com</t>
+          <t>INS-145-88</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -6730,36 +6730,36 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Hospital</t>
+          <t>Ciudad</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Hospital La Paz</t>
+          <t>Madrid</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Hospital La Paz</t>
+          <t>Madrid</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -6780,36 +6780,36 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Nombre Paciente</t>
+          <t>DNI/NIF</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>DNI_NIF</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Ana Martínez</t>
+          <t>12345678A</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>DNI_NIF</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>DNI_NIF</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Ana Martínez</t>
+          <t>12345678A</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -6830,36 +6830,36 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ciudad</t>
+          <t>Nombre Profesional</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>NOMBRE_PROFESIONAL</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Madrid</t>
+          <t>Dra. Elena Torres</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>NOMBRE_PROFESIONAL</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>NOMBRE_PROFESIONAL</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Madrid</t>
+          <t>Dra. Elena Torres</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -6884,32 +6884,32 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Teléfono</t>
+          <t>Nombre Profesional</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>NOMBRE_PROFESIONAL</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>912 556 789</t>
+          <t>Dr. Luis Herrera</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>NOMBRE_PROFESIONAL</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>NOMBRE_PROFESIONAL</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>912 556 789</t>
+          <t>Dr. Luis Herrera</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -6930,36 +6930,36 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Hospital</t>
+          <t>IP</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>IP</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Hospital Virgen del Mar</t>
+          <t>10.0.0.55</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>IP</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>IP</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Hospital Virgen del Mar</t>
+          <t>10.0.0.55</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -6980,36 +6980,36 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ID Dispositivo</t>
+          <t>Dirección</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>DEVICE_ID</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>DEV-XYZ-99</t>
+          <t>C/ Alcalá 220</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>DEVICE_ID</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>DEVICE_ID</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>DEV-XYZ-99</t>
+          <t>C/ Alcalá 220</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -7030,36 +7030,36 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Fecha de alta</t>
+          <t>Edad</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>FECHA_ALTA</t>
+          <t>EDAD</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>10/12/2025</t>
+          <t>52</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>FECHA_ALTA</t>
+          <t>EDAD</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>FECHA_ALTA</t>
+          <t>EDAD</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>10/12/2025</t>
+          <t>52</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -7080,36 +7080,36 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Hospital</t>
+          <t>fECHA</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Clínica Santa María</t>
+          <t>03/03/2026</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Clínica Santa María</t>
+          <t>03/03/2026</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -7130,36 +7130,36 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Fecha Ingreso</t>
+          <t>Dirección</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>FECHA_INGRESO</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>22/11/2025</t>
+          <t>C/ Mayor 15, 3B</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>FECHA_INGRESO</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>FECHA_INGRESO</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>22/11/2025</t>
+          <t>C/ Mayor 15, 3B</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -7180,36 +7180,36 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>Teléfono</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>192.168.1.10</t>
+          <t>912 556 789</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>192.168.1.10</t>
+          <t>912 556 789</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -7230,36 +7230,36 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Dirección</t>
+          <t>Nombre Paciente</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>C/ Alcalá 220</t>
+          <t>Ana Martínez</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>C/ Alcalá 220</t>
+          <t>Ana Martínez</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -7280,36 +7280,36 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Edad</t>
+          <t>Fecha</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>EDAD</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>05/05/2025</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>EDAD</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>EDAD</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>05/05/2025</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -7330,36 +7330,36 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Código Postal</t>
+          <t>Hospital</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>28013</t>
+          <t>Clínica Santa María</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>28013</t>
+          <t>Clínica Santa María</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -7380,36 +7380,36 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>DNI/NIF</t>
+          <t>Ciudad</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>DNI_NIF</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>12345678A</t>
+          <t>Madrid</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>DNI_NIF</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>DNI_NIF</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>12345678A</t>
+          <t>Madrid</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -7480,36 +7480,36 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Edad</t>
+          <t>Hospital</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>EDAD</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>Hospital Virgen del Mar</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>EDAD</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>EDAD</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>Hospital Virgen del Mar</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -7530,36 +7530,36 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Fecha</t>
+          <t>Teléfono</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>05/05/2025</t>
+          <t>+34 722 334 112</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>05/05/2025</t>
+          <t>+34 722 334 112</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -7580,36 +7580,36 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>Fecha Nacimiento</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>FECHA_NACIMIENTO</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>10.0.0.55</t>
+          <t>08/06/1990</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>FECHA_NACIMIENTO</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>FECHA_NACIMIENTO</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>10.0.0.55</t>
+          <t>08/06/1990</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -7630,36 +7630,36 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>NªSeguro Médico</t>
+          <t>Fecha de alta</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>INSURANCE_ID</t>
+          <t>FECHA_ALTA</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>INS-145-88</t>
+          <t>10/12/2025</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>INSURANCE_ID</t>
+          <t>FECHA_ALTA</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>INSURANCE_ID</t>
+          <t>FECHA_ALTA</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>INS-145-88</t>
+          <t>10/12/2025</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -7680,36 +7680,36 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Ciudad</t>
+          <t>Emali</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>EMAIL</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Madrid</t>
+          <t>l.herrera@hospital.com</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>EMAIL</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>EMAIL</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Madrid</t>
+          <t>l.herrera@hospital.com</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -7730,36 +7730,36 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Email</t>
+          <t>Edad</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>EDAD</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>juan.perez@gmail.com</t>
+          <t>45</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>EDAD</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>EDAD</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>juan.perez@gmail.com</t>
+          <t>45</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -7780,36 +7780,36 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>ID Dispositivo</t>
+          <t>Email</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>DEVICE_ID</t>
+          <t>EMAIL</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>DEV-ABC-123</t>
+          <t>juan.perez@gmail.com</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>DEVICE_ID</t>
+          <t>EMAIL</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>DEVICE_ID</t>
+          <t>EMAIL</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>DEV-ABC-123</t>
+          <t>juan.perez@gmail.com</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -7830,36 +7830,36 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Fecha de ingreso</t>
+          <t>ID Dispositivo</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>FECHA_INGRESO</t>
+          <t>DEVICE_ID</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>03/12/2025</t>
+          <t>DEV-ABC-123</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>FECHA_INGRESO</t>
+          <t>DEVICE_ID</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>FECHA_INGRESO</t>
+          <t>DEVICE_ID</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>03/12/2025</t>
+          <t>DEV-ABC-123</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -7880,7 +7880,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -7894,7 +7894,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>+34 722 334 112</t>
+          <t>+34 600 123 123</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -7909,7 +7909,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>+34 722 334 112</t>
+          <t>+34 600 123 123</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -7930,36 +7930,36 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Hospitl</t>
+          <t>Código Postal</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Centro Médico Norte</t>
+          <t>28013</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Centro Médico Norte</t>
+          <t>28013</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -7980,36 +7980,36 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Dirección</t>
+          <t>ID Dispositivo</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>DEVICE_ID</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>C/ Mayor 15, 3B</t>
+          <t>DEV-XYZ-99</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>DEVICE_ID</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>DEVICE_ID</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>C/ Mayor 15, 3B</t>
+          <t>DEV-XYZ-99</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -8030,36 +8030,36 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>fECHA</t>
+          <t>Hospital</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>03/03/2026</t>
+          <t>Hospital La Paz</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>03/03/2026</t>
+          <t>Hospital La Paz</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -8080,36 +8080,36 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Teléfono</t>
+          <t>Nombre Paciente</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>+34 600 123 123</t>
+          <t>María López</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>+34 600 123 123</t>
+          <t>María López</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -8130,36 +8130,36 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Nombre Paciente</t>
+          <t>Hospitl</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Marta Ruiz</t>
+          <t>Centro Médico Norte</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Marta Ruiz</t>
+          <t>Centro Médico Norte</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -8180,36 +8180,36 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Nombre Paciente</t>
+          <t>Fecha Ingreso</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>FECHA_INGRESO</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>María López</t>
+          <t>22/11/2025</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>FECHA_INGRESO</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>FECHA_INGRESO</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>María López</t>
+          <t>22/11/2025</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -8230,38 +8230,46 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Nº Historia Clínica</t>
+          <t>Nombre Paciente</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>HC-0099123</t>
+          <t>Marta Ruiz</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr"/>
-      <c r="G34" t="inlineStr"/>
+          <t>NOMBRE_PACIENTE</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>NOMBRE_PACIENTE</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Marta Ruiz</t>
+        </is>
+      </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>✗</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>FN</t>
+          <t>TP</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -8272,38 +8280,46 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Nombre de Paciente</t>
+          <t>IP</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>IP</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Roberto Sánchez</t>
+          <t>192.168.1.10</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr"/>
+          <t>IP</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>IP</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>192.168.1.10</t>
+        </is>
+      </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>✗</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>FN</t>
+          <t>TP</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -8318,34 +8334,42 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Nombre Paciente</t>
+          <t>Fecha de ingreso</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>FECHA_INGRESO</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Juan Pérez</t>
+          <t>03/12/2025</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr"/>
+          <t>FECHA_INGRESO</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>FECHA_INGRESO</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>03/12/2025</t>
+        </is>
+      </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>✗</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>FN</t>
+          <t>TP</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -8356,21 +8380,21 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Fecha Nacimiento</t>
+          <t>Nombre Paciente</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>FECHA_NACIMIENTO</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>08/06/1990</t>
+          <t>Juan Pérez</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -8398,21 +8422,21 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Nombre Profesional</t>
+          <t>Nº Historia Clínica</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>NOMBRE_PROFESIONAL</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Dr. Luis Herrera</t>
+          <t>HC-0099123</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -8440,21 +8464,21 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>NªHistoría clínica</t>
+          <t>Pasaporte</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>PASAPORTE</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>MRN-556677</t>
+          <t>XK987654</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -8482,21 +8506,21 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Pasaporte</t>
+          <t>Nombre de Paciente</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>PASAPORTE</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>XK987654</t>
+          <t>Roberto Sánchez</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -8524,21 +8548,21 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Fecha de ingreso</t>
+          <t>NªHistoría clínica</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>FECHA_INGRESO</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>15/01/2026</t>
+          <t>MRN-556677</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -8566,21 +8590,21 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Nombre Profesional</t>
+          <t>Fecha de ingreso</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>NOMBRE_PROFESIONAL</t>
+          <t>FECHA_INGRESO</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Dra. Elena Torres</t>
+          <t>15/01/2026</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -8608,7 +8632,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -8619,17 +8643,17 @@
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr">
         <is>
-          <t>NOMBRE_PROFESIONAL</t>
+          <t>DEVICE_ID</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>NOMBRE_PROFESIONAL</t>
+          <t>DEVICE_ID</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Luis Herrera</t>
+          <t>XK987654</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -8650,7 +8674,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -8661,17 +8685,17 @@
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr">
         <is>
-          <t>NOMBRE_PROFESIONAL</t>
+          <t>NHC</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>NOMBRE_PROFESIONAL</t>
+          <t>NHC</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Juan Pérez</t>
+          <t>HC-0099123</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -8692,7 +8716,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -8703,17 +8727,17 @@
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>NOMBRE_PROFESIONAL</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>NOMBRE_PROFESIONAL</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>15/01/2026</t>
+          <t>Juan Pérez</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -8734,7 +8758,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -8755,7 +8779,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>08/06/1990</t>
+          <t>15/01/2026</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -8787,17 +8811,17 @@
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr">
         <is>
-          <t>NOMBRE_PROFESIONAL</t>
+          <t>NHC</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>NOMBRE_PROFESIONAL</t>
+          <t>NHC</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Elena Torres</t>
+          <t>MRN-556677</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -8853,132 +8877,6 @@
         </is>
       </c>
       <c r="J48" t="inlineStr">
-        <is>
-          <t>strict</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
-        <v>4</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr"/>
-      <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>NHC</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>NHC</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>0099123</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>✗</t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>FP</t>
-        </is>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>strict</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="n">
-        <v>12</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr"/>
-      <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>NHC</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>NHC</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>MRN-556677</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>✗</t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>FP</t>
-        </is>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>strict</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="n">
-        <v>10</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr"/>
-      <c r="D51" t="inlineStr"/>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>DEVICE_ID</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>DEVICE_ID</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>XK987654</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>✗</t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>FP</t>
-        </is>
-      </c>
-      <c r="J51" t="inlineStr">
         <is>
           <t>strict</t>
         </is>
@@ -8995,7 +8893,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N49"/>
+  <dimension ref="A1:N48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10192,11 +10090,11 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Luis Herrera</t>
+          <t>Dr. Luis Herrera</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="K20" t="n">
         <v>19</v>
@@ -10974,11 +10872,11 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Elena Torres</t>
+          <t>Dra. Elena Torres</t>
         </is>
       </c>
       <c r="J33" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K33" t="n">
         <v>42</v>
@@ -11386,21 +11284,33 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr"/>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+          <t>FECHA_NACIMIENTO</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>FECHA_NACIMIENTO</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>08/06/1990</t>
+        </is>
+      </c>
+      <c r="J40" t="n">
+        <v>34</v>
+      </c>
+      <c r="K40" t="n">
+        <v>44</v>
+      </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>✗</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>FN</t>
+          <t>TP</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
@@ -11608,11 +11518,11 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>0099123</t>
+          <t>HC-0099123</t>
         </is>
       </c>
       <c r="J44" t="n">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="K44" t="n">
         <v>65</v>
@@ -11785,7 +11695,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -11798,24 +11708,24 @@
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>08/06/1990</t>
+          <t>hospital</t>
         </is>
       </c>
       <c r="J48" t="n">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="K48" t="n">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="L48" t="inlineStr">
         <is>
@@ -11828,56 +11738,6 @@
         </is>
       </c>
       <c r="N48" t="inlineStr">
-        <is>
-          <t>lenient</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
-        <v>16</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr"/>
-      <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr"/>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>HOSPITAL</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>HOSPITAL</t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>hospital</t>
-        </is>
-      </c>
-      <c r="J49" t="n">
-        <v>3</v>
-      </c>
-      <c r="K49" t="n">
-        <v>11</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>✗</t>
-        </is>
-      </c>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>FP</t>
-        </is>
-      </c>
-      <c r="N49" t="inlineStr">
         <is>
           <t>lenient</t>
         </is>
@@ -11945,7 +11805,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>La paciente &lt;PATIENT_NAME&gt;, de Age_XX años, vive en &lt;ADDRESS&gt;, &lt;ADDRESS&gt; &lt;ADDRESS&gt;.</t>
+          <t>La paciente &lt;PATIENT_NAME&gt;, de Age_XX años, vive en &lt;ADDRESS&gt;.</t>
         </is>
       </c>
     </row>
@@ -11975,7 +11835,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>El paciente con DNI ID_XXXXX y Nº de historia clínica HC-&lt;MRN&gt; fue dado de alta el &lt;DATE_DISCHARGE&gt;.</t>
+          <t>El paciente con DNI ID_XXXXX y Nº de historia clínica &lt;MRN&gt; fue dado de alta el &lt;DATE_DISCHARGE&gt;.</t>
         </is>
       </c>
     </row>
@@ -12021,7 +11881,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>El Dr. &lt;PROVIDER_NAME&gt; contactó al paciente por correo Mail_XXX
+          <t>El &lt;PROVIDER_NAME&gt; contactó al paciente por correo Mail_XXX
  y al teléfono Phone_XXX.</t>
         </is>
       </c>
@@ -12052,7 +11912,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Se registró la dirección del paciente: &lt;ADDRESS&gt;, &lt;ADDRESS&gt; &lt;ADDRESS&gt;.</t>
+          <t>Se registró la dirección del paciente: &lt;ADDRESS&gt;.</t>
         </is>
       </c>
     </row>
@@ -12097,7 +11957,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>La profesional sanitaria Dra. &lt;PROVIDER_NAME&gt; actualizó la historia clínica &lt;MRN&gt;.</t>
+          <t>La profesional sanitaria &lt;PROVIDER_NAME&gt; actualizó la historia clínica &lt;MRN&gt;.</t>
         </is>
       </c>
     </row>
@@ -12142,7 +12002,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>La paciente &lt;PATIENT_NAME&gt;, nacida el &lt;DATE&gt;, acudió a urgencias con dolor abdominal.</t>
+          <t>La paciente &lt;PATIENT_NAME&gt;, nacida el &lt;DATE_BIRTH&gt;, acudió a urgencias con dolor abdominal.</t>
         </is>
       </c>
     </row>

--- a/Resultados_Anonimizador_Hibrido_v3.xlsx
+++ b/Resultados_Anonimizador_Hibrido_v3.xlsx
@@ -6630,36 +6630,36 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Código Postal</t>
+          <t>Nombre Paciente</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>28027</t>
+          <t>María López</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>28027</t>
+          <t>María López</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -6680,36 +6680,36 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>NªSeguro Médico</t>
+          <t>IP</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>INSURANCE_ID</t>
+          <t>IP</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>INS-145-88</t>
+          <t>10.0.0.55</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>INSURANCE_ID</t>
+          <t>IP</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>INSURANCE_ID</t>
+          <t>IP</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>INS-145-88</t>
+          <t>10.0.0.55</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -6730,36 +6730,36 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ciudad</t>
+          <t>NªSeguro Médico</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>INSURANCE_ID</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Madrid</t>
+          <t>INS-145-88</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>INSURANCE_ID</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>INSURANCE_ID</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Madrid</t>
+          <t>INS-145-88</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -6780,36 +6780,36 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>DNI/NIF</t>
+          <t>Teléfono</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>DNI_NIF</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>12345678A</t>
+          <t>+34 600 123 123</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>DNI_NIF</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>DNI_NIF</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>12345678A</t>
+          <t>+34 600 123 123</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -6830,36 +6830,36 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Nombre Profesional</t>
+          <t>Fecha de ingreso</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>NOMBRE_PROFESIONAL</t>
+          <t>FECHA_INGRESO</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Dra. Elena Torres</t>
+          <t>03/12/2025</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>NOMBRE_PROFESIONAL</t>
+          <t>FECHA_INGRESO</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>NOMBRE_PROFESIONAL</t>
+          <t>FECHA_INGRESO</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Dra. Elena Torres</t>
+          <t>03/12/2025</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -6880,36 +6880,36 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Nombre Profesional</t>
+          <t>Email</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>NOMBRE_PROFESIONAL</t>
+          <t>EMAIL</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Dr. Luis Herrera</t>
+          <t>roberto.san@outlook.es</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>NOMBRE_PROFESIONAL</t>
+          <t>EMAIL</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>NOMBRE_PROFESIONAL</t>
+          <t>EMAIL</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Dr. Luis Herrera</t>
+          <t>roberto.san@outlook.es</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -6930,36 +6930,36 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>Teléfono</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>10.0.0.55</t>
+          <t>+34 722 334 112</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>10.0.0.55</t>
+          <t>+34 722 334 112</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -6980,11 +6980,11 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Dirección</t>
+          <t>Ciudad</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -6994,7 +6994,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>C/ Alcalá 220</t>
+          <t>Madrid</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -7009,7 +7009,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>C/ Alcalá 220</t>
+          <t>Madrid</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -7030,36 +7030,36 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Edad</t>
+          <t>Ciudad</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>EDAD</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>Madrid</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>EDAD</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>EDAD</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>Madrid</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -7080,36 +7080,36 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>fECHA</t>
+          <t>Dirección</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>03/03/2026</t>
+          <t>C/ Alcalá 220</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>03/03/2026</t>
+          <t>C/ Alcalá 220</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -7130,36 +7130,36 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Dirección</t>
+          <t>Fecha de alta</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>FECHA_ALTA</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>C/ Mayor 15, 3B</t>
+          <t>10/12/2025</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>FECHA_ALTA</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>FECHA_ALTA</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>C/ Mayor 15, 3B</t>
+          <t>10/12/2025</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -7180,36 +7180,36 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Teléfono</t>
+          <t>Nombre Paciente</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>912 556 789</t>
+          <t>Ana Martínez</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>912 556 789</t>
+          <t>Ana Martínez</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -7230,36 +7230,36 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Nombre Paciente</t>
+          <t>Email</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>EMAIL</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Ana Martínez</t>
+          <t>juan.perez@gmail.com</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>EMAIL</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>EMAIL</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Ana Martínez</t>
+          <t>juan.perez@gmail.com</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -7280,36 +7280,36 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Fecha</t>
+          <t>DNI/NIF</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>DNI_NIF</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>05/05/2025</t>
+          <t>12345678A</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>DNI_NIF</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>DNI_NIF</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>05/05/2025</t>
+          <t>12345678A</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -7330,36 +7330,36 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Hospital</t>
+          <t>Teléfono</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Clínica Santa María</t>
+          <t>912 556 789</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Clínica Santa María</t>
+          <t>912 556 789</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -7380,36 +7380,36 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Ciudad</t>
+          <t>Nombre Profesional</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>NOMBRE_PROFESIONAL</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Madrid</t>
+          <t>Dra. Elena Torres</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>NOMBRE_PROFESIONAL</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>NOMBRE_PROFESIONAL</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Madrid</t>
+          <t>Dra. Elena Torres</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -7430,36 +7430,36 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Email</t>
+          <t>Hospital</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>roberto.san@outlook.es</t>
+          <t>Hospital Virgen del Mar</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>roberto.san@outlook.es</t>
+          <t>Hospital Virgen del Mar</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -7480,36 +7480,36 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Hospital</t>
+          <t>Código Postal</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Hospital Virgen del Mar</t>
+          <t>28027</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Hospital Virgen del Mar</t>
+          <t>28027</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -7530,36 +7530,36 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Teléfono</t>
+          <t>Emali</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>EMAIL</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>+34 722 334 112</t>
+          <t>l.herrera@hospital.com</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>EMAIL</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>EMAIL</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>+34 722 334 112</t>
+          <t>l.herrera@hospital.com</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -7580,36 +7580,36 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Fecha Nacimiento</t>
+          <t>fECHA</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>FECHA_NACIMIENTO</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>08/06/1990</t>
+          <t>03/03/2026</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>FECHA_NACIMIENTO</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>FECHA_NACIMIENTO</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>08/06/1990</t>
+          <t>03/03/2026</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -7630,36 +7630,36 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Fecha de alta</t>
+          <t>IP</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>FECHA_ALTA</t>
+          <t>IP</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>10/12/2025</t>
+          <t>192.168.1.10</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>FECHA_ALTA</t>
+          <t>IP</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>FECHA_ALTA</t>
+          <t>IP</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>10/12/2025</t>
+          <t>192.168.1.10</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -7684,32 +7684,32 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Emali</t>
+          <t>Nombre Profesional</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>NOMBRE_PROFESIONAL</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>l.herrera@hospital.com</t>
+          <t>Dr. Luis Herrera</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>NOMBRE_PROFESIONAL</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>NOMBRE_PROFESIONAL</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>l.herrera@hospital.com</t>
+          <t>Dr. Luis Herrera</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -7730,36 +7730,36 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Edad</t>
+          <t>Hospitl</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>EDAD</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>Centro Médico Norte</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>EDAD</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>EDAD</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>Centro Médico Norte</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -7780,36 +7780,36 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Email</t>
+          <t>Dirección</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>juan.perez@gmail.com</t>
+          <t>C/ Mayor 15, 3B</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>juan.perez@gmail.com</t>
+          <t>C/ Mayor 15, 3B</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -7830,36 +7830,36 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>ID Dispositivo</t>
+          <t>Hospital</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>DEVICE_ID</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>DEV-ABC-123</t>
+          <t>Clínica Santa María</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>DEVICE_ID</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>DEVICE_ID</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>DEV-ABC-123</t>
+          <t>Clínica Santa María</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -7880,36 +7880,36 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Teléfono</t>
+          <t>Fecha Nacimiento</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>FECHA_NACIMIENTO</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>+34 600 123 123</t>
+          <t>08/06/1990</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>FECHA_NACIMIENTO</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>FECHA_NACIMIENTO</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>+34 600 123 123</t>
+          <t>08/06/1990</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -7934,32 +7934,32 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Código Postal</t>
+          <t>Edad</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>EDAD</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>28013</t>
+          <t>45</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>EDAD</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>EDAD</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>28013</t>
+          <t>45</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -7980,36 +7980,36 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>ID Dispositivo</t>
+          <t>Hospital</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>DEVICE_ID</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>DEV-XYZ-99</t>
+          <t>Hospital La Paz</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>DEVICE_ID</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>DEVICE_ID</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>DEV-XYZ-99</t>
+          <t>Hospital La Paz</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -8030,36 +8030,36 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Hospital</t>
+          <t>Edad</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>EDAD</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Hospital La Paz</t>
+          <t>52</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>EDAD</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>EDAD</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Hospital La Paz</t>
+          <t>52</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -8080,7 +8080,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -8094,7 +8094,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>María López</t>
+          <t>Marta Ruiz</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -8109,7 +8109,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>María López</t>
+          <t>Marta Ruiz</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -8130,36 +8130,36 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Hospitl</t>
+          <t>Fecha Ingreso</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>FECHA_INGRESO</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Centro Médico Norte</t>
+          <t>22/11/2025</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>FECHA_INGRESO</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>FECHA_INGRESO</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Centro Médico Norte</t>
+          <t>22/11/2025</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -8180,36 +8180,36 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Fecha Ingreso</t>
+          <t>ID Dispositivo</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>FECHA_INGRESO</t>
+          <t>DEVICE_ID</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>22/11/2025</t>
+          <t>DEV-XYZ-99</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>FECHA_INGRESO</t>
+          <t>DEVICE_ID</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>FECHA_INGRESO</t>
+          <t>DEVICE_ID</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>22/11/2025</t>
+          <t>DEV-XYZ-99</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -8230,36 +8230,36 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Nombre Paciente</t>
+          <t>ID Dispositivo</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>DEVICE_ID</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Marta Ruiz</t>
+          <t>DEV-ABC-123</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>DEVICE_ID</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>DEVICE_ID</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Marta Ruiz</t>
+          <t>DEV-ABC-123</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -8280,36 +8280,36 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>Fecha</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>192.168.1.10</t>
+          <t>05/05/2025</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>192.168.1.10</t>
+          <t>05/05/2025</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -8330,36 +8330,36 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Fecha de ingreso</t>
+          <t>Código Postal</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>FECHA_INGRESO</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>03/12/2025</t>
+          <t>28013</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>FECHA_INGRESO</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>FECHA_INGRESO</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>03/12/2025</t>
+          <t>28013</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -8380,11 +8380,11 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Nombre Paciente</t>
+          <t>Nombre de Paciente</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -8394,7 +8394,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Juan Pérez</t>
+          <t>Roberto Sánchez</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -8422,11 +8422,11 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Nº Historia Clínica</t>
+          <t>NªHistoría clínica</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -8436,7 +8436,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>HC-0099123</t>
+          <t>MRN-556677</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -8506,21 +8506,21 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Nombre de Paciente</t>
+          <t>Nº Historia Clínica</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Roberto Sánchez</t>
+          <t>HC-0099123</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -8548,21 +8548,21 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>NªHistoría clínica</t>
+          <t>Nombre Paciente</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>MRN-556677</t>
+          <t>Juan Pérez</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -8632,7 +8632,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -8643,17 +8643,17 @@
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr">
         <is>
-          <t>DEVICE_ID</t>
+          <t>NHC</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>DEVICE_ID</t>
+          <t>NHC</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>XK987654</t>
+          <t>MRN-556677</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -8674,7 +8674,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -8685,17 +8685,17 @@
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr">
         <is>
-          <t>NHC</t>
+          <t>NOMBRE_PROFESIONAL</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>NHC</t>
+          <t>NOMBRE_PROFESIONAL</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>HC-0099123</t>
+          <t>Juan Pérez</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -8716,7 +8716,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -8727,17 +8727,17 @@
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr">
         <is>
-          <t>NOMBRE_PROFESIONAL</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>NOMBRE_PROFESIONAL</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Juan Pérez</t>
+          <t>hospital</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -8758,7 +8758,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -8769,17 +8769,17 @@
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>NHC</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>NHC</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>15/01/2026</t>
+          <t>HC-0099123</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -8800,7 +8800,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -8811,17 +8811,17 @@
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr">
         <is>
-          <t>NHC</t>
+          <t>DEVICE_ID</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>NHC</t>
+          <t>DEVICE_ID</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>MRN-556677</t>
+          <t>XK987654</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -8842,7 +8842,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -8853,17 +8853,17 @@
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>hospital</t>
+          <t>15/01/2026</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">

--- a/Resultados_Anonimizador_Hibrido_v3.xlsx
+++ b/Resultados_Anonimizador_Hibrido_v3.xlsx
@@ -1427,7 +1427,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3">
@@ -1442,7 +1442,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1457,7 +1457,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -1472,7 +1472,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.8536585365853658</v>
+        <v>0.8780487804878049</v>
       </c>
     </row>
     <row r="6">
@@ -1487,7 +1487,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.8536585365853658</v>
+        <v>0.8780487804878049</v>
       </c>
     </row>
     <row r="7">
@@ -1502,7 +1502,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.8536585365853658</v>
+        <v>0.8780487804878049</v>
       </c>
     </row>
     <row r="8">
@@ -1517,7 +1517,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9">
@@ -1532,7 +1532,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -1547,7 +1547,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11">
@@ -1562,7 +1562,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.8536585365853658</v>
+        <v>0.8780487804878049</v>
       </c>
     </row>
     <row r="12">
@@ -1577,7 +1577,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.8536585365853658</v>
+        <v>0.8780487804878049</v>
       </c>
     </row>
     <row r="13">
@@ -1592,7 +1592,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.8536585365853658</v>
+        <v>0.8780487804878049</v>
       </c>
     </row>
   </sheetData>
@@ -6568,7 +6568,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J48"/>
+  <dimension ref="A1:J47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6630,36 +6630,36 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Nombre Paciente</t>
+          <t>Fecha Ingreso</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>FECHA_INGRESO</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>María López</t>
+          <t>22/11/2025</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>FECHA_INGRESO</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>FECHA_INGRESO</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>María López</t>
+          <t>22/11/2025</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -6684,32 +6684,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>ID Dispositivo</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>DEVICE_ID</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>10.0.0.55</t>
+          <t>DEV-XYZ-99</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>DEVICE_ID</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>DEVICE_ID</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>10.0.0.55</t>
+          <t>DEV-XYZ-99</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -6734,32 +6734,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>NªSeguro Médico</t>
+          <t>fECHA</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>INSURANCE_ID</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>INS-145-88</t>
+          <t>03/03/2026</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>INSURANCE_ID</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>INSURANCE_ID</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>INS-145-88</t>
+          <t>03/03/2026</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -6780,36 +6780,36 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Teléfono</t>
+          <t>Código Postal</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>+34 600 123 123</t>
+          <t>28013</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>+34 600 123 123</t>
+          <t>28013</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -6834,32 +6834,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Fecha de ingreso</t>
+          <t>Hospital</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>FECHA_INGRESO</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>03/12/2025</t>
+          <t>Hospital Virgen del Mar</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>FECHA_INGRESO</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>FECHA_INGRESO</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>03/12/2025</t>
+          <t>Hospital Virgen del Mar</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -6880,36 +6880,36 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Email</t>
+          <t>IP</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>IP</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>roberto.san@outlook.es</t>
+          <t>10.0.0.55</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>IP</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>IP</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>roberto.san@outlook.es</t>
+          <t>10.0.0.55</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -6930,36 +6930,36 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Teléfono</t>
+          <t>NªSeguro Médico</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>INSURANCE_ID</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>+34 722 334 112</t>
+          <t>INS-145-88</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>INSURANCE_ID</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>INSURANCE_ID</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>+34 722 334 112</t>
+          <t>INS-145-88</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -6980,36 +6980,36 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Ciudad</t>
+          <t>Nombre Paciente</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Madrid</t>
+          <t>Marta Ruiz</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Madrid</t>
+          <t>Marta Ruiz</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -7030,36 +7030,36 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Ciudad</t>
+          <t>Email</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>EMAIL</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Madrid</t>
+          <t>juan.perez@gmail.com</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>EMAIL</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>EMAIL</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Madrid</t>
+          <t>juan.perez@gmail.com</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -7080,36 +7080,36 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Dirección</t>
+          <t>IP</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>IP</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>C/ Alcalá 220</t>
+          <t>192.168.1.10</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>IP</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>IP</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>C/ Alcalá 220</t>
+          <t>192.168.1.10</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -7130,36 +7130,36 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Fecha de alta</t>
+          <t>Hospitl</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>FECHA_ALTA</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>10/12/2025</t>
+          <t>Centro Médico Norte</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>FECHA_ALTA</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>FECHA_ALTA</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>10/12/2025</t>
+          <t>Centro Médico Norte</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -7180,36 +7180,36 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Nombre Paciente</t>
+          <t>Teléfono</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Ana Martínez</t>
+          <t>+34 722 334 112</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Ana Martínez</t>
+          <t>+34 722 334 112</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -7230,36 +7230,36 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Email</t>
+          <t>Dirección</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>juan.perez@gmail.com</t>
+          <t>C/ Mayor 15, 3B</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>juan.perez@gmail.com</t>
+          <t>C/ Mayor 15, 3B</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -7280,36 +7280,36 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>DNI/NIF</t>
+          <t>Fecha Nacimiento</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>DNI_NIF</t>
+          <t>FECHA_NACIMIENTO</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>12345678A</t>
+          <t>08/06/1990</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>DNI_NIF</t>
+          <t>FECHA_NACIMIENTO</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>DNI_NIF</t>
+          <t>FECHA_NACIMIENTO</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>12345678A</t>
+          <t>08/06/1990</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -7330,7 +7330,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -7344,7 +7344,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>912 556 789</t>
+          <t>+34 600 123 123</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -7359,7 +7359,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>912 556 789</t>
+          <t>+34 600 123 123</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -7380,7 +7380,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -7394,7 +7394,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Dra. Elena Torres</t>
+          <t>Dr. Luis Herrera</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -7409,7 +7409,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Dra. Elena Torres</t>
+          <t>Dr. Luis Herrera</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -7430,36 +7430,36 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Hospital</t>
+          <t>Nombre Paciente</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Hospital Virgen del Mar</t>
+          <t>Ana Martínez</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Hospital Virgen del Mar</t>
+          <t>Ana Martínez</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -7534,32 +7534,32 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Emali</t>
+          <t>Teléfono</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>l.herrera@hospital.com</t>
+          <t>912 556 789</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>l.herrera@hospital.com</t>
+          <t>912 556 789</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -7580,36 +7580,36 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>fECHA</t>
+          <t>Nombre Paciente</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>03/03/2026</t>
+          <t>María López</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>03/03/2026</t>
+          <t>María López</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -7630,36 +7630,36 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>Nombre Profesional</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>NOMBRE_PROFESIONAL</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>192.168.1.10</t>
+          <t>Dra. Elena Torres</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>NOMBRE_PROFESIONAL</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>NOMBRE_PROFESIONAL</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>192.168.1.10</t>
+          <t>Dra. Elena Torres</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -7680,36 +7680,36 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Nombre Profesional</t>
+          <t>Fecha</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>NOMBRE_PROFESIONAL</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Dr. Luis Herrera</t>
+          <t>05/05/2025</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>NOMBRE_PROFESIONAL</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>NOMBRE_PROFESIONAL</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Dr. Luis Herrera</t>
+          <t>05/05/2025</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -7730,36 +7730,36 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Hospitl</t>
+          <t>Edad</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>EDAD</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Centro Médico Norte</t>
+          <t>52</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>EDAD</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>EDAD</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Centro Médico Norte</t>
+          <t>52</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -7784,7 +7784,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Dirección</t>
+          <t>Ciudad</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -7794,7 +7794,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>C/ Mayor 15, 3B</t>
+          <t>Madrid</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -7809,7 +7809,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>C/ Mayor 15, 3B</t>
+          <t>Madrid</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -7830,36 +7830,36 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Hospital</t>
+          <t>Nº Historia Clínica</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>NHC</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Clínica Santa María</t>
+          <t>HC-0099123</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>NHC</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>NHC</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Clínica Santa María</t>
+          <t>HC-0099123</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -7880,36 +7880,36 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Fecha Nacimiento</t>
+          <t>Fecha de ingreso</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>FECHA_NACIMIENTO</t>
+          <t>FECHA_INGRESO</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>08/06/1990</t>
+          <t>03/12/2025</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>FECHA_NACIMIENTO</t>
+          <t>FECHA_INGRESO</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>FECHA_NACIMIENTO</t>
+          <t>FECHA_INGRESO</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>08/06/1990</t>
+          <t>03/12/2025</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -7980,36 +7980,36 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Hospital</t>
+          <t>DNI/NIF</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>DNI_NIF</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Hospital La Paz</t>
+          <t>12345678A</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>DNI_NIF</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>DNI_NIF</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Hospital La Paz</t>
+          <t>12345678A</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -8030,36 +8030,36 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Edad</t>
+          <t>Fecha de alta</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>EDAD</t>
+          <t>FECHA_ALTA</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>10/12/2025</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>EDAD</t>
+          <t>FECHA_ALTA</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>EDAD</t>
+          <t>FECHA_ALTA</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>10/12/2025</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -8080,36 +8080,36 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Nombre Paciente</t>
+          <t>ID Dispositivo</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>DEVICE_ID</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Marta Ruiz</t>
+          <t>DEV-ABC-123</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>DEVICE_ID</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>DEVICE_ID</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Marta Ruiz</t>
+          <t>DEV-ABC-123</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -8130,36 +8130,36 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Fecha Ingreso</t>
+          <t>Emali</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>FECHA_INGRESO</t>
+          <t>EMAIL</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>22/11/2025</t>
+          <t>l.herrera@hospital.com</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>FECHA_INGRESO</t>
+          <t>EMAIL</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>FECHA_INGRESO</t>
+          <t>EMAIL</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>22/11/2025</t>
+          <t>l.herrera@hospital.com</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -8180,36 +8180,36 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>ID Dispositivo</t>
+          <t>Dirección</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>DEVICE_ID</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>DEV-XYZ-99</t>
+          <t>C/ Alcalá 220</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>DEVICE_ID</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>DEVICE_ID</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>DEV-XYZ-99</t>
+          <t>C/ Alcalá 220</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -8230,36 +8230,36 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>ID Dispositivo</t>
+          <t>Hospital</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>DEVICE_ID</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>DEV-ABC-123</t>
+          <t>Hospital La Paz</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>DEVICE_ID</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>DEVICE_ID</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>DEV-ABC-123</t>
+          <t>Hospital La Paz</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -8280,36 +8280,36 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Fecha</t>
+          <t>Ciudad</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>05/05/2025</t>
+          <t>Madrid</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>05/05/2025</t>
+          <t>Madrid</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -8330,36 +8330,36 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Código Postal</t>
+          <t>Email</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>EMAIL</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>28013</t>
+          <t>roberto.san@outlook.es</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>EMAIL</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>EMAIL</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>28013</t>
+          <t>roberto.san@outlook.es</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -8384,34 +8384,42 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Nombre de Paciente</t>
+          <t>Hospital</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Roberto Sánchez</t>
+          <t>Clínica Santa María</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr"/>
-      <c r="G37" t="inlineStr"/>
+          <t>HOSPITAL</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>HOSPITAL</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Clínica Santa María</t>
+        </is>
+      </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>✗</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>FN</t>
+          <t>TP</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -8422,21 +8430,21 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>NªHistoría clínica</t>
+          <t>Nombre Paciente</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>MRN-556677</t>
+          <t>Juan Pérez</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -8464,21 +8472,21 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Pasaporte</t>
+          <t>NªHistoría clínica</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>PASAPORTE</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>XK987654</t>
+          <t>MRN-556677</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -8506,21 +8514,21 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Nº Historia Clínica</t>
+          <t>Pasaporte</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>PASAPORTE</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>HC-0099123</t>
+          <t>XK987654</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -8548,11 +8556,11 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Nombre Paciente</t>
+          <t>Nombre de Paciente</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -8562,7 +8570,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Juan Pérez</t>
+          <t>Roberto Sánchez</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -8632,7 +8640,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -8643,17 +8651,17 @@
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr">
         <is>
-          <t>NHC</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>NHC</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>MRN-556677</t>
+          <t>hospital</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -8674,7 +8682,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -8685,17 +8693,17 @@
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr">
         <is>
-          <t>NOMBRE_PROFESIONAL</t>
+          <t>DEVICE_ID</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>NOMBRE_PROFESIONAL</t>
+          <t>DEVICE_ID</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Juan Pérez</t>
+          <t>XK987654</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -8716,7 +8724,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -8727,17 +8735,17 @@
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>NOMBRE_PROFESIONAL</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>NOMBRE_PROFESIONAL</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>hospital</t>
+          <t>Juan Pérez</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -8758,7 +8766,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -8769,17 +8777,17 @@
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr">
         <is>
-          <t>NHC</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>NHC</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>HC-0099123</t>
+          <t>15/01/2026</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -8800,7 +8808,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -8811,17 +8819,17 @@
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr">
         <is>
-          <t>DEVICE_ID</t>
+          <t>NHC</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>DEVICE_ID</t>
+          <t>NHC</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>XK987654</t>
+          <t>MRN-556677</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -8835,48 +8843,6 @@
         </is>
       </c>
       <c r="J47" t="inlineStr">
-        <is>
-          <t>strict</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
-        <v>6</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr"/>
-      <c r="D48" t="inlineStr"/>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>FECHA</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>FECHA</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>15/01/2026</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>✗</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>FP</t>
-        </is>
-      </c>
-      <c r="J48" t="inlineStr">
         <is>
           <t>strict</t>
         </is>
@@ -8893,7 +8859,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N48"/>
+  <dimension ref="A1:N47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9654,7 +9620,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>NHC</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -9670,21 +9636,33 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+          <t>NHC</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>NHC</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>HC-0099123</t>
+        </is>
+      </c>
+      <c r="J13" t="n">
+        <v>55</v>
+      </c>
+      <c r="K13" t="n">
+        <v>65</v>
+      </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>✗</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>FN</t>
+          <t>TP</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -11495,7 +11473,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -11508,17 +11486,17 @@
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr">
         <is>
-          <t>NHC</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>NHC</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>HC-0099123</t>
+          <t>15/01/2026</t>
         </is>
       </c>
       <c r="J44" t="n">
@@ -11545,7 +11523,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -11558,24 +11536,24 @@
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>DEVICE_ID</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>DEVICE_ID</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>15/01/2026</t>
+          <t>XK987654</t>
         </is>
       </c>
       <c r="J45" t="n">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="K45" t="n">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="L45" t="inlineStr">
         <is>
@@ -11595,7 +11573,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -11608,24 +11586,24 @@
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr">
         <is>
-          <t>DEVICE_ID</t>
+          <t>NHC</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>DEVICE_ID</t>
+          <t>NHC</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>XK987654</t>
+          <t>MRN-556677</t>
         </is>
       </c>
       <c r="J46" t="n">
-        <v>23</v>
+        <v>73</v>
       </c>
       <c r="K46" t="n">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="L46" t="inlineStr">
         <is>
@@ -11645,7 +11623,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -11658,24 +11636,24 @@
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr">
         <is>
-          <t>NHC</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>NHC</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>MRN-556677</t>
+          <t>hospital</t>
         </is>
       </c>
       <c r="J47" t="n">
-        <v>73</v>
+        <v>3</v>
       </c>
       <c r="K47" t="n">
-        <v>83</v>
+        <v>11</v>
       </c>
       <c r="L47" t="inlineStr">
         <is>
@@ -11688,56 +11666,6 @@
         </is>
       </c>
       <c r="N47" t="inlineStr">
-        <is>
-          <t>lenient</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
-        <v>16</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr"/>
-      <c r="D48" t="inlineStr"/>
-      <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr"/>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>HOSPITAL</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>HOSPITAL</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>hospital</t>
-        </is>
-      </c>
-      <c r="J48" t="n">
-        <v>3</v>
-      </c>
-      <c r="K48" t="n">
-        <v>11</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>✗</t>
-        </is>
-      </c>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>FP</t>
-        </is>
-      </c>
-      <c r="N48" t="inlineStr">
         <is>
           <t>lenient</t>
         </is>

--- a/Resultados_Anonimizador_Hibrido_v3.xlsx
+++ b/Resultados_Anonimizador_Hibrido_v3.xlsx
@@ -1427,7 +1427,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3">
@@ -1442,7 +1442,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -1457,7 +1457,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -1472,7 +1472,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.8780487804878049</v>
+        <v>0.9024390243902439</v>
       </c>
     </row>
     <row r="6">
@@ -1487,7 +1487,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.8780487804878049</v>
+        <v>0.9024390243902439</v>
       </c>
     </row>
     <row r="7">
@@ -1502,7 +1502,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.8780487804878049</v>
+        <v>0.9024390243902439</v>
       </c>
     </row>
     <row r="8">
@@ -1517,7 +1517,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9">
@@ -1532,7 +1532,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -1547,7 +1547,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
@@ -1562,7 +1562,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.8780487804878049</v>
+        <v>0.9024390243902439</v>
       </c>
     </row>
     <row r="12">
@@ -1577,7 +1577,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.8780487804878049</v>
+        <v>0.9024390243902439</v>
       </c>
     </row>
     <row r="13">
@@ -1592,7 +1592,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.8780487804878049</v>
+        <v>0.9024390243902439</v>
       </c>
     </row>
   </sheetData>
@@ -6163,12 +6163,12 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>DEVICE_ID</t>
+          <t>PASAPORTE</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>DEVICE_ID</t>
+          <t>PASAPORTE</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -6568,7 +6568,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J47"/>
+  <dimension ref="A1:J46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6630,36 +6630,36 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fecha Ingreso</t>
+          <t>Ciudad</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>FECHA_INGRESO</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>22/11/2025</t>
+          <t>Madrid</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>FECHA_INGRESO</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>FECHA_INGRESO</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>22/11/2025</t>
+          <t>Madrid</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -6730,36 +6730,36 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>fECHA</t>
+          <t>Hospital</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>03/03/2026</t>
+          <t>Hospital Virgen del Mar</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>03/03/2026</t>
+          <t>Hospital Virgen del Mar</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -6780,36 +6780,36 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Código Postal</t>
+          <t>fECHA</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>28013</t>
+          <t>03/03/2026</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>28013</t>
+          <t>03/03/2026</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -6830,36 +6830,36 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Hospital</t>
+          <t>Ciudad</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Hospital Virgen del Mar</t>
+          <t>Madrid</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Hospital Virgen del Mar</t>
+          <t>Madrid</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -6880,36 +6880,36 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>Edad</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>EDAD</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>10.0.0.55</t>
+          <t>52</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>EDAD</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>EDAD</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>10.0.0.55</t>
+          <t>52</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -6930,36 +6930,36 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>NªSeguro Médico</t>
+          <t>Hospitl</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>INSURANCE_ID</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>INS-145-88</t>
+          <t>Centro Médico Norte</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>INSURANCE_ID</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>INSURANCE_ID</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>INS-145-88</t>
+          <t>Centro Médico Norte</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -6980,36 +6980,36 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Nombre Paciente</t>
+          <t>IP</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>IP</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Marta Ruiz</t>
+          <t>10.0.0.55</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>IP</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>IP</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Marta Ruiz</t>
+          <t>10.0.0.55</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -7030,36 +7030,36 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Email</t>
+          <t>DNI/NIF</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>DNI_NIF</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>juan.perez@gmail.com</t>
+          <t>12345678A</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>DNI_NIF</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>DNI_NIF</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>juan.perez@gmail.com</t>
+          <t>12345678A</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -7080,36 +7080,36 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>Fecha</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>192.168.1.10</t>
+          <t>05/05/2025</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>192.168.1.10</t>
+          <t>05/05/2025</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -7130,11 +7130,11 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Hospitl</t>
+          <t>Hospital</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -7144,7 +7144,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Centro Médico Norte</t>
+          <t>Clínica Santa María</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -7159,7 +7159,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Centro Médico Norte</t>
+          <t>Clínica Santa María</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -7180,36 +7180,36 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Teléfono</t>
+          <t>ID Dispositivo</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>DEVICE_ID</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>+34 722 334 112</t>
+          <t>DEV-ABC-123</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>DEVICE_ID</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>DEVICE_ID</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>+34 722 334 112</t>
+          <t>DEV-ABC-123</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -7230,36 +7230,36 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Dirección</t>
+          <t>Email</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>EMAIL</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>C/ Mayor 15, 3B</t>
+          <t>roberto.san@outlook.es</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>EMAIL</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>EMAIL</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>C/ Mayor 15, 3B</t>
+          <t>roberto.san@outlook.es</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -7280,36 +7280,36 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Fecha Nacimiento</t>
+          <t>Nº Historia Clínica</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>FECHA_NACIMIENTO</t>
+          <t>NHC</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>08/06/1990</t>
+          <t>HC-0099123</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>FECHA_NACIMIENTO</t>
+          <t>NHC</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>FECHA_NACIMIENTO</t>
+          <t>NHC</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>08/06/1990</t>
+          <t>HC-0099123</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -7330,36 +7330,36 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Teléfono</t>
+          <t>Nombre Profesional</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>NOMBRE_PROFESIONAL</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>+34 600 123 123</t>
+          <t>Dr. Luis Herrera</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>NOMBRE_PROFESIONAL</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>NOMBRE_PROFESIONAL</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>+34 600 123 123</t>
+          <t>Dr. Luis Herrera</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -7380,36 +7380,36 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Nombre Profesional</t>
+          <t>Nombre Paciente</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>NOMBRE_PROFESIONAL</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Dr. Luis Herrera</t>
+          <t>Marta Ruiz</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>NOMBRE_PROFESIONAL</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>NOMBRE_PROFESIONAL</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Dr. Luis Herrera</t>
+          <t>Marta Ruiz</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -7430,36 +7430,36 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Nombre Paciente</t>
+          <t>Nombre Profesional</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>NOMBRE_PROFESIONAL</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Ana Martínez</t>
+          <t>Dra. Elena Torres</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>NOMBRE_PROFESIONAL</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>NOMBRE_PROFESIONAL</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Ana Martínez</t>
+          <t>Dra. Elena Torres</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -7480,36 +7480,36 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Código Postal</t>
+          <t>Teléfono</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>28027</t>
+          <t>912 556 789</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>28027</t>
+          <t>912 556 789</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -7530,36 +7530,36 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Teléfono</t>
+          <t>Email</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>EMAIL</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>912 556 789</t>
+          <t>juan.perez@gmail.com</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>EMAIL</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>EMAIL</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>912 556 789</t>
+          <t>juan.perez@gmail.com</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -7580,36 +7580,36 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Nombre Paciente</t>
+          <t>Fecha Nacimiento</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>FECHA_NACIMIENTO</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>María López</t>
+          <t>08/06/1990</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>FECHA_NACIMIENTO</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>FECHA_NACIMIENTO</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>María López</t>
+          <t>08/06/1990</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -7630,36 +7630,36 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Nombre Profesional</t>
+          <t>Nombre Paciente</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>NOMBRE_PROFESIONAL</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Dra. Elena Torres</t>
+          <t>Ana Martínez</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>NOMBRE_PROFESIONAL</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>NOMBRE_PROFESIONAL</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Dra. Elena Torres</t>
+          <t>Ana Martínez</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -7680,36 +7680,36 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Fecha</t>
+          <t>Teléfono</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>05/05/2025</t>
+          <t>+34 722 334 112</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>05/05/2025</t>
+          <t>+34 722 334 112</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -7730,36 +7730,36 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Edad</t>
+          <t>Pasaporte</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>EDAD</t>
+          <t>PASAPORTE</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>XK987654</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>EDAD</t>
+          <t>PASAPORTE</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>EDAD</t>
+          <t>PASAPORTE</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>XK987654</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -7780,11 +7780,11 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Ciudad</t>
+          <t>Dirección</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -7794,7 +7794,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Madrid</t>
+          <t>C/ Alcalá 220</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -7809,7 +7809,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Madrid</t>
+          <t>C/ Alcalá 220</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -7830,36 +7830,36 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Nº Historia Clínica</t>
+          <t>NªSeguro Médico</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>NHC</t>
+          <t>INSURANCE_ID</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>HC-0099123</t>
+          <t>INS-145-88</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>NHC</t>
+          <t>INSURANCE_ID</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>NHC</t>
+          <t>INSURANCE_ID</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>HC-0099123</t>
+          <t>INS-145-88</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -7880,36 +7880,36 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Fecha de ingreso</t>
+          <t>Dirección</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>FECHA_INGRESO</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>03/12/2025</t>
+          <t>C/ Mayor 15, 3B</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>FECHA_INGRESO</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>FECHA_INGRESO</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>03/12/2025</t>
+          <t>C/ Mayor 15, 3B</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -7930,36 +7930,36 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Edad</t>
+          <t>Fecha de alta</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>EDAD</t>
+          <t>FECHA_ALTA</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>10/12/2025</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>EDAD</t>
+          <t>FECHA_ALTA</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>EDAD</t>
+          <t>FECHA_ALTA</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>10/12/2025</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -7980,36 +7980,36 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>DNI/NIF</t>
+          <t>Hospital</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>DNI_NIF</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>12345678A</t>
+          <t>Hospital La Paz</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>DNI_NIF</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>DNI_NIF</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>12345678A</t>
+          <t>Hospital La Paz</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -8030,36 +8030,36 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Fecha de alta</t>
+          <t>Fecha de ingreso</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>FECHA_ALTA</t>
+          <t>FECHA_INGRESO</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>10/12/2025</t>
+          <t>03/12/2025</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>FECHA_ALTA</t>
+          <t>FECHA_INGRESO</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>FECHA_ALTA</t>
+          <t>FECHA_INGRESO</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>10/12/2025</t>
+          <t>03/12/2025</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -8080,36 +8080,36 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>ID Dispositivo</t>
+          <t>Nombre Paciente</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>DEVICE_ID</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>DEV-ABC-123</t>
+          <t>María López</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>DEVICE_ID</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>DEVICE_ID</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>DEV-ABC-123</t>
+          <t>María López</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -8130,36 +8130,36 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Emali</t>
+          <t>Código Postal</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>l.herrera@hospital.com</t>
+          <t>28013</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>l.herrera@hospital.com</t>
+          <t>28013</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -8180,36 +8180,36 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Dirección</t>
+          <t>Emali</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>EMAIL</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>C/ Alcalá 220</t>
+          <t>l.herrera@hospital.com</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>EMAIL</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>EMAIL</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>C/ Alcalá 220</t>
+          <t>l.herrera@hospital.com</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -8230,36 +8230,36 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Hospital</t>
+          <t>Edad</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>EDAD</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Hospital La Paz</t>
+          <t>45</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>EDAD</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>EDAD</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Hospital La Paz</t>
+          <t>45</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -8284,7 +8284,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Ciudad</t>
+          <t>Código Postal</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -8294,7 +8294,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Madrid</t>
+          <t>28027</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -8309,7 +8309,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Madrid</t>
+          <t>28027</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -8330,36 +8330,36 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Email</t>
+          <t>Teléfono</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>roberto.san@outlook.es</t>
+          <t>+34 600 123 123</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>roberto.san@outlook.es</t>
+          <t>+34 600 123 123</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -8384,32 +8384,32 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Hospital</t>
+          <t>Fecha Ingreso</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>FECHA_INGRESO</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Clínica Santa María</t>
+          <t>22/11/2025</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>FECHA_INGRESO</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>FECHA_INGRESO</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Clínica Santa María</t>
+          <t>22/11/2025</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -8430,38 +8430,46 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Nombre Paciente</t>
+          <t>IP</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>IP</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Juan Pérez</t>
+          <t>192.168.1.10</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr"/>
-      <c r="G38" t="inlineStr"/>
+          <t>IP</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>IP</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>192.168.1.10</t>
+        </is>
+      </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>✗</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>FN</t>
+          <t>TP</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -8472,21 +8480,21 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>NªHistoría clínica</t>
+          <t>Fecha de ingreso</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>FECHA_INGRESO</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>MRN-556677</t>
+          <t>15/01/2026</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -8514,21 +8522,21 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Pasaporte</t>
+          <t>Nombre de Paciente</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>PASAPORTE</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>XK987654</t>
+          <t>Roberto Sánchez</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -8556,21 +8564,21 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Nombre de Paciente</t>
+          <t>NªHistoría clínica</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Roberto Sánchez</t>
+          <t>MRN-556677</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -8598,21 +8606,21 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Fecha de ingreso</t>
+          <t>Nombre Paciente</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>FECHA_INGRESO</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>15/01/2026</t>
+          <t>Juan Pérez</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -8640,7 +8648,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -8651,17 +8659,17 @@
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>NOMBRE_PROFESIONAL</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>NOMBRE_PROFESIONAL</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>hospital</t>
+          <t>Juan Pérez</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -8682,7 +8690,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -8693,17 +8701,17 @@
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr">
         <is>
-          <t>DEVICE_ID</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>DEVICE_ID</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>XK987654</t>
+          <t>hospital</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -8724,7 +8732,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -8735,17 +8743,17 @@
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr">
         <is>
-          <t>NOMBRE_PROFESIONAL</t>
+          <t>NHC</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>NOMBRE_PROFESIONAL</t>
+          <t>NHC</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Juan Pérez</t>
+          <t>MRN-556677</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -8801,48 +8809,6 @@
         </is>
       </c>
       <c r="J46" t="inlineStr">
-        <is>
-          <t>strict</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
-        <v>12</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr"/>
-      <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>NHC</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>NHC</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>MRN-556677</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>✗</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>FP</t>
-        </is>
-      </c>
-      <c r="J47" t="inlineStr">
         <is>
           <t>strict</t>
         </is>
@@ -8859,7 +8825,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N47"/>
+  <dimension ref="A1:N46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10666,21 +10632,33 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+          <t>PASAPORTE</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>PASAPORTE</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>XK987654</t>
+        </is>
+      </c>
+      <c r="J30" t="n">
+        <v>23</v>
+      </c>
+      <c r="K30" t="n">
+        <v>31</v>
+      </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>✗</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>FN</t>
+          <t>TP</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
@@ -11523,7 +11501,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -11536,24 +11514,24 @@
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr">
         <is>
-          <t>DEVICE_ID</t>
+          <t>NHC</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>DEVICE_ID</t>
+          <t>NHC</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>XK987654</t>
+          <t>MRN-556677</t>
         </is>
       </c>
       <c r="J45" t="n">
-        <v>23</v>
+        <v>73</v>
       </c>
       <c r="K45" t="n">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="L45" t="inlineStr">
         <is>
@@ -11573,7 +11551,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -11586,24 +11564,24 @@
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr">
         <is>
-          <t>NHC</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>NHC</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>MRN-556677</t>
+          <t>hospital</t>
         </is>
       </c>
       <c r="J46" t="n">
-        <v>73</v>
+        <v>3</v>
       </c>
       <c r="K46" t="n">
-        <v>83</v>
+        <v>11</v>
       </c>
       <c r="L46" t="inlineStr">
         <is>
@@ -11616,56 +11594,6 @@
         </is>
       </c>
       <c r="N46" t="inlineStr">
-        <is>
-          <t>lenient</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
-        <v>16</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr"/>
-      <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr"/>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>HOSPITAL</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>HOSPITAL</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>hospital</t>
-        </is>
-      </c>
-      <c r="J47" t="n">
-        <v>3</v>
-      </c>
-      <c r="K47" t="n">
-        <v>11</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>✗</t>
-        </is>
-      </c>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>FP</t>
-        </is>
-      </c>
-      <c r="N47" t="inlineStr">
         <is>
           <t>lenient</t>
         </is>
@@ -11855,7 +11783,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>El número de pasaporte &lt;DEVICE_ID&gt; fue verificado durante la admisión.</t>
+          <t>El número de pasaporte &lt;PASSPORT&gt; fue verificado durante la admisión.</t>
         </is>
       </c>
     </row>

--- a/Resultados_Anonimizador_Hibrido_v3.xlsx
+++ b/Resultados_Anonimizador_Hibrido_v3.xlsx
@@ -1427,7 +1427,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3">
@@ -1442,7 +1442,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -1457,7 +1457,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -1472,7 +1472,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.9024390243902439</v>
+        <v>0.926829268292683</v>
       </c>
     </row>
     <row r="6">
@@ -1487,7 +1487,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.9024390243902439</v>
+        <v>0.926829268292683</v>
       </c>
     </row>
     <row r="7">
@@ -1502,7 +1502,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.9024390243902439</v>
+        <v>0.926829268292683</v>
       </c>
     </row>
     <row r="8">
@@ -1517,7 +1517,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9">
@@ -1532,7 +1532,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -1547,7 +1547,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
@@ -1562,7 +1562,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.9024390243902439</v>
+        <v>0.926829268292683</v>
       </c>
     </row>
     <row r="12">
@@ -1577,7 +1577,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.9024390243902439</v>
+        <v>0.926829268292683</v>
       </c>
     </row>
     <row r="13">
@@ -1592,7 +1592,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.9024390243902439</v>
+        <v>0.926829268292683</v>
       </c>
     </row>
   </sheetData>
@@ -5380,12 +5380,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>NOMBRE_PROFESIONAL</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>NOMBRE_PROFESIONAL</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -6568,7 +6568,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J46"/>
+  <dimension ref="A1:J45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6634,7 +6634,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ciudad</t>
+          <t>Código Postal</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -6644,7 +6644,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Madrid</t>
+          <t>28027</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -6659,7 +6659,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Madrid</t>
+          <t>28027</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -6680,36 +6680,36 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ID Dispositivo</t>
+          <t>Dirección</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>DEVICE_ID</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>DEV-XYZ-99</t>
+          <t>C/ Mayor 15, 3B</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>DEVICE_ID</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>DEVICE_ID</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>DEV-XYZ-99</t>
+          <t>C/ Mayor 15, 3B</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -6730,7 +6730,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -6744,7 +6744,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Hospital Virgen del Mar</t>
+          <t>Hospital La Paz</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -6759,7 +6759,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Hospital Virgen del Mar</t>
+          <t>Hospital La Paz</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -6780,36 +6780,36 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>fECHA</t>
+          <t>Ciudad</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>03/03/2026</t>
+          <t>Madrid</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>03/03/2026</t>
+          <t>Madrid</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -6830,36 +6830,36 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ciudad</t>
+          <t>Nombre Paciente</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Madrid</t>
+          <t>Marta Ruiz</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Madrid</t>
+          <t>Marta Ruiz</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -6880,36 +6880,36 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Edad</t>
+          <t>IP</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>EDAD</t>
+          <t>IP</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>10.0.0.55</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>EDAD</t>
+          <t>IP</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>EDAD</t>
+          <t>IP</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>10.0.0.55</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -6930,36 +6930,36 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Hospitl</t>
+          <t>Fecha de alta</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>FECHA_ALTA</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Centro Médico Norte</t>
+          <t>10/12/2025</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>FECHA_ALTA</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>FECHA_ALTA</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Centro Médico Norte</t>
+          <t>10/12/2025</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -6980,36 +6980,36 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>Hospitl</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>10.0.0.55</t>
+          <t>Centro Médico Norte</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>10.0.0.55</t>
+          <t>Centro Médico Norte</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -7030,36 +7030,36 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>DNI/NIF</t>
+          <t>Email</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>DNI_NIF</t>
+          <t>EMAIL</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>12345678A</t>
+          <t>juan.perez@gmail.com</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>DNI_NIF</t>
+          <t>EMAIL</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>DNI_NIF</t>
+          <t>EMAIL</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>12345678A</t>
+          <t>juan.perez@gmail.com</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -7080,36 +7080,36 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Fecha</t>
+          <t>Teléfono</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>05/05/2025</t>
+          <t>+34 722 334 112</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>05/05/2025</t>
+          <t>+34 722 334 112</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -7180,36 +7180,36 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ID Dispositivo</t>
+          <t>fECHA</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>DEVICE_ID</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>DEV-ABC-123</t>
+          <t>03/03/2026</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>DEVICE_ID</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>DEVICE_ID</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>DEV-ABC-123</t>
+          <t>03/03/2026</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -7230,36 +7230,36 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Email</t>
+          <t>Nombre Paciente</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>roberto.san@outlook.es</t>
+          <t>Ana Martínez</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>roberto.san@outlook.es</t>
+          <t>Ana Martínez</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -7280,36 +7280,36 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Nº Historia Clínica</t>
+          <t>Hospital</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>NHC</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>HC-0099123</t>
+          <t>Hospital Virgen del Mar</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>NHC</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>NHC</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>HC-0099123</t>
+          <t>Hospital Virgen del Mar</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -7330,36 +7330,36 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Nombre Profesional</t>
+          <t>Dirección</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>NOMBRE_PROFESIONAL</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Dr. Luis Herrera</t>
+          <t>C/ Alcalá 220</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>NOMBRE_PROFESIONAL</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>NOMBRE_PROFESIONAL</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Dr. Luis Herrera</t>
+          <t>C/ Alcalá 220</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -7380,36 +7380,36 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Nombre Paciente</t>
+          <t>Pasaporte</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>PASAPORTE</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Marta Ruiz</t>
+          <t>XK987654</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>PASAPORTE</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>PASAPORTE</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Marta Ruiz</t>
+          <t>XK987654</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -7430,36 +7430,36 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Nombre Profesional</t>
+          <t>ID Dispositivo</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>NOMBRE_PROFESIONAL</t>
+          <t>DEVICE_ID</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Dra. Elena Torres</t>
+          <t>DEV-ABC-123</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>NOMBRE_PROFESIONAL</t>
+          <t>DEVICE_ID</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>NOMBRE_PROFESIONAL</t>
+          <t>DEVICE_ID</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Dra. Elena Torres</t>
+          <t>DEV-ABC-123</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -7480,36 +7480,36 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Teléfono</t>
+          <t>IP</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>IP</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>912 556 789</t>
+          <t>192.168.1.10</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>IP</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>IP</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>912 556 789</t>
+          <t>192.168.1.10</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -7530,36 +7530,36 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Email</t>
+          <t>Teléfono</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>juan.perez@gmail.com</t>
+          <t>912 556 789</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>juan.perez@gmail.com</t>
+          <t>912 556 789</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -7580,36 +7580,36 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Fecha Nacimiento</t>
+          <t>Ciudad</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>FECHA_NACIMIENTO</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>08/06/1990</t>
+          <t>Madrid</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>FECHA_NACIMIENTO</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>FECHA_NACIMIENTO</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>08/06/1990</t>
+          <t>Madrid</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -7630,36 +7630,36 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Nombre Paciente</t>
+          <t>Nombre Profesional</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>NOMBRE_PROFESIONAL</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Ana Martínez</t>
+          <t>Dr. Luis Herrera</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>NOMBRE_PROFESIONAL</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>NOMBRE_PROFESIONAL</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Ana Martínez</t>
+          <t>Dr. Luis Herrera</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -7680,36 +7680,36 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Teléfono</t>
+          <t>ID Dispositivo</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>DEVICE_ID</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>+34 722 334 112</t>
+          <t>DEV-XYZ-99</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>DEVICE_ID</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>DEVICE_ID</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>+34 722 334 112</t>
+          <t>DEV-XYZ-99</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -7730,36 +7730,36 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Pasaporte</t>
+          <t>NªSeguro Médico</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>PASAPORTE</t>
+          <t>INSURANCE_ID</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>XK987654</t>
+          <t>INS-145-88</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>PASAPORTE</t>
+          <t>INSURANCE_ID</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>PASAPORTE</t>
+          <t>INSURANCE_ID</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>XK987654</t>
+          <t>INS-145-88</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -7780,36 +7780,36 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Dirección</t>
+          <t>Fecha</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>C/ Alcalá 220</t>
+          <t>05/05/2025</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>C/ Alcalá 220</t>
+          <t>05/05/2025</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -7830,36 +7830,36 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>NªSeguro Médico</t>
+          <t>Email</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>INSURANCE_ID</t>
+          <t>EMAIL</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>INS-145-88</t>
+          <t>roberto.san@outlook.es</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>INSURANCE_ID</t>
+          <t>EMAIL</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>INSURANCE_ID</t>
+          <t>EMAIL</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>INS-145-88</t>
+          <t>roberto.san@outlook.es</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -7884,32 +7884,32 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Dirección</t>
+          <t>Nombre Paciente</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>C/ Mayor 15, 3B</t>
+          <t>María López</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>C/ Mayor 15, 3B</t>
+          <t>María López</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -7930,36 +7930,36 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Fecha de alta</t>
+          <t>Edad</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>FECHA_ALTA</t>
+          <t>EDAD</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>10/12/2025</t>
+          <t>45</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>FECHA_ALTA</t>
+          <t>EDAD</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>FECHA_ALTA</t>
+          <t>EDAD</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>10/12/2025</t>
+          <t>45</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -7980,36 +7980,36 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Hospital</t>
+          <t>Fecha Nacimiento</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>FECHA_NACIMIENTO</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Hospital La Paz</t>
+          <t>08/06/1990</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>FECHA_NACIMIENTO</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>FECHA_NACIMIENTO</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Hospital La Paz</t>
+          <t>08/06/1990</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -8030,36 +8030,36 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Fecha de ingreso</t>
+          <t>DNI/NIF</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>FECHA_INGRESO</t>
+          <t>DNI_NIF</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>03/12/2025</t>
+          <t>12345678A</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>FECHA_INGRESO</t>
+          <t>DNI_NIF</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>FECHA_INGRESO</t>
+          <t>DNI_NIF</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>03/12/2025</t>
+          <t>12345678A</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -8080,36 +8080,36 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Nombre Paciente</t>
+          <t>Fecha de ingreso</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>FECHA_INGRESO</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>María López</t>
+          <t>03/12/2025</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>FECHA_INGRESO</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>FECHA_INGRESO</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>María López</t>
+          <t>03/12/2025</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -8130,36 +8130,36 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Código Postal</t>
+          <t>Nombre Profesional</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>NOMBRE_PROFESIONAL</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>28013</t>
+          <t>Dra. Elena Torres</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>NOMBRE_PROFESIONAL</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>NOMBRE_PROFESIONAL</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>28013</t>
+          <t>Dra. Elena Torres</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -8180,36 +8180,36 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Emali</t>
+          <t>Nombre Paciente</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>l.herrera@hospital.com</t>
+          <t>Juan Pérez</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>l.herrera@hospital.com</t>
+          <t>Juan Pérez</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -8230,36 +8230,36 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Edad</t>
+          <t>Nº Historia Clínica</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>EDAD</t>
+          <t>NHC</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>HC-0099123</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>EDAD</t>
+          <t>NHC</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>EDAD</t>
+          <t>NHC</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>HC-0099123</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -8280,7 +8280,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -8294,7 +8294,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>28027</t>
+          <t>28013</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -8309,7 +8309,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>28027</t>
+          <t>28013</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -8330,36 +8330,36 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Teléfono</t>
+          <t>Emali</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>EMAIL</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>+34 600 123 123</t>
+          <t>l.herrera@hospital.com</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>EMAIL</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>EMAIL</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>+34 600 123 123</t>
+          <t>l.herrera@hospital.com</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -8430,36 +8430,36 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>Teléfono</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>192.168.1.10</t>
+          <t>+34 600 123 123</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>192.168.1.10</t>
+          <t>+34 600 123 123</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -8480,38 +8480,46 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Fecha de ingreso</t>
+          <t>Edad</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>FECHA_INGRESO</t>
+          <t>EDAD</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>15/01/2026</t>
+          <t>52</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr"/>
-      <c r="G39" t="inlineStr"/>
+          <t>EDAD</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>EDAD</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>✗</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>FN</t>
+          <t>TP</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -8522,21 +8530,21 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Nombre de Paciente</t>
+          <t>Fecha de ingreso</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>FECHA_INGRESO</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Roberto Sánchez</t>
+          <t>15/01/2026</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -8564,21 +8572,21 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>NªHistoría clínica</t>
+          <t>Nombre de Paciente</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>MRN-556677</t>
+          <t>Roberto Sánchez</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -8606,21 +8614,21 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Nombre Paciente</t>
+          <t>NªHistoría clínica</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Juan Pérez</t>
+          <t>MRN-556677</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -8648,7 +8656,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -8659,17 +8667,17 @@
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr">
         <is>
-          <t>NOMBRE_PROFESIONAL</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>NOMBRE_PROFESIONAL</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Juan Pérez</t>
+          <t>hospital</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -8690,7 +8698,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -8701,17 +8709,17 @@
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>hospital</t>
+          <t>15/01/2026</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -8767,48 +8775,6 @@
         </is>
       </c>
       <c r="J45" t="inlineStr">
-        <is>
-          <t>strict</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
-        <v>6</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr"/>
-      <c r="D46" t="inlineStr"/>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>FECHA</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>FECHA</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>15/01/2026</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>✗</t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>FP</t>
-        </is>
-      </c>
-      <c r="J46" t="inlineStr">
         <is>
           <t>strict</t>
         </is>
@@ -8825,7 +8791,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N46"/>
+  <dimension ref="A1:N45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8932,21 +8898,33 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
+          <t>NOMBRE_PACIENTE</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>NOMBRE_PACIENTE</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Juan Pérez</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>10</v>
+      </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>✗</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>FN</t>
+          <t>TP</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -11401,7 +11379,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -11414,24 +11392,24 @@
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr">
         <is>
-          <t>NOMBRE_PROFESIONAL</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>NOMBRE_PROFESIONAL</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>Juan Pérez</t>
+          <t>15/01/2026</t>
         </is>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="K43" t="n">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="L43" t="inlineStr">
         <is>
@@ -11451,7 +11429,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -11464,24 +11442,24 @@
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>NHC</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>NHC</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>15/01/2026</t>
+          <t>MRN-556677</t>
         </is>
       </c>
       <c r="J44" t="n">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="K44" t="n">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="L44" t="inlineStr">
         <is>
@@ -11501,7 +11479,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -11514,24 +11492,24 @@
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr">
         <is>
-          <t>NHC</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>NHC</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>MRN-556677</t>
+          <t>hospital</t>
         </is>
       </c>
       <c r="J45" t="n">
-        <v>73</v>
+        <v>3</v>
       </c>
       <c r="K45" t="n">
-        <v>83</v>
+        <v>11</v>
       </c>
       <c r="L45" t="inlineStr">
         <is>
@@ -11544,56 +11522,6 @@
         </is>
       </c>
       <c r="N45" t="inlineStr">
-        <is>
-          <t>lenient</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
-        <v>16</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr"/>
-      <c r="D46" t="inlineStr"/>
-      <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr"/>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>HOSPITAL</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>HOSPITAL</t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>hospital</t>
-        </is>
-      </c>
-      <c r="J46" t="n">
-        <v>3</v>
-      </c>
-      <c r="K46" t="n">
-        <v>11</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>✗</t>
-        </is>
-      </c>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>FP</t>
-        </is>
-      </c>
-      <c r="N46" t="inlineStr">
         <is>
           <t>lenient</t>
         </is>
@@ -11646,7 +11574,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>&lt;PROVIDER_NAME&gt; ingresó en el &lt;HOSPITAL_NAME&gt; el &lt;DATE_ADMISSION&gt; con dolor torácico.</t>
+          <t>&lt;PATIENT_NAME&gt; ingresó en el &lt;HOSPITAL_NAME&gt; el &lt;DATE_ADMISSION&gt; con dolor torácico.</t>
         </is>
       </c>
     </row>

--- a/Resultados_Anonimizador_Hibrido_v3.xlsx
+++ b/Resultados_Anonimizador_Hibrido_v3.xlsx
@@ -6630,36 +6630,36 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Código Postal</t>
+          <t>Email</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>EMAIL</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>28027</t>
+          <t>juan.perez@gmail.com</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>EMAIL</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>EMAIL</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>28027</t>
+          <t>juan.perez@gmail.com</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -6680,36 +6680,36 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Dirección</t>
+          <t>Nº Historia Clínica</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>NHC</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>C/ Mayor 15, 3B</t>
+          <t>HC-0099123</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>NHC</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>NHC</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>C/ Mayor 15, 3B</t>
+          <t>HC-0099123</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -6730,36 +6730,36 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Hospital</t>
+          <t>fECHA</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Hospital La Paz</t>
+          <t>03/03/2026</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Hospital La Paz</t>
+          <t>03/03/2026</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -6780,36 +6780,36 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ciudad</t>
+          <t>NªSeguro Médico</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>INSURANCE_ID</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Madrid</t>
+          <t>INS-145-88</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>INSURANCE_ID</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>INSURANCE_ID</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Madrid</t>
+          <t>INS-145-88</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -6830,36 +6830,36 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Nombre Paciente</t>
+          <t>DNI/NIF</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>DNI_NIF</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Marta Ruiz</t>
+          <t>12345678A</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>DNI_NIF</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>DNI_NIF</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Marta Ruiz</t>
+          <t>12345678A</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -6880,36 +6880,36 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>Edad</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>EDAD</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>10.0.0.55</t>
+          <t>52</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>EDAD</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>EDAD</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>10.0.0.55</t>
+          <t>52</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -6930,36 +6930,36 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Fecha de alta</t>
+          <t>Pasaporte</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>FECHA_ALTA</t>
+          <t>PASAPORTE</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>10/12/2025</t>
+          <t>XK987654</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>FECHA_ALTA</t>
+          <t>PASAPORTE</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>FECHA_ALTA</t>
+          <t>PASAPORTE</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>10/12/2025</t>
+          <t>XK987654</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -6980,36 +6980,36 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Hospitl</t>
+          <t>Dirección</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Centro Médico Norte</t>
+          <t>C/ Mayor 15, 3B</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Centro Médico Norte</t>
+          <t>C/ Mayor 15, 3B</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -7030,7 +7030,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -7044,7 +7044,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>juan.perez@gmail.com</t>
+          <t>roberto.san@outlook.es</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -7059,7 +7059,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>juan.perez@gmail.com</t>
+          <t>roberto.san@outlook.es</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -7080,36 +7080,36 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Teléfono</t>
+          <t>ID Dispositivo</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>DEVICE_ID</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>+34 722 334 112</t>
+          <t>DEV-ABC-123</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>DEVICE_ID</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>DEVICE_ID</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>+34 722 334 112</t>
+          <t>DEV-ABC-123</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -7130,36 +7130,36 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Hospital</t>
+          <t>Nombre Profesional</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>NOMBRE_PROFESIONAL</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Clínica Santa María</t>
+          <t>Dra. Elena Torres</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>NOMBRE_PROFESIONAL</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>NOMBRE_PROFESIONAL</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Clínica Santa María</t>
+          <t>Dra. Elena Torres</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -7180,36 +7180,36 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>fECHA</t>
+          <t>Edad</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>EDAD</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>03/03/2026</t>
+          <t>45</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>EDAD</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>EDAD</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>03/03/2026</t>
+          <t>45</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -7230,36 +7230,36 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Nombre Paciente</t>
+          <t>Fecha</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Ana Martínez</t>
+          <t>05/05/2025</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Ana Martínez</t>
+          <t>05/05/2025</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -7330,36 +7330,36 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Dirección</t>
+          <t>Hospitl</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>C/ Alcalá 220</t>
+          <t>Centro Médico Norte</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>C/ Alcalá 220</t>
+          <t>Centro Médico Norte</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -7380,36 +7380,36 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Pasaporte</t>
+          <t>Emali</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>PASAPORTE</t>
+          <t>EMAIL</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>XK987654</t>
+          <t>l.herrera@hospital.com</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>PASAPORTE</t>
+          <t>EMAIL</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>PASAPORTE</t>
+          <t>EMAIL</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>XK987654</t>
+          <t>l.herrera@hospital.com</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -7430,36 +7430,36 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ID Dispositivo</t>
+          <t>Hospital</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>DEVICE_ID</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>DEV-ABC-123</t>
+          <t>Hospital La Paz</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>DEVICE_ID</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>DEVICE_ID</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>DEV-ABC-123</t>
+          <t>Hospital La Paz</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -7480,36 +7480,36 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>Ciudad</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>192.168.1.10</t>
+          <t>Madrid</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>192.168.1.10</t>
+          <t>Madrid</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -7530,36 +7530,36 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Teléfono</t>
+          <t>Hospital</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>912 556 789</t>
+          <t>Clínica Santa María</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>912 556 789</t>
+          <t>Clínica Santa María</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -7580,36 +7580,36 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Ciudad</t>
+          <t>Fecha Ingreso</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>FECHA_INGRESO</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Madrid</t>
+          <t>22/11/2025</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>FECHA_INGRESO</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>FECHA_INGRESO</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Madrid</t>
+          <t>22/11/2025</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -7630,36 +7630,36 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Nombre Profesional</t>
+          <t>Dirección</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>NOMBRE_PROFESIONAL</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Dr. Luis Herrera</t>
+          <t>C/ Alcalá 220</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>NOMBRE_PROFESIONAL</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>NOMBRE_PROFESIONAL</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Dr. Luis Herrera</t>
+          <t>C/ Alcalá 220</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -7680,36 +7680,36 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>ID Dispositivo</t>
+          <t>Nombre Profesional</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>DEVICE_ID</t>
+          <t>NOMBRE_PROFESIONAL</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>DEV-XYZ-99</t>
+          <t>Dr. Luis Herrera</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>DEVICE_ID</t>
+          <t>NOMBRE_PROFESIONAL</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>DEVICE_ID</t>
+          <t>NOMBRE_PROFESIONAL</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>DEV-XYZ-99</t>
+          <t>Dr. Luis Herrera</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -7730,36 +7730,36 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>NªSeguro Médico</t>
+          <t>Código Postal</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>INSURANCE_ID</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>INS-145-88</t>
+          <t>28013</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>INSURANCE_ID</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>INSURANCE_ID</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>INS-145-88</t>
+          <t>28013</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -7780,36 +7780,36 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Fecha</t>
+          <t>Teléfono</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>05/05/2025</t>
+          <t>912 556 789</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>05/05/2025</t>
+          <t>912 556 789</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -7830,36 +7830,36 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Email</t>
+          <t>Nombre Paciente</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>roberto.san@outlook.es</t>
+          <t>Marta Ruiz</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>roberto.san@outlook.es</t>
+          <t>Marta Ruiz</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -7880,36 +7880,36 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Nombre Paciente</t>
+          <t>Fecha Nacimiento</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>FECHA_NACIMIENTO</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>María López</t>
+          <t>08/06/1990</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>FECHA_NACIMIENTO</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>FECHA_NACIMIENTO</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>María López</t>
+          <t>08/06/1990</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -7930,36 +7930,36 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Edad</t>
+          <t>Teléfono</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>EDAD</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>+34 600 123 123</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>EDAD</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>EDAD</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>+34 600 123 123</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -7980,36 +7980,36 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Fecha Nacimiento</t>
+          <t>ID Dispositivo</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>FECHA_NACIMIENTO</t>
+          <t>DEVICE_ID</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>08/06/1990</t>
+          <t>DEV-XYZ-99</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>FECHA_NACIMIENTO</t>
+          <t>DEVICE_ID</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>FECHA_NACIMIENTO</t>
+          <t>DEVICE_ID</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>08/06/1990</t>
+          <t>DEV-XYZ-99</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -8030,36 +8030,36 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>DNI/NIF</t>
+          <t>IP</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>DNI_NIF</t>
+          <t>IP</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>12345678A</t>
+          <t>10.0.0.55</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>DNI_NIF</t>
+          <t>IP</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>DNI_NIF</t>
+          <t>IP</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>12345678A</t>
+          <t>10.0.0.55</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -8080,36 +8080,36 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Fecha de ingreso</t>
+          <t>Ciudad</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>FECHA_INGRESO</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>03/12/2025</t>
+          <t>Madrid</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>FECHA_INGRESO</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>FECHA_INGRESO</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>03/12/2025</t>
+          <t>Madrid</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -8130,36 +8130,36 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Nombre Profesional</t>
+          <t>Nombre Paciente</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>NOMBRE_PROFESIONAL</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Dra. Elena Torres</t>
+          <t>María López</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>NOMBRE_PROFESIONAL</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>NOMBRE_PROFESIONAL</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Dra. Elena Torres</t>
+          <t>María López</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -8180,36 +8180,36 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Nombre Paciente</t>
+          <t>Código Postal</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Juan Pérez</t>
+          <t>28027</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Juan Pérez</t>
+          <t>28027</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -8230,36 +8230,36 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Nº Historia Clínica</t>
+          <t>Teléfono</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>NHC</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>HC-0099123</t>
+          <t>+34 722 334 112</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>NHC</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>NHC</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>HC-0099123</t>
+          <t>+34 722 334 112</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -8280,36 +8280,36 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Código Postal</t>
+          <t>IP</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>IP</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>28013</t>
+          <t>192.168.1.10</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>IP</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>IP</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>28013</t>
+          <t>192.168.1.10</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -8330,36 +8330,36 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Emali</t>
+          <t>Fecha de ingreso</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>FECHA_INGRESO</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>l.herrera@hospital.com</t>
+          <t>03/12/2025</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>FECHA_INGRESO</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>FECHA_INGRESO</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>l.herrera@hospital.com</t>
+          <t>03/12/2025</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -8380,36 +8380,36 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Fecha Ingreso</t>
+          <t>Nombre Paciente</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>FECHA_INGRESO</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>22/11/2025</t>
+          <t>Juan Pérez</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>FECHA_INGRESO</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>FECHA_INGRESO</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>22/11/2025</t>
+          <t>Juan Pérez</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -8430,36 +8430,36 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Teléfono</t>
+          <t>Fecha de alta</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>FECHA_ALTA</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>+34 600 123 123</t>
+          <t>10/12/2025</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>FECHA_ALTA</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>FECHA_ALTA</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>+34 600 123 123</t>
+          <t>10/12/2025</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -8480,36 +8480,36 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Edad</t>
+          <t>Nombre Paciente</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>EDAD</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>Ana Martínez</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>EDAD</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>EDAD</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>Ana Martínez</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -8530,21 +8530,21 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Fecha de ingreso</t>
+          <t>Nombre de Paciente</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>FECHA_INGRESO</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>15/01/2026</t>
+          <t>Roberto Sánchez</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -8572,21 +8572,21 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Nombre de Paciente</t>
+          <t>NªHistoría clínica</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Roberto Sánchez</t>
+          <t>MRN-556677</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -8614,21 +8614,21 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>NªHistoría clínica</t>
+          <t>Fecha de ingreso</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>FECHA_INGRESO</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>MRN-556677</t>
+          <t>15/01/2026</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -8656,7 +8656,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -8667,17 +8667,17 @@
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>hospital</t>
+          <t>15/01/2026</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -8698,7 +8698,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -8709,17 +8709,17 @@
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>15/01/2026</t>
+          <t>hospital</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">

--- a/Resultados_Anonimizador_Hibrido_v3.xlsx
+++ b/Resultados_Anonimizador_Hibrido_v3.xlsx
@@ -1427,7 +1427,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3">
@@ -1457,7 +1457,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -1472,7 +1472,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.926829268292683</v>
+        <v>0.9285714285714286</v>
       </c>
     </row>
     <row r="6">
@@ -1487,7 +1487,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.926829268292683</v>
+        <v>0.9512195121951219</v>
       </c>
     </row>
     <row r="7">
@@ -1502,7 +1502,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.926829268292683</v>
+        <v>0.9397590361445782</v>
       </c>
     </row>
     <row r="8">
@@ -1517,7 +1517,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9">
@@ -1547,7 +1547,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -1562,7 +1562,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.926829268292683</v>
+        <v>0.9285714285714286</v>
       </c>
     </row>
     <row r="12">
@@ -1577,7 +1577,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.926829268292683</v>
+        <v>0.9512195121951219</v>
       </c>
     </row>
     <row r="13">
@@ -1592,7 +1592,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.926829268292683</v>
+        <v>0.9397590361445782</v>
       </c>
     </row>
   </sheetData>
@@ -5323,7 +5323,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5982,28 +5982,28 @@
         <v>8</v>
       </c>
       <c r="B23" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>EDAD</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>EDAD</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>Roberto Sánchez</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="24">
@@ -6011,28 +6011,28 @@
         <v>8</v>
       </c>
       <c r="B24" t="n">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="C24" t="n">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>EDAD</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>EDAD</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Clínica Santa María</t>
+          <t>52</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>0.9968382716178894</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -6040,57 +6040,57 @@
         <v>8</v>
       </c>
       <c r="B25" t="n">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="C25" t="n">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>FECHA_INGRESO</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>FECHA_INGRESO</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>22/11/2025</t>
+          <t>Clínica Santa María</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>0.9989843964576721</v>
+        <v>0.9968382716178894</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B26" t="n">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>FECHA_INGRESO</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>FECHA_INGRESO</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>C/ Alcalá 220</t>
+          <t>22/11/2025</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>0.9992307424545288</v>
+        <v>0.9989843964576721</v>
       </c>
     </row>
     <row r="27">
@@ -6098,10 +6098,10 @@
         <v>9</v>
       </c>
       <c r="B27" t="n">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="C27" t="n">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -6115,11 +6115,11 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>28027</t>
+          <t>C/ Alcalá 220</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>0.9981446266174316</v>
+        <v>0.9992307424545288</v>
       </c>
     </row>
     <row r="28">
@@ -6127,10 +6127,10 @@
         <v>9</v>
       </c>
       <c r="B28" t="n">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C28" t="n">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -6144,65 +6144,65 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Madrid</t>
+          <t>28027</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>0.9991428852081299</v>
+        <v>0.9981446266174316</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B29" t="n">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="C29" t="n">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>PASAPORTE</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>PASAPORTE</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>XK987654</t>
+          <t>Madrid</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1</v>
+        <v>0.9991428852081299</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B30" t="n">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C30" t="n">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>PASAPORTE</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>PASAPORTE</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>10.0.0.55</t>
+          <t>XK987654</t>
         </is>
       </c>
       <c r="G30" t="n">
@@ -6214,24 +6214,24 @@
         <v>11</v>
       </c>
       <c r="B31" t="n">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="C31" t="n">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>DEVICE_ID</t>
+          <t>IP</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>DEVICE_ID</t>
+          <t>IP</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>DEV-XYZ-99</t>
+          <t>10.0.0.55</t>
         </is>
       </c>
       <c r="G31" t="n">
@@ -6240,31 +6240,31 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B32" t="n">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="C32" t="n">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>NOMBRE_PROFESIONAL</t>
+          <t>DEVICE_ID</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>NOMBRE_PROFESIONAL</t>
+          <t>DEVICE_ID</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Dra. Elena Torres</t>
+          <t>DEV-XYZ-99</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>0.9993487596511841</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -6272,53 +6272,53 @@
         <v>12</v>
       </c>
       <c r="B33" t="n">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="C33" t="n">
-        <v>83</v>
+        <v>42</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>NHC</t>
+          <t>NOMBRE_PROFESIONAL</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>NHC</t>
+          <t>NOMBRE_PROFESIONAL</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>MRN-556677</t>
+          <t>Dra. Elena Torres</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1</v>
+        <v>0.9993487596511841</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B34" t="n">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="C34" t="n">
-        <v>34</v>
+        <v>83</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>INSURANCE_ID</t>
+          <t>NHC</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>INSURANCE_ID</t>
+          <t>NHC</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>INS-145-88</t>
+          <t>MRN-556677</t>
         </is>
       </c>
       <c r="G34" t="n">
@@ -6330,57 +6330,57 @@
         <v>13</v>
       </c>
       <c r="B35" t="n">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="C35" t="n">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>INSURANCE_ID</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>INSURANCE_ID</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>03/03/2026</t>
+          <t>INS-145-88</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>0.9988794326782227</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B36" t="n">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="C36" t="n">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>+34 722 334 112</t>
+          <t>03/03/2026</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1</v>
+        <v>0.9988794326782227</v>
       </c>
     </row>
     <row r="37">
@@ -6388,24 +6388,24 @@
         <v>14</v>
       </c>
       <c r="B37" t="n">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="C37" t="n">
-        <v>98</v>
+        <v>54</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>roberto.san@outlook.es</t>
+          <t>+34 722 334 112</t>
         </is>
       </c>
       <c r="G37" t="n">
@@ -6414,31 +6414,31 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B38" t="n">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="C38" t="n">
-        <v>22</v>
+        <v>98</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>EMAIL</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>EMAIL</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Marta Ruiz</t>
+          <t>roberto.san@outlook.es</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>0.9981183409690857</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -6446,57 +6446,57 @@
         <v>15</v>
       </c>
       <c r="B39" t="n">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="C39" t="n">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>FECHA_NACIMIENTO</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>FECHA_NACIMIENTO</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>08/06/1990</t>
+          <t>Marta Ruiz</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1</v>
+        <v>0.9981183409690857</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B40" t="n">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="C40" t="n">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>FECHA_NACIMIENTO</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>FECHA_NACIMIENTO</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>hospital</t>
+          <t>08/06/1990</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>0.9917227625846863</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -6504,10 +6504,10 @@
         <v>16</v>
       </c>
       <c r="B41" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C41" t="n">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -6521,11 +6521,11 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Centro Médico Norte</t>
+          <t>hospital</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>0.6910634636878967</v>
+        <v>0.9917227625846863</v>
       </c>
     </row>
     <row r="42">
@@ -6533,27 +6533,56 @@
         <v>16</v>
       </c>
       <c r="B42" t="n">
+        <v>12</v>
+      </c>
+      <c r="C42" t="n">
+        <v>31</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>HOSPITAL</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>HOSPITAL</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Centro Médico Norte</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
+        <v>0.6910634636878967</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>16</v>
+      </c>
+      <c r="B43" t="n">
         <v>53</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C43" t="n">
         <v>63</v>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="D43" t="inlineStr">
         <is>
           <t>FECHA</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>FECHA</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>05/05/2025</t>
         </is>
       </c>
-      <c r="G42" t="n">
+      <c r="G43" t="n">
         <v>0.9989587664604187</v>
       </c>
     </row>
@@ -6630,36 +6659,36 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Email</t>
+          <t>ID Dispositivo</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>DEVICE_ID</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>juan.perez@gmail.com</t>
+          <t>DEV-ABC-123</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>DEVICE_ID</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>DEVICE_ID</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>juan.perez@gmail.com</t>
+          <t>DEV-ABC-123</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -6680,36 +6709,36 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Nº Historia Clínica</t>
+          <t>Ciudad</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>NHC</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>HC-0099123</t>
+          <t>Madrid</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>NHC</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>NHC</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>HC-0099123</t>
+          <t>Madrid</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -6730,36 +6759,36 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>fECHA</t>
+          <t>Hospital</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>03/03/2026</t>
+          <t>Clínica Santa María</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>03/03/2026</t>
+          <t>Clínica Santa María</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -6780,36 +6809,36 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>NªSeguro Médico</t>
+          <t>Fecha</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>INSURANCE_ID</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>INS-145-88</t>
+          <t>05/05/2025</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>INSURANCE_ID</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>INSURANCE_ID</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>INS-145-88</t>
+          <t>05/05/2025</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -6880,36 +6909,36 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Edad</t>
+          <t>Email</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>EDAD</t>
+          <t>EMAIL</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>roberto.san@outlook.es</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>EDAD</t>
+          <t>EMAIL</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>EDAD</t>
+          <t>EMAIL</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>roberto.san@outlook.es</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -6930,36 +6959,36 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Pasaporte</t>
+          <t>Nombre Paciente</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>PASAPORTE</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>XK987654</t>
+          <t>Ana Martínez</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>PASAPORTE</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>PASAPORTE</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>XK987654</t>
+          <t>Ana Martínez</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -6980,36 +7009,36 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Dirección</t>
+          <t>NªSeguro Médico</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>INSURANCE_ID</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>C/ Mayor 15, 3B</t>
+          <t>INS-145-88</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>INSURANCE_ID</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>INSURANCE_ID</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>C/ Mayor 15, 3B</t>
+          <t>INS-145-88</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -7030,36 +7059,36 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Email</t>
+          <t>Nombre de Paciente</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>roberto.san@outlook.es</t>
+          <t>Roberto Sánchez</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>roberto.san@outlook.es</t>
+          <t>Roberto Sánchez</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -7080,36 +7109,36 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ID Dispositivo</t>
+          <t>Teléfono</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>DEVICE_ID</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>DEV-ABC-123</t>
+          <t>+34 722 334 112</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>DEVICE_ID</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>DEVICE_ID</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>DEV-ABC-123</t>
+          <t>+34 722 334 112</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -7130,7 +7159,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -7144,7 +7173,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Dra. Elena Torres</t>
+          <t>Dr. Luis Herrera</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -7159,7 +7188,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Dra. Elena Torres</t>
+          <t>Dr. Luis Herrera</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -7180,36 +7209,36 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Edad</t>
+          <t>Teléfono</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>EDAD</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>912 556 789</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>EDAD</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>EDAD</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>912 556 789</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -7230,36 +7259,36 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Fecha</t>
+          <t>Hospital</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>05/05/2025</t>
+          <t>Hospital La Paz</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>05/05/2025</t>
+          <t>Hospital La Paz</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -7330,36 +7359,36 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Hospitl</t>
+          <t>Ciudad</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Centro Médico Norte</t>
+          <t>Madrid</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Centro Médico Norte</t>
+          <t>Madrid</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -7380,36 +7409,36 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Emali</t>
+          <t>Nombre Paciente</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>l.herrera@hospital.com</t>
+          <t>María López</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>l.herrera@hospital.com</t>
+          <t>María López</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -7430,36 +7459,36 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Hospital</t>
+          <t>Fecha Nacimiento</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>FECHA_NACIMIENTO</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Hospital La Paz</t>
+          <t>08/06/1990</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>FECHA_NACIMIENTO</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>FECHA_NACIMIENTO</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Hospital La Paz</t>
+          <t>08/06/1990</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -7480,36 +7509,36 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Ciudad</t>
+          <t>IP</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>IP</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Madrid</t>
+          <t>10.0.0.55</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>IP</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>IP</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Madrid</t>
+          <t>10.0.0.55</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -7530,36 +7559,36 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Hospital</t>
+          <t>Nombre Paciente</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Clínica Santa María</t>
+          <t>Juan Pérez</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Clínica Santa María</t>
+          <t>Juan Pérez</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -7580,36 +7609,36 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Fecha Ingreso</t>
+          <t>Nombre Profesional</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>FECHA_INGRESO</t>
+          <t>NOMBRE_PROFESIONAL</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>22/11/2025</t>
+          <t>Dra. Elena Torres</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>FECHA_INGRESO</t>
+          <t>NOMBRE_PROFESIONAL</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>FECHA_INGRESO</t>
+          <t>NOMBRE_PROFESIONAL</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>22/11/2025</t>
+          <t>Dra. Elena Torres</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -7680,36 +7709,36 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Nombre Profesional</t>
+          <t>Email</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>NOMBRE_PROFESIONAL</t>
+          <t>EMAIL</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Dr. Luis Herrera</t>
+          <t>juan.perez@gmail.com</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>NOMBRE_PROFESIONAL</t>
+          <t>EMAIL</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>NOMBRE_PROFESIONAL</t>
+          <t>EMAIL</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Dr. Luis Herrera</t>
+          <t>juan.perez@gmail.com</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -7730,36 +7759,36 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Código Postal</t>
+          <t>Fecha Ingreso</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>FECHA_INGRESO</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>28013</t>
+          <t>22/11/2025</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>FECHA_INGRESO</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>FECHA_INGRESO</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>28013</t>
+          <t>22/11/2025</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -7780,36 +7809,36 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Teléfono</t>
+          <t>Nombre Paciente</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>912 556 789</t>
+          <t>Marta Ruiz</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>912 556 789</t>
+          <t>Marta Ruiz</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -7830,36 +7859,36 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Nombre Paciente</t>
+          <t>Teléfono</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Marta Ruiz</t>
+          <t>+34 600 123 123</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Marta Ruiz</t>
+          <t>+34 600 123 123</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -7880,36 +7909,36 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Fecha Nacimiento</t>
+          <t>Edad</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>FECHA_NACIMIENTO</t>
+          <t>EDAD</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>08/06/1990</t>
+          <t>52</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>FECHA_NACIMIENTO</t>
+          <t>EDAD</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>FECHA_NACIMIENTO</t>
+          <t>EDAD</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>08/06/1990</t>
+          <t>52</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -7930,36 +7959,36 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Teléfono</t>
+          <t>IP</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>IP</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>+34 600 123 123</t>
+          <t>192.168.1.10</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>IP</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>IP</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>+34 600 123 123</t>
+          <t>192.168.1.10</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -7980,36 +8009,36 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>ID Dispositivo</t>
+          <t>Emali</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>DEVICE_ID</t>
+          <t>EMAIL</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>DEV-XYZ-99</t>
+          <t>l.herrera@hospital.com</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>DEVICE_ID</t>
+          <t>EMAIL</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>DEVICE_ID</t>
+          <t>EMAIL</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>DEV-XYZ-99</t>
+          <t>l.herrera@hospital.com</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -8030,36 +8059,36 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>Nº Historia Clínica</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>NHC</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>10.0.0.55</t>
+          <t>HC-0099123</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>NHC</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>NHC</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>10.0.0.55</t>
+          <t>HC-0099123</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -8084,7 +8113,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Ciudad</t>
+          <t>Dirección</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -8094,7 +8123,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Madrid</t>
+          <t>C/ Mayor 15, 3B</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -8109,7 +8138,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Madrid</t>
+          <t>C/ Mayor 15, 3B</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -8130,36 +8159,36 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Nombre Paciente</t>
+          <t>ID Dispositivo</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>DEVICE_ID</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>María López</t>
+          <t>DEV-XYZ-99</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>DEVICE_ID</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>DEVICE_ID</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>María López</t>
+          <t>DEV-XYZ-99</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -8180,36 +8209,36 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Código Postal</t>
+          <t>Fecha de alta</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>FECHA_ALTA</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>28027</t>
+          <t>10/12/2025</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>FECHA_ALTA</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>FECHA_ALTA</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>28027</t>
+          <t>10/12/2025</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -8230,36 +8259,36 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Teléfono</t>
+          <t>Hospitl</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>+34 722 334 112</t>
+          <t>Centro Médico Norte</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>+34 722 334 112</t>
+          <t>Centro Médico Norte</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -8280,36 +8309,36 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>Pasaporte</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>PASAPORTE</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>192.168.1.10</t>
+          <t>XK987654</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>PASAPORTE</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>PASAPORTE</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>192.168.1.10</t>
+          <t>XK987654</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -8330,36 +8359,36 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Fecha de ingreso</t>
+          <t>Código Postal</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>FECHA_INGRESO</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>03/12/2025</t>
+          <t>28013</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>FECHA_INGRESO</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>FECHA_INGRESO</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>03/12/2025</t>
+          <t>28013</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -8380,36 +8409,36 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Nombre Paciente</t>
+          <t>fECHA</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Juan Pérez</t>
+          <t>03/03/2026</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Juan Pérez</t>
+          <t>03/03/2026</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -8430,36 +8459,36 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Fecha de alta</t>
+          <t>Edad</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>FECHA_ALTA</t>
+          <t>EDAD</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>10/12/2025</t>
+          <t>45</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>FECHA_ALTA</t>
+          <t>EDAD</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>FECHA_ALTA</t>
+          <t>EDAD</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>10/12/2025</t>
+          <t>45</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -8480,36 +8509,36 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Nombre Paciente</t>
+          <t>Fecha de ingreso</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>FECHA_INGRESO</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Ana Martínez</t>
+          <t>03/12/2025</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>FECHA_INGRESO</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>FECHA_INGRESO</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Ana Martínez</t>
+          <t>03/12/2025</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -8530,38 +8559,46 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Nombre de Paciente</t>
+          <t>Código Postal</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Roberto Sánchez</t>
+          <t>28027</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr"/>
-      <c r="G40" t="inlineStr"/>
+          <t>DIRECCION</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>DIRECCION</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>28027</t>
+        </is>
+      </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>✗</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>FN</t>
+          <t>TP</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -10188,21 +10225,33 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+          <t>NOMBRE_PACIENTE</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>NOMBRE_PACIENTE</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Roberto Sánchez</t>
+        </is>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>15</v>
+      </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>✗</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>FN</t>
+          <t>TP</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
@@ -11681,7 +11730,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Roberto Sánchez, de Age_XX años, ingresó en la &lt;HOSPITAL_NAME&gt; el &lt;DATE_ADMISSION&gt;.</t>
+          <t>&lt;PATIENT_NAME&gt;, de Age_XX años, ingresó en la &lt;HOSPITAL_NAME&gt; el &lt;DATE_ADMISSION&gt;.</t>
         </is>
       </c>
     </row>

--- a/Resultados_Anonimizador_Hibrido_v3.xlsx
+++ b/Resultados_Anonimizador_Hibrido_v3.xlsx
@@ -745,7 +745,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G137"/>
+  <dimension ref="A1:G139"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4478,28 +4478,28 @@
         <v>1010</v>
       </c>
       <c r="B129" t="n">
-        <v>1647</v>
+        <v>1594</v>
       </c>
       <c r="C129" t="n">
-        <v>1655</v>
+        <v>1605</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>01/02/23</t>
+          <t>Sr. Sánchez</t>
         </is>
       </c>
       <c r="G129" t="n">
-        <v>0.9983710646629333</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130">
@@ -4507,28 +4507,28 @@
         <v>1010</v>
       </c>
       <c r="B130" t="n">
-        <v>1662</v>
+        <v>1647</v>
       </c>
       <c r="C130" t="n">
-        <v>1689</v>
+        <v>1655</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Hospital Clínico San Carlos</t>
+          <t>01/02/23</t>
         </is>
       </c>
       <c r="G130" t="n">
-        <v>0.9981750249862671</v>
+        <v>0.9983710646629333</v>
       </c>
     </row>
     <row r="131">
@@ -4536,28 +4536,28 @@
         <v>1010</v>
       </c>
       <c r="B131" t="n">
-        <v>1777</v>
+        <v>1662</v>
       </c>
       <c r="C131" t="n">
-        <v>1787</v>
+        <v>1689</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>14/03/2023</t>
+          <t>Hospital Clínico San Carlos</t>
         </is>
       </c>
       <c r="G131" t="n">
-        <v>0.9987928867340088</v>
+        <v>0.9981750249862671</v>
       </c>
     </row>
     <row r="132">
@@ -4565,28 +4565,28 @@
         <v>1010</v>
       </c>
       <c r="B132" t="n">
-        <v>107</v>
+        <v>1764</v>
       </c>
       <c r="C132" t="n">
-        <v>145</v>
+        <v>1773</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>NOMBRE_PROFESIONAL</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>NOMBRE_PROFESIONAL</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>Pº de la Castellana, 261, 28046 Madrid</t>
+          <t>Dr. Pérez</t>
         </is>
       </c>
       <c r="G132" t="n">
-        <v>0.9990787506103516</v>
+        <v>0.7603808045387268</v>
       </c>
     </row>
     <row r="133">
@@ -4594,28 +4594,28 @@
         <v>1010</v>
       </c>
       <c r="B133" t="n">
-        <v>325</v>
+        <v>1777</v>
       </c>
       <c r="C133" t="n">
-        <v>357</v>
+        <v>1787</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>C/ Alcalá 123, 3ºB, 28009 Madrid</t>
+          <t>14/03/2023</t>
         </is>
       </c>
       <c r="G133" t="n">
-        <v>0.9991940259933472</v>
+        <v>0.9987928867340088</v>
       </c>
     </row>
     <row r="134">
@@ -4623,10 +4623,10 @@
         <v>1010</v>
       </c>
       <c r="B134" t="n">
-        <v>406</v>
+        <v>107</v>
       </c>
       <c r="C134" t="n">
-        <v>414</v>
+        <v>145</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -4640,11 +4640,11 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Pº de la Castellana, 261, 28046 Madrid</t>
         </is>
       </c>
       <c r="G134" t="n">
-        <v>0.998889148235321</v>
+        <v>0.9990787506103516</v>
       </c>
     </row>
     <row r="135">
@@ -4652,10 +4652,10 @@
         <v>1010</v>
       </c>
       <c r="B135" t="n">
-        <v>709</v>
+        <v>325</v>
       </c>
       <c r="C135" t="n">
-        <v>717</v>
+        <v>357</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -4669,11 +4669,11 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Pamplona</t>
+          <t>C/ Alcalá 123, 3ºB, 28009 Madrid</t>
         </is>
       </c>
       <c r="G135" t="n">
-        <v>0.9973157048225403</v>
+        <v>0.9991940259933472</v>
       </c>
     </row>
     <row r="136">
@@ -4681,10 +4681,10 @@
         <v>1010</v>
       </c>
       <c r="B136" t="n">
-        <v>776</v>
+        <v>406</v>
       </c>
       <c r="C136" t="n">
-        <v>782</v>
+        <v>414</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -4698,11 +4698,11 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>Madrid</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="G136" t="n">
-        <v>0.9988161325454712</v>
+        <v>0.998889148235321</v>
       </c>
     </row>
     <row r="137">
@@ -4710,27 +4710,85 @@
         <v>1010</v>
       </c>
       <c r="B137" t="n">
+        <v>709</v>
+      </c>
+      <c r="C137" t="n">
+        <v>717</v>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>DIRECCION</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>DIRECCION</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>Pamplona</t>
+        </is>
+      </c>
+      <c r="G137" t="n">
+        <v>0.9973157048225403</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>1010</v>
+      </c>
+      <c r="B138" t="n">
+        <v>776</v>
+      </c>
+      <c r="C138" t="n">
+        <v>782</v>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>DIRECCION</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>DIRECCION</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>Madrid</t>
+        </is>
+      </c>
+      <c r="G138" t="n">
+        <v>0.9988161325454712</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>1010</v>
+      </c>
+      <c r="B139" t="n">
         <v>1033</v>
       </c>
-      <c r="C137" t="n">
+      <c r="C139" t="n">
         <v>1058</v>
       </c>
-      <c r="D137" t="inlineStr">
+      <c r="D139" t="inlineStr">
         <is>
           <t>DIRECCION</t>
         </is>
       </c>
-      <c r="E137" t="inlineStr">
+      <c r="E139" t="inlineStr">
         <is>
           <t>DIRECCION</t>
         </is>
       </c>
-      <c r="F137" t="inlineStr">
+      <c r="F139" t="inlineStr">
         <is>
           <t>Av. de América 45, Madrid</t>
         </is>
       </c>
-      <c r="G137" t="n">
+      <c r="G139" t="n">
         <v>0.9989755153656006</v>
       </c>
     </row>
@@ -5203,9 +5261,9 @@
 ECG compatible con SCASEST. Se decide ingreso en Unidad Coronaria.
 El informe se genera desde el dispositivo &lt;DEVICE_ID&gt; conectado a la red interna (IP IP_XXX).
 El paciente firma consentimiento informado con pasaporte &lt;PASSPORT&gt;.
-Observaciones adicionales: el Sr. Sánchez acudió previamente a consulta externa el &lt;DATE&gt;
+Observaciones adicionales: el &lt;PATIENT_NAME&gt; acudió previamente a consulta externa el &lt;DATE&gt;
 en el &lt;HOSPITAL_NAME&gt;. Se recomienda seguimiento ambulatorio.
-Texto redactado y validado por el Dr. Pérez el &lt;DATE&gt; a las 10:15.
+Texto redactado y validado por el &lt;PROVIDER_NAME&gt; el &lt;DATE&gt; a las 10:15.
 </t>
         </is>
       </c>
@@ -5221,7 +5279,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J145"/>
+  <dimension ref="A1:J147"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5283,36 +5341,36 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fecha de alta</t>
+          <t>Email</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>FECHA_ALTA</t>
+          <t>EMAIL</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>10/12/2025</t>
+          <t>juan.perez@gmail.com</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>FECHA_ALTA</t>
+          <t>EMAIL</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>FECHA_ALTA</t>
+          <t>EMAIL</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>10/12/2025</t>
+          <t>juan.perez@gmail.com</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -5333,11 +5391,11 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Nombre de Paciente</t>
+          <t>Nombre Paciente</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -5347,7 +5405,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Roberto Sánchez</t>
+          <t>Ana Martínez</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -5362,7 +5420,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Roberto Sánchez</t>
+          <t>Ana Martínez</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -5383,36 +5441,36 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Nombre Profesional</t>
+          <t>Hospital</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>NOMBRE_PROFESIONAL</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Dra. Elena Torres</t>
+          <t>Clínica Santa María</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>NOMBRE_PROFESIONAL</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>NOMBRE_PROFESIONAL</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Dra. Elena Torres</t>
+          <t>Clínica Santa María</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -5433,11 +5491,11 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Nombre Paciente</t>
+          <t>Nombre de Paciente</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -5447,7 +5505,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Ana Martínez</t>
+          <t>Roberto Sánchez</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -5462,7 +5520,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Ana Martínez</t>
+          <t>Roberto Sánchez</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -5483,36 +5541,36 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Hospital</t>
+          <t>Fecha de ingreso</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>FECHA_INGRESO</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Clínica Santa María</t>
+          <t>03/12/2025</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>FECHA_INGRESO</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>FECHA_INGRESO</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Clínica Santa María</t>
+          <t>03/12/2025</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -5533,36 +5591,36 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Email</t>
+          <t>Pasaporte</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>PASAPORTE</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>juan.perez@gmail.com</t>
+          <t>XK987654</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>PASAPORTE</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>PASAPORTE</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>juan.perez@gmail.com</t>
+          <t>XK987654</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -5583,36 +5641,36 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Fecha de ingreso</t>
+          <t>Teléfono</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>FECHA_INGRESO</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>03/12/2025</t>
+          <t>+34 722 334 112</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>FECHA_INGRESO</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>FECHA_INGRESO</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>03/12/2025</t>
+          <t>+34 722 334 112</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -5633,36 +5691,36 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Hospital</t>
+          <t>Fecha de alta</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>FECHA_ALTA</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Hospital La Paz</t>
+          <t>10/12/2025</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>FECHA_ALTA</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>FECHA_ALTA</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Hospital La Paz</t>
+          <t>10/12/2025</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -5683,36 +5741,36 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Nombre Paciente</t>
+          <t>Nombre Profesional</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>NOMBRE_PROFESIONAL</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Marta Ruiz</t>
+          <t>Dra. Elena Torres</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>NOMBRE_PROFESIONAL</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>NOMBRE_PROFESIONAL</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Marta Ruiz</t>
+          <t>Dra. Elena Torres</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -5733,36 +5791,36 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Nombre Paciente</t>
+          <t>Emali</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>EMAIL</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Juan Pérez</t>
+          <t>l.herrera@hospital.com</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>EMAIL</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>EMAIL</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Juan Pérez</t>
+          <t>l.herrera@hospital.com</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -5783,36 +5841,36 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Hospitl</t>
+          <t>ID Dispositivo</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>DEVICE_ID</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Centro Médico Norte</t>
+          <t>DEV-ABC-123</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>DEVICE_ID</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>DEVICE_ID</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Centro Médico Norte</t>
+          <t>DEV-ABC-123</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -5833,36 +5891,36 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Nº Historia Clínica</t>
+          <t>fECHA</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>NHC</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>HC-0099123</t>
+          <t>03/03/2026</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>NHC</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>NHC</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>HC-0099123</t>
+          <t>03/03/2026</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -5883,36 +5941,36 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Edad</t>
+          <t>Hospitl</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>EDAD</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>Centro Médico Norte</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>EDAD</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>EDAD</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>Centro Médico Norte</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -5933,36 +5991,36 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Teléfono</t>
+          <t>ID Dispositivo</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>DEVICE_ID</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>+34 600 123 123</t>
+          <t>DEV-XYZ-99</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>DEVICE_ID</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>DEVICE_ID</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>+34 600 123 123</t>
+          <t>DEV-XYZ-99</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -5983,36 +6041,36 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Fecha Ingreso</t>
+          <t>Nombre Profesional</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>FECHA_INGRESO</t>
+          <t>NOMBRE_PROFESIONAL</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>22/11/2025</t>
+          <t>Dr. Luis Herrera</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>FECHA_INGRESO</t>
+          <t>NOMBRE_PROFESIONAL</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>FECHA_INGRESO</t>
+          <t>NOMBRE_PROFESIONAL</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>22/11/2025</t>
+          <t>Dr. Luis Herrera</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -6033,36 +6091,36 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Nombre Profesional</t>
+          <t>Nombre Paciente</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>NOMBRE_PROFESIONAL</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Dr. Luis Herrera</t>
+          <t>Marta Ruiz</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>NOMBRE_PROFESIONAL</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>NOMBRE_PROFESIONAL</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Dr. Luis Herrera</t>
+          <t>Marta Ruiz</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -6083,36 +6141,36 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Edad</t>
+          <t>Hospital</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>EDAD</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>Hospital La Paz</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>EDAD</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>EDAD</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>Hospital La Paz</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -6133,36 +6191,36 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Pasaporte</t>
+          <t>DNI/NIF</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>PASAPORTE</t>
+          <t>DNI_NIF</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>XK987654</t>
+          <t>12345678A</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>PASAPORTE</t>
+          <t>DNI_NIF</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>PASAPORTE</t>
+          <t>DNI_NIF</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>XK987654</t>
+          <t>12345678A</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -6183,36 +6241,36 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Emali</t>
+          <t>Hospital</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>l.herrera@hospital.com</t>
+          <t>Hospital Virgen del Mar</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>l.herrera@hospital.com</t>
+          <t>Hospital Virgen del Mar</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -6233,36 +6291,36 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Hospital</t>
+          <t>IP</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>IP</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Hospital Virgen del Mar</t>
+          <t>192.168.1.10</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>IP</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>IP</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Hospital Virgen del Mar</t>
+          <t>192.168.1.10</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -6283,36 +6341,36 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Nombre Paciente</t>
+          <t>Fecha</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>María López</t>
+          <t>05/05/2025</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>María López</t>
+          <t>05/05/2025</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -6333,36 +6391,36 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>ID Dispositivo</t>
+          <t>NªSeguro Médico</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>DEVICE_ID</t>
+          <t>INSURANCE_ID</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>DEV-ABC-123</t>
+          <t>INS-145-88</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>DEVICE_ID</t>
+          <t>INSURANCE_ID</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>DEVICE_ID</t>
+          <t>INSURANCE_ID</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>DEV-ABC-123</t>
+          <t>INS-145-88</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -6383,36 +6441,36 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Fecha</t>
+          <t>Email</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>EMAIL</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>05/05/2025</t>
+          <t>roberto.san@outlook.es</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>EMAIL</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>EMAIL</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>05/05/2025</t>
+          <t>roberto.san@outlook.es</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -6433,36 +6491,36 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>ID Dispositivo</t>
+          <t>Fecha Nacimiento</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>DEVICE_ID</t>
+          <t>FECHA_NACIMIENTO</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>DEV-XYZ-99</t>
+          <t>08/06/1990</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>DEVICE_ID</t>
+          <t>FECHA_NACIMIENTO</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>DEVICE_ID</t>
+          <t>FECHA_NACIMIENTO</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>DEV-XYZ-99</t>
+          <t>08/06/1990</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -6483,36 +6541,36 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>Nº Historia Clínica</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>NHC</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>192.168.1.10</t>
+          <t>HC-0099123</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>NHC</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>NHC</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>192.168.1.10</t>
+          <t>HC-0099123</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -6533,36 +6591,36 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Teléfono</t>
+          <t>IP</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>IP</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>+34 722 334 112</t>
+          <t>10.0.0.55</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>IP</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>IP</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>+34 722 334 112</t>
+          <t>10.0.0.55</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -6583,36 +6641,36 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Fecha Nacimiento</t>
+          <t>Teléfono</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>FECHA_NACIMIENTO</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>08/06/1990</t>
+          <t>+34 600 123 123</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>FECHA_NACIMIENTO</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>FECHA_NACIMIENTO</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>08/06/1990</t>
+          <t>+34 600 123 123</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -6633,36 +6691,36 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Teléfono</t>
+          <t>Edad</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>EDAD</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>912 556 789</t>
+          <t>45</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>EDAD</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>EDAD</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>912 556 789</t>
+          <t>45</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -6683,36 +6741,36 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Email</t>
+          <t>Edad</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>EDAD</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>roberto.san@outlook.es</t>
+          <t>52</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>EDAD</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>EDAD</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>roberto.san@outlook.es</t>
+          <t>52</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -6733,36 +6791,36 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>NªSeguro Médico</t>
+          <t>Nombre Paciente</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>INSURANCE_ID</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>INS-145-88</t>
+          <t>Juan Pérez</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>INSURANCE_ID</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>INSURANCE_ID</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>INS-145-88</t>
+          <t>Juan Pérez</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -6783,36 +6841,36 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>Fecha Ingreso</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>FECHA_INGRESO</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>10.0.0.55</t>
+          <t>22/11/2025</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>FECHA_INGRESO</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>FECHA_INGRESO</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>10.0.0.55</t>
+          <t>22/11/2025</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -6833,36 +6891,36 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>DNI/NIF</t>
+          <t>Teléfono</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>DNI_NIF</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>12345678A</t>
+          <t>912 556 789</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>DNI_NIF</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>DNI_NIF</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>12345678A</t>
+          <t>912 556 789</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -6883,36 +6941,36 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>fECHA</t>
+          <t>Nombre Paciente</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>03/03/2026</t>
+          <t>María López</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>03/03/2026</t>
+          <t>María López</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -6933,7 +6991,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -6947,7 +7005,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>C/ Alcalá 220</t>
+          <t>C/ Mayor 15, 3B</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -6975,21 +7033,21 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Código Postal</t>
+          <t>Fecha de ingreso</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>FECHA_INGRESO</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>28013</t>
+          <t>15/01/2026</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -7017,11 +7075,11 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Ciudad</t>
+          <t>Dirección</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -7031,7 +7089,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Madrid</t>
+          <t>C/ Alcalá 220</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -7059,11 +7117,11 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Código Postal</t>
+          <t>Ciudad</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -7073,7 +7131,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>28027</t>
+          <t>Madrid</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -7185,21 +7243,21 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Fecha de ingreso</t>
+          <t>Código Postal</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>FECHA_INGRESO</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>15/01/2026</t>
+          <t>28013</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -7227,11 +7285,11 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Dirección</t>
+          <t>Código Postal</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -7241,7 +7299,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>C/ Mayor 15, 3B</t>
+          <t>28027</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -7269,7 +7327,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -7280,17 +7338,17 @@
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr">
         <is>
-          <t>NOMBRE_PROFESIONAL</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>NOMBRE_PROFESIONAL</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Dr. Luis Martín</t>
+          <t>Paseo de la Castellana 89, Madrid</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -7311,7 +7369,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1003</v>
+        <v>1009</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -7322,17 +7380,17 @@
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr">
         <is>
-          <t>EDAD</t>
+          <t>NOMBRE_PROFESIONAL</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>EDAD</t>
+          <t>NOMBRE_PROFESIONAL</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>Francisco Gómez Sánchez</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -7353,7 +7411,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1005</v>
+        <v>1010</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -7364,17 +7422,17 @@
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr">
         <is>
-          <t>NOMBRE_PROFESIONAL</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>NOMBRE_PROFESIONAL</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Luis Martín Gómez</t>
+          <t>Av. de América 45, Madrid</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -7395,7 +7453,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1001</v>
+        <v>1005</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -7406,17 +7464,17 @@
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr">
         <is>
-          <t>FECHA_INGRESO</t>
+          <t>EDAD</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>FECHA_INGRESO</t>
+          <t>EDAD</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>14/03/2023</t>
+          <t>29</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -7437,7 +7495,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1002</v>
+        <v>1010</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -7448,17 +7506,17 @@
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>FECHA_INGRESO</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>FECHA_INGRESO</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Hospital Universitario La Paz</t>
+          <t>18/03/2023</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -7490,17 +7548,17 @@
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>FECHA_NACIMIENTO</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>FECHA_NACIMIENTO</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>C/ Alcalá 123, 3ºB, 28009 Madrid</t>
+          <t>22/07/1971</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -7521,7 +7579,7 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -7532,17 +7590,17 @@
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr">
         <is>
-          <t>FECHA_NACIMIENTO</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>FECHA_NACIMIENTO</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>12/12/1977</t>
+          <t>699 234 111</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -7563,7 +7621,7 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1007</v>
+        <v>1010</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -7574,17 +7632,17 @@
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr">
         <is>
-          <t>EDAD</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>EDAD</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>Hospital Universitario La Paz</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -7605,7 +7663,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -7616,17 +7674,17 @@
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr">
         <is>
-          <t>EDAD</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>EDAD</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>Sr. Sánchez</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -7647,7 +7705,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1001</v>
+        <v>1010</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -7658,17 +7716,17 @@
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>C/ Alcalá 123, 28009 Madrid</t>
+          <t>+34 612 345 678</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -7689,7 +7747,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1006</v>
+        <v>12</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -7700,17 +7758,17 @@
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr">
         <is>
-          <t>DNI_NIF</t>
+          <t>NHC</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>DNI_NIF</t>
+          <t>NHC</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>99887766L</t>
+          <t>MRN-556677</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -7731,7 +7789,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1010</v>
+        <v>1001</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -7742,17 +7800,17 @@
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr">
         <is>
-          <t>INSURANCE_ID</t>
+          <t>EDAD</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>INSURANCE_ID</t>
+          <t>EDAD</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>INS-2023-445-99</t>
+          <t>52</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -7773,7 +7831,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>6</v>
+        <v>1005</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -7784,17 +7842,17 @@
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>15/01/2026</t>
+          <t>Av. Diagonal 456, Barcelona</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -7826,17 +7884,17 @@
       <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr">
         <is>
-          <t>NOMBRE_PROFESIONAL</t>
+          <t>EMAIL</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>NOMBRE_PROFESIONAL</t>
+          <t>EMAIL</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Francisco Gómez Sánchez</t>
+          <t>fgomez@empresa.es</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -7857,7 +7915,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1003</v>
+        <v>1010</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -7868,17 +7926,17 @@
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr">
         <is>
-          <t>FECHA_INGRESO</t>
+          <t>INSURANCE_ID</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>FECHA_INGRESO</t>
+          <t>INSURANCE_ID</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>01/01/2023</t>
+          <t>INS-2023-445-99</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -7899,7 +7957,7 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1001</v>
+        <v>1010</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -7910,17 +7968,17 @@
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Hospital Clínico San Carlos</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -7941,7 +7999,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1010</v>
+        <v>1004</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -7952,17 +8010,17 @@
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>EDAD</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>EDAD</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>14/03/2023</t>
+          <t>45</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -7983,7 +8041,7 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>2</v>
+        <v>1006</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -7994,17 +8052,17 @@
       <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>C/ Mayor 15, 3B, 28013 Madrid</t>
+          <t>600 987 654</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -8025,7 +8083,7 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1003</v>
+        <v>1007</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -8036,17 +8094,17 @@
       <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>EDAD</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>EDAD</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Paseo de la Castellana 89, Madrid</t>
+          <t>58</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -8067,7 +8125,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1010</v>
+        <v>1004</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -8078,17 +8136,17 @@
       <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr">
         <is>
-          <t>PASAPORTE</t>
+          <t>FECHA_NACIMIENTO</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>PASAPORTE</t>
+          <t>FECHA_NACIMIENTO</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>ES1234567</t>
+          <t>12/12/1977</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -8109,7 +8167,7 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1005</v>
+        <v>1010</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -8130,7 +8188,7 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>33445566P</t>
+          <t>12345678Z</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -8151,7 +8209,7 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>1010</v>
+        <v>1004</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -8162,17 +8220,17 @@
       <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>EMAIL</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>EMAIL</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>2010</t>
+          <t>ana.garcia@outlook.es</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -8193,7 +8251,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>1007</v>
+        <v>1010</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -8204,17 +8262,17 @@
       <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>FAMILIARES_SUJETO_ASISTENCIA</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>FAMILIARES_SUJETO_ASISTENCIA</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>C/ San Fernando 12, Sevilla</t>
+          <t>José Sánchez López</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -8235,7 +8293,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1010</v>
+        <v>1006</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -8246,17 +8304,17 @@
       <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr">
         <is>
-          <t>FECHA_NACIMIENTO</t>
+          <t>EDAD</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>FECHA_NACIMIENTO</t>
+          <t>EDAD</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>22/07/1971</t>
+          <t>73</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -8277,7 +8335,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>12</v>
+        <v>1009</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -8288,17 +8346,17 @@
       <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr">
         <is>
-          <t>NHC</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>NHC</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>MRN-556677</t>
+          <t>944 555 666</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -8319,7 +8377,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>1002</v>
+        <v>1010</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -8330,17 +8388,17 @@
       <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>maria.lopez@gmail.com</t>
+          <t>Madrid</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -8361,7 +8419,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>1004</v>
+        <v>1008</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -8372,17 +8430,17 @@
       <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr">
         <is>
-          <t>NHC</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>NHC</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>HC-445566</t>
+          <t>Hospital Universitario de Canarias</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -8403,7 +8461,7 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>1006</v>
+        <v>1010</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -8414,17 +8472,17 @@
       <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Plaza Mayor 3, 47001 Valladolid</t>
+          <t>14/03/2023</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -8445,7 +8503,7 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>1003</v>
+        <v>1010</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -8456,17 +8514,17 @@
       <c r="D71" t="inlineStr"/>
       <c r="E71" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>FAMILIARES_SUJETO_ASISTENCIA</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>FAMILIARES_SUJETO_ASISTENCIA</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Juan Pérez Martín</t>
+          <t>padre</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -8487,7 +8545,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>9</v>
+        <v>1010</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -8498,17 +8556,17 @@
       <c r="D72" t="inlineStr"/>
       <c r="E72" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>EMAIL</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>EMAIL</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>C/ Alcalá 220, 28027 Madrid</t>
+          <t>roberto.sanchez@gmail.com</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -8540,17 +8598,17 @@
       <c r="D73" t="inlineStr"/>
       <c r="E73" t="inlineStr">
         <is>
-          <t>DNI_NIF</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>DNI_NIF</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>87654321X</t>
+          <t>91 555 22 11</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -8571,7 +8629,7 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>1004</v>
+        <v>1010</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -8582,17 +8640,17 @@
       <c r="D74" t="inlineStr"/>
       <c r="E74" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>EDAD</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>EDAD</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Hospital Gregorio Marañón</t>
+          <t>52</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -8613,7 +8671,7 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>1010</v>
+        <v>1002</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -8624,17 +8682,17 @@
       <c r="D75" t="inlineStr"/>
       <c r="E75" t="inlineStr">
         <is>
-          <t>FECHA_INGRESO</t>
+          <t>EDAD</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>FECHA_INGRESO</t>
+          <t>EDAD</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>18/03/2023</t>
+          <t>34</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -8655,7 +8713,7 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>1002</v>
+        <v>1010</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
@@ -8666,17 +8724,17 @@
       <c r="D76" t="inlineStr"/>
       <c r="E76" t="inlineStr">
         <is>
-          <t>SEXO_SUJETO_ASISTENCIA</t>
+          <t>IP</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>SEXO_SUJETO_ASISTENCIA</t>
+          <t>IP</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>mujer</t>
+          <t>10.0.0.12</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -8697,7 +8755,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>1009</v>
+        <v>1003</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -8708,17 +8766,17 @@
       <c r="D77" t="inlineStr"/>
       <c r="E77" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>EDAD</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>EDAD</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Hospital de Cruces</t>
+          <t>67</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -8760,7 +8818,7 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Pamplona</t>
+          <t>Pº de la Castellana, 261, 28046 Madrid</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -8781,7 +8839,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>1009</v>
+        <v>1001</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
@@ -8792,17 +8850,17 @@
       <c r="D79" t="inlineStr"/>
       <c r="E79" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>fgomez@empresa.es</t>
+          <t>+34 612 345 678</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -8823,7 +8881,7 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>16</v>
+        <v>1009</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
@@ -8844,7 +8902,7 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>hospital</t>
+          <t>Hospital de Cruces</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -8865,7 +8923,7 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>1002</v>
+        <v>1010</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
@@ -8876,17 +8934,17 @@
       <c r="D81" t="inlineStr"/>
       <c r="E81" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Av. de América 45, 28002 Madrid</t>
+          <t>2010</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -8907,7 +8965,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>1008</v>
+        <v>1001</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
@@ -8918,17 +8976,17 @@
       <c r="D82" t="inlineStr"/>
       <c r="E82" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>DNI_NIF</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>DNI_NIF</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>30/08/2021</t>
+          <t>12345678Z</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -8949,7 +9007,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
@@ -8960,17 +9018,17 @@
       <c r="D83" t="inlineStr"/>
       <c r="E83" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>01/02/23</t>
+          <t>Laura Méndez</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -8991,7 +9049,7 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>1010</v>
+        <v>1003</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
@@ -9002,17 +9060,17 @@
       <c r="D84" t="inlineStr"/>
       <c r="E84" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Hospital Clínico San Carlos</t>
+          <t>Juan Pérez Martín</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -9044,17 +9102,17 @@
       <c r="D85" t="inlineStr"/>
       <c r="E85" t="inlineStr">
         <is>
-          <t>FECHA_NACIMIENTO</t>
+          <t>NHC</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>FECHA_NACIMIENTO</t>
+          <t>NHC</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>14-03-2023</t>
+          <t>HC-0099123</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
@@ -9075,7 +9133,7 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
@@ -9086,17 +9144,17 @@
       <c r="D86" t="inlineStr"/>
       <c r="E86" t="inlineStr">
         <is>
-          <t>NOMBRE_PROFESIONAL</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>NOMBRE_PROFESIONAL</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Dr. Juan Pérez Martín</t>
+          <t>José Manuel Ruiz Ortega</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -9128,17 +9186,17 @@
       <c r="D87" t="inlineStr"/>
       <c r="E87" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>01/02/23</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -9159,7 +9217,7 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
@@ -9170,17 +9228,17 @@
       <c r="D88" t="inlineStr"/>
       <c r="E88" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>NOMBRE_PROFESIONAL</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>NOMBRE_PROFESIONAL</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>944 555 666</t>
+          <t>Carmen Rodríguez López</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -9201,7 +9259,7 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
@@ -9212,17 +9270,17 @@
       <c r="D89" t="inlineStr"/>
       <c r="E89" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>NOMBRE_PROFESIONAL</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>NOMBRE_PROFESIONAL</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>ana.garcia@outlook.es</t>
+          <t>Dr. Luis Martín</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
@@ -9243,7 +9301,7 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>1008</v>
+        <v>1002</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
@@ -9254,17 +9312,17 @@
       <c r="D90" t="inlineStr"/>
       <c r="E90" t="inlineStr">
         <is>
-          <t>DNI_NIF</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>DNI_NIF</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>44556677R</t>
+          <t>María López García</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -9285,7 +9343,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>1004</v>
+        <v>1009</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
@@ -9296,17 +9354,17 @@
       <c r="D91" t="inlineStr"/>
       <c r="E91" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>EDAD</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>EDAD</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>+34 622 998 441</t>
+          <t>64</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -9327,7 +9385,7 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>1003</v>
+        <v>1007</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
@@ -9338,17 +9396,17 @@
       <c r="D92" t="inlineStr"/>
       <c r="E92" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>91 555 22 11</t>
+          <t>Hospital Virgen del Rocío</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
@@ -9369,7 +9427,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>1010</v>
+        <v>1005</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
@@ -9380,17 +9438,17 @@
       <c r="D93" t="inlineStr"/>
       <c r="E93" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>DNI_NIF</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>DNI_NIF</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>91 234 56 78</t>
+          <t>33445566P</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
@@ -9411,7 +9469,7 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>1010</v>
+        <v>1001</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
@@ -9422,17 +9480,17 @@
       <c r="D94" t="inlineStr"/>
       <c r="E94" t="inlineStr">
         <is>
-          <t>FAMILIARES_SUJETO_ASISTENCIA</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>FAMILIARES_SUJETO_ASISTENCIA</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>José Sánchez López</t>
+          <t>C/ Alcalá 123, 28009 Madrid</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
@@ -9453,7 +9511,7 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>1001</v>
+        <v>1007</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
@@ -9464,17 +9522,17 @@
       <c r="D95" t="inlineStr"/>
       <c r="E95" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>Roberto Sánchez</t>
+          <t>C/ San Fernando 12, Sevilla</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
@@ -9495,7 +9553,7 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>1009</v>
+        <v>1001</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
@@ -9506,17 +9564,17 @@
       <c r="D96" t="inlineStr"/>
       <c r="E96" t="inlineStr">
         <is>
-          <t>NHC</t>
+          <t>FECHA_INGRESO</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>NHC</t>
+          <t>FECHA_INGRESO</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>HC-778899</t>
+          <t>14/03/2023</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
@@ -9537,7 +9595,7 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>1006</v>
+        <v>1010</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
@@ -9548,17 +9606,17 @@
       <c r="D97" t="inlineStr"/>
       <c r="E97" t="inlineStr">
         <is>
-          <t>EDAD</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>EDAD</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>14/03/2023</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
@@ -9590,17 +9648,17 @@
       <c r="D98" t="inlineStr"/>
       <c r="E98" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>FAMILIARES_SUJETO_ASISTENCIA</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>FAMILIARES_SUJETO_ASISTENCIA</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Clínica Universidad de Navarra</t>
+          <t>Ana Gómez</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
@@ -9663,7 +9721,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
@@ -9674,17 +9732,17 @@
       <c r="D100" t="inlineStr"/>
       <c r="E100" t="inlineStr">
         <is>
-          <t>SEXO_SUJETO_ASISTENCIA</t>
+          <t>NHC</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>SEXO_SUJETO_ASISTENCIA</t>
+          <t>NHC</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>varón</t>
+          <t>HC-0098123</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
@@ -9705,7 +9763,7 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>1002</v>
+        <v>1010</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
@@ -9716,17 +9774,17 @@
       <c r="D101" t="inlineStr"/>
       <c r="E101" t="inlineStr">
         <is>
-          <t>NHC</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>NHC</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>HC-0098123</t>
+          <t>C/ Alcalá 123, 3ºB, 28009 Madrid</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
@@ -9747,7 +9805,7 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>1002</v>
+        <v>1010</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
@@ -9758,17 +9816,17 @@
       <c r="D102" t="inlineStr"/>
       <c r="E102" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>02-11-2022</t>
+          <t>91 234 56 78</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
@@ -9789,7 +9847,7 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>1008</v>
+        <v>1004</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
@@ -9800,17 +9858,17 @@
       <c r="D103" t="inlineStr"/>
       <c r="E103" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>NHC</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>NHC</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>Av. Tres de Mayo 77, Tenerife</t>
+          <t>HC-445566</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
@@ -9842,17 +9900,17 @@
       <c r="D104" t="inlineStr"/>
       <c r="E104" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>DEVICE_ID</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>DEVICE_ID</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>roberto.sanchez@gmail.com</t>
+          <t>DEV-XK-9933</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
@@ -9873,7 +9931,7 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
@@ -9884,17 +9942,17 @@
       <c r="D105" t="inlineStr"/>
       <c r="E105" t="inlineStr">
         <is>
-          <t>SEXO_SUJETO_ASISTENCIA</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>SEXO_SUJETO_ASISTENCIA</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>varón</t>
+          <t>Av. Tres de Mayo 77, Tenerife</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
@@ -9915,7 +9973,7 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>1007</v>
+        <v>1010</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
@@ -9926,17 +9984,17 @@
       <c r="D106" t="inlineStr"/>
       <c r="E106" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>jose.ruiz@yahoo.es</t>
+          <t>Pamplona</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
@@ -9957,7 +10015,7 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>1002</v>
+        <v>1010</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
@@ -9968,17 +10026,17 @@
       <c r="D107" t="inlineStr"/>
       <c r="E107" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>NOMBRE_PROFESIONAL</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>NOMBRE_PROFESIONAL</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>699 234 111</t>
+          <t>Dr. Juan Pérez Martín</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
@@ -9999,7 +10057,7 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
@@ -10010,17 +10068,17 @@
       <c r="D108" t="inlineStr"/>
       <c r="E108" t="inlineStr">
         <is>
-          <t>EDAD</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>EDAD</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>Hospital Vall d'Hebron</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
@@ -10041,7 +10099,7 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>1008</v>
+        <v>1001</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
@@ -10062,7 +10120,7 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>Laura Méndez</t>
+          <t>Roberto Sánchez</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
@@ -10083,7 +10141,7 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>1001</v>
+        <v>1007</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
@@ -10094,17 +10152,17 @@
       <c r="D110" t="inlineStr"/>
       <c r="E110" t="inlineStr">
         <is>
-          <t>FECHA_NACIMIENTO</t>
+          <t>EMAIL</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>FECHA_NACIMIENTO</t>
+          <t>EMAIL</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>06/08/1970</t>
+          <t>jose.ruiz@yahoo.es</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
@@ -10125,7 +10183,7 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
@@ -10136,17 +10194,17 @@
       <c r="D111" t="inlineStr"/>
       <c r="E111" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>Madrid</t>
+          <t>30/08/2021</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
@@ -10167,7 +10225,7 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>1003</v>
+        <v>1010</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
@@ -10178,17 +10236,17 @@
       <c r="D112" t="inlineStr"/>
       <c r="E112" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>NOMBRE_PROFESIONAL</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>NOMBRE_PROFESIONAL</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>Hospital Vall d'Hebron</t>
+          <t>Dr. Pérez</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
@@ -10209,7 +10267,7 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>1010</v>
+        <v>1003</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
@@ -10220,17 +10278,17 @@
       <c r="D113" t="inlineStr"/>
       <c r="E113" t="inlineStr">
         <is>
-          <t>FAMILIARES_SUJETO_ASISTENCIA</t>
+          <t>FECHA_INGRESO</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>FAMILIARES_SUJETO_ASISTENCIA</t>
+          <t>FECHA_INGRESO</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>padre</t>
+          <t>01/01/2023</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
@@ -10262,17 +10320,17 @@
       <c r="D114" t="inlineStr"/>
       <c r="E114" t="inlineStr">
         <is>
-          <t>NHC</t>
+          <t>NOMBRE_PROFESIONAL</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>NHC</t>
+          <t>NOMBRE_PROFESIONAL</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>HC-0099123</t>
+          <t>Dra. María López García</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
@@ -10293,7 +10351,7 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
@@ -10304,17 +10362,17 @@
       <c r="D115" t="inlineStr"/>
       <c r="E115" t="inlineStr">
         <is>
-          <t>EDAD</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>EDAD</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>+34 622 998 441</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
@@ -10335,7 +10393,7 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>1005</v>
+        <v>1008</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
@@ -10346,17 +10404,17 @@
       <c r="D116" t="inlineStr"/>
       <c r="E116" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>DNI_NIF</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>DNI_NIF</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>Av. Diagonal 456, Barcelona</t>
+          <t>44556677R</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
@@ -10377,7 +10435,7 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>1004</v>
+        <v>1010</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
@@ -10388,17 +10446,17 @@
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr">
         <is>
-          <t>NOMBRE_PROFESIONAL</t>
+          <t>PASAPORTE</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>NOMBRE_PROFESIONAL</t>
+          <t>PASAPORTE</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>Ana García Fernández</t>
+          <t>ES1234567</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
@@ -10419,7 +10477,7 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>1007</v>
+        <v>6</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
@@ -10430,17 +10488,17 @@
       <c r="D118" t="inlineStr"/>
       <c r="E118" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>Hospital Virgen del Rocío</t>
+          <t>15/01/2026</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
@@ -10461,7 +10519,7 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>1002</v>
+        <v>1010</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
@@ -10472,17 +10530,17 @@
       <c r="D119" t="inlineStr"/>
       <c r="E119" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>María López García</t>
+          <t>Hospital Clínico San Carlos</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
@@ -10503,7 +10561,7 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>1008</v>
+        <v>1002</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
@@ -10514,17 +10572,17 @@
       <c r="D120" t="inlineStr"/>
       <c r="E120" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>Hospital Universitario de Canarias</t>
+          <t>Av. de América 45, 28002 Madrid</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
@@ -10545,7 +10603,7 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>1001</v>
+        <v>1010</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
@@ -10556,17 +10614,17 @@
       <c r="D121" t="inlineStr"/>
       <c r="E121" t="inlineStr">
         <is>
-          <t>EDAD</t>
+          <t>SEXO_SUJETO_ASISTENCIA</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>EDAD</t>
+          <t>SEXO_SUJETO_ASISTENCIA</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>varón</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
@@ -10587,7 +10645,7 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>1006</v>
+        <v>1010</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
@@ -10598,17 +10656,17 @@
       <c r="D122" t="inlineStr"/>
       <c r="E122" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>600 987 654</t>
+          <t>Clínica Universidad de Navarra</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
@@ -10629,7 +10687,7 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>1008</v>
+        <v>1002</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
@@ -10640,17 +10698,17 @@
       <c r="D123" t="inlineStr"/>
       <c r="E123" t="inlineStr">
         <is>
-          <t>EDAD</t>
+          <t>EMAIL</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>EDAD</t>
+          <t>EMAIL</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>maria.lopez@gmail.com</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
@@ -10671,7 +10729,7 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>1006</v>
+        <v>1002</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
@@ -10682,17 +10740,17 @@
       <c r="D124" t="inlineStr"/>
       <c r="E124" t="inlineStr">
         <is>
-          <t>NOMBRE_PROFESIONAL</t>
+          <t>SEXO_SUJETO_ASISTENCIA</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>NOMBRE_PROFESIONAL</t>
+          <t>SEXO_SUJETO_ASISTENCIA</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>Carmen Rodríguez López</t>
+          <t>mujer</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
@@ -10713,7 +10771,7 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
@@ -10724,17 +10782,17 @@
       <c r="D125" t="inlineStr"/>
       <c r="E125" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>DNI_NIF</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>DNI_NIF</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>+34 612 345 678</t>
+          <t>87654321X</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
@@ -10755,7 +10813,7 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>1010</v>
+        <v>1005</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
@@ -10766,17 +10824,17 @@
       <c r="D126" t="inlineStr"/>
       <c r="E126" t="inlineStr">
         <is>
-          <t>EDAD</t>
+          <t>NOMBRE_PROFESIONAL</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>EDAD</t>
+          <t>NOMBRE_PROFESIONAL</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>Luis Martín Gómez</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
@@ -10797,7 +10855,7 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>1010</v>
+        <v>1001</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
@@ -10808,17 +10866,17 @@
       <c r="D127" t="inlineStr"/>
       <c r="E127" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>FECHA_NACIMIENTO</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>FECHA_NACIMIENTO</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>14/03/2023</t>
+          <t>06/08/1970</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
@@ -10839,7 +10897,7 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>1010</v>
+        <v>2</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
@@ -10850,17 +10908,17 @@
       <c r="D128" t="inlineStr"/>
       <c r="E128" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>ana.gomez@correo.es</t>
+          <t>C/ Mayor 15, 3B, 28013 Madrid</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
@@ -10881,7 +10939,7 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>1010</v>
+        <v>1002</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
@@ -10892,17 +10950,17 @@
       <c r="D129" t="inlineStr"/>
       <c r="E129" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>Pº de la Castellana, 261, 28046 Madrid</t>
+          <t>02-11-2022</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
@@ -10923,7 +10981,7 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
@@ -10934,17 +10992,17 @@
       <c r="D130" t="inlineStr"/>
       <c r="E130" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>DNI_NIF</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>DNI_NIF</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>18/05/2021</t>
+          <t>99887766L</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
@@ -10965,7 +11023,7 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>1010</v>
+        <v>1005</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
@@ -10976,17 +11034,17 @@
       <c r="D131" t="inlineStr"/>
       <c r="E131" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>SEXO_SUJETO_ASISTENCIA</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>SEXO_SUJETO_ASISTENCIA</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>192.168.1.34</t>
+          <t>varón</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
@@ -11007,7 +11065,7 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>1004</v>
+        <v>1010</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
@@ -11018,17 +11076,17 @@
       <c r="D132" t="inlineStr"/>
       <c r="E132" t="inlineStr">
         <is>
-          <t>EDAD</t>
+          <t>EMAIL</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>EDAD</t>
+          <t>EMAIL</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>ana.gomez@correo.es</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
@@ -11049,7 +11107,7 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>1005</v>
+        <v>1007</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
@@ -11060,17 +11118,17 @@
       <c r="D133" t="inlineStr"/>
       <c r="E133" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>FECHA_INGRESO</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>FECHA_INGRESO</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>Hospital de la Santa Creu i Sant Pau</t>
+          <t>23/06/2022</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
@@ -11091,7 +11149,7 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>1010</v>
+        <v>16</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
@@ -11102,17 +11160,17 @@
       <c r="D134" t="inlineStr"/>
       <c r="E134" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>+34 612 345 678</t>
+          <t>hospital</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
@@ -11133,7 +11191,7 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>1010</v>
+        <v>1002</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
@@ -11144,17 +11202,17 @@
       <c r="D135" t="inlineStr"/>
       <c r="E135" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>Hospital Universitario La Paz</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
@@ -11186,17 +11244,17 @@
       <c r="D136" t="inlineStr"/>
       <c r="E136" t="inlineStr">
         <is>
-          <t>DNI_NIF</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>DNI_NIF</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>12345678Z</t>
+          <t>Hospital Clínico San Carlos</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
@@ -11217,7 +11275,7 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>1010</v>
+        <v>1005</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
@@ -11228,17 +11286,17 @@
       <c r="D137" t="inlineStr"/>
       <c r="E137" t="inlineStr">
         <is>
-          <t>DEVICE_ID</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>DEVICE_ID</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>DEV-XK-9933</t>
+          <t>Hospital de la Santa Creu i Sant Pau</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
@@ -11259,7 +11317,7 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>1010</v>
+        <v>1005</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
@@ -11270,17 +11328,17 @@
       <c r="D138" t="inlineStr"/>
       <c r="E138" t="inlineStr">
         <is>
-          <t>FAMILIARES_SUJETO_ASISTENCIA</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>FAMILIARES_SUJETO_ASISTENCIA</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>Ana Gómez</t>
+          <t>18/05/2021</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
@@ -11312,17 +11370,17 @@
       <c r="D139" t="inlineStr"/>
       <c r="E139" t="inlineStr">
         <is>
-          <t>DNI_NIF</t>
+          <t>FECHA_NACIMIENTO</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>DNI_NIF</t>
+          <t>FECHA_NACIMIENTO</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>12345678Z</t>
+          <t>14-03-2023</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
@@ -11364,7 +11422,7 @@
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>Av. de América 45, Madrid</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
@@ -11385,7 +11443,7 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
@@ -11396,17 +11454,17 @@
       <c r="D141" t="inlineStr"/>
       <c r="E141" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>EDAD</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>EDAD</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>Hospital Universitario La Paz</t>
+          <t>41</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
@@ -11427,7 +11485,7 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
@@ -11438,17 +11496,17 @@
       <c r="D142" t="inlineStr"/>
       <c r="E142" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>José Manuel Ruiz Ortega</t>
+          <t>Plaza Mayor 3, 47001 Valladolid</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
@@ -11469,7 +11527,7 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
@@ -11480,17 +11538,17 @@
       <c r="D143" t="inlineStr"/>
       <c r="E143" t="inlineStr">
         <is>
-          <t>NOMBRE_PROFESIONAL</t>
+          <t>NHC</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>NOMBRE_PROFESIONAL</t>
+          <t>NHC</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>Dra. María López García</t>
+          <t>HC-778899</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
@@ -11511,7 +11569,7 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
@@ -11522,17 +11580,17 @@
       <c r="D144" t="inlineStr"/>
       <c r="E144" t="inlineStr">
         <is>
-          <t>FECHA_INGRESO</t>
+          <t>NOMBRE_PROFESIONAL</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>FECHA_INGRESO</t>
+          <t>NOMBRE_PROFESIONAL</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>23/06/2022</t>
+          <t>Ana García Fernández</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
@@ -11553,7 +11611,7 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>1010</v>
+        <v>1004</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
@@ -11564,30 +11622,114 @@
       <c r="D145" t="inlineStr"/>
       <c r="E145" t="inlineStr">
         <is>
+          <t>HOSPITAL</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>HOSPITAL</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>Hospital Gregorio Marañón</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>✗</t>
+        </is>
+      </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>FP</t>
+        </is>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>strict</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>9</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr"/>
+      <c r="D146" t="inlineStr"/>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>DIRECCION</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>DIRECCION</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>C/ Alcalá 220, 28027 Madrid</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>✗</t>
+        </is>
+      </c>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>FP</t>
+        </is>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>strict</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>1010</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr"/>
+      <c r="D147" t="inlineStr"/>
+      <c r="E147" t="inlineStr">
+        <is>
           <t>IP</t>
         </is>
       </c>
-      <c r="F145" t="inlineStr">
+      <c r="F147" t="inlineStr">
         <is>
           <t>IP</t>
         </is>
       </c>
-      <c r="G145" t="inlineStr">
-        <is>
-          <t>10.0.0.12</t>
-        </is>
-      </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>✗</t>
-        </is>
-      </c>
-      <c r="I145" t="inlineStr">
-        <is>
-          <t>FP</t>
-        </is>
-      </c>
-      <c r="J145" t="inlineStr">
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>192.168.1.34</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>✗</t>
+        </is>
+      </c>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>FP</t>
+        </is>
+      </c>
+      <c r="J147" t="inlineStr">
         <is>
           <t>strict</t>
         </is>
@@ -11604,7 +11746,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N143"/>
+  <dimension ref="A1:N145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18769,24 +18911,24 @@
       <c r="F135" t="inlineStr"/>
       <c r="G135" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>01/02/23</t>
+          <t>Sr. Sánchez</t>
         </is>
       </c>
       <c r="J135" t="n">
-        <v>1647</v>
+        <v>1594</v>
       </c>
       <c r="K135" t="n">
-        <v>1655</v>
+        <v>1605</v>
       </c>
       <c r="L135" t="inlineStr">
         <is>
@@ -18819,24 +18961,24 @@
       <c r="F136" t="inlineStr"/>
       <c r="G136" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>Hospital Clínico San Carlos</t>
+          <t>01/02/23</t>
         </is>
       </c>
       <c r="J136" t="n">
-        <v>1662</v>
+        <v>1647</v>
       </c>
       <c r="K136" t="n">
-        <v>1689</v>
+        <v>1655</v>
       </c>
       <c r="L136" t="inlineStr">
         <is>
@@ -18869,24 +19011,24 @@
       <c r="F137" t="inlineStr"/>
       <c r="G137" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>14/03/2023</t>
+          <t>Hospital Clínico San Carlos</t>
         </is>
       </c>
       <c r="J137" t="n">
-        <v>1777</v>
+        <v>1662</v>
       </c>
       <c r="K137" t="n">
-        <v>1787</v>
+        <v>1689</v>
       </c>
       <c r="L137" t="inlineStr">
         <is>
@@ -18919,24 +19061,24 @@
       <c r="F138" t="inlineStr"/>
       <c r="G138" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>NOMBRE_PROFESIONAL</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>NOMBRE_PROFESIONAL</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>Pº de la Castellana, 261, 28046 Madrid</t>
+          <t>Dr. Pérez</t>
         </is>
       </c>
       <c r="J138" t="n">
-        <v>107</v>
+        <v>1764</v>
       </c>
       <c r="K138" t="n">
-        <v>145</v>
+        <v>1773</v>
       </c>
       <c r="L138" t="inlineStr">
         <is>
@@ -18969,24 +19111,24 @@
       <c r="F139" t="inlineStr"/>
       <c r="G139" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>C/ Alcalá 123, 3ºB, 28009 Madrid</t>
+          <t>14/03/2023</t>
         </is>
       </c>
       <c r="J139" t="n">
-        <v>325</v>
+        <v>1777</v>
       </c>
       <c r="K139" t="n">
-        <v>357</v>
+        <v>1787</v>
       </c>
       <c r="L139" t="inlineStr">
         <is>
@@ -19029,14 +19171,14 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Pº de la Castellana, 261, 28046 Madrid</t>
         </is>
       </c>
       <c r="J140" t="n">
-        <v>406</v>
+        <v>107</v>
       </c>
       <c r="K140" t="n">
-        <v>414</v>
+        <v>145</v>
       </c>
       <c r="L140" t="inlineStr">
         <is>
@@ -19079,14 +19221,14 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>Pamplona</t>
+          <t>C/ Alcalá 123, 3ºB, 28009 Madrid</t>
         </is>
       </c>
       <c r="J141" t="n">
-        <v>709</v>
+        <v>325</v>
       </c>
       <c r="K141" t="n">
-        <v>717</v>
+        <v>357</v>
       </c>
       <c r="L141" t="inlineStr">
         <is>
@@ -19129,14 +19271,14 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>Madrid</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="J142" t="n">
-        <v>776</v>
+        <v>406</v>
       </c>
       <c r="K142" t="n">
-        <v>782</v>
+        <v>414</v>
       </c>
       <c r="L142" t="inlineStr">
         <is>
@@ -19179,26 +19321,126 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
+          <t>Pamplona</t>
+        </is>
+      </c>
+      <c r="J143" t="n">
+        <v>709</v>
+      </c>
+      <c r="K143" t="n">
+        <v>717</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>✗</t>
+        </is>
+      </c>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>FP</t>
+        </is>
+      </c>
+      <c r="N143" t="inlineStr">
+        <is>
+          <t>lenient</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>1010</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr"/>
+      <c r="D144" t="inlineStr"/>
+      <c r="E144" t="inlineStr"/>
+      <c r="F144" t="inlineStr"/>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>DIRECCION</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>DIRECCION</t>
+        </is>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>Madrid</t>
+        </is>
+      </c>
+      <c r="J144" t="n">
+        <v>776</v>
+      </c>
+      <c r="K144" t="n">
+        <v>782</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>✗</t>
+        </is>
+      </c>
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>FP</t>
+        </is>
+      </c>
+      <c r="N144" t="inlineStr">
+        <is>
+          <t>lenient</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>1010</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr"/>
+      <c r="D145" t="inlineStr"/>
+      <c r="E145" t="inlineStr"/>
+      <c r="F145" t="inlineStr"/>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>DIRECCION</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>DIRECCION</t>
+        </is>
+      </c>
+      <c r="I145" t="inlineStr">
+        <is>
           <t>Av. de América 45, Madrid</t>
         </is>
       </c>
-      <c r="J143" t="n">
+      <c r="J145" t="n">
         <v>1033</v>
       </c>
-      <c r="K143" t="n">
+      <c r="K145" t="n">
         <v>1058</v>
       </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>✗</t>
-        </is>
-      </c>
-      <c r="M143" t="inlineStr">
-        <is>
-          <t>FP</t>
-        </is>
-      </c>
-      <c r="N143" t="inlineStr">
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>✗</t>
+        </is>
+      </c>
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>FP</t>
+        </is>
+      </c>
+      <c r="N145" t="inlineStr">
         <is>
           <t>lenient</t>
         </is>

--- a/Resultados_Anonimizador_Hibrido_v3.xlsx
+++ b/Resultados_Anonimizador_Hibrido_v3.xlsx
@@ -745,7 +745,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G139"/>
+  <dimension ref="A1:G140"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3695,28 +3695,28 @@
         <v>1010</v>
       </c>
       <c r="B102" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="C102" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>SEXO_SUJETO_ASISTENCIA</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>SEXO_SUJETO_ASISTENCIA</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>varón</t>
+          <t>Roberto Sánchez</t>
         </is>
       </c>
       <c r="G102" t="n">
-        <v>0.9982616305351257</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="103">
@@ -3724,28 +3724,28 @@
         <v>1010</v>
       </c>
       <c r="B103" t="n">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C103" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>EDAD</t>
+          <t>SEXO_SUJETO_ASISTENCIA</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>EDAD</t>
+          <t>SEXO_SUJETO_ASISTENCIA</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>varón</t>
         </is>
       </c>
       <c r="G103" t="n">
-        <v>1</v>
+        <v>0.9982616305351257</v>
       </c>
     </row>
     <row r="104">
@@ -3753,28 +3753,28 @@
         <v>1010</v>
       </c>
       <c r="B104" t="n">
-        <v>76</v>
+        <v>27</v>
       </c>
       <c r="C104" t="n">
-        <v>105</v>
+        <v>29</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>EDAD</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>EDAD</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Hospital Universitario La Paz</t>
+          <t>52</t>
         </is>
       </c>
       <c r="G104" t="n">
-        <v>0.9981920719146729</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105">
@@ -3782,28 +3782,28 @@
         <v>1010</v>
       </c>
       <c r="B105" t="n">
-        <v>154</v>
+        <v>76</v>
       </c>
       <c r="C105" t="n">
-        <v>164</v>
+        <v>105</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>14/03/2023</t>
+          <t>Hospital Universitario La Paz</t>
         </is>
       </c>
       <c r="G105" t="n">
-        <v>0.9987835884094238</v>
+        <v>0.9981920719146729</v>
       </c>
     </row>
     <row r="106">
@@ -3811,28 +3811,28 @@
         <v>1010</v>
       </c>
       <c r="B106" t="n">
-        <v>200</v>
+        <v>154</v>
       </c>
       <c r="C106" t="n">
-        <v>210</v>
+        <v>164</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>NHC</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>NHC</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>HC-0099123</t>
+          <t>14/03/2023</t>
         </is>
       </c>
       <c r="G106" t="n">
-        <v>1</v>
+        <v>0.9987835884094238</v>
       </c>
     </row>
     <row r="107">
@@ -3840,24 +3840,24 @@
         <v>1010</v>
       </c>
       <c r="B107" t="n">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="C107" t="n">
-        <v>226</v>
+        <v>210</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>DNI_NIF</t>
+          <t>NHC</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>DNI_NIF</t>
+          <t>NHC</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>12345678Z</t>
+          <t>HC-0099123</t>
         </is>
       </c>
       <c r="G107" t="n">
@@ -3869,24 +3869,24 @@
         <v>1010</v>
       </c>
       <c r="B108" t="n">
-        <v>438</v>
+        <v>217</v>
       </c>
       <c r="C108" t="n">
-        <v>453</v>
+        <v>226</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>DNI_NIF</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>DNI_NIF</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>+34 612 345 678</t>
+          <t>12345678Z</t>
         </is>
       </c>
       <c r="G108" t="n">
@@ -3898,24 +3898,24 @@
         <v>1010</v>
       </c>
       <c r="B109" t="n">
-        <v>462</v>
+        <v>438</v>
       </c>
       <c r="C109" t="n">
-        <v>487</v>
+        <v>453</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>roberto.sanchez@gmail.com</t>
+          <t>+34 612 345 678</t>
         </is>
       </c>
       <c r="G109" t="n">
@@ -3927,24 +3927,24 @@
         <v>1010</v>
       </c>
       <c r="B110" t="n">
-        <v>518</v>
+        <v>462</v>
       </c>
       <c r="C110" t="n">
-        <v>530</v>
+        <v>487</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>EMAIL</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>EMAIL</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>192.168.1.34</t>
+          <t>roberto.sanchez@gmail.com</t>
         </is>
       </c>
       <c r="G110" t="n">
@@ -3956,24 +3956,24 @@
         <v>1010</v>
       </c>
       <c r="B111" t="n">
-        <v>621</v>
+        <v>518</v>
       </c>
       <c r="C111" t="n">
-        <v>636</v>
+        <v>530</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>INSURANCE_ID</t>
+          <t>IP</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>INSURANCE_ID</t>
+          <t>IP</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>INS-2023-445-99</t>
+          <t>192.168.1.34</t>
         </is>
       </c>
       <c r="G111" t="n">
@@ -3985,28 +3985,28 @@
         <v>1010</v>
       </c>
       <c r="B112" t="n">
-        <v>669</v>
+        <v>621</v>
       </c>
       <c r="C112" t="n">
-        <v>673</v>
+        <v>636</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>INSURANCE_ID</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>INSURANCE_ID</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>INS-2023-445-99</t>
         </is>
       </c>
       <c r="G112" t="n">
-        <v>0.9991385936737061</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113">
@@ -4014,28 +4014,28 @@
         <v>1010</v>
       </c>
       <c r="B113" t="n">
-        <v>677</v>
+        <v>669</v>
       </c>
       <c r="C113" t="n">
-        <v>707</v>
+        <v>673</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Clínica Universidad de Navarra</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="G113" t="n">
-        <v>0.9945580363273621</v>
+        <v>0.9991385936737061</v>
       </c>
     </row>
     <row r="114">
@@ -4043,28 +4043,28 @@
         <v>1010</v>
       </c>
       <c r="B114" t="n">
-        <v>740</v>
+        <v>677</v>
       </c>
       <c r="C114" t="n">
-        <v>761</v>
+        <v>707</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>NOMBRE_PROFESIONAL</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>NOMBRE_PROFESIONAL</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Dr. Juan Pérez Martín</t>
+          <t>Clínica Universidad de Navarra</t>
         </is>
       </c>
       <c r="G114" t="n">
-        <v>0.9990833401679993</v>
+        <v>0.9945580363273621</v>
       </c>
     </row>
     <row r="115">
@@ -4072,10 +4072,10 @@
         <v>1010</v>
       </c>
       <c r="B115" t="n">
-        <v>820</v>
+        <v>740</v>
       </c>
       <c r="C115" t="n">
-        <v>843</v>
+        <v>761</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -4089,11 +4089,11 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Dra. María López García</t>
+          <t>Dr. Juan Pérez Martín</t>
         </is>
       </c>
       <c r="G115" t="n">
-        <v>0.9991161823272705</v>
+        <v>0.9990833401679993</v>
       </c>
     </row>
     <row r="116">
@@ -4101,28 +4101,28 @@
         <v>1010</v>
       </c>
       <c r="B116" t="n">
-        <v>934</v>
+        <v>820</v>
       </c>
       <c r="C116" t="n">
-        <v>939</v>
+        <v>843</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>FAMILIARES_SUJETO_ASISTENCIA</t>
+          <t>NOMBRE_PROFESIONAL</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>FAMILIARES_SUJETO_ASISTENCIA</t>
+          <t>NOMBRE_PROFESIONAL</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>padre</t>
+          <t>Dra. María López García</t>
         </is>
       </c>
       <c r="G116" t="n">
-        <v>0.9948891401290894</v>
+        <v>0.9991161823272705</v>
       </c>
     </row>
     <row r="117">
@@ -4130,10 +4130,10 @@
         <v>1010</v>
       </c>
       <c r="B117" t="n">
-        <v>941</v>
+        <v>934</v>
       </c>
       <c r="C117" t="n">
-        <v>959</v>
+        <v>939</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -4147,11 +4147,11 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>José Sánchez López</t>
+          <t>padre</t>
         </is>
       </c>
       <c r="G117" t="n">
-        <v>0.9336961507797241</v>
+        <v>0.9948891401290894</v>
       </c>
     </row>
     <row r="118">
@@ -4159,28 +4159,28 @@
         <v>1010</v>
       </c>
       <c r="B118" t="n">
-        <v>973</v>
+        <v>941</v>
       </c>
       <c r="C118" t="n">
-        <v>977</v>
+        <v>959</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>FAMILIARES_SUJETO_ASISTENCIA</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>FAMILIARES_SUJETO_ASISTENCIA</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>2010</t>
+          <t>José Sánchez López</t>
         </is>
       </c>
       <c r="G118" t="n">
-        <v>0.9991269707679749</v>
+        <v>0.9336961507797241</v>
       </c>
     </row>
     <row r="119">
@@ -4188,28 +4188,28 @@
         <v>1010</v>
       </c>
       <c r="B119" t="n">
-        <v>990</v>
+        <v>973</v>
       </c>
       <c r="C119" t="n">
-        <v>995</v>
+        <v>977</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>FAMILIARES_SUJETO_ASISTENCIA</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>FAMILIARES_SUJETO_ASISTENCIA</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>madre</t>
+          <t>2010</t>
         </is>
       </c>
       <c r="G119" t="n">
-        <v>0.9899511337280273</v>
+        <v>0.9991269707679749</v>
       </c>
     </row>
     <row r="120">
@@ -4217,10 +4217,10 @@
         <v>1010</v>
       </c>
       <c r="B120" t="n">
-        <v>997</v>
+        <v>990</v>
       </c>
       <c r="C120" t="n">
-        <v>1006</v>
+        <v>995</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -4234,11 +4234,11 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Ana Gómez</t>
+          <t>madre</t>
         </is>
       </c>
       <c r="G120" t="n">
-        <v>0.9057560563087463</v>
+        <v>0.9899511337280273</v>
       </c>
     </row>
     <row r="121">
@@ -4246,28 +4246,28 @@
         <v>1010</v>
       </c>
       <c r="B121" t="n">
-        <v>1082</v>
+        <v>997</v>
       </c>
       <c r="C121" t="n">
-        <v>1101</v>
+        <v>1006</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>FAMILIARES_SUJETO_ASISTENCIA</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>FAMILIARES_SUJETO_ASISTENCIA</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>ana.gomez@correo.es</t>
+          <t>Ana Gómez</t>
         </is>
       </c>
       <c r="G121" t="n">
-        <v>1</v>
+        <v>0.9057560563087463</v>
       </c>
     </row>
     <row r="122">
@@ -4275,24 +4275,24 @@
         <v>1010</v>
       </c>
       <c r="B122" t="n">
-        <v>1113</v>
+        <v>1082</v>
       </c>
       <c r="C122" t="n">
-        <v>1125</v>
+        <v>1101</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>EMAIL</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>EMAIL</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>91 234 56 78</t>
+          <t>ana.gomez@correo.es</t>
         </is>
       </c>
       <c r="G122" t="n">
@@ -4304,24 +4304,24 @@
         <v>1010</v>
       </c>
       <c r="B123" t="n">
-        <v>1161</v>
+        <v>1113</v>
       </c>
       <c r="C123" t="n">
-        <v>1171</v>
+        <v>1125</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>FECHA_NACIMIENTO</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>FECHA_NACIMIENTO</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>22/07/1971</t>
+          <t>91 234 56 78</t>
         </is>
       </c>
       <c r="G123" t="n">
@@ -4333,10 +4333,10 @@
         <v>1010</v>
       </c>
       <c r="B124" t="n">
-        <v>1204</v>
+        <v>1161</v>
       </c>
       <c r="C124" t="n">
-        <v>1214</v>
+        <v>1171</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -4350,11 +4350,11 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>14-03-2023</t>
+          <t>22/07/1971</t>
         </is>
       </c>
       <c r="G124" t="n">
-        <v>0.9987654685974121</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125">
@@ -4362,28 +4362,28 @@
         <v>1010</v>
       </c>
       <c r="B125" t="n">
-        <v>1240</v>
+        <v>1204</v>
       </c>
       <c r="C125" t="n">
-        <v>1250</v>
+        <v>1214</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>FECHA_INGRESO</t>
+          <t>FECHA_NACIMIENTO</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>FECHA_INGRESO</t>
+          <t>FECHA_NACIMIENTO</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>18/03/2023</t>
+          <t>14-03-2023</t>
         </is>
       </c>
       <c r="G125" t="n">
-        <v>0.9987770915031433</v>
+        <v>0.9987654685974121</v>
       </c>
     </row>
     <row r="126">
@@ -4391,28 +4391,28 @@
         <v>1010</v>
       </c>
       <c r="B126" t="n">
-        <v>1440</v>
+        <v>1240</v>
       </c>
       <c r="C126" t="n">
-        <v>1451</v>
+        <v>1250</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>DEVICE_ID</t>
+          <t>FECHA_INGRESO</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>DEVICE_ID</t>
+          <t>FECHA_INGRESO</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>DEV-XK-9933</t>
+          <t>18/03/2023</t>
         </is>
       </c>
       <c r="G126" t="n">
-        <v>1</v>
+        <v>0.9987770915031433</v>
       </c>
     </row>
     <row r="127">
@@ -4420,24 +4420,24 @@
         <v>1010</v>
       </c>
       <c r="B127" t="n">
-        <v>1483</v>
+        <v>1440</v>
       </c>
       <c r="C127" t="n">
-        <v>1492</v>
+        <v>1451</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>DEVICE_ID</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>DEVICE_ID</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>10.0.0.12</t>
+          <t>DEV-XK-9933</t>
         </is>
       </c>
       <c r="G127" t="n">
@@ -4449,24 +4449,24 @@
         <v>1010</v>
       </c>
       <c r="B128" t="n">
-        <v>1552</v>
+        <v>1483</v>
       </c>
       <c r="C128" t="n">
-        <v>1561</v>
+        <v>1492</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>PASAPORTE</t>
+          <t>IP</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>PASAPORTE</t>
+          <t>IP</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>ES1234567</t>
+          <t>10.0.0.12</t>
         </is>
       </c>
       <c r="G128" t="n">
@@ -4478,24 +4478,24 @@
         <v>1010</v>
       </c>
       <c r="B129" t="n">
-        <v>1594</v>
+        <v>1552</v>
       </c>
       <c r="C129" t="n">
-        <v>1605</v>
+        <v>1561</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>PASAPORTE</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>PASAPORTE</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>Sr. Sánchez</t>
+          <t>ES1234567</t>
         </is>
       </c>
       <c r="G129" t="n">
@@ -4507,28 +4507,28 @@
         <v>1010</v>
       </c>
       <c r="B130" t="n">
-        <v>1647</v>
+        <v>1594</v>
       </c>
       <c r="C130" t="n">
-        <v>1655</v>
+        <v>1605</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>01/02/23</t>
+          <t>Sr. Sánchez</t>
         </is>
       </c>
       <c r="G130" t="n">
-        <v>0.9983710646629333</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131">
@@ -4536,28 +4536,28 @@
         <v>1010</v>
       </c>
       <c r="B131" t="n">
-        <v>1662</v>
+        <v>1647</v>
       </c>
       <c r="C131" t="n">
-        <v>1689</v>
+        <v>1655</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>Hospital Clínico San Carlos</t>
+          <t>01/02/23</t>
         </is>
       </c>
       <c r="G131" t="n">
-        <v>0.9981750249862671</v>
+        <v>0.9983710646629333</v>
       </c>
     </row>
     <row r="132">
@@ -4565,28 +4565,28 @@
         <v>1010</v>
       </c>
       <c r="B132" t="n">
-        <v>1764</v>
+        <v>1662</v>
       </c>
       <c r="C132" t="n">
-        <v>1773</v>
+        <v>1689</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>NOMBRE_PROFESIONAL</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>NOMBRE_PROFESIONAL</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>Dr. Pérez</t>
+          <t>Hospital Clínico San Carlos</t>
         </is>
       </c>
       <c r="G132" t="n">
-        <v>0.7603808045387268</v>
+        <v>0.9981750249862671</v>
       </c>
     </row>
     <row r="133">
@@ -4594,28 +4594,28 @@
         <v>1010</v>
       </c>
       <c r="B133" t="n">
-        <v>1777</v>
+        <v>1764</v>
       </c>
       <c r="C133" t="n">
-        <v>1787</v>
+        <v>1773</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>NOMBRE_PROFESIONAL</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>NOMBRE_PROFESIONAL</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>14/03/2023</t>
+          <t>Dr. Pérez</t>
         </is>
       </c>
       <c r="G133" t="n">
-        <v>0.9987928867340088</v>
+        <v>0.7603808045387268</v>
       </c>
     </row>
     <row r="134">
@@ -4623,28 +4623,28 @@
         <v>1010</v>
       </c>
       <c r="B134" t="n">
-        <v>107</v>
+        <v>1777</v>
       </c>
       <c r="C134" t="n">
-        <v>145</v>
+        <v>1787</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>Pº de la Castellana, 261, 28046 Madrid</t>
+          <t>14/03/2023</t>
         </is>
       </c>
       <c r="G134" t="n">
-        <v>0.9990787506103516</v>
+        <v>0.9987928867340088</v>
       </c>
     </row>
     <row r="135">
@@ -4652,10 +4652,10 @@
         <v>1010</v>
       </c>
       <c r="B135" t="n">
-        <v>325</v>
+        <v>107</v>
       </c>
       <c r="C135" t="n">
-        <v>357</v>
+        <v>145</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -4669,11 +4669,11 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>C/ Alcalá 123, 3ºB, 28009 Madrid</t>
+          <t>Pº de la Castellana, 261, 28046 Madrid</t>
         </is>
       </c>
       <c r="G135" t="n">
-        <v>0.9991940259933472</v>
+        <v>0.9990787506103516</v>
       </c>
     </row>
     <row r="136">
@@ -4681,10 +4681,10 @@
         <v>1010</v>
       </c>
       <c r="B136" t="n">
-        <v>406</v>
+        <v>325</v>
       </c>
       <c r="C136" t="n">
-        <v>414</v>
+        <v>357</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -4698,11 +4698,11 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>C/ Alcalá 123, 3ºB, 28009 Madrid</t>
         </is>
       </c>
       <c r="G136" t="n">
-        <v>0.998889148235321</v>
+        <v>0.9991940259933472</v>
       </c>
     </row>
     <row r="137">
@@ -4710,10 +4710,10 @@
         <v>1010</v>
       </c>
       <c r="B137" t="n">
-        <v>709</v>
+        <v>406</v>
       </c>
       <c r="C137" t="n">
-        <v>717</v>
+        <v>414</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -4727,11 +4727,11 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>Pamplona</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="G137" t="n">
-        <v>0.9973157048225403</v>
+        <v>0.998889148235321</v>
       </c>
     </row>
     <row r="138">
@@ -4739,10 +4739,10 @@
         <v>1010</v>
       </c>
       <c r="B138" t="n">
-        <v>776</v>
+        <v>709</v>
       </c>
       <c r="C138" t="n">
-        <v>782</v>
+        <v>717</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -4756,11 +4756,11 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>Madrid</t>
+          <t>Pamplona</t>
         </is>
       </c>
       <c r="G138" t="n">
-        <v>0.9988161325454712</v>
+        <v>0.9973157048225403</v>
       </c>
     </row>
     <row r="139">
@@ -4768,27 +4768,56 @@
         <v>1010</v>
       </c>
       <c r="B139" t="n">
+        <v>776</v>
+      </c>
+      <c r="C139" t="n">
+        <v>782</v>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>DIRECCION</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>DIRECCION</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>Madrid</t>
+        </is>
+      </c>
+      <c r="G139" t="n">
+        <v>0.9988161325454712</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>1010</v>
+      </c>
+      <c r="B140" t="n">
         <v>1033</v>
       </c>
-      <c r="C139" t="n">
+      <c r="C140" t="n">
         <v>1058</v>
       </c>
-      <c r="D139" t="inlineStr">
+      <c r="D140" t="inlineStr">
         <is>
           <t>DIRECCION</t>
         </is>
       </c>
-      <c r="E139" t="inlineStr">
+      <c r="E140" t="inlineStr">
         <is>
           <t>DIRECCION</t>
         </is>
       </c>
-      <c r="F139" t="inlineStr">
+      <c r="F140" t="inlineStr">
         <is>
           <t>Av. de América 45, Madrid</t>
         </is>
       </c>
-      <c r="G139" t="n">
+      <c r="G140" t="n">
         <v>0.9989755153656006</v>
       </c>
     </row>
@@ -5241,7 +5270,7 @@
       <c r="C27" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Roberto Sánchez, &lt;SEXO_SUJETO_ASISTENCIA&gt; de Age_XX años, acude por su propio pie a Urgencias del &lt;HOSPITAL_NAME&gt;
+&lt;PATIENT_NAME&gt;, &lt;SEXO_SUJETO_ASISTENCIA&gt; de Age_XX años, acude por su propio pie a Urgencias del &lt;HOSPITAL_NAME&gt;
 (&lt;ADDRESS&gt;) el día &lt;DATE&gt; a las 08:43. El paciente, con NHC: &lt;MRN&gt;
 y DNI ID_XXXXX, refiere dolor torácico de inicio brusco desde hace 2 horas, irradiado a brazo izquierdo.
 Vive en &lt;ADDRESS&gt;, aunque actualmente se encuentra empadronado en &lt;ADDRESS&gt;.
@@ -5279,7 +5308,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J147"/>
+  <dimension ref="A1:J148"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5341,36 +5370,36 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Email</t>
+          <t>Nombre Paciente</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>juan.perez@gmail.com</t>
+          <t>María López</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>juan.perez@gmail.com</t>
+          <t>María López</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -5391,36 +5420,36 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Nombre Paciente</t>
+          <t>Pasaporte</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>PASAPORTE</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Ana Martínez</t>
+          <t>XK987654</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>PASAPORTE</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>PASAPORTE</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Ana Martínez</t>
+          <t>XK987654</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -5441,36 +5470,36 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Hospital</t>
+          <t>Nombre Paciente</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Clínica Santa María</t>
+          <t>Juan Pérez</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Clínica Santa María</t>
+          <t>Juan Pérez</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -5491,36 +5520,36 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Nombre de Paciente</t>
+          <t>Nombre Profesional</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>NOMBRE_PROFESIONAL</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Roberto Sánchez</t>
+          <t>Dra. Elena Torres</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>NOMBRE_PROFESIONAL</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>NOMBRE_PROFESIONAL</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Roberto Sánchez</t>
+          <t>Dra. Elena Torres</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -5541,36 +5570,36 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Fecha de ingreso</t>
+          <t>Teléfono</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>FECHA_INGRESO</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>03/12/2025</t>
+          <t>912 556 789</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>FECHA_INGRESO</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>FECHA_INGRESO</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>03/12/2025</t>
+          <t>912 556 789</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -5591,36 +5620,36 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Pasaporte</t>
+          <t>Nombre de Paciente</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>PASAPORTE</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>XK987654</t>
+          <t>Roberto Sánchez</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>PASAPORTE</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>PASAPORTE</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>XK987654</t>
+          <t>Roberto Sánchez</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -5641,36 +5670,36 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Teléfono</t>
+          <t>Nº Historia Clínica</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>NHC</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>+34 722 334 112</t>
+          <t>HC-0099123</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>NHC</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>NHC</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>+34 722 334 112</t>
+          <t>HC-0099123</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -5691,36 +5720,36 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Fecha de alta</t>
+          <t>Nombre Paciente</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>FECHA_ALTA</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>10/12/2025</t>
+          <t>Marta Ruiz</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>FECHA_ALTA</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>FECHA_ALTA</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>10/12/2025</t>
+          <t>Marta Ruiz</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -5741,36 +5770,36 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Nombre Profesional</t>
+          <t>Nombre Paciente</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>NOMBRE_PROFESIONAL</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Dra. Elena Torres</t>
+          <t>Ana Martínez</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>NOMBRE_PROFESIONAL</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>NOMBRE_PROFESIONAL</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Dra. Elena Torres</t>
+          <t>Ana Martínez</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -5791,36 +5820,36 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Emali</t>
+          <t>Hospital</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>l.herrera@hospital.com</t>
+          <t>Hospital Virgen del Mar</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>l.herrera@hospital.com</t>
+          <t>Hospital Virgen del Mar</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -5845,32 +5874,32 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ID Dispositivo</t>
+          <t>IP</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>DEVICE_ID</t>
+          <t>IP</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>DEV-ABC-123</t>
+          <t>192.168.1.10</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>DEVICE_ID</t>
+          <t>IP</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>DEVICE_ID</t>
+          <t>IP</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>DEV-ABC-123</t>
+          <t>192.168.1.10</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -5891,36 +5920,36 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>fECHA</t>
+          <t>ID Dispositivo</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>DEVICE_ID</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>03/03/2026</t>
+          <t>DEV-XYZ-99</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>DEVICE_ID</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>DEVICE_ID</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>03/03/2026</t>
+          <t>DEV-XYZ-99</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -5941,36 +5970,36 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Hospitl</t>
+          <t>DNI/NIF</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>DNI_NIF</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Centro Médico Norte</t>
+          <t>12345678A</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>DNI_NIF</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>DNI_NIF</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Centro Médico Norte</t>
+          <t>12345678A</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -5991,36 +6020,36 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>ID Dispositivo</t>
+          <t>Hospitl</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>DEVICE_ID</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>DEV-XYZ-99</t>
+          <t>Centro Médico Norte</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>DEVICE_ID</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>DEVICE_ID</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>DEV-XYZ-99</t>
+          <t>Centro Médico Norte</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -6041,36 +6070,36 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Nombre Profesional</t>
+          <t>Fecha Nacimiento</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>NOMBRE_PROFESIONAL</t>
+          <t>FECHA_NACIMIENTO</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Dr. Luis Herrera</t>
+          <t>08/06/1990</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>NOMBRE_PROFESIONAL</t>
+          <t>FECHA_NACIMIENTO</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>NOMBRE_PROFESIONAL</t>
+          <t>FECHA_NACIMIENTO</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Dr. Luis Herrera</t>
+          <t>08/06/1990</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -6091,36 +6120,36 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Nombre Paciente</t>
+          <t>Email</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>EMAIL</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Marta Ruiz</t>
+          <t>roberto.san@outlook.es</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>EMAIL</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>EMAIL</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Marta Ruiz</t>
+          <t>roberto.san@outlook.es</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -6141,36 +6170,36 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Hospital</t>
+          <t>Fecha de alta</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>FECHA_ALTA</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Hospital La Paz</t>
+          <t>10/12/2025</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>FECHA_ALTA</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>FECHA_ALTA</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Hospital La Paz</t>
+          <t>10/12/2025</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -6191,36 +6220,36 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>DNI/NIF</t>
+          <t>Hospital</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>DNI_NIF</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>12345678A</t>
+          <t>Clínica Santa María</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>DNI_NIF</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>DNI_NIF</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>12345678A</t>
+          <t>Clínica Santa María</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -6241,36 +6270,36 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Hospital</t>
+          <t>Fecha</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Hospital Virgen del Mar</t>
+          <t>05/05/2025</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Hospital Virgen del Mar</t>
+          <t>05/05/2025</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -6291,36 +6320,36 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>Emali</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>EMAIL</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>192.168.1.10</t>
+          <t>l.herrera@hospital.com</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>EMAIL</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>EMAIL</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>192.168.1.10</t>
+          <t>l.herrera@hospital.com</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -6341,36 +6370,36 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Fecha</t>
+          <t>IP</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>IP</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>05/05/2025</t>
+          <t>10.0.0.55</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>IP</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>IP</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>05/05/2025</t>
+          <t>10.0.0.55</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -6391,36 +6420,36 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>NªSeguro Médico</t>
+          <t>Hospital</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>INSURANCE_ID</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>INS-145-88</t>
+          <t>Hospital La Paz</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>INSURANCE_ID</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>INSURANCE_ID</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>INS-145-88</t>
+          <t>Hospital La Paz</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -6445,32 +6474,32 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Email</t>
+          <t>Teléfono</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>roberto.san@outlook.es</t>
+          <t>+34 722 334 112</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>roberto.san@outlook.es</t>
+          <t>+34 722 334 112</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -6491,36 +6520,36 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Fecha Nacimiento</t>
+          <t>Fecha de ingreso</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>FECHA_NACIMIENTO</t>
+          <t>FECHA_INGRESO</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>08/06/1990</t>
+          <t>03/12/2025</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>FECHA_NACIMIENTO</t>
+          <t>FECHA_INGRESO</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>FECHA_NACIMIENTO</t>
+          <t>FECHA_INGRESO</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>08/06/1990</t>
+          <t>03/12/2025</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -6541,36 +6570,36 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Nº Historia Clínica</t>
+          <t>ID Dispositivo</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>NHC</t>
+          <t>DEVICE_ID</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>HC-0099123</t>
+          <t>DEV-ABC-123</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>NHC</t>
+          <t>DEVICE_ID</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>NHC</t>
+          <t>DEVICE_ID</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>HC-0099123</t>
+          <t>DEV-ABC-123</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -6591,36 +6620,36 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>Fecha Ingreso</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>FECHA_INGRESO</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>10.0.0.55</t>
+          <t>22/11/2025</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>FECHA_INGRESO</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>FECHA_INGRESO</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>10.0.0.55</t>
+          <t>22/11/2025</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -6641,36 +6670,36 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Teléfono</t>
+          <t>Edad</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>EDAD</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>+34 600 123 123</t>
+          <t>52</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>EDAD</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>EDAD</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>+34 600 123 123</t>
+          <t>52</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -6691,36 +6720,36 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Edad</t>
+          <t>fECHA</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>EDAD</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>03/03/2026</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>EDAD</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>EDAD</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>03/03/2026</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -6741,36 +6770,36 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Edad</t>
+          <t>Email</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>EDAD</t>
+          <t>EMAIL</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>juan.perez@gmail.com</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>EDAD</t>
+          <t>EMAIL</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>EDAD</t>
+          <t>EMAIL</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>juan.perez@gmail.com</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -6791,36 +6820,36 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Nombre Paciente</t>
+          <t>Nombre Profesional</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>NOMBRE_PROFESIONAL</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Juan Pérez</t>
+          <t>Dr. Luis Herrera</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>NOMBRE_PROFESIONAL</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>NOMBRE_PROFESIONAL</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Juan Pérez</t>
+          <t>Dr. Luis Herrera</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -6841,36 +6870,36 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Fecha Ingreso</t>
+          <t>NªSeguro Médico</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>FECHA_INGRESO</t>
+          <t>INSURANCE_ID</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>22/11/2025</t>
+          <t>INS-145-88</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>FECHA_INGRESO</t>
+          <t>INSURANCE_ID</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>FECHA_INGRESO</t>
+          <t>INSURANCE_ID</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>22/11/2025</t>
+          <t>INS-145-88</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -6891,36 +6920,36 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Teléfono</t>
+          <t>Edad</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>EDAD</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>912 556 789</t>
+          <t>45</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>EDAD</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>EDAD</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>912 556 789</t>
+          <t>45</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -6941,36 +6970,36 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Nombre Paciente</t>
+          <t>Teléfono</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>María López</t>
+          <t>+34 600 123 123</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>María López</t>
+          <t>+34 600 123 123</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -6991,11 +7020,11 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Dirección</t>
+          <t>Ciudad</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -7005,7 +7034,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>C/ Mayor 15, 3B</t>
+          <t>Madrid</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -7033,21 +7062,21 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Fecha de ingreso</t>
+          <t>Dirección</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>FECHA_INGRESO</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>15/01/2026</t>
+          <t>C/ Alcalá 220</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -7075,7 +7104,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -7089,7 +7118,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>C/ Alcalá 220</t>
+          <t>C/ Mayor 15, 3B</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -7117,21 +7146,21 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Ciudad</t>
+          <t>NªHistoría clínica</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Madrid</t>
+          <t>MRN-556677</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -7159,21 +7188,21 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>NªHistoría clínica</t>
+          <t>Código Postal</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>MRN-556677</t>
+          <t>28013</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -7201,21 +7230,21 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Ciudad</t>
+          <t>Fecha de ingreso</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>FECHA_INGRESO</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Madrid</t>
+          <t>15/01/2026</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -7247,7 +7276,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Código Postal</t>
+          <t>Ciudad</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -7257,7 +7286,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>28013</t>
+          <t>Madrid</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -7327,7 +7356,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1003</v>
+        <v>1009</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -7338,17 +7367,17 @@
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>EMAIL</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>EMAIL</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Paseo de la Castellana 89, Madrid</t>
+          <t>fgomez@empresa.es</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -7369,7 +7398,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1009</v>
+        <v>1001</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -7380,17 +7409,17 @@
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr">
         <is>
-          <t>NOMBRE_PROFESIONAL</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>NOMBRE_PROFESIONAL</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Francisco Gómez Sánchez</t>
+          <t>Hospital Clínico San Carlos</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -7411,7 +7440,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1010</v>
+        <v>1003</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -7422,17 +7451,17 @@
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Av. de América 45, Madrid</t>
+          <t>Hospital Vall d'Hebron</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -7453,7 +7482,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1005</v>
+        <v>1001</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -7464,17 +7493,17 @@
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr">
         <is>
-          <t>EDAD</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>EDAD</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>+34 612 345 678</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -7506,17 +7535,17 @@
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr">
         <is>
-          <t>FECHA_INGRESO</t>
+          <t>DEVICE_ID</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>FECHA_INGRESO</t>
+          <t>DEVICE_ID</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>18/03/2023</t>
+          <t>DEV-XK-9933</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -7537,7 +7566,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1010</v>
+        <v>6</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -7548,17 +7577,17 @@
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr">
         <is>
-          <t>FECHA_NACIMIENTO</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>FECHA_NACIMIENTO</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>22/07/1971</t>
+          <t>15/01/2026</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -7579,7 +7608,7 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1002</v>
+        <v>1010</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -7590,17 +7619,17 @@
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>699 234 111</t>
+          <t>01/02/23</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -7621,7 +7650,7 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1010</v>
+        <v>1005</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -7632,17 +7661,17 @@
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Hospital Universitario La Paz</t>
+          <t>18/05/2021</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -7663,7 +7692,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1010</v>
+        <v>1005</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -7674,17 +7703,17 @@
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>SEXO_SUJETO_ASISTENCIA</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>SEXO_SUJETO_ASISTENCIA</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Sr. Sánchez</t>
+          <t>varón</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -7705,7 +7734,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1010</v>
+        <v>1006</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -7716,17 +7745,17 @@
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>+34 612 345 678</t>
+          <t>Plaza Mayor 3, 47001 Valladolid</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -7747,7 +7776,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>12</v>
+        <v>1008</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -7758,17 +7787,17 @@
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr">
         <is>
-          <t>NHC</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>NHC</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>MRN-556677</t>
+          <t>Hospital Universitario de Canarias</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -7789,7 +7818,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1001</v>
+        <v>1010</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -7800,17 +7829,17 @@
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr">
         <is>
-          <t>EDAD</t>
+          <t>NOMBRE_PROFESIONAL</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>EDAD</t>
+          <t>NOMBRE_PROFESIONAL</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>Dr. Pérez</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -7831,7 +7860,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -7842,17 +7871,17 @@
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Av. Diagonal 456, Barcelona</t>
+          <t>Hospital Universitario La Paz</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -7873,7 +7902,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -7884,17 +7913,17 @@
       <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>fgomez@empresa.es</t>
+          <t>C/ Alcalá 123, 3ºB, 28009 Madrid</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -7915,7 +7944,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1010</v>
+        <v>1002</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -7926,17 +7955,17 @@
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr">
         <is>
-          <t>INSURANCE_ID</t>
+          <t>EMAIL</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>INSURANCE_ID</t>
+          <t>EMAIL</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>INS-2023-445-99</t>
+          <t>maria.lopez@gmail.com</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -7968,17 +7997,17 @@
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>FAMILIARES_SUJETO_ASISTENCIA</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>FAMILIARES_SUJETO_ASISTENCIA</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>Ana Gómez</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -7999,7 +8028,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -8010,17 +8039,17 @@
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr">
         <is>
-          <t>EDAD</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>EDAD</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>Av. de América 45, 28002 Madrid</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -8041,7 +8070,7 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -8052,17 +8081,17 @@
       <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>EMAIL</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>EMAIL</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>600 987 654</t>
+          <t>jose.ruiz@yahoo.es</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -8083,7 +8112,7 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1007</v>
+        <v>1002</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -8104,7 +8133,7 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>34</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -8125,7 +8154,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1004</v>
+        <v>2</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -8136,17 +8165,17 @@
       <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr">
         <is>
-          <t>FECHA_NACIMIENTO</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>FECHA_NACIMIENTO</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>12/12/1977</t>
+          <t>C/ Mayor 15, 3B, 28013 Madrid</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -8178,17 +8207,17 @@
       <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr">
         <is>
-          <t>DNI_NIF</t>
+          <t>FECHA_NACIMIENTO</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>DNI_NIF</t>
+          <t>FECHA_NACIMIENTO</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>12345678Z</t>
+          <t>14-03-2023</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -8209,7 +8238,7 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -8220,17 +8249,17 @@
       <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>FECHA_NACIMIENTO</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>FECHA_NACIMIENTO</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>ana.garcia@outlook.es</t>
+          <t>06/08/1970</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -8262,17 +8291,17 @@
       <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr">
         <is>
-          <t>FAMILIARES_SUJETO_ASISTENCIA</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>FAMILIARES_SUJETO_ASISTENCIA</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>José Sánchez López</t>
+          <t>+34 612 345 678</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -8293,7 +8322,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -8304,17 +8333,17 @@
       <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr">
         <is>
-          <t>EDAD</t>
+          <t>FECHA_INGRESO</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>EDAD</t>
+          <t>FECHA_INGRESO</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>01/01/2023</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -8335,7 +8364,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -8346,17 +8375,17 @@
       <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>944 555 666</t>
+          <t>Pº de la Castellana, 261, 28046 Madrid</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -8377,7 +8406,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -8398,7 +8427,7 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Madrid</t>
+          <t>Av. Tres de Mayo 77, Tenerife</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -8419,7 +8448,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>1008</v>
+        <v>1001</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -8430,17 +8459,17 @@
       <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Hospital Universitario de Canarias</t>
+          <t>C/ Alcalá 123, 28009 Madrid</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -8461,7 +8490,7 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>1010</v>
+        <v>1004</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -8472,17 +8501,17 @@
       <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>NHC</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>NHC</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>14/03/2023</t>
+          <t>HC-445566</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -8514,17 +8543,17 @@
       <c r="D71" t="inlineStr"/>
       <c r="E71" t="inlineStr">
         <is>
-          <t>FAMILIARES_SUJETO_ASISTENCIA</t>
+          <t>PASAPORTE</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>FAMILIARES_SUJETO_ASISTENCIA</t>
+          <t>PASAPORTE</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>padre</t>
+          <t>ES1234567</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -8545,7 +8574,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>1010</v>
+        <v>1003</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -8556,17 +8585,17 @@
       <c r="D72" t="inlineStr"/>
       <c r="E72" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>roberto.sanchez@gmail.com</t>
+          <t>91 555 22 11</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -8587,7 +8616,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -8598,17 +8627,17 @@
       <c r="D73" t="inlineStr"/>
       <c r="E73" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>EDAD</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>EDAD</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>91 555 22 11</t>
+          <t>45</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -8629,7 +8658,7 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -8640,17 +8669,17 @@
       <c r="D74" t="inlineStr"/>
       <c r="E74" t="inlineStr">
         <is>
-          <t>EDAD</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>EDAD</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>30/08/2021</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -8671,7 +8700,7 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>1002</v>
+        <v>1004</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -8682,17 +8711,17 @@
       <c r="D75" t="inlineStr"/>
       <c r="E75" t="inlineStr">
         <is>
-          <t>EDAD</t>
+          <t>FECHA_NACIMIENTO</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>EDAD</t>
+          <t>FECHA_NACIMIENTO</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>12/12/1977</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -8734,7 +8763,7 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>10.0.0.12</t>
+          <t>192.168.1.34</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -8755,7 +8784,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>1003</v>
+        <v>12</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -8766,17 +8795,17 @@
       <c r="D77" t="inlineStr"/>
       <c r="E77" t="inlineStr">
         <is>
-          <t>EDAD</t>
+          <t>NHC</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>EDAD</t>
+          <t>NHC</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>MRN-556677</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -8808,17 +8837,17 @@
       <c r="D78" t="inlineStr"/>
       <c r="E78" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>FAMILIARES_SUJETO_ASISTENCIA</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>FAMILIARES_SUJETO_ASISTENCIA</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Pº de la Castellana, 261, 28046 Madrid</t>
+          <t>José Sánchez López</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -8839,7 +8868,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>1001</v>
+        <v>1010</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
@@ -8850,17 +8879,17 @@
       <c r="D79" t="inlineStr"/>
       <c r="E79" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>+34 612 345 678</t>
+          <t>Clínica Universidad de Navarra</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -8881,7 +8910,7 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>1009</v>
+        <v>1003</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
@@ -8892,17 +8921,17 @@
       <c r="D80" t="inlineStr"/>
       <c r="E80" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Hospital de Cruces</t>
+          <t>Paseo de la Castellana 89, Madrid</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -8934,17 +8963,17 @@
       <c r="D81" t="inlineStr"/>
       <c r="E81" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>NOMBRE_PROFESIONAL</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>NOMBRE_PROFESIONAL</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>2010</t>
+          <t>Dr. Juan Pérez Martín</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -8965,7 +8994,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>1001</v>
+        <v>1010</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
@@ -8976,17 +9005,17 @@
       <c r="D82" t="inlineStr"/>
       <c r="E82" t="inlineStr">
         <is>
-          <t>DNI_NIF</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>DNI_NIF</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>12345678Z</t>
+          <t>14/03/2023</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -9007,7 +9036,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>1008</v>
+        <v>1003</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
@@ -9018,17 +9047,17 @@
       <c r="D83" t="inlineStr"/>
       <c r="E83" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>EDAD</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>EDAD</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Laura Méndez</t>
+          <t>67</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -9049,7 +9078,7 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>1003</v>
+        <v>1007</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
@@ -9060,17 +9089,17 @@
       <c r="D84" t="inlineStr"/>
       <c r="E84" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Juan Pérez Martín</t>
+          <t>C/ San Fernando 12, Sevilla</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -9091,7 +9120,7 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>1010</v>
+        <v>1006</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
@@ -9102,17 +9131,17 @@
       <c r="D85" t="inlineStr"/>
       <c r="E85" t="inlineStr">
         <is>
-          <t>NHC</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>NHC</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>HC-0099123</t>
+          <t>600 987 654</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
@@ -9133,7 +9162,7 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
@@ -9144,17 +9173,17 @@
       <c r="D86" t="inlineStr"/>
       <c r="E86" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>EDAD</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>EDAD</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>José Manuel Ruiz Ortega</t>
+          <t>29</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -9175,7 +9204,7 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
@@ -9186,17 +9215,17 @@
       <c r="D87" t="inlineStr"/>
       <c r="E87" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>01/02/23</t>
+          <t>944 555 666</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -9217,7 +9246,7 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>1006</v>
+        <v>1010</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
@@ -9228,17 +9257,17 @@
       <c r="D88" t="inlineStr"/>
       <c r="E88" t="inlineStr">
         <is>
-          <t>NOMBRE_PROFESIONAL</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>NOMBRE_PROFESIONAL</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Carmen Rodríguez López</t>
+          <t>Hospital Universitario La Paz</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -9259,7 +9288,7 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>1001</v>
+        <v>1010</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
@@ -9280,7 +9309,7 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Dr. Luis Martín</t>
+          <t>Dra. María López García</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
@@ -9301,7 +9330,7 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>1002</v>
+        <v>1004</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
@@ -9312,17 +9341,17 @@
       <c r="D90" t="inlineStr"/>
       <c r="E90" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>María López García</t>
+          <t>Hospital Gregorio Marañón</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -9343,7 +9372,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
@@ -9354,17 +9383,17 @@
       <c r="D91" t="inlineStr"/>
       <c r="E91" t="inlineStr">
         <is>
-          <t>EDAD</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>EDAD</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>Pamplona</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -9385,7 +9414,7 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>1007</v>
+        <v>1010</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
@@ -9396,17 +9425,17 @@
       <c r="D92" t="inlineStr"/>
       <c r="E92" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>FAMILIARES_SUJETO_ASISTENCIA</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>FAMILIARES_SUJETO_ASISTENCIA</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>Hospital Virgen del Rocío</t>
+          <t>madre</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
@@ -9427,7 +9456,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>1005</v>
+        <v>1010</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
@@ -9438,17 +9467,17 @@
       <c r="D93" t="inlineStr"/>
       <c r="E93" t="inlineStr">
         <is>
-          <t>DNI_NIF</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>DNI_NIF</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>33445566P</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
@@ -9469,7 +9498,7 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>1001</v>
+        <v>1010</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
@@ -9480,17 +9509,17 @@
       <c r="D94" t="inlineStr"/>
       <c r="E94" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>SEXO_SUJETO_ASISTENCIA</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>SEXO_SUJETO_ASISTENCIA</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>C/ Alcalá 123, 28009 Madrid</t>
+          <t>varón</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
@@ -9511,7 +9540,7 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>1007</v>
+        <v>1010</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
@@ -9522,17 +9551,17 @@
       <c r="D95" t="inlineStr"/>
       <c r="E95" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>FECHA_INGRESO</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>FECHA_INGRESO</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>C/ San Fernando 12, Sevilla</t>
+          <t>18/03/2023</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
@@ -9553,7 +9582,7 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>1001</v>
+        <v>1004</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
@@ -9564,17 +9593,17 @@
       <c r="D96" t="inlineStr"/>
       <c r="E96" t="inlineStr">
         <is>
-          <t>FECHA_INGRESO</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>FECHA_INGRESO</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>14/03/2023</t>
+          <t>+34 622 998 441</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
@@ -9595,7 +9624,7 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
@@ -9606,17 +9635,17 @@
       <c r="D97" t="inlineStr"/>
       <c r="E97" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>14/03/2023</t>
+          <t>José Manuel Ruiz Ortega</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
@@ -9637,7 +9666,7 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>1010</v>
+        <v>1001</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
@@ -9648,17 +9677,17 @@
       <c r="D98" t="inlineStr"/>
       <c r="E98" t="inlineStr">
         <is>
-          <t>FAMILIARES_SUJETO_ASISTENCIA</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>FAMILIARES_SUJETO_ASISTENCIA</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Ana Gómez</t>
+          <t>Roberto Sánchez</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
@@ -9679,7 +9708,7 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
@@ -9690,17 +9719,17 @@
       <c r="D99" t="inlineStr"/>
       <c r="E99" t="inlineStr">
         <is>
-          <t>FAMILIARES_SUJETO_ASISTENCIA</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>FAMILIARES_SUJETO_ASISTENCIA</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>madre</t>
+          <t>Hospital Virgen del Rocío</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
@@ -9721,7 +9750,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>1002</v>
+        <v>1010</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
@@ -9732,17 +9761,17 @@
       <c r="D100" t="inlineStr"/>
       <c r="E100" t="inlineStr">
         <is>
-          <t>NHC</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>NHC</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>HC-0098123</t>
+          <t>14/03/2023</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
@@ -9774,17 +9803,17 @@
       <c r="D101" t="inlineStr"/>
       <c r="E101" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>EMAIL</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>EMAIL</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>C/ Alcalá 123, 3ºB, 28009 Madrid</t>
+          <t>roberto.sanchez@gmail.com</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
@@ -9816,17 +9845,17 @@
       <c r="D102" t="inlineStr"/>
       <c r="E102" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>91 234 56 78</t>
+          <t>Hospital Clínico San Carlos</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
@@ -9847,7 +9876,7 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>1004</v>
+        <v>1010</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
@@ -9858,17 +9887,17 @@
       <c r="D103" t="inlineStr"/>
       <c r="E103" t="inlineStr">
         <is>
-          <t>NHC</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>NHC</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>HC-445566</t>
+          <t>Madrid</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
@@ -9889,7 +9918,7 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>1010</v>
+        <v>1003</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
@@ -9900,17 +9929,17 @@
       <c r="D104" t="inlineStr"/>
       <c r="E104" t="inlineStr">
         <is>
-          <t>DEVICE_ID</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>DEVICE_ID</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>DEV-XK-9933</t>
+          <t>Juan Pérez Martín</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
@@ -9931,7 +9960,7 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>1008</v>
+        <v>1010</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
@@ -9942,17 +9971,17 @@
       <c r="D105" t="inlineStr"/>
       <c r="E105" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>NHC</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>NHC</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>Av. Tres de Mayo 77, Tenerife</t>
+          <t>HC-0099123</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
@@ -9984,17 +10013,17 @@
       <c r="D106" t="inlineStr"/>
       <c r="E106" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>Pamplona</t>
+          <t>2010</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
@@ -10015,7 +10044,7 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
@@ -10026,17 +10055,17 @@
       <c r="D107" t="inlineStr"/>
       <c r="E107" t="inlineStr">
         <is>
-          <t>NOMBRE_PROFESIONAL</t>
+          <t>EDAD</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>NOMBRE_PROFESIONAL</t>
+          <t>EDAD</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>Dr. Juan Pérez Martín</t>
+          <t>41</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
@@ -10057,7 +10086,7 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
@@ -10068,17 +10097,17 @@
       <c r="D108" t="inlineStr"/>
       <c r="E108" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>EDAD</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>EDAD</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>Hospital Vall d'Hebron</t>
+          <t>52</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
@@ -10099,7 +10128,7 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>1001</v>
+        <v>1009</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
@@ -10110,17 +10139,17 @@
       <c r="D109" t="inlineStr"/>
       <c r="E109" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>NHC</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>NHC</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>Roberto Sánchez</t>
+          <t>HC-778899</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
@@ -10141,7 +10170,7 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>1007</v>
+        <v>1010</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
@@ -10152,17 +10181,17 @@
       <c r="D110" t="inlineStr"/>
       <c r="E110" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>IP</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>IP</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>jose.ruiz@yahoo.es</t>
+          <t>10.0.0.12</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
@@ -10183,7 +10212,7 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>1008</v>
+        <v>1002</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
@@ -10194,17 +10223,17 @@
       <c r="D111" t="inlineStr"/>
       <c r="E111" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>30/08/2021</t>
+          <t>699 234 111</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
@@ -10236,17 +10265,17 @@
       <c r="D112" t="inlineStr"/>
       <c r="E112" t="inlineStr">
         <is>
-          <t>NOMBRE_PROFESIONAL</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>NOMBRE_PROFESIONAL</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>Dr. Pérez</t>
+          <t>Av. de América 45, Madrid</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
@@ -10267,7 +10296,7 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>1003</v>
+        <v>1007</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
@@ -10288,7 +10317,7 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>01/01/2023</t>
+          <t>23/06/2022</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
@@ -10309,7 +10338,7 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>1010</v>
+        <v>9</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
@@ -10320,17 +10349,17 @@
       <c r="D114" t="inlineStr"/>
       <c r="E114" t="inlineStr">
         <is>
-          <t>NOMBRE_PROFESIONAL</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>NOMBRE_PROFESIONAL</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>Dra. María López García</t>
+          <t>C/ Alcalá 220, 28027 Madrid</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
@@ -10351,7 +10380,7 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
@@ -10362,17 +10391,17 @@
       <c r="D115" t="inlineStr"/>
       <c r="E115" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>+34 622 998 441</t>
+          <t>Av. Diagonal 456, Barcelona</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
@@ -10393,7 +10422,7 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>1008</v>
+        <v>1001</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
@@ -10404,17 +10433,17 @@
       <c r="D116" t="inlineStr"/>
       <c r="E116" t="inlineStr">
         <is>
-          <t>DNI_NIF</t>
+          <t>NOMBRE_PROFESIONAL</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>DNI_NIF</t>
+          <t>NOMBRE_PROFESIONAL</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>44556677R</t>
+          <t>Dr. Luis Martín</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
@@ -10435,7 +10464,7 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
@@ -10446,17 +10475,17 @@
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr">
         <is>
-          <t>PASAPORTE</t>
+          <t>EDAD</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>PASAPORTE</t>
+          <t>EDAD</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>ES1234567</t>
+          <t>58</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
@@ -10477,7 +10506,7 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>6</v>
+        <v>1001</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
@@ -10488,17 +10517,17 @@
       <c r="D118" t="inlineStr"/>
       <c r="E118" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>DNI_NIF</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>DNI_NIF</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>15/01/2026</t>
+          <t>12345678Z</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
@@ -10530,17 +10559,17 @@
       <c r="D119" t="inlineStr"/>
       <c r="E119" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>DNI_NIF</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>DNI_NIF</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>Hospital Clínico San Carlos</t>
+          <t>12345678Z</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
@@ -10561,7 +10590,7 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>1002</v>
+        <v>1004</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
@@ -10572,17 +10601,17 @@
       <c r="D120" t="inlineStr"/>
       <c r="E120" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>EMAIL</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>EMAIL</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>Av. de América 45, 28002 Madrid</t>
+          <t>ana.garcia@outlook.es</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
@@ -10603,7 +10632,7 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>1010</v>
+        <v>1006</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
@@ -10614,17 +10643,17 @@
       <c r="D121" t="inlineStr"/>
       <c r="E121" t="inlineStr">
         <is>
-          <t>SEXO_SUJETO_ASISTENCIA</t>
+          <t>NOMBRE_PROFESIONAL</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>SEXO_SUJETO_ASISTENCIA</t>
+          <t>NOMBRE_PROFESIONAL</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>varón</t>
+          <t>Carmen Rodríguez López</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
@@ -10645,7 +10674,7 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>1010</v>
+        <v>1002</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
@@ -10656,17 +10685,17 @@
       <c r="D122" t="inlineStr"/>
       <c r="E122" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>Clínica Universidad de Navarra</t>
+          <t>02-11-2022</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
@@ -10698,17 +10727,17 @@
       <c r="D123" t="inlineStr"/>
       <c r="E123" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>NHC</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>NHC</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>maria.lopez@gmail.com</t>
+          <t>HC-0098123</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
@@ -10729,7 +10758,7 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>1002</v>
+        <v>1010</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
@@ -10740,17 +10769,17 @@
       <c r="D124" t="inlineStr"/>
       <c r="E124" t="inlineStr">
         <is>
-          <t>SEXO_SUJETO_ASISTENCIA</t>
+          <t>FAMILIARES_SUJETO_ASISTENCIA</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>SEXO_SUJETO_ASISTENCIA</t>
+          <t>FAMILIARES_SUJETO_ASISTENCIA</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>mujer</t>
+          <t>padre</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
@@ -10771,7 +10800,7 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>1003</v>
+        <v>1010</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
@@ -10782,17 +10811,17 @@
       <c r="D125" t="inlineStr"/>
       <c r="E125" t="inlineStr">
         <is>
-          <t>DNI_NIF</t>
+          <t>EDAD</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>DNI_NIF</t>
+          <t>EDAD</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>87654321X</t>
+          <t>52</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
@@ -10813,7 +10842,7 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>1005</v>
+        <v>1010</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
@@ -10824,17 +10853,17 @@
       <c r="D126" t="inlineStr"/>
       <c r="E126" t="inlineStr">
         <is>
-          <t>NOMBRE_PROFESIONAL</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>NOMBRE_PROFESIONAL</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>Luis Martín Gómez</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
@@ -10855,7 +10884,7 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>1001</v>
+        <v>1006</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
@@ -10866,17 +10895,17 @@
       <c r="D127" t="inlineStr"/>
       <c r="E127" t="inlineStr">
         <is>
-          <t>FECHA_NACIMIENTO</t>
+          <t>DNI_NIF</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>FECHA_NACIMIENTO</t>
+          <t>DNI_NIF</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>06/08/1970</t>
+          <t>99887766L</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
@@ -10897,7 +10926,7 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>2</v>
+        <v>1008</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
@@ -10908,17 +10937,17 @@
       <c r="D128" t="inlineStr"/>
       <c r="E128" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>DNI_NIF</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>DNI_NIF</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>C/ Mayor 15, 3B, 28013 Madrid</t>
+          <t>44556677R</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
@@ -10939,7 +10968,7 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>1002</v>
+        <v>1004</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
@@ -10950,17 +10979,17 @@
       <c r="D129" t="inlineStr"/>
       <c r="E129" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>NOMBRE_PROFESIONAL</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>NOMBRE_PROFESIONAL</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>02-11-2022</t>
+          <t>Ana García Fernández</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
@@ -10981,7 +11010,7 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
@@ -11002,7 +11031,7 @@
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>99887766L</t>
+          <t>33445566P</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
@@ -11023,7 +11052,7 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>1005</v>
+        <v>1010</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
@@ -11034,17 +11063,17 @@
       <c r="D131" t="inlineStr"/>
       <c r="E131" t="inlineStr">
         <is>
-          <t>SEXO_SUJETO_ASISTENCIA</t>
+          <t>FECHA_NACIMIENTO</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>SEXO_SUJETO_ASISTENCIA</t>
+          <t>FECHA_NACIMIENTO</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>varón</t>
+          <t>22/07/1971</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
@@ -11065,7 +11094,7 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>1010</v>
+        <v>1002</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
@@ -11076,17 +11105,17 @@
       <c r="D132" t="inlineStr"/>
       <c r="E132" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>ana.gomez@correo.es</t>
+          <t>María López García</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
@@ -11107,7 +11136,7 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>1007</v>
+        <v>1009</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
@@ -11118,17 +11147,17 @@
       <c r="D133" t="inlineStr"/>
       <c r="E133" t="inlineStr">
         <is>
-          <t>FECHA_INGRESO</t>
+          <t>EDAD</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>FECHA_INGRESO</t>
+          <t>EDAD</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>23/06/2022</t>
+          <t>64</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
@@ -11149,7 +11178,7 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>16</v>
+        <v>1005</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
@@ -11170,7 +11199,7 @@
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>hospital</t>
+          <t>Hospital de la Santa Creu i Sant Pau</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
@@ -11191,7 +11220,7 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>1002</v>
+        <v>1006</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
@@ -11202,17 +11231,17 @@
       <c r="D135" t="inlineStr"/>
       <c r="E135" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>EDAD</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>EDAD</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>Hospital Universitario La Paz</t>
+          <t>73</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
@@ -11233,7 +11262,7 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>1001</v>
+        <v>1010</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
@@ -11244,17 +11273,17 @@
       <c r="D136" t="inlineStr"/>
       <c r="E136" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>Hospital Clínico San Carlos</t>
+          <t>Sr. Sánchez</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
@@ -11275,7 +11304,7 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>1005</v>
+        <v>1010</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
@@ -11286,17 +11315,17 @@
       <c r="D137" t="inlineStr"/>
       <c r="E137" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>Hospital de la Santa Creu i Sant Pau</t>
+          <t>Roberto Sánchez</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
@@ -11317,7 +11346,7 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>1005</v>
+        <v>1010</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
@@ -11328,17 +11357,17 @@
       <c r="D138" t="inlineStr"/>
       <c r="E138" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>18/05/2021</t>
+          <t>91 234 56 78</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
@@ -11359,7 +11388,7 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>1010</v>
+        <v>1003</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
@@ -11370,17 +11399,17 @@
       <c r="D139" t="inlineStr"/>
       <c r="E139" t="inlineStr">
         <is>
-          <t>FECHA_NACIMIENTO</t>
+          <t>DNI_NIF</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>FECHA_NACIMIENTO</t>
+          <t>DNI_NIF</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>14-03-2023</t>
+          <t>87654321X</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
@@ -11401,7 +11430,7 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>1010</v>
+        <v>1005</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
@@ -11412,17 +11441,17 @@
       <c r="D140" t="inlineStr"/>
       <c r="E140" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>NOMBRE_PROFESIONAL</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>NOMBRE_PROFESIONAL</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Luis Martín Gómez</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
@@ -11443,7 +11472,7 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>1008</v>
+        <v>1010</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
@@ -11454,17 +11483,17 @@
       <c r="D141" t="inlineStr"/>
       <c r="E141" t="inlineStr">
         <is>
-          <t>EDAD</t>
+          <t>INSURANCE_ID</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>EDAD</t>
+          <t>INSURANCE_ID</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>INS-2023-445-99</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
@@ -11485,7 +11514,7 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>1006</v>
+        <v>16</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
@@ -11496,17 +11525,17 @@
       <c r="D142" t="inlineStr"/>
       <c r="E142" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>Plaza Mayor 3, 47001 Valladolid</t>
+          <t>hospital</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
@@ -11527,7 +11556,7 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
@@ -11538,17 +11567,17 @@
       <c r="D143" t="inlineStr"/>
       <c r="E143" t="inlineStr">
         <is>
-          <t>NHC</t>
+          <t>EMAIL</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>NHC</t>
+          <t>EMAIL</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>HC-778899</t>
+          <t>ana.gomez@correo.es</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
@@ -11569,7 +11598,7 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>1004</v>
+        <v>1009</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
@@ -11580,17 +11609,17 @@
       <c r="D144" t="inlineStr"/>
       <c r="E144" t="inlineStr">
         <is>
-          <t>NOMBRE_PROFESIONAL</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>NOMBRE_PROFESIONAL</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>Ana García Fernández</t>
+          <t>Hospital de Cruces</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
@@ -11611,7 +11640,7 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>1004</v>
+        <v>1009</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
@@ -11622,17 +11651,17 @@
       <c r="D145" t="inlineStr"/>
       <c r="E145" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>NOMBRE_PROFESIONAL</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>NOMBRE_PROFESIONAL</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>Hospital Gregorio Marañón</t>
+          <t>Francisco Gómez Sánchez</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
@@ -11653,7 +11682,7 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>9</v>
+        <v>1002</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
@@ -11664,17 +11693,17 @@
       <c r="D146" t="inlineStr"/>
       <c r="E146" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>SEXO_SUJETO_ASISTENCIA</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>SEXO_SUJETO_ASISTENCIA</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>C/ Alcalá 220, 28027 Madrid</t>
+          <t>mujer</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
@@ -11695,7 +11724,7 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>1010</v>
+        <v>1001</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
@@ -11706,17 +11735,17 @@
       <c r="D147" t="inlineStr"/>
       <c r="E147" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>FECHA_INGRESO</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>FECHA_INGRESO</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>192.168.1.34</t>
+          <t>14/03/2023</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
@@ -11730,6 +11759,48 @@
         </is>
       </c>
       <c r="J147" t="inlineStr">
+        <is>
+          <t>strict</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>1008</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr"/>
+      <c r="D148" t="inlineStr"/>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>NOMBRE_PACIENTE</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>NOMBRE_PACIENTE</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>Laura Méndez</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>✗</t>
+        </is>
+      </c>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>FP</t>
+        </is>
+      </c>
+      <c r="J148" t="inlineStr">
         <is>
           <t>strict</t>
         </is>
@@ -11746,7 +11817,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N145"/>
+  <dimension ref="A1:N146"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17561,24 +17632,24 @@
       <c r="F108" t="inlineStr"/>
       <c r="G108" t="inlineStr">
         <is>
-          <t>SEXO_SUJETO_ASISTENCIA</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>SEXO_SUJETO_ASISTENCIA</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>varón</t>
+          <t>Roberto Sánchez</t>
         </is>
       </c>
       <c r="J108" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="K108" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="L108" t="inlineStr">
         <is>
@@ -17611,24 +17682,24 @@
       <c r="F109" t="inlineStr"/>
       <c r="G109" t="inlineStr">
         <is>
-          <t>EDAD</t>
+          <t>SEXO_SUJETO_ASISTENCIA</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>EDAD</t>
+          <t>SEXO_SUJETO_ASISTENCIA</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>varón</t>
         </is>
       </c>
       <c r="J109" t="n">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="K109" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="L109" t="inlineStr">
         <is>
@@ -17661,24 +17732,24 @@
       <c r="F110" t="inlineStr"/>
       <c r="G110" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>EDAD</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>EDAD</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>Hospital Universitario La Paz</t>
+          <t>52</t>
         </is>
       </c>
       <c r="J110" t="n">
-        <v>76</v>
+        <v>27</v>
       </c>
       <c r="K110" t="n">
-        <v>105</v>
+        <v>29</v>
       </c>
       <c r="L110" t="inlineStr">
         <is>
@@ -17711,24 +17782,24 @@
       <c r="F111" t="inlineStr"/>
       <c r="G111" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>14/03/2023</t>
+          <t>Hospital Universitario La Paz</t>
         </is>
       </c>
       <c r="J111" t="n">
-        <v>154</v>
+        <v>76</v>
       </c>
       <c r="K111" t="n">
-        <v>164</v>
+        <v>105</v>
       </c>
       <c r="L111" t="inlineStr">
         <is>
@@ -17761,24 +17832,24 @@
       <c r="F112" t="inlineStr"/>
       <c r="G112" t="inlineStr">
         <is>
-          <t>NHC</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>NHC</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>HC-0099123</t>
+          <t>14/03/2023</t>
         </is>
       </c>
       <c r="J112" t="n">
-        <v>200</v>
+        <v>154</v>
       </c>
       <c r="K112" t="n">
-        <v>210</v>
+        <v>164</v>
       </c>
       <c r="L112" t="inlineStr">
         <is>
@@ -17811,24 +17882,24 @@
       <c r="F113" t="inlineStr"/>
       <c r="G113" t="inlineStr">
         <is>
-          <t>DNI_NIF</t>
+          <t>NHC</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>DNI_NIF</t>
+          <t>NHC</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>12345678Z</t>
+          <t>HC-0099123</t>
         </is>
       </c>
       <c r="J113" t="n">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="K113" t="n">
-        <v>226</v>
+        <v>210</v>
       </c>
       <c r="L113" t="inlineStr">
         <is>
@@ -17861,24 +17932,24 @@
       <c r="F114" t="inlineStr"/>
       <c r="G114" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>DNI_NIF</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>DNI_NIF</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>+34 612 345 678</t>
+          <t>12345678Z</t>
         </is>
       </c>
       <c r="J114" t="n">
-        <v>438</v>
+        <v>217</v>
       </c>
       <c r="K114" t="n">
-        <v>453</v>
+        <v>226</v>
       </c>
       <c r="L114" t="inlineStr">
         <is>
@@ -17911,24 +17982,24 @@
       <c r="F115" t="inlineStr"/>
       <c r="G115" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>roberto.sanchez@gmail.com</t>
+          <t>+34 612 345 678</t>
         </is>
       </c>
       <c r="J115" t="n">
-        <v>462</v>
+        <v>438</v>
       </c>
       <c r="K115" t="n">
-        <v>487</v>
+        <v>453</v>
       </c>
       <c r="L115" t="inlineStr">
         <is>
@@ -17961,24 +18032,24 @@
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>EMAIL</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>EMAIL</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>192.168.1.34</t>
+          <t>roberto.sanchez@gmail.com</t>
         </is>
       </c>
       <c r="J116" t="n">
-        <v>518</v>
+        <v>462</v>
       </c>
       <c r="K116" t="n">
-        <v>530</v>
+        <v>487</v>
       </c>
       <c r="L116" t="inlineStr">
         <is>
@@ -18011,24 +18082,24 @@
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr">
         <is>
-          <t>INSURANCE_ID</t>
+          <t>IP</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>INSURANCE_ID</t>
+          <t>IP</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>INS-2023-445-99</t>
+          <t>192.168.1.34</t>
         </is>
       </c>
       <c r="J117" t="n">
-        <v>621</v>
+        <v>518</v>
       </c>
       <c r="K117" t="n">
-        <v>636</v>
+        <v>530</v>
       </c>
       <c r="L117" t="inlineStr">
         <is>
@@ -18061,24 +18132,24 @@
       <c r="F118" t="inlineStr"/>
       <c r="G118" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>INSURANCE_ID</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>INSURANCE_ID</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>INS-2023-445-99</t>
         </is>
       </c>
       <c r="J118" t="n">
-        <v>669</v>
+        <v>621</v>
       </c>
       <c r="K118" t="n">
-        <v>673</v>
+        <v>636</v>
       </c>
       <c r="L118" t="inlineStr">
         <is>
@@ -18111,24 +18182,24 @@
       <c r="F119" t="inlineStr"/>
       <c r="G119" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>Clínica Universidad de Navarra</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="J119" t="n">
-        <v>677</v>
+        <v>669</v>
       </c>
       <c r="K119" t="n">
-        <v>707</v>
+        <v>673</v>
       </c>
       <c r="L119" t="inlineStr">
         <is>
@@ -18161,24 +18232,24 @@
       <c r="F120" t="inlineStr"/>
       <c r="G120" t="inlineStr">
         <is>
-          <t>NOMBRE_PROFESIONAL</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>NOMBRE_PROFESIONAL</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>Dr. Juan Pérez Martín</t>
+          <t>Clínica Universidad de Navarra</t>
         </is>
       </c>
       <c r="J120" t="n">
-        <v>740</v>
+        <v>677</v>
       </c>
       <c r="K120" t="n">
-        <v>761</v>
+        <v>707</v>
       </c>
       <c r="L120" t="inlineStr">
         <is>
@@ -18221,14 +18292,14 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>Dra. María López García</t>
+          <t>Dr. Juan Pérez Martín</t>
         </is>
       </c>
       <c r="J121" t="n">
-        <v>820</v>
+        <v>740</v>
       </c>
       <c r="K121" t="n">
-        <v>843</v>
+        <v>761</v>
       </c>
       <c r="L121" t="inlineStr">
         <is>
@@ -18261,24 +18332,24 @@
       <c r="F122" t="inlineStr"/>
       <c r="G122" t="inlineStr">
         <is>
-          <t>FAMILIARES_SUJETO_ASISTENCIA</t>
+          <t>NOMBRE_PROFESIONAL</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>FAMILIARES_SUJETO_ASISTENCIA</t>
+          <t>NOMBRE_PROFESIONAL</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>padre</t>
+          <t>Dra. María López García</t>
         </is>
       </c>
       <c r="J122" t="n">
-        <v>934</v>
+        <v>820</v>
       </c>
       <c r="K122" t="n">
-        <v>939</v>
+        <v>843</v>
       </c>
       <c r="L122" t="inlineStr">
         <is>
@@ -18321,14 +18392,14 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>José Sánchez López</t>
+          <t>padre</t>
         </is>
       </c>
       <c r="J123" t="n">
-        <v>941</v>
+        <v>934</v>
       </c>
       <c r="K123" t="n">
-        <v>959</v>
+        <v>939</v>
       </c>
       <c r="L123" t="inlineStr">
         <is>
@@ -18361,24 +18432,24 @@
       <c r="F124" t="inlineStr"/>
       <c r="G124" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>FAMILIARES_SUJETO_ASISTENCIA</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>FAMILIARES_SUJETO_ASISTENCIA</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>2010</t>
+          <t>José Sánchez López</t>
         </is>
       </c>
       <c r="J124" t="n">
-        <v>973</v>
+        <v>941</v>
       </c>
       <c r="K124" t="n">
-        <v>977</v>
+        <v>959</v>
       </c>
       <c r="L124" t="inlineStr">
         <is>
@@ -18411,24 +18482,24 @@
       <c r="F125" t="inlineStr"/>
       <c r="G125" t="inlineStr">
         <is>
-          <t>FAMILIARES_SUJETO_ASISTENCIA</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>FAMILIARES_SUJETO_ASISTENCIA</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>madre</t>
+          <t>2010</t>
         </is>
       </c>
       <c r="J125" t="n">
-        <v>990</v>
+        <v>973</v>
       </c>
       <c r="K125" t="n">
-        <v>995</v>
+        <v>977</v>
       </c>
       <c r="L125" t="inlineStr">
         <is>
@@ -18471,14 +18542,14 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>Ana Gómez</t>
+          <t>madre</t>
         </is>
       </c>
       <c r="J126" t="n">
-        <v>997</v>
+        <v>990</v>
       </c>
       <c r="K126" t="n">
-        <v>1006</v>
+        <v>995</v>
       </c>
       <c r="L126" t="inlineStr">
         <is>
@@ -18511,24 +18582,24 @@
       <c r="F127" t="inlineStr"/>
       <c r="G127" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>FAMILIARES_SUJETO_ASISTENCIA</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>FAMILIARES_SUJETO_ASISTENCIA</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>ana.gomez@correo.es</t>
+          <t>Ana Gómez</t>
         </is>
       </c>
       <c r="J127" t="n">
-        <v>1082</v>
+        <v>997</v>
       </c>
       <c r="K127" t="n">
-        <v>1101</v>
+        <v>1006</v>
       </c>
       <c r="L127" t="inlineStr">
         <is>
@@ -18561,24 +18632,24 @@
       <c r="F128" t="inlineStr"/>
       <c r="G128" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>EMAIL</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>EMAIL</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>91 234 56 78</t>
+          <t>ana.gomez@correo.es</t>
         </is>
       </c>
       <c r="J128" t="n">
-        <v>1113</v>
+        <v>1082</v>
       </c>
       <c r="K128" t="n">
-        <v>1125</v>
+        <v>1101</v>
       </c>
       <c r="L128" t="inlineStr">
         <is>
@@ -18611,24 +18682,24 @@
       <c r="F129" t="inlineStr"/>
       <c r="G129" t="inlineStr">
         <is>
-          <t>FECHA_NACIMIENTO</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>FECHA_NACIMIENTO</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>22/07/1971</t>
+          <t>91 234 56 78</t>
         </is>
       </c>
       <c r="J129" t="n">
-        <v>1161</v>
+        <v>1113</v>
       </c>
       <c r="K129" t="n">
-        <v>1171</v>
+        <v>1125</v>
       </c>
       <c r="L129" t="inlineStr">
         <is>
@@ -18671,14 +18742,14 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>14-03-2023</t>
+          <t>22/07/1971</t>
         </is>
       </c>
       <c r="J130" t="n">
-        <v>1204</v>
+        <v>1161</v>
       </c>
       <c r="K130" t="n">
-        <v>1214</v>
+        <v>1171</v>
       </c>
       <c r="L130" t="inlineStr">
         <is>
@@ -18711,24 +18782,24 @@
       <c r="F131" t="inlineStr"/>
       <c r="G131" t="inlineStr">
         <is>
-          <t>FECHA_INGRESO</t>
+          <t>FECHA_NACIMIENTO</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>FECHA_INGRESO</t>
+          <t>FECHA_NACIMIENTO</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>18/03/2023</t>
+          <t>14-03-2023</t>
         </is>
       </c>
       <c r="J131" t="n">
-        <v>1240</v>
+        <v>1204</v>
       </c>
       <c r="K131" t="n">
-        <v>1250</v>
+        <v>1214</v>
       </c>
       <c r="L131" t="inlineStr">
         <is>
@@ -18761,24 +18832,24 @@
       <c r="F132" t="inlineStr"/>
       <c r="G132" t="inlineStr">
         <is>
-          <t>DEVICE_ID</t>
+          <t>FECHA_INGRESO</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>DEVICE_ID</t>
+          <t>FECHA_INGRESO</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>DEV-XK-9933</t>
+          <t>18/03/2023</t>
         </is>
       </c>
       <c r="J132" t="n">
-        <v>1440</v>
+        <v>1240</v>
       </c>
       <c r="K132" t="n">
-        <v>1451</v>
+        <v>1250</v>
       </c>
       <c r="L132" t="inlineStr">
         <is>
@@ -18811,24 +18882,24 @@
       <c r="F133" t="inlineStr"/>
       <c r="G133" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>DEVICE_ID</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>DEVICE_ID</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>10.0.0.12</t>
+          <t>DEV-XK-9933</t>
         </is>
       </c>
       <c r="J133" t="n">
-        <v>1483</v>
+        <v>1440</v>
       </c>
       <c r="K133" t="n">
-        <v>1492</v>
+        <v>1451</v>
       </c>
       <c r="L133" t="inlineStr">
         <is>
@@ -18861,24 +18932,24 @@
       <c r="F134" t="inlineStr"/>
       <c r="G134" t="inlineStr">
         <is>
-          <t>PASAPORTE</t>
+          <t>IP</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>PASAPORTE</t>
+          <t>IP</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>ES1234567</t>
+          <t>10.0.0.12</t>
         </is>
       </c>
       <c r="J134" t="n">
-        <v>1552</v>
+        <v>1483</v>
       </c>
       <c r="K134" t="n">
-        <v>1561</v>
+        <v>1492</v>
       </c>
       <c r="L134" t="inlineStr">
         <is>
@@ -18911,24 +18982,24 @@
       <c r="F135" t="inlineStr"/>
       <c r="G135" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>PASAPORTE</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>PASAPORTE</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>Sr. Sánchez</t>
+          <t>ES1234567</t>
         </is>
       </c>
       <c r="J135" t="n">
-        <v>1594</v>
+        <v>1552</v>
       </c>
       <c r="K135" t="n">
-        <v>1605</v>
+        <v>1561</v>
       </c>
       <c r="L135" t="inlineStr">
         <is>
@@ -18961,24 +19032,24 @@
       <c r="F136" t="inlineStr"/>
       <c r="G136" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>01/02/23</t>
+          <t>Sr. Sánchez</t>
         </is>
       </c>
       <c r="J136" t="n">
-        <v>1647</v>
+        <v>1594</v>
       </c>
       <c r="K136" t="n">
-        <v>1655</v>
+        <v>1605</v>
       </c>
       <c r="L136" t="inlineStr">
         <is>
@@ -19011,24 +19082,24 @@
       <c r="F137" t="inlineStr"/>
       <c r="G137" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>Hospital Clínico San Carlos</t>
+          <t>01/02/23</t>
         </is>
       </c>
       <c r="J137" t="n">
-        <v>1662</v>
+        <v>1647</v>
       </c>
       <c r="K137" t="n">
-        <v>1689</v>
+        <v>1655</v>
       </c>
       <c r="L137" t="inlineStr">
         <is>
@@ -19061,24 +19132,24 @@
       <c r="F138" t="inlineStr"/>
       <c r="G138" t="inlineStr">
         <is>
-          <t>NOMBRE_PROFESIONAL</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>NOMBRE_PROFESIONAL</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>Dr. Pérez</t>
+          <t>Hospital Clínico San Carlos</t>
         </is>
       </c>
       <c r="J138" t="n">
-        <v>1764</v>
+        <v>1662</v>
       </c>
       <c r="K138" t="n">
-        <v>1773</v>
+        <v>1689</v>
       </c>
       <c r="L138" t="inlineStr">
         <is>
@@ -19111,24 +19182,24 @@
       <c r="F139" t="inlineStr"/>
       <c r="G139" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>NOMBRE_PROFESIONAL</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>NOMBRE_PROFESIONAL</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>14/03/2023</t>
+          <t>Dr. Pérez</t>
         </is>
       </c>
       <c r="J139" t="n">
-        <v>1777</v>
+        <v>1764</v>
       </c>
       <c r="K139" t="n">
-        <v>1787</v>
+        <v>1773</v>
       </c>
       <c r="L139" t="inlineStr">
         <is>
@@ -19161,24 +19232,24 @@
       <c r="F140" t="inlineStr"/>
       <c r="G140" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>Pº de la Castellana, 261, 28046 Madrid</t>
+          <t>14/03/2023</t>
         </is>
       </c>
       <c r="J140" t="n">
-        <v>107</v>
+        <v>1777</v>
       </c>
       <c r="K140" t="n">
-        <v>145</v>
+        <v>1787</v>
       </c>
       <c r="L140" t="inlineStr">
         <is>
@@ -19221,14 +19292,14 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>C/ Alcalá 123, 3ºB, 28009 Madrid</t>
+          <t>Pº de la Castellana, 261, 28046 Madrid</t>
         </is>
       </c>
       <c r="J141" t="n">
-        <v>325</v>
+        <v>107</v>
       </c>
       <c r="K141" t="n">
-        <v>357</v>
+        <v>145</v>
       </c>
       <c r="L141" t="inlineStr">
         <is>
@@ -19271,14 +19342,14 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>C/ Alcalá 123, 3ºB, 28009 Madrid</t>
         </is>
       </c>
       <c r="J142" t="n">
-        <v>406</v>
+        <v>325</v>
       </c>
       <c r="K142" t="n">
-        <v>414</v>
+        <v>357</v>
       </c>
       <c r="L142" t="inlineStr">
         <is>
@@ -19321,14 +19392,14 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>Pamplona</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="J143" t="n">
-        <v>709</v>
+        <v>406</v>
       </c>
       <c r="K143" t="n">
-        <v>717</v>
+        <v>414</v>
       </c>
       <c r="L143" t="inlineStr">
         <is>
@@ -19371,14 +19442,14 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>Madrid</t>
+          <t>Pamplona</t>
         </is>
       </c>
       <c r="J144" t="n">
-        <v>776</v>
+        <v>709</v>
       </c>
       <c r="K144" t="n">
-        <v>782</v>
+        <v>717</v>
       </c>
       <c r="L144" t="inlineStr">
         <is>
@@ -19421,26 +19492,76 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
+          <t>Madrid</t>
+        </is>
+      </c>
+      <c r="J145" t="n">
+        <v>776</v>
+      </c>
+      <c r="K145" t="n">
+        <v>782</v>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>✗</t>
+        </is>
+      </c>
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>FP</t>
+        </is>
+      </c>
+      <c r="N145" t="inlineStr">
+        <is>
+          <t>lenient</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>1010</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr"/>
+      <c r="D146" t="inlineStr"/>
+      <c r="E146" t="inlineStr"/>
+      <c r="F146" t="inlineStr"/>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>DIRECCION</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>DIRECCION</t>
+        </is>
+      </c>
+      <c r="I146" t="inlineStr">
+        <is>
           <t>Av. de América 45, Madrid</t>
         </is>
       </c>
-      <c r="J145" t="n">
+      <c r="J146" t="n">
         <v>1033</v>
       </c>
-      <c r="K145" t="n">
+      <c r="K146" t="n">
         <v>1058</v>
       </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>✗</t>
-        </is>
-      </c>
-      <c r="M145" t="inlineStr">
-        <is>
-          <t>FP</t>
-        </is>
-      </c>
-      <c r="N145" t="inlineStr">
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>✗</t>
+        </is>
+      </c>
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>FP</t>
+        </is>
+      </c>
+      <c r="N146" t="inlineStr">
         <is>
           <t>lenient</t>
         </is>

--- a/Resultados_Anonimizador_Hibrido_v3.xlsx
+++ b/Resultados_Anonimizador_Hibrido_v3.xlsx
@@ -5554,12 +5554,12 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>CODIGO_POSTAL</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>CODIGO_POSTAL</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -5568,7 +5568,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>0.9976170063018799</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -5583,12 +5583,12 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>CIUDAD</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>CIUDAD</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -5597,7 +5597,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>0.9991710186004639</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -6134,12 +6134,12 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>CODIGO_POSTAL</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>CODIGO_POSTAL</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -6148,7 +6148,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>0.9981446266174316</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -6163,12 +6163,12 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>CIUDAD</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>CIUDAD</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -6177,7 +6177,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>0.9991428852081299</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -6659,36 +6659,36 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ciudad</t>
+          <t>Teléfono</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Madrid</t>
+          <t>912 556 789</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Madrid</t>
+          <t>912 556 789</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -6709,36 +6709,36 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Teléfono</t>
+          <t>Fecha de alta</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>FECHA_ALTA</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>+34 722 334 112</t>
+          <t>10/12/2025</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>FECHA_ALTA</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>FECHA_ALTA</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>+34 722 334 112</t>
+          <t>10/12/2025</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -6759,36 +6759,36 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>DNI/NIF</t>
+          <t>Nombre de Paciente</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>DNI_NIF</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>12345678A</t>
+          <t>Roberto Sánchez</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>DNI_NIF</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>DNI_NIF</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>12345678A</t>
+          <t>Roberto Sánchez</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -6809,36 +6809,36 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Teléfono</t>
+          <t>Hospital</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>912 556 789</t>
+          <t>Hospital Virgen del Mar</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>912 556 789</t>
+          <t>Hospital Virgen del Mar</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -6863,32 +6863,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Fecha de ingreso</t>
+          <t>Nombre Paciente</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>FECHA_INGRESO</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>03/12/2025</t>
+          <t>Juan Pérez</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>FECHA_INGRESO</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>FECHA_INGRESO</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>03/12/2025</t>
+          <t>Juan Pérez</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -6909,36 +6909,36 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Pasaporte</t>
+          <t>DNI/NIF</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>PASAPORTE</t>
+          <t>DNI_NIF</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>XK987654</t>
+          <t>12345678A</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>PASAPORTE</t>
+          <t>DNI_NIF</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>PASAPORTE</t>
+          <t>DNI_NIF</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>XK987654</t>
+          <t>12345678A</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -6959,36 +6959,36 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ID Dispositivo</t>
+          <t>fECHA</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>DEVICE_ID</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>DEV-ABC-123</t>
+          <t>03/03/2026</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>DEVICE_ID</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>DEVICE_ID</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>DEV-ABC-123</t>
+          <t>03/03/2026</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -7009,36 +7009,36 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Nombre Profesional</t>
+          <t>Nombre Paciente</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>NOMBRE_PROFESIONAL</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Dr. Luis Herrera</t>
+          <t>Ana Martínez</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>NOMBRE_PROFESIONAL</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>NOMBRE_PROFESIONAL</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Dr. Luis Herrera</t>
+          <t>Ana Martínez</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -7059,36 +7059,36 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Nombre Profesional</t>
+          <t>Pasaporte</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>NOMBRE_PROFESIONAL</t>
+          <t>PASAPORTE</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Dra. Elena Torres</t>
+          <t>XK987654</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>NOMBRE_PROFESIONAL</t>
+          <t>PASAPORTE</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>NOMBRE_PROFESIONAL</t>
+          <t>PASAPORTE</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Dra. Elena Torres</t>
+          <t>XK987654</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -7109,7 +7109,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -7123,7 +7123,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>45</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -7138,7 +7138,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>45</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -7159,36 +7159,36 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Fecha de alta</t>
+          <t>Dirección</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>FECHA_ALTA</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>10/12/2025</t>
+          <t>C/ Alcalá 220</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>FECHA_ALTA</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>FECHA_ALTA</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>10/12/2025</t>
+          <t>C/ Alcalá 220</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -7209,36 +7209,36 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Dirección</t>
+          <t>Nombre Profesional</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>NOMBRE_PROFESIONAL</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>C/ Alcalá 220</t>
+          <t>Dra. Elena Torres</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>NOMBRE_PROFESIONAL</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>NOMBRE_PROFESIONAL</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>C/ Alcalá 220</t>
+          <t>Dra. Elena Torres</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -7259,36 +7259,36 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Fecha Nacimiento</t>
+          <t>Edad</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>FECHA_NACIMIENTO</t>
+          <t>EDAD</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>08/06/1990</t>
+          <t>52</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>FECHA_NACIMIENTO</t>
+          <t>EDAD</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>FECHA_NACIMIENTO</t>
+          <t>EDAD</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>08/06/1990</t>
+          <t>52</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -7309,36 +7309,36 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>NªSeguro Médico</t>
+          <t>Nombre Paciente</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>INSURANCE_ID</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>INS-145-88</t>
+          <t>Marta Ruiz</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>INSURANCE_ID</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>INSURANCE_ID</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>INS-145-88</t>
+          <t>Marta Ruiz</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -7359,36 +7359,36 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Email</t>
+          <t>Nombre Paciente</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>juan.perez@gmail.com</t>
+          <t>María López</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>juan.perez@gmail.com</t>
+          <t>María López</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -7409,36 +7409,36 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>Código Postal</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>CODIGO_POSTAL</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>10.0.0.55</t>
+          <t>28013</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>CODIGO_POSTAL</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>CODIGO_POSTAL</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>10.0.0.55</t>
+          <t>28013</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -7459,36 +7459,36 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Código Postal</t>
+          <t>Hospital</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>28013</t>
+          <t>Clínica Santa María</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>28013</t>
+          <t>Clínica Santa María</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -7509,36 +7509,36 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Fecha Ingreso</t>
+          <t>Teléfono</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>FECHA_INGRESO</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>22/11/2025</t>
+          <t>+34 722 334 112</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>FECHA_INGRESO</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>FECHA_INGRESO</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>22/11/2025</t>
+          <t>+34 722 334 112</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -7559,36 +7559,36 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Nombre de Paciente</t>
+          <t>ID Dispositivo</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>DEVICE_ID</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Roberto Sánchez</t>
+          <t>DEV-XYZ-99</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>DEVICE_ID</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>DEVICE_ID</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Roberto Sánchez</t>
+          <t>DEV-XYZ-99</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -7609,36 +7609,36 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Fecha</t>
+          <t>Emali</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>EMAIL</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>05/05/2025</t>
+          <t>l.herrera@hospital.com</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>EMAIL</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>EMAIL</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>05/05/2025</t>
+          <t>l.herrera@hospital.com</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -7663,32 +7663,32 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>ID Dispositivo</t>
+          <t>IP</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>DEVICE_ID</t>
+          <t>IP</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>DEV-XYZ-99</t>
+          <t>10.0.0.55</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>DEVICE_ID</t>
+          <t>IP</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>DEVICE_ID</t>
+          <t>IP</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>DEV-XYZ-99</t>
+          <t>10.0.0.55</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -7709,36 +7709,36 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Nombre Paciente</t>
+          <t>Código Postal</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>CODIGO_POSTAL</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Juan Pérez</t>
+          <t>28027</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>CODIGO_POSTAL</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>CODIGO_POSTAL</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Juan Pérez</t>
+          <t>28027</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -7759,36 +7759,36 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Hospital</t>
+          <t>Email</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>EMAIL</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Clínica Santa María</t>
+          <t>roberto.san@outlook.es</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>EMAIL</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>EMAIL</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Clínica Santa María</t>
+          <t>roberto.san@outlook.es</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -7809,36 +7809,36 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Emali</t>
+          <t>ID Dispositivo</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>DEVICE_ID</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>l.herrera@hospital.com</t>
+          <t>DEV-ABC-123</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>DEVICE_ID</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>DEVICE_ID</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>l.herrera@hospital.com</t>
+          <t>DEV-ABC-123</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -7859,36 +7859,36 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Ciudad</t>
+          <t>Hospital</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Madrid</t>
+          <t>Hospital La Paz</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Madrid</t>
+          <t>Hospital La Paz</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -7909,36 +7909,36 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Hospital</t>
+          <t>Ciudad</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>CIUDAD</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Hospital Virgen del Mar</t>
+          <t>Madrid</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>CIUDAD</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>CIUDAD</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Hospital Virgen del Mar</t>
+          <t>Madrid</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -7959,36 +7959,36 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Teléfono</t>
+          <t>Nombre Profesional</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>NOMBRE_PROFESIONAL</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>+34 600 123 123</t>
+          <t>Dr. Luis Herrera</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>NOMBRE_PROFESIONAL</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>NOMBRE_PROFESIONAL</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>+34 600 123 123</t>
+          <t>Dr. Luis Herrera</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -8013,32 +8013,32 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Edad</t>
+          <t>Dirección</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>EDAD</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>C/ Mayor 15, 3B</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>EDAD</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>EDAD</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>C/ Mayor 15, 3B</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -8059,36 +8059,36 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Hospital</t>
+          <t>Fecha de ingreso</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>FECHA_INGRESO</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Hospital La Paz</t>
+          <t>03/12/2025</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>FECHA_INGRESO</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>FECHA_INGRESO</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Hospital La Paz</t>
+          <t>03/12/2025</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -8159,36 +8159,36 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Email</t>
+          <t>Fecha Nacimiento</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>FECHA_NACIMIENTO</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>roberto.san@outlook.es</t>
+          <t>08/06/1990</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>FECHA_NACIMIENTO</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>FECHA_NACIMIENTO</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>roberto.san@outlook.es</t>
+          <t>08/06/1990</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -8209,36 +8209,36 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Hospitl</t>
+          <t>Fecha Ingreso</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>FECHA_INGRESO</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Centro Médico Norte</t>
+          <t>22/11/2025</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>FECHA_INGRESO</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>FECHA_INGRESO</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Centro Médico Norte</t>
+          <t>22/11/2025</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -8259,11 +8259,11 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>fECHA</t>
+          <t>Fecha</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -8273,7 +8273,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>03/03/2026</t>
+          <t>05/05/2025</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -8288,7 +8288,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>03/03/2026</t>
+          <t>05/05/2025</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -8309,36 +8309,36 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Código Postal</t>
+          <t>Teléfono</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>28027</t>
+          <t>+34 600 123 123</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>28027</t>
+          <t>+34 600 123 123</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -8359,36 +8359,36 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Nombre Paciente</t>
+          <t>Email</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>EMAIL</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>María López</t>
+          <t>juan.perez@gmail.com</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>EMAIL</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>EMAIL</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>María López</t>
+          <t>juan.perez@gmail.com</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -8409,36 +8409,36 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Nombre Paciente</t>
+          <t>IP</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>IP</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Ana Martínez</t>
+          <t>192.168.1.10</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>IP</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>IP</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Ana Martínez</t>
+          <t>192.168.1.10</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -8459,36 +8459,36 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Nombre Paciente</t>
+          <t>NªSeguro Médico</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>INSURANCE_ID</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Marta Ruiz</t>
+          <t>INS-145-88</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>INSURANCE_ID</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>INSURANCE_ID</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Marta Ruiz</t>
+          <t>INS-145-88</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -8513,32 +8513,32 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Dirección</t>
+          <t>Ciudad</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>CIUDAD</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>C/ Mayor 15, 3B</t>
+          <t>Madrid</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>CIUDAD</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>CIUDAD</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>C/ Mayor 15, 3B</t>
+          <t>Madrid</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -8559,36 +8559,36 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>Hospitl</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>192.168.1.10</t>
+          <t>Centro Médico Norte</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>192.168.1.10</t>
+          <t>Centro Médico Norte</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -8609,21 +8609,21 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Fecha de ingreso</t>
+          <t>NªHistoría clínica</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>FECHA_INGRESO</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>15/01/2026</t>
+          <t>MRN-556677</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -8651,21 +8651,21 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>NªHistoría clínica</t>
+          <t>Fecha de ingreso</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>FECHA_INGRESO</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>MRN-556677</t>
+          <t>15/01/2026</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -8693,7 +8693,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -8704,17 +8704,17 @@
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr">
         <is>
-          <t>NHC</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>NHC</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>MRN-556677</t>
+          <t>15/01/2026</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -8735,7 +8735,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -8746,17 +8746,17 @@
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>NHC</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>NHC</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>hospital</t>
+          <t>MRN-556677</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -8777,7 +8777,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -8788,17 +8788,17 @@
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>15/01/2026</t>
+          <t>hospital</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -9291,7 +9291,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>CODIGO_POSTAL</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -9307,12 +9307,12 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>CODIGO_POSTAL</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>CODIGO_POSTAL</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -9353,7 +9353,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>CIUDAD</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -9369,12 +9369,12 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>CIUDAD</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>CIUDAD</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -10519,7 +10519,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>CODIGO_POSTAL</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -10535,12 +10535,12 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>CODIGO_POSTAL</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>CODIGO_POSTAL</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -10581,7 +10581,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>CIUDAD</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -10597,12 +10597,12 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>CIUDAD</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>CIUDAD</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -11638,7 +11638,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>La paciente &lt;PATIENT_NAME&gt;, de Age_XX años, vive en &lt;ADDRESS&gt;.</t>
+          <t>La paciente &lt;PATIENT_NAME&gt;, de Age_XX años, vive en &lt;ADDRESS&gt;, &lt;POSTAL_CODE&gt; &lt;CITY&gt;.</t>
         </is>
       </c>
     </row>
@@ -11745,7 +11745,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Se registró la dirección del paciente: &lt;ADDRESS&gt;.</t>
+          <t>Se registró la dirección del paciente: &lt;ADDRESS&gt;, &lt;POSTAL_CODE&gt; &lt;CITY&gt;.</t>
         </is>
       </c>
     </row>

--- a/Resultados_Anonimizador_Hibrido_v3.xlsx
+++ b/Resultados_Anonimizador_Hibrido_v3.xlsx
@@ -1427,7 +1427,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3">
@@ -1442,7 +1442,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -1457,7 +1457,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -1472,7 +1472,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.9285714285714286</v>
+        <v>0.9047619047619048</v>
       </c>
     </row>
     <row r="6">
@@ -1487,7 +1487,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.9512195121951219</v>
+        <v>0.926829268292683</v>
       </c>
     </row>
     <row r="7">
@@ -1502,7 +1502,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.9397590361445782</v>
+        <v>0.9156626506024096</v>
       </c>
     </row>
     <row r="8">
@@ -6475,7 +6475,7 @@
         <v>15</v>
       </c>
       <c r="B40" t="n">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C40" t="n">
         <v>44</v>
@@ -6492,7 +6492,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>08/06/1990</t>
+          <t>nacida el 08/06/1990</t>
         </is>
       </c>
       <c r="G40" t="n">
@@ -6597,7 +6597,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J45"/>
+  <dimension ref="A1:J46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6659,7 +6659,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -6673,7 +6673,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>912 556 789</t>
+          <t>+34 600 123 123</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -6688,7 +6688,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>912 556 789</t>
+          <t>+34 600 123 123</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -6709,36 +6709,36 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fecha de alta</t>
+          <t>Código Postal</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>FECHA_ALTA</t>
+          <t>CODIGO_POSTAL</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>10/12/2025</t>
+          <t>28013</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>FECHA_ALTA</t>
+          <t>CODIGO_POSTAL</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>FECHA_ALTA</t>
+          <t>CODIGO_POSTAL</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>10/12/2025</t>
+          <t>28013</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -6759,36 +6759,36 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Nombre de Paciente</t>
+          <t>Código Postal</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>CODIGO_POSTAL</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Roberto Sánchez</t>
+          <t>28027</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>CODIGO_POSTAL</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>CODIGO_POSTAL</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Roberto Sánchez</t>
+          <t>28027</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -6809,36 +6809,36 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Hospital</t>
+          <t>Dirección</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Hospital Virgen del Mar</t>
+          <t>C/ Mayor 15, 3B</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Hospital Virgen del Mar</t>
+          <t>C/ Mayor 15, 3B</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -6859,36 +6859,36 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Nombre Paciente</t>
+          <t>ID Dispositivo</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>DEVICE_ID</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Juan Pérez</t>
+          <t>DEV-ABC-123</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>DEVICE_ID</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>DEVICE_ID</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Juan Pérez</t>
+          <t>DEV-ABC-123</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -6909,36 +6909,36 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>DNI/NIF</t>
+          <t>Pasaporte</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>DNI_NIF</t>
+          <t>PASAPORTE</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>12345678A</t>
+          <t>XK987654</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>DNI_NIF</t>
+          <t>PASAPORTE</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>DNI_NIF</t>
+          <t>PASAPORTE</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>12345678A</t>
+          <t>XK987654</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -6959,36 +6959,36 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>fECHA</t>
+          <t>Nombre Paciente</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>03/03/2026</t>
+          <t>Ana Martínez</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>03/03/2026</t>
+          <t>Ana Martínez</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -7009,36 +7009,36 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Nombre Paciente</t>
+          <t>Edad</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>EDAD</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Ana Martínez</t>
+          <t>52</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>EDAD</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>EDAD</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Ana Martínez</t>
+          <t>52</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -7059,36 +7059,36 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Pasaporte</t>
+          <t>Teléfono</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>PASAPORTE</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>XK987654</t>
+          <t>+34 722 334 112</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>PASAPORTE</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>PASAPORTE</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>XK987654</t>
+          <t>+34 722 334 112</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -7109,36 +7109,36 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Edad</t>
+          <t>Emali</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>EDAD</t>
+          <t>EMAIL</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>l.herrera@hospital.com</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>EDAD</t>
+          <t>EMAIL</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>EDAD</t>
+          <t>EMAIL</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>l.herrera@hospital.com</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -7159,36 +7159,36 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Dirección</t>
+          <t>Hospitl</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>C/ Alcalá 220</t>
+          <t>Centro Médico Norte</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>C/ Alcalá 220</t>
+          <t>Centro Médico Norte</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -7209,36 +7209,36 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Nombre Profesional</t>
+          <t>Nombre Paciente</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>NOMBRE_PROFESIONAL</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Dra. Elena Torres</t>
+          <t>María López</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>NOMBRE_PROFESIONAL</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>NOMBRE_PROFESIONAL</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Dra. Elena Torres</t>
+          <t>María López</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -7259,36 +7259,36 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Edad</t>
+          <t>Nombre Profesional</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>EDAD</t>
+          <t>NOMBRE_PROFESIONAL</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>Dra. Elena Torres</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>EDAD</t>
+          <t>NOMBRE_PROFESIONAL</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>EDAD</t>
+          <t>NOMBRE_PROFESIONAL</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>Dra. Elena Torres</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -7309,36 +7309,36 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Nombre Paciente</t>
+          <t>NªSeguro Médico</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>INSURANCE_ID</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Marta Ruiz</t>
+          <t>INS-145-88</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>INSURANCE_ID</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>INSURANCE_ID</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Marta Ruiz</t>
+          <t>INS-145-88</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -7359,36 +7359,36 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Nombre Paciente</t>
+          <t>Hospital</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>María López</t>
+          <t>Hospital Virgen del Mar</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>María López</t>
+          <t>Hospital Virgen del Mar</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -7409,36 +7409,36 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Código Postal</t>
+          <t>Nº Historia Clínica</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>CODIGO_POSTAL</t>
+          <t>NHC</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>28013</t>
+          <t>HC-0099123</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>CODIGO_POSTAL</t>
+          <t>NHC</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>CODIGO_POSTAL</t>
+          <t>NHC</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>28013</t>
+          <t>HC-0099123</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -7459,36 +7459,36 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Hospital</t>
+          <t>Teléfono</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Clínica Santa María</t>
+          <t>912 556 789</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Clínica Santa María</t>
+          <t>912 556 789</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -7509,36 +7509,36 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Teléfono</t>
+          <t>Edad</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>EDAD</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>+34 722 334 112</t>
+          <t>45</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>EDAD</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>EDAD</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>+34 722 334 112</t>
+          <t>45</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -7559,36 +7559,36 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ID Dispositivo</t>
+          <t>Hospital</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>DEVICE_ID</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>DEV-XYZ-99</t>
+          <t>Clínica Santa María</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>DEVICE_ID</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>DEVICE_ID</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>DEV-XYZ-99</t>
+          <t>Clínica Santa María</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -7609,11 +7609,11 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Emali</t>
+          <t>Email</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -7623,7 +7623,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>l.herrera@hospital.com</t>
+          <t>juan.perez@gmail.com</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -7638,7 +7638,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>l.herrera@hospital.com</t>
+          <t>juan.perez@gmail.com</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -7663,32 +7663,32 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>ID Dispositivo</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>DEVICE_ID</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>10.0.0.55</t>
+          <t>DEV-XYZ-99</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>DEVICE_ID</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>DEVICE_ID</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>10.0.0.55</t>
+          <t>DEV-XYZ-99</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -7709,36 +7709,36 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Código Postal</t>
+          <t>Fecha de alta</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>CODIGO_POSTAL</t>
+          <t>FECHA_ALTA</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>28027</t>
+          <t>10/12/2025</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>CODIGO_POSTAL</t>
+          <t>FECHA_ALTA</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>CODIGO_POSTAL</t>
+          <t>FECHA_ALTA</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>28027</t>
+          <t>10/12/2025</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -7759,36 +7759,36 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Email</t>
+          <t>Ciudad</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>CIUDAD</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>roberto.san@outlook.es</t>
+          <t>Madrid</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>CIUDAD</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>CIUDAD</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>roberto.san@outlook.es</t>
+          <t>Madrid</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -7809,36 +7809,36 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>ID Dispositivo</t>
+          <t>Ciudad</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>DEVICE_ID</t>
+          <t>CIUDAD</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>DEV-ABC-123</t>
+          <t>Madrid</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>DEVICE_ID</t>
+          <t>CIUDAD</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>DEVICE_ID</t>
+          <t>CIUDAD</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>DEV-ABC-123</t>
+          <t>Madrid</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -7859,36 +7859,36 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Hospital</t>
+          <t>DNI/NIF</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>DNI_NIF</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Hospital La Paz</t>
+          <t>12345678A</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>DNI_NIF</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>DNI_NIF</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Hospital La Paz</t>
+          <t>12345678A</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -7909,36 +7909,36 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Ciudad</t>
+          <t>Fecha de ingreso</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>CIUDAD</t>
+          <t>FECHA_INGRESO</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Madrid</t>
+          <t>03/12/2025</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>CIUDAD</t>
+          <t>FECHA_INGRESO</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>CIUDAD</t>
+          <t>FECHA_INGRESO</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Madrid</t>
+          <t>03/12/2025</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -7959,36 +7959,36 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Nombre Profesional</t>
+          <t>Email</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>NOMBRE_PROFESIONAL</t>
+          <t>EMAIL</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Dr. Luis Herrera</t>
+          <t>roberto.san@outlook.es</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>NOMBRE_PROFESIONAL</t>
+          <t>EMAIL</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>NOMBRE_PROFESIONAL</t>
+          <t>EMAIL</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Dr. Luis Herrera</t>
+          <t>roberto.san@outlook.es</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -8009,36 +8009,36 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Dirección</t>
+          <t>fECHA</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>C/ Mayor 15, 3B</t>
+          <t>03/03/2026</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>C/ Mayor 15, 3B</t>
+          <t>03/03/2026</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -8059,36 +8059,36 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Fecha de ingreso</t>
+          <t>Fecha</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>FECHA_INGRESO</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>03/12/2025</t>
+          <t>05/05/2025</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>FECHA_INGRESO</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>FECHA_INGRESO</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>03/12/2025</t>
+          <t>05/05/2025</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -8109,36 +8109,36 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Nº Historia Clínica</t>
+          <t>Nombre de Paciente</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>NHC</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>HC-0099123</t>
+          <t>Roberto Sánchez</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>NHC</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>NHC</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>HC-0099123</t>
+          <t>Roberto Sánchez</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -8159,36 +8159,36 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Fecha Nacimiento</t>
+          <t>IP</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>FECHA_NACIMIENTO</t>
+          <t>IP</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>08/06/1990</t>
+          <t>192.168.1.10</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>FECHA_NACIMIENTO</t>
+          <t>IP</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>FECHA_NACIMIENTO</t>
+          <t>IP</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>08/06/1990</t>
+          <t>192.168.1.10</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -8209,36 +8209,36 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Fecha Ingreso</t>
+          <t>Nombre Profesional</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>FECHA_INGRESO</t>
+          <t>NOMBRE_PROFESIONAL</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>22/11/2025</t>
+          <t>Dr. Luis Herrera</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>FECHA_INGRESO</t>
+          <t>NOMBRE_PROFESIONAL</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>FECHA_INGRESO</t>
+          <t>NOMBRE_PROFESIONAL</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>22/11/2025</t>
+          <t>Dr. Luis Herrera</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -8259,36 +8259,36 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Fecha</t>
+          <t>Dirección</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>05/05/2025</t>
+          <t>C/ Alcalá 220</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>05/05/2025</t>
+          <t>C/ Alcalá 220</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -8309,36 +8309,36 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Teléfono</t>
+          <t>Fecha Ingreso</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>FECHA_INGRESO</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>+34 600 123 123</t>
+          <t>22/11/2025</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>FECHA_INGRESO</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>FECHA_INGRESO</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>+34 600 123 123</t>
+          <t>22/11/2025</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -8359,36 +8359,36 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Email</t>
+          <t>Hospital</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>juan.perez@gmail.com</t>
+          <t>Hospital La Paz</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>juan.perez@gmail.com</t>
+          <t>Hospital La Paz</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -8409,7 +8409,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -8423,7 +8423,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>192.168.1.10</t>
+          <t>10.0.0.55</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -8438,7 +8438,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>192.168.1.10</t>
+          <t>10.0.0.55</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -8459,36 +8459,36 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>NªSeguro Médico</t>
+          <t>Nombre Paciente</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>INSURANCE_ID</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>INS-145-88</t>
+          <t>Marta Ruiz</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>INSURANCE_ID</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>INSURANCE_ID</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>INS-145-88</t>
+          <t>Marta Ruiz</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -8509,36 +8509,36 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Ciudad</t>
+          <t>Nombre Paciente</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>CIUDAD</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Madrid</t>
+          <t>Juan Pérez</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>CIUDAD</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>CIUDAD</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Madrid</t>
+          <t>Juan Pérez</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -8559,46 +8559,38 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Hospitl</t>
+          <t>Fecha Nacimiento</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>FECHA_NACIMIENTO</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Centro Médico Norte</t>
+          <t>08/06/1990</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>HOSPITAL</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>Centro Médico Norte</t>
-        </is>
-      </c>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr">
         <is>
-          <t>✓</t>
+          <t>✗</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>FN</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -8609,21 +8601,21 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>NªHistoría clínica</t>
+          <t>Fecha de ingreso</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>FECHA_INGRESO</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>MRN-556677</t>
+          <t>15/01/2026</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -8651,21 +8643,21 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Fecha de ingreso</t>
+          <t>NªHistoría clínica</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>FECHA_INGRESO</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>15/01/2026</t>
+          <t>MRN-556677</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -8693,7 +8685,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -8704,17 +8696,17 @@
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>NHC</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>NHC</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>15/01/2026</t>
+          <t>MRN-556677</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -8735,7 +8727,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -8746,17 +8738,17 @@
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr">
         <is>
-          <t>NHC</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>NHC</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>MRN-556677</t>
+          <t>15/01/2026</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -8812,6 +8804,48 @@
         </is>
       </c>
       <c r="J45" t="inlineStr">
+        <is>
+          <t>strict</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>15</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>FECHA_NACIMIENTO</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>FECHA_NACIMIENTO</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>nacida el 08/06/1990</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>✗</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>FP</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
         <is>
           <t>strict</t>
         </is>
@@ -11277,11 +11311,11 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>08/06/1990</t>
+          <t>nacida el 08/06/1990</t>
         </is>
       </c>
       <c r="J40" t="n">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="K40" t="n">
         <v>44</v>
@@ -11835,7 +11869,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>La paciente &lt;PATIENT_NAME&gt;, nacida el &lt;DATE_BIRTH&gt;, acudió a urgencias con dolor abdominal.</t>
+          <t>La paciente &lt;PATIENT_NAME&gt;, &lt;DATE_BIRTH&gt;, acudió a urgencias con dolor abdominal.</t>
         </is>
       </c>
     </row>

--- a/Resultados_Anonimizador_Hibrido_v3.xlsx
+++ b/Resultados_Anonimizador_Hibrido_v3.xlsx
@@ -1427,7 +1427,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3">
@@ -1442,7 +1442,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -1457,7 +1457,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -1472,7 +1472,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.9047619047619048</v>
+        <v>0.9285714285714286</v>
       </c>
     </row>
     <row r="6">
@@ -1487,7 +1487,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.926829268292683</v>
+        <v>0.9512195121951219</v>
       </c>
     </row>
     <row r="7">
@@ -1502,7 +1502,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.9156626506024096</v>
+        <v>0.9397590361445782</v>
       </c>
     </row>
     <row r="8">
@@ -6475,7 +6475,7 @@
         <v>15</v>
       </c>
       <c r="B40" t="n">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C40" t="n">
         <v>44</v>
@@ -6492,11 +6492,11 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>nacida el 08/06/1990</t>
+          <t>08/06/1990</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1</v>
+        <v>0.9990630149841309</v>
       </c>
     </row>
     <row r="41">
@@ -6597,7 +6597,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J46"/>
+  <dimension ref="A1:J45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6659,36 +6659,36 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Teléfono</t>
+          <t>Dirección</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>+34 600 123 123</t>
+          <t>C/ Alcalá 220</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>+34 600 123 123</t>
+          <t>C/ Alcalá 220</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -6709,36 +6709,36 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Código Postal</t>
+          <t>Hospitl</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CODIGO_POSTAL</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>28013</t>
+          <t>Centro Médico Norte</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CODIGO_POSTAL</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>CODIGO_POSTAL</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>28013</t>
+          <t>Centro Médico Norte</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -6759,36 +6759,36 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Código Postal</t>
+          <t>Nombre Profesional</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CODIGO_POSTAL</t>
+          <t>NOMBRE_PROFESIONAL</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>28027</t>
+          <t>Dra. Elena Torres</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>CODIGO_POSTAL</t>
+          <t>NOMBRE_PROFESIONAL</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>CODIGO_POSTAL</t>
+          <t>NOMBRE_PROFESIONAL</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>28027</t>
+          <t>Dra. Elena Torres</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -6809,36 +6809,36 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Dirección</t>
+          <t>Emali</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>EMAIL</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>C/ Mayor 15, 3B</t>
+          <t>l.herrera@hospital.com</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>EMAIL</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>EMAIL</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>C/ Mayor 15, 3B</t>
+          <t>l.herrera@hospital.com</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -6859,36 +6859,36 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ID Dispositivo</t>
+          <t>Nombre Paciente</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>DEVICE_ID</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>DEV-ABC-123</t>
+          <t>Juan Pérez</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>DEVICE_ID</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>DEVICE_ID</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>DEV-ABC-123</t>
+          <t>Juan Pérez</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -6909,36 +6909,36 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Pasaporte</t>
+          <t>IP</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>PASAPORTE</t>
+          <t>IP</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>XK987654</t>
+          <t>192.168.1.10</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>PASAPORTE</t>
+          <t>IP</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>PASAPORTE</t>
+          <t>IP</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>XK987654</t>
+          <t>192.168.1.10</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -6959,36 +6959,36 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Nombre Paciente</t>
+          <t>Fecha de ingreso</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>FECHA_INGRESO</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Ana Martínez</t>
+          <t>03/12/2025</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>FECHA_INGRESO</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>FECHA_INGRESO</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Ana Martínez</t>
+          <t>03/12/2025</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -7009,36 +7009,36 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Edad</t>
+          <t>ID Dispositivo</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>EDAD</t>
+          <t>DEVICE_ID</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>DEV-ABC-123</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>EDAD</t>
+          <t>DEVICE_ID</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>EDAD</t>
+          <t>DEVICE_ID</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>DEV-ABC-123</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -7059,36 +7059,36 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Teléfono</t>
+          <t>Pasaporte</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>PASAPORTE</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>+34 722 334 112</t>
+          <t>XK987654</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>PASAPORTE</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>PASAPORTE</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>+34 722 334 112</t>
+          <t>XK987654</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -7109,36 +7109,36 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Emali</t>
+          <t>Código Postal</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>CODIGO_POSTAL</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>l.herrera@hospital.com</t>
+          <t>28027</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>CODIGO_POSTAL</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>CODIGO_POSTAL</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>l.herrera@hospital.com</t>
+          <t>28027</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -7159,36 +7159,36 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Hospitl</t>
+          <t>Edad</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>EDAD</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Centro Médico Norte</t>
+          <t>52</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>EDAD</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>EDAD</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Centro Médico Norte</t>
+          <t>52</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -7209,36 +7209,36 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Nombre Paciente</t>
+          <t>Fecha</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>María López</t>
+          <t>05/05/2025</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>María López</t>
+          <t>05/05/2025</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -7259,36 +7259,36 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Nombre Profesional</t>
+          <t>Teléfono</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>NOMBRE_PROFESIONAL</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Dra. Elena Torres</t>
+          <t>+34 600 123 123</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>NOMBRE_PROFESIONAL</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>NOMBRE_PROFESIONAL</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Dra. Elena Torres</t>
+          <t>+34 600 123 123</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -7313,32 +7313,32 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>NªSeguro Médico</t>
+          <t>fECHA</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>INSURANCE_ID</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>INS-145-88</t>
+          <t>03/03/2026</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>INSURANCE_ID</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>INSURANCE_ID</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>INS-145-88</t>
+          <t>03/03/2026</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -7359,36 +7359,36 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Hospital</t>
+          <t>Nombre Profesional</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>NOMBRE_PROFESIONAL</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Hospital Virgen del Mar</t>
+          <t>Dr. Luis Herrera</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>NOMBRE_PROFESIONAL</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>NOMBRE_PROFESIONAL</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Hospital Virgen del Mar</t>
+          <t>Dr. Luis Herrera</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -7409,36 +7409,36 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Nº Historia Clínica</t>
+          <t>Ciudad</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>NHC</t>
+          <t>CIUDAD</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>HC-0099123</t>
+          <t>Madrid</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>NHC</t>
+          <t>CIUDAD</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>NHC</t>
+          <t>CIUDAD</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>HC-0099123</t>
+          <t>Madrid</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -7459,36 +7459,36 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Teléfono</t>
+          <t>Nombre de Paciente</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>912 556 789</t>
+          <t>Roberto Sánchez</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>912 556 789</t>
+          <t>Roberto Sánchez</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -7559,36 +7559,36 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Hospital</t>
+          <t>Teléfono</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Clínica Santa María</t>
+          <t>+34 722 334 112</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Clínica Santa María</t>
+          <t>+34 722 334 112</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -7609,36 +7609,36 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Email</t>
+          <t>Nº Historia Clínica</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>NHC</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>juan.perez@gmail.com</t>
+          <t>HC-0099123</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>NHC</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>NHC</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>juan.perez@gmail.com</t>
+          <t>HC-0099123</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -7659,36 +7659,36 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>ID Dispositivo</t>
+          <t>Hospital</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>DEVICE_ID</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>DEV-XYZ-99</t>
+          <t>Clínica Santa María</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>DEVICE_ID</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>DEVICE_ID</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>DEV-XYZ-99</t>
+          <t>Clínica Santa María</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -7709,36 +7709,36 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Fecha de alta</t>
+          <t>Hospital</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>FECHA_ALTA</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>10/12/2025</t>
+          <t>Hospital Virgen del Mar</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>FECHA_ALTA</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>FECHA_ALTA</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>10/12/2025</t>
+          <t>Hospital Virgen del Mar</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -7759,36 +7759,36 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Ciudad</t>
+          <t>Nombre Paciente</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>CIUDAD</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Madrid</t>
+          <t>Marta Ruiz</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>CIUDAD</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>CIUDAD</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Madrid</t>
+          <t>Marta Ruiz</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -7809,36 +7809,36 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Ciudad</t>
+          <t>Fecha Nacimiento</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>CIUDAD</t>
+          <t>FECHA_NACIMIENTO</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Madrid</t>
+          <t>08/06/1990</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>CIUDAD</t>
+          <t>FECHA_NACIMIENTO</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>CIUDAD</t>
+          <t>FECHA_NACIMIENTO</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Madrid</t>
+          <t>08/06/1990</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -7859,36 +7859,36 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>DNI/NIF</t>
+          <t>Teléfono</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>DNI_NIF</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>12345678A</t>
+          <t>912 556 789</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>DNI_NIF</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>DNI_NIF</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>12345678A</t>
+          <t>912 556 789</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -7909,36 +7909,36 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Fecha de ingreso</t>
+          <t>Email</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>FECHA_INGRESO</t>
+          <t>EMAIL</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>03/12/2025</t>
+          <t>juan.perez@gmail.com</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>FECHA_INGRESO</t>
+          <t>EMAIL</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>FECHA_INGRESO</t>
+          <t>EMAIL</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>03/12/2025</t>
+          <t>juan.perez@gmail.com</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -7959,36 +7959,36 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Email</t>
+          <t>Nombre Paciente</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>roberto.san@outlook.es</t>
+          <t>María López</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>roberto.san@outlook.es</t>
+          <t>María López</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -8009,36 +8009,36 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>fECHA</t>
+          <t>Hospital</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>03/03/2026</t>
+          <t>Hospital La Paz</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>03/03/2026</t>
+          <t>Hospital La Paz</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -8059,36 +8059,36 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Fecha</t>
+          <t>Nombre Paciente</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>05/05/2025</t>
+          <t>Ana Martínez</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>05/05/2025</t>
+          <t>Ana Martínez</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -8109,36 +8109,36 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Nombre de Paciente</t>
+          <t>Ciudad</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>CIUDAD</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Roberto Sánchez</t>
+          <t>Madrid</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>CIUDAD</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>CIUDAD</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Roberto Sánchez</t>
+          <t>Madrid</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -8159,36 +8159,36 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>Fecha Ingreso</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>FECHA_INGRESO</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>192.168.1.10</t>
+          <t>22/11/2025</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>FECHA_INGRESO</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>FECHA_INGRESO</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>192.168.1.10</t>
+          <t>22/11/2025</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -8209,36 +8209,36 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Nombre Profesional</t>
+          <t>Código Postal</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>NOMBRE_PROFESIONAL</t>
+          <t>CODIGO_POSTAL</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Dr. Luis Herrera</t>
+          <t>28013</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>NOMBRE_PROFESIONAL</t>
+          <t>CODIGO_POSTAL</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>NOMBRE_PROFESIONAL</t>
+          <t>CODIGO_POSTAL</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Dr. Luis Herrera</t>
+          <t>28013</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -8259,36 +8259,36 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Dirección</t>
+          <t>DNI/NIF</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>DNI_NIF</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>C/ Alcalá 220</t>
+          <t>12345678A</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>DNI_NIF</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>DNI_NIF</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>C/ Alcalá 220</t>
+          <t>12345678A</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -8309,36 +8309,36 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Fecha Ingreso</t>
+          <t>NªSeguro Médico</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>FECHA_INGRESO</t>
+          <t>INSURANCE_ID</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>22/11/2025</t>
+          <t>INS-145-88</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>FECHA_INGRESO</t>
+          <t>INSURANCE_ID</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>FECHA_INGRESO</t>
+          <t>INSURANCE_ID</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>22/11/2025</t>
+          <t>INS-145-88</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -8359,36 +8359,36 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Hospital</t>
+          <t>Fecha de alta</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>FECHA_ALTA</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Hospital La Paz</t>
+          <t>10/12/2025</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>FECHA_ALTA</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>FECHA_ALTA</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Hospital La Paz</t>
+          <t>10/12/2025</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -8409,36 +8409,36 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>Dirección</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>10.0.0.55</t>
+          <t>C/ Mayor 15, 3B</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>10.0.0.55</t>
+          <t>C/ Mayor 15, 3B</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -8459,36 +8459,36 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Nombre Paciente</t>
+          <t>IP</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>IP</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Marta Ruiz</t>
+          <t>10.0.0.55</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>IP</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>IP</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Marta Ruiz</t>
+          <t>10.0.0.55</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -8509,36 +8509,36 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Nombre Paciente</t>
+          <t>Email</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>EMAIL</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Juan Pérez</t>
+          <t>roberto.san@outlook.es</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>EMAIL</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>EMAIL</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Juan Pérez</t>
+          <t>roberto.san@outlook.es</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -8559,38 +8559,46 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Fecha Nacimiento</t>
+          <t>ID Dispositivo</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>FECHA_NACIMIENTO</t>
+          <t>DEVICE_ID</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>08/06/1990</t>
+          <t>DEV-XYZ-99</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr"/>
-      <c r="G40" t="inlineStr"/>
+          <t>DEVICE_ID</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>DEVICE_ID</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>DEV-XYZ-99</t>
+        </is>
+      </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>✗</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>FN</t>
+          <t>TP</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -8601,21 +8609,21 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Fecha de ingreso</t>
+          <t>NªHistoría clínica</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>FECHA_INGRESO</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>15/01/2026</t>
+          <t>MRN-556677</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -8643,21 +8651,21 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>NªHistoría clínica</t>
+          <t>Fecha de ingreso</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>FECHA_INGRESO</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>MRN-556677</t>
+          <t>15/01/2026</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -8804,48 +8812,6 @@
         </is>
       </c>
       <c r="J45" t="inlineStr">
-        <is>
-          <t>strict</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
-        <v>15</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr"/>
-      <c r="D46" t="inlineStr"/>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>FECHA_NACIMIENTO</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>FECHA_NACIMIENTO</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>nacida el 08/06/1990</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>✗</t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>FP</t>
-        </is>
-      </c>
-      <c r="J46" t="inlineStr">
         <is>
           <t>strict</t>
         </is>
@@ -11311,11 +11277,11 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>nacida el 08/06/1990</t>
+          <t>08/06/1990</t>
         </is>
       </c>
       <c r="J40" t="n">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="K40" t="n">
         <v>44</v>
@@ -11869,7 +11835,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>La paciente &lt;PATIENT_NAME&gt;, &lt;DATE_BIRTH&gt;, acudió a urgencias con dolor abdominal.</t>
+          <t>La paciente &lt;PATIENT_NAME&gt;, nacida el &lt;DATE_BIRTH&gt;, acudió a urgencias con dolor abdominal.</t>
         </is>
       </c>
     </row>

--- a/Resultados_Anonimizador_Hibrido_v3.xlsx
+++ b/Resultados_Anonimizador_Hibrido_v3.xlsx
@@ -1427,7 +1427,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3">
@@ -1442,7 +1442,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1457,7 +1457,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -1472,7 +1472,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.9285714285714286</v>
+        <v>0.8604651162790697</v>
       </c>
     </row>
     <row r="6">
@@ -1487,7 +1487,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.9512195121951219</v>
+        <v>0.9024390243902439</v>
       </c>
     </row>
     <row r="7">
@@ -1502,7 +1502,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.9397590361445782</v>
+        <v>0.8809523809523809</v>
       </c>
     </row>
     <row r="8">
@@ -1517,7 +1517,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9">
@@ -1532,7 +1532,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -1547,7 +1547,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
@@ -1562,7 +1562,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.9285714285714286</v>
+        <v>0.8604651162790697</v>
       </c>
     </row>
     <row r="12">
@@ -1577,7 +1577,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.9512195121951219</v>
+        <v>0.9024390243902439</v>
       </c>
     </row>
     <row r="13">
@@ -1592,7 +1592,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.9397590361445782</v>
+        <v>0.8809523809523809</v>
       </c>
     </row>
   </sheetData>
@@ -5323,7 +5323,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G43"/>
+  <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5438,12 +5438,12 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>FECHA_INGRESO</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>FECHA_INGRESO</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -6076,12 +6076,12 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>FECHA_INGRESO</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>FECHA_INGRESO</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -6501,31 +6501,31 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B41" t="n">
-        <v>3</v>
+        <v>55</v>
       </c>
       <c r="C41" t="n">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>SERVICIO_UNIDAD</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>SERVICIO_UNIDAD</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>hospital</t>
+          <t>urgencias</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>0.9917227625846863</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -6533,10 +6533,10 @@
         <v>16</v>
       </c>
       <c r="B42" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C42" t="n">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -6550,11 +6550,11 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Centro Médico Norte</t>
+          <t>hospital</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>0.6910634636878967</v>
+        <v>0.9917227625846863</v>
       </c>
     </row>
     <row r="43">
@@ -6562,27 +6562,56 @@
         <v>16</v>
       </c>
       <c r="B43" t="n">
+        <v>12</v>
+      </c>
+      <c r="C43" t="n">
+        <v>31</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>HOSPITAL</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>HOSPITAL</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Centro Médico Norte</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
+        <v>0.6910634636878967</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>16</v>
+      </c>
+      <c r="B44" t="n">
         <v>53</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C44" t="n">
         <v>63</v>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="D44" t="inlineStr">
         <is>
           <t>FECHA</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>FECHA</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>05/05/2025</t>
         </is>
       </c>
-      <c r="G43" t="n">
+      <c r="G44" t="n">
         <v>0.9989587664604187</v>
       </c>
     </row>
@@ -6597,7 +6626,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J45"/>
+  <dimension ref="A1:J48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6659,36 +6688,36 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dirección</t>
+          <t>Hospital</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>C/ Alcalá 220</t>
+          <t>Hospital La Paz</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>C/ Alcalá 220</t>
+          <t>Hospital La Paz</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -6709,36 +6738,36 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Hospitl</t>
+          <t>Fecha Nacimiento</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>FECHA_NACIMIENTO</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Centro Médico Norte</t>
+          <t>08/06/1990</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>FECHA_NACIMIENTO</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>FECHA_NACIMIENTO</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Centro Médico Norte</t>
+          <t>08/06/1990</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -6809,36 +6838,36 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Emali</t>
+          <t>IP</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>IP</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>l.herrera@hospital.com</t>
+          <t>10.0.0.55</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>IP</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>IP</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>l.herrera@hospital.com</t>
+          <t>10.0.0.55</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -6859,36 +6888,36 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Nombre Paciente</t>
+          <t>Fecha de alta</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>FECHA_ALTA</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Juan Pérez</t>
+          <t>10/12/2025</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>FECHA_ALTA</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>FECHA_ALTA</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Juan Pérez</t>
+          <t>10/12/2025</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -6909,36 +6938,36 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>Teléfono</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>192.168.1.10</t>
+          <t>+34 600 123 123</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>192.168.1.10</t>
+          <t>+34 600 123 123</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -6959,36 +6988,36 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Fecha de ingreso</t>
+          <t>Nº Historia Clínica</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>FECHA_INGRESO</t>
+          <t>NHC</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>03/12/2025</t>
+          <t>HC-0099123</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>FECHA_INGRESO</t>
+          <t>NHC</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>FECHA_INGRESO</t>
+          <t>NHC</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>03/12/2025</t>
+          <t>HC-0099123</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -7013,32 +7042,32 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ID Dispositivo</t>
+          <t>IP</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>DEVICE_ID</t>
+          <t>IP</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>DEV-ABC-123</t>
+          <t>192.168.1.10</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>DEVICE_ID</t>
+          <t>IP</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>DEVICE_ID</t>
+          <t>IP</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>DEV-ABC-123</t>
+          <t>192.168.1.10</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -7059,36 +7088,36 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Pasaporte</t>
+          <t>Código Postal</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>PASAPORTE</t>
+          <t>CODIGO_POSTAL</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>XK987654</t>
+          <t>28027</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>PASAPORTE</t>
+          <t>CODIGO_POSTAL</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>PASAPORTE</t>
+          <t>CODIGO_POSTAL</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>XK987654</t>
+          <t>28027</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -7109,36 +7138,36 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Código Postal</t>
+          <t>ID Dispositivo</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>CODIGO_POSTAL</t>
+          <t>DEVICE_ID</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>28027</t>
+          <t>DEV-XYZ-99</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>CODIGO_POSTAL</t>
+          <t>DEVICE_ID</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>CODIGO_POSTAL</t>
+          <t>DEVICE_ID</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>28027</t>
+          <t>DEV-XYZ-99</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -7159,36 +7188,36 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Edad</t>
+          <t>Teléfono</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>EDAD</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>912 556 789</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>EDAD</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>EDAD</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>912 556 789</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -7213,32 +7242,32 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Fecha</t>
+          <t>Hospitl</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>05/05/2025</t>
+          <t>Centro Médico Norte</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>05/05/2025</t>
+          <t>Centro Médico Norte</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -7259,36 +7288,36 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Teléfono</t>
+          <t>Dirección</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>+34 600 123 123</t>
+          <t>C/ Mayor 15, 3B</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>+34 600 123 123</t>
+          <t>C/ Mayor 15, 3B</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -7309,36 +7338,36 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>fECHA</t>
+          <t>Edad</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>EDAD</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>03/03/2026</t>
+          <t>52</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>EDAD</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>EDAD</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>03/03/2026</t>
+          <t>52</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -7363,32 +7392,32 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Nombre Profesional</t>
+          <t>Emali</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>NOMBRE_PROFESIONAL</t>
+          <t>EMAIL</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Dr. Luis Herrera</t>
+          <t>l.herrera@hospital.com</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>NOMBRE_PROFESIONAL</t>
+          <t>EMAIL</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>NOMBRE_PROFESIONAL</t>
+          <t>EMAIL</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Dr. Luis Herrera</t>
+          <t>l.herrera@hospital.com</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -7409,36 +7438,36 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Ciudad</t>
+          <t>Hospital</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>CIUDAD</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Madrid</t>
+          <t>Hospital Virgen del Mar</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>CIUDAD</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>CIUDAD</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Madrid</t>
+          <t>Hospital Virgen del Mar</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -7459,36 +7488,36 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Nombre de Paciente</t>
+          <t>Nombre Profesional</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>NOMBRE_PROFESIONAL</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Roberto Sánchez</t>
+          <t>Dr. Luis Herrera</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>NOMBRE_PROFESIONAL</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>NOMBRE_PROFESIONAL</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Roberto Sánchez</t>
+          <t>Dr. Luis Herrera</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -7513,32 +7542,32 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Edad</t>
+          <t>Ciudad</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>EDAD</t>
+          <t>CIUDAD</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>Madrid</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>EDAD</t>
+          <t>CIUDAD</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>EDAD</t>
+          <t>CIUDAD</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>Madrid</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -7559,36 +7588,36 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Teléfono</t>
+          <t>Email</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>EMAIL</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>+34 722 334 112</t>
+          <t>juan.perez@gmail.com</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>EMAIL</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>EMAIL</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>+34 722 334 112</t>
+          <t>juan.perez@gmail.com</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -7609,36 +7638,36 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Nº Historia Clínica</t>
+          <t>Teléfono</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>NHC</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>HC-0099123</t>
+          <t>+34 722 334 112</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>NHC</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>NHC</t>
+          <t>TELEFONO</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>HC-0099123</t>
+          <t>+34 722 334 112</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -7659,36 +7688,36 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Hospital</t>
+          <t>Dirección</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Clínica Santa María</t>
+          <t>C/ Alcalá 220</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>DIRECCION</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Clínica Santa María</t>
+          <t>C/ Alcalá 220</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -7709,36 +7738,36 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Hospital</t>
+          <t>NªSeguro Médico</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>INSURANCE_ID</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Hospital Virgen del Mar</t>
+          <t>INS-145-88</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>INSURANCE_ID</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>INSURANCE_ID</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Hospital Virgen del Mar</t>
+          <t>INS-145-88</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -7759,36 +7788,36 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Nombre Paciente</t>
+          <t>Edad</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>EDAD</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Marta Ruiz</t>
+          <t>45</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>EDAD</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>EDAD</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Marta Ruiz</t>
+          <t>45</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -7809,36 +7838,36 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Fecha Nacimiento</t>
+          <t>Nombre Paciente</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>FECHA_NACIMIENTO</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>08/06/1990</t>
+          <t>Ana Martínez</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>FECHA_NACIMIENTO</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>FECHA_NACIMIENTO</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>08/06/1990</t>
+          <t>Ana Martínez</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -7859,36 +7888,36 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Teléfono</t>
+          <t>Nombre Paciente</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>912 556 789</t>
+          <t>Juan Pérez</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>TELEFONO</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>912 556 789</t>
+          <t>Juan Pérez</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -7909,36 +7938,36 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Email</t>
+          <t>fECHA</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>juan.perez@gmail.com</t>
+          <t>03/03/2026</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>juan.perez@gmail.com</t>
+          <t>03/03/2026</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -7959,36 +7988,36 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Nombre Paciente</t>
+          <t>Email</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>EMAIL</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>María López</t>
+          <t>roberto.san@outlook.es</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>EMAIL</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>EMAIL</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>María López</t>
+          <t>roberto.san@outlook.es</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -8009,36 +8038,36 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Hospital</t>
+          <t>ID Dispositivo</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>DEVICE_ID</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Hospital La Paz</t>
+          <t>DEV-ABC-123</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>DEVICE_ID</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>DEVICE_ID</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Hospital La Paz</t>
+          <t>DEV-ABC-123</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -8059,36 +8088,36 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Nombre Paciente</t>
+          <t>Ciudad</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>CIUDAD</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Ana Martínez</t>
+          <t>Madrid</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>CIUDAD</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>NOMBRE_PACIENTE</t>
+          <t>CIUDAD</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Ana Martínez</t>
+          <t>Madrid</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -8109,36 +8138,36 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Ciudad</t>
+          <t>Fecha</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>CIUDAD</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Madrid</t>
+          <t>05/05/2025</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>CIUDAD</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>CIUDAD</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Madrid</t>
+          <t>05/05/2025</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -8159,36 +8188,36 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Fecha Ingreso</t>
+          <t>DNI/NIF</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>FECHA_INGRESO</t>
+          <t>DNI_NIF</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>22/11/2025</t>
+          <t>12345678A</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>FECHA_INGRESO</t>
+          <t>DNI_NIF</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>FECHA_INGRESO</t>
+          <t>DNI_NIF</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>22/11/2025</t>
+          <t>12345678A</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -8209,36 +8238,36 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Código Postal</t>
+          <t>Nombre Paciente</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>CODIGO_POSTAL</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>28013</t>
+          <t>Marta Ruiz</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>CODIGO_POSTAL</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>CODIGO_POSTAL</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>28013</t>
+          <t>Marta Ruiz</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -8259,36 +8288,36 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>DNI/NIF</t>
+          <t>Pasaporte</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>DNI_NIF</t>
+          <t>PASAPORTE</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>12345678A</t>
+          <t>XK987654</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>DNI_NIF</t>
+          <t>PASAPORTE</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>DNI_NIF</t>
+          <t>PASAPORTE</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>12345678A</t>
+          <t>XK987654</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -8309,36 +8338,36 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>NªSeguro Médico</t>
+          <t>Nombre de Paciente</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>INSURANCE_ID</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>INS-145-88</t>
+          <t>Roberto Sánchez</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>INSURANCE_ID</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>INSURANCE_ID</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>INS-145-88</t>
+          <t>Roberto Sánchez</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -8359,36 +8388,36 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Fecha de alta</t>
+          <t>Nombre Paciente</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>FECHA_ALTA</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>10/12/2025</t>
+          <t>María López</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>FECHA_ALTA</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>FECHA_ALTA</t>
+          <t>NOMBRE_PACIENTE</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>10/12/2025</t>
+          <t>María López</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -8409,36 +8438,36 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Dirección</t>
+          <t>Hospital</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>C/ Mayor 15, 3B</t>
+          <t>Clínica Santa María</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>DIRECCION</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>C/ Mayor 15, 3B</t>
+          <t>Clínica Santa María</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -8459,36 +8488,36 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>Código Postal</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>CODIGO_POSTAL</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>10.0.0.55</t>
+          <t>28013</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>CODIGO_POSTAL</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>CODIGO_POSTAL</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>10.0.0.55</t>
+          <t>28013</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -8509,46 +8538,38 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Email</t>
+          <t>NªHistoría clínica</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>HOSPITAL</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>roberto.san@outlook.es</t>
+          <t>MRN-556677</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>EMAIL</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>EMAIL</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>roberto.san@outlook.es</t>
-        </is>
-      </c>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr">
         <is>
-          <t>✓</t>
+          <t>✗</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>FN</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -8559,46 +8580,38 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>ID Dispositivo</t>
+          <t>Fecha de ingreso</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>DEVICE_ID</t>
+          <t>FECHA_INGRESO</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>DEV-XYZ-99</t>
+          <t>03/12/2025</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>DEVICE_ID</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>DEVICE_ID</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>DEV-XYZ-99</t>
-        </is>
-      </c>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr">
         <is>
-          <t>✓</t>
+          <t>✗</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>FN</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -8609,21 +8622,21 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>NªHistoría clínica</t>
+          <t>Fecha Ingreso</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>HOSPITAL</t>
+          <t>FECHA_INGRESO</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>MRN-556677</t>
+          <t>22/11/2025</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -8693,7 +8706,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -8704,17 +8717,17 @@
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr">
         <is>
-          <t>NHC</t>
+          <t>SERVICIO_UNIDAD</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>NHC</t>
+          <t>SERVICIO_UNIDAD</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>MRN-556677</t>
+          <t>urgencias</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -8777,7 +8790,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -8788,30 +8801,156 @@
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr">
         <is>
+          <t>NHC</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>NHC</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>MRN-556677</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>✗</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>FP</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>strict</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>1</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>FECHA</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>FECHA</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>03/12/2025</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>✗</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>FP</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>strict</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>8</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>FECHA</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>FECHA</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>22/11/2025</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>✗</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>FP</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>strict</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>16</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr">
+        <is>
           <t>HOSPITAL</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>HOSPITAL</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>hospital</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>✗</t>
         </is>
       </c>
-      <c r="I45" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>FP</t>
         </is>
       </c>
-      <c r="J45" t="inlineStr">
+      <c r="J48" t="inlineStr">
         <is>
           <t>strict</t>
         </is>
@@ -8828,7 +8967,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N45"/>
+  <dimension ref="A1:N48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9059,33 +9198,21 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>FECHA_INGRESO</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>FECHA_INGRESO</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>03/12/2025</t>
-        </is>
-      </c>
-      <c r="J4" t="n">
-        <v>52</v>
-      </c>
-      <c r="K4" t="n">
-        <v>62</v>
-      </c>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr">
         <is>
-          <t>✓</t>
+          <t>✗</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>FN</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -10411,33 +10538,21 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>FECHA_INGRESO</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>FECHA_INGRESO</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>22/11/2025</t>
-        </is>
-      </c>
-      <c r="J26" t="n">
-        <v>66</v>
-      </c>
-      <c r="K26" t="n">
-        <v>76</v>
-      </c>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr">
         <is>
-          <t>✓</t>
+          <t>✗</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>FN</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
@@ -11428,7 +11543,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -11451,14 +11566,14 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>15/01/2026</t>
+          <t>03/12/2025</t>
         </is>
       </c>
       <c r="J43" t="n">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K43" t="n">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="L43" t="inlineStr">
         <is>
@@ -11478,7 +11593,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -11491,24 +11606,24 @@
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr">
         <is>
-          <t>NHC</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>NHC</t>
+          <t>FECHA</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>MRN-556677</t>
+          <t>15/01/2026</t>
         </is>
       </c>
       <c r="J44" t="n">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="K44" t="n">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="L44" t="inlineStr">
         <is>
@@ -11528,7 +11643,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -11541,36 +11656,186 @@
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr">
         <is>
+          <t>FECHA</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>FECHA</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>22/11/2025</t>
+        </is>
+      </c>
+      <c r="J45" t="n">
+        <v>66</v>
+      </c>
+      <c r="K45" t="n">
+        <v>76</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>✗</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>FP</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>lenient</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>12</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>NHC</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>NHC</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>MRN-556677</t>
+        </is>
+      </c>
+      <c r="J46" t="n">
+        <v>73</v>
+      </c>
+      <c r="K46" t="n">
+        <v>83</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>✗</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>FP</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>lenient</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>15</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>SERVICIO_UNIDAD</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>SERVICIO_UNIDAD</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>urgencias</t>
+        </is>
+      </c>
+      <c r="J47" t="n">
+        <v>55</v>
+      </c>
+      <c r="K47" t="n">
+        <v>64</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>✗</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>FP</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>lenient</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>16</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr">
+        <is>
           <t>HOSPITAL</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>HOSPITAL</t>
         </is>
       </c>
-      <c r="I45" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>hospital</t>
         </is>
       </c>
-      <c r="J45" t="n">
+      <c r="J48" t="n">
         <v>3</v>
       </c>
-      <c r="K45" t="n">
+      <c r="K48" t="n">
         <v>11</v>
       </c>
-      <c r="L45" t="inlineStr">
+      <c r="L48" t="inlineStr">
         <is>
           <t>✗</t>
         </is>
       </c>
-      <c r="M45" t="inlineStr">
+      <c r="M48" t="inlineStr">
         <is>
           <t>FP</t>
         </is>
       </c>
-      <c r="N45" t="inlineStr">
+      <c r="N48" t="inlineStr">
         <is>
           <t>lenient</t>
         </is>
@@ -11623,7 +11888,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>&lt;PATIENT_NAME&gt; ingresó en el &lt;HOSPITAL_NAME&gt; el &lt;DATE_ADMISSION&gt; con dolor torácico.</t>
+          <t>&lt;PATIENT_NAME&gt; ingresó en el &lt;HOSPITAL_NAME&gt; el &lt;DATE&gt; con dolor torácico.</t>
         </is>
       </c>
     </row>
@@ -11730,7 +11995,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>&lt;PATIENT_NAME&gt;, de Age_XX años, ingresó en la &lt;HOSPITAL_NAME&gt; el &lt;DATE_ADMISSION&gt;.</t>
+          <t>&lt;PATIENT_NAME&gt;, de Age_XX años, ingresó en la &lt;HOSPITAL_NAME&gt; el &lt;DATE&gt;.</t>
         </is>
       </c>
     </row>
@@ -11835,7 +12100,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>La paciente &lt;PATIENT_NAME&gt;, nacida el &lt;DATE_BIRTH&gt;, acudió a urgencias con dolor abdominal.</t>
+          <t>La paciente &lt;PATIENT_NAME&gt;, nacida el &lt;DATE_BIRTH&gt;, acudió a &lt;SERVICE_UNIT&gt; con dolor abdominal.</t>
         </is>
       </c>
     </row>
